--- a/AAPL Model.xlsx
+++ b/AAPL Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Desktop/WhiteSky/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A1A4F4-A3B9-C942-A251-42BDB8ADE2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A272AFA1-9C66-9444-B480-1DF984843DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2140" windowWidth="23940" windowHeight="14920" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="6300" yWindow="2140" windowWidth="23940" windowHeight="14920" activeTab="3" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,44 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={C30768C0-880B-4B40-A104-685F835131C2}</author>
-    <author>tc={7E0EAC92-01A4-4259-A810-ACD05E803073}</author>
-    <author>tc={27342C5B-88CE-4063-B8D4-B55BA2454541}</author>
-  </authors>
-  <commentList>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{C30768C0-880B-4B40-A104-685F835131C2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Releases iPhone 12</t>
-      </text>
-    </comment>
-    <comment ref="R4" authorId="1" shapeId="0" xr:uid="{7E0EAC92-01A4-4259-A810-ACD05E803073}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    iPhone 13 launch</t>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="2" shapeId="0" xr:uid="{27342C5B-88CE-4063-B8D4-B55BA2454541}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    From Statista</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>Price</t>
   </si>
@@ -139,24 +103,12 @@
     <t>FQ422</t>
   </si>
   <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
     <t>Gross Profit</t>
   </si>
   <si>
     <t>COGS</t>
   </si>
   <si>
-    <t>COS</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
     <t>R&amp;D</t>
   </si>
   <si>
@@ -370,10 +322,31 @@
     <t>Upside</t>
   </si>
   <si>
-    <t>9/2022 - Releases iPhone 14, Pro, Max</t>
-  </si>
-  <si>
     <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Cost of Product Revenues</t>
+  </si>
+  <si>
+    <t>Total Product Revenues</t>
+  </si>
+  <si>
+    <t>Cost of Services Revenues</t>
+  </si>
+  <si>
+    <t>Total Services Revenues</t>
+  </si>
+  <si>
+    <t>9/2023 - Releases iPhone 15, Pro, Max</t>
+  </si>
+  <si>
+    <t>9/2024 - Releases iPhone 14, Pro, Max</t>
+  </si>
+  <si>
+    <t>Macbook</t>
+  </si>
+  <si>
+    <t>M3 Macbook Pro</t>
   </si>
 </sst>
 </file>
@@ -384,7 +357,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -404,41 +377,43 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Helvetica Light"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Light"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Helvetica Light"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Helvetica Light"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -456,31 +431,31 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -605,9 +580,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Martin Shkreli" id="{4B463983-1ED9-4483-807D-A99FFA75D83D}" userId="9ffda80931a57275" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -905,137 +878,123 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="O4" dT="2022-08-26T02:45:15.22" personId="{4B463983-1ED9-4483-807D-A99FFA75D83D}" id="{C30768C0-880B-4B40-A104-685F835131C2}">
-    <text>Releases iPhone 12</text>
-  </threadedComment>
-  <threadedComment ref="R4" dT="2022-08-26T02:45:35.85" personId="{4B463983-1ED9-4483-807D-A99FFA75D83D}" id="{7E0EAC92-01A4-4259-A810-ACD05E803073}">
-    <text>iPhone 13 launch</text>
-  </threadedComment>
-  <threadedComment ref="G5" dT="2022-08-26T03:07:04.99" personId="{4B463983-1ED9-4483-807D-A99FFA75D83D}" id="{27342C5B-88CE-4063-B8D4-B55BA2454541}">
-    <text>From Statista</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDB42F4-D3F6-42E5-97CD-AE20E0C5C6C6}">
   <dimension ref="N2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="8.83203125" style="3"/>
-    <col min="8" max="8" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="8.83203125" style="3"/>
-    <col min="15" max="15" width="9.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="8.83203125" style="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:16">
-      <c r="N2" s="3" t="s">
+    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="1">
         <v>170.03</v>
       </c>
     </row>
-    <row r="3" spans="14:16">
-      <c r="N3" s="3" t="s">
+    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="2">
         <v>16070.752</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="14:16">
-      <c r="N4" s="3" t="s">
+    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="2">
         <f>+O2*O3</f>
         <v>2732509.9625599999</v>
       </c>
     </row>
-    <row r="5" spans="14:16">
-      <c r="N5" s="3" t="s">
+    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="2">
         <f>27502+20729+131077</f>
         <v>179308</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="14:16">
-      <c r="N6" s="3" t="s">
+    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="2">
         <f>14009+94700+10982</f>
         <v>119691</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="14:16">
-      <c r="N7" s="3" t="s">
+    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="2">
         <f>+O4-O5+O6</f>
         <v>2672892.9625599999</v>
       </c>
     </row>
-    <row r="10" spans="14:16">
-      <c r="N10" s="3" t="s">
+    <row r="10" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="4">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="17">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="11" spans="14:16">
-      <c r="N11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="17">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="14:16">
-      <c r="N12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O12" s="8">
+      <c r="O12" s="2">
         <f>NPV(O10,Model!AK26:FJ26)+Main!O5-Main!O6</f>
         <v>1729778.5394945515</v>
       </c>
     </row>
-    <row r="13" spans="14:16">
-      <c r="N13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O13" s="15">
+    <row r="13" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="5">
         <f>O12/Main!O3</f>
         <v>107.6351958822183</v>
       </c>
     </row>
-    <row r="14" spans="14:16">
-      <c r="N14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O14" s="14">
+    <row r="14" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" s="6">
         <f>O13/Main!O2-1</f>
         <v>-0.36696350125143629</v>
       </c>
@@ -1047,4464 +1006,4464 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EB6088-6F7F-4776-A4C2-8340505BB8E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EB6088-6F7F-4776-A4C2-8340505BB8E8}">
   <dimension ref="A1:BB37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY5" sqref="AY5"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
-    <col min="3" max="14" width="8.83203125" style="3"/>
-    <col min="15" max="15" width="9.1640625" style="3" customWidth="1"/>
-    <col min="16" max="18" width="8.83203125" style="3"/>
-    <col min="19" max="19" width="9.1640625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" style="3"/>
-    <col min="21" max="21" width="9.1640625" style="3" customWidth="1"/>
-    <col min="22" max="36" width="8.83203125" style="3"/>
-    <col min="37" max="37" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="53" width="8.83203125" style="3"/>
-    <col min="54" max="54" width="9.5" style="3" customWidth="1"/>
-    <col min="55" max="56" width="8.83203125" style="3"/>
-    <col min="57" max="57" width="10.83203125" style="3" customWidth="1"/>
-    <col min="58" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="14" width="8.83203125" style="1"/>
+    <col min="15" max="15" width="9.1640625" style="1" customWidth="1"/>
+    <col min="16" max="18" width="8.83203125" style="1"/>
+    <col min="19" max="19" width="9.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" style="1"/>
+    <col min="21" max="21" width="9.1640625" style="1" customWidth="1"/>
+    <col min="22" max="36" width="8.83203125" style="1"/>
+    <col min="37" max="37" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="53" width="8.83203125" style="1"/>
+    <col min="54" max="54" width="9.5" style="1" customWidth="1"/>
+    <col min="55" max="56" width="8.83203125" style="1"/>
+    <col min="57" max="57" width="10.83203125" style="1" customWidth="1"/>
+    <col min="58" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="5" customFormat="1">
-      <c r="A2" s="4"/>
-      <c r="C2" s="5">
+    <row r="2" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="C2" s="9">
         <v>43099</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="9">
         <v>43190</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="9">
         <v>43281</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="9">
         <f>+G2-91</f>
         <v>43373</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="9">
         <f>+H2-91</f>
         <v>43464</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="9">
         <f>+I2-91</f>
         <v>43555</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="9">
         <f>+J2-91</f>
         <v>43646</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="9">
         <f>+K2-90</f>
         <v>43737</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="9">
         <v>43827</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="9">
         <v>43918</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="9">
         <v>44009</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="9">
         <v>44100</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="9">
         <v>44191</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="9">
         <v>44282</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="9">
         <v>44373</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="9">
         <v>44464</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="9">
         <v>44555</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="9">
         <v>44646</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="9">
         <v>44737</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="9">
         <f>+R2+365</f>
         <v>44829</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="6" customFormat="1">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="AC3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="6" t="s">
+      <c r="AD3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="AI3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AK3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AL3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AM3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AN3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AO3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AP3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AR3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AS3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AT3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AU3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AV3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AW3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="AX3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AY3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="BA3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AX3" s="6" t="s">
+      <c r="BB3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AY3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB3" s="6" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="4" spans="1:54" s="7" customFormat="1">
-      <c r="B4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="7">
+    <row r="4" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10">
         <v>61576</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>38032</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>29906</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <f>166699-E4-D4-C4</f>
         <v>37185</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>55957</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="10">
         <v>28962</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="10">
         <v>26418</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="10">
         <v>26444</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="10">
         <v>65597</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="10">
         <v>47938</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="10">
         <v>39570</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="10">
         <v>38868</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="10">
         <v>71628</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="10">
         <v>50570</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="10">
         <v>40665</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="10">
         <f>+V5*V6/1000</f>
         <v>38770.83</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="10">
         <v>136700</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AE4" s="10">
         <v>141319</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AF4" s="10">
         <v>164888</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG4" s="10">
         <v>142381</v>
       </c>
-      <c r="AH4" s="7">
+      <c r="AH4" s="10">
         <f>SUM(K4:N4)</f>
         <v>137781</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AI4" s="10">
         <f>SUM(O4:R4)</f>
         <v>191973</v>
       </c>
-      <c r="AJ4" s="7">
+      <c r="AJ4" s="10">
         <f>SUM(S4:V4)</f>
         <v>201633.83000000002</v>
       </c>
-      <c r="AK4" s="7">
+      <c r="AK4" s="10">
         <f>+AK5*AK6/1000</f>
         <v>213832.67671500004</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AL4" s="10">
         <f t="shared" ref="AL4:BB4" si="0">+AL5*AL6/1000</f>
         <v>226769.55365625754</v>
       </c>
-      <c r="AM4" s="7">
+      <c r="AM4" s="10">
         <f t="shared" si="0"/>
         <v>240489.11165246114</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AN4" s="10">
         <f t="shared" si="0"/>
         <v>252609.76287974522</v>
       </c>
-      <c r="AO4" s="7">
+      <c r="AO4" s="10">
         <f t="shared" si="0"/>
         <v>265341.29492888437</v>
       </c>
-      <c r="AP4" s="7">
+      <c r="AP4" s="10">
         <f t="shared" si="0"/>
         <v>278714.49619330018</v>
       </c>
-      <c r="AQ4" s="7">
+      <c r="AQ4" s="10">
         <f t="shared" si="0"/>
         <v>292761.70680144255</v>
       </c>
-      <c r="AR4" s="7">
+      <c r="AR4" s="10">
         <f t="shared" si="0"/>
         <v>304560.00358554069</v>
       </c>
-      <c r="AS4" s="7">
+      <c r="AS4" s="10">
         <f t="shared" si="0"/>
         <v>316833.77173003805</v>
       </c>
-      <c r="AT4" s="7">
+      <c r="AT4" s="10">
         <f t="shared" si="0"/>
         <v>329602.17273075861</v>
       </c>
-      <c r="AU4" s="7">
+      <c r="AU4" s="10">
         <f t="shared" si="0"/>
         <v>342885.14029180817</v>
       </c>
-      <c r="AV4" s="7">
+      <c r="AV4" s="10">
         <f t="shared" si="0"/>
         <v>353240.27152862085</v>
       </c>
-      <c r="AW4" s="7">
+      <c r="AW4" s="10">
         <f t="shared" si="0"/>
         <v>363908.12772878521</v>
       </c>
-      <c r="AX4" s="7">
+      <c r="AX4" s="10">
         <f t="shared" si="0"/>
         <v>374898.15318619454</v>
       </c>
-      <c r="AY4" s="7">
+      <c r="AY4" s="10">
         <f t="shared" si="0"/>
         <v>386220.07741241757</v>
       </c>
-      <c r="AZ4" s="7">
+      <c r="AZ4" s="10">
         <f t="shared" si="0"/>
         <v>397883.92375027254</v>
       </c>
-      <c r="BA4" s="7">
+      <c r="BA4" s="10">
         <f t="shared" si="0"/>
         <v>409900.0182475308</v>
       </c>
-      <c r="BB4" s="7">
+      <c r="BB4" s="10">
         <f t="shared" si="0"/>
         <v>422278.99879860628</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="7" customFormat="1">
-      <c r="B5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="7">
+    <row r="5" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="10">
         <v>77316</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>52217</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="10">
         <v>41300</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="10">
         <f>217722-E5-D5-C5</f>
         <v>46889</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="10">
         <v>68400</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <v>36400</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="10">
         <v>33800</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="10">
         <v>46600</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>73800</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="10">
         <v>36700</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="10">
         <v>37600</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="10">
         <v>41700</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="10">
         <v>90100</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="10">
         <v>55200</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="10">
         <v>44200</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="10">
         <v>50400</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="10">
         <v>84100</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="10">
         <v>56500</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="10">
         <f>+U4/U6*1000</f>
         <v>43260.117693779554</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="10">
         <f>+R5*0.95</f>
         <v>47880</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AF5" s="10">
         <f>SUM(C5:F5)</f>
         <v>217722</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AG5" s="10">
         <f>SUM(G5:J5)</f>
         <v>185200</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AH5" s="10">
         <f>SUM(K5:N5)</f>
         <v>189800</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AI5" s="10">
         <f>SUM(O5:R5)</f>
         <v>239900</v>
       </c>
-      <c r="AJ5" s="7">
+      <c r="AJ5" s="10">
         <f>SUM(S5:V5)</f>
         <v>231740.11769377955</v>
       </c>
-      <c r="AK5" s="7">
+      <c r="AK5" s="10">
         <f>+AJ5*1.01</f>
         <v>234057.51887071735</v>
       </c>
-      <c r="AL5" s="7">
+      <c r="AL5" s="10">
         <f t="shared" ref="AL5:BB5" si="1">+AK5*1.01</f>
         <v>236398.09405942453</v>
       </c>
-      <c r="AM5" s="7">
+      <c r="AM5" s="10">
         <f t="shared" si="1"/>
         <v>238762.07500001878</v>
       </c>
-      <c r="AN5" s="7">
+      <c r="AN5" s="10">
         <f t="shared" si="1"/>
         <v>241149.69575001896</v>
       </c>
-      <c r="AO5" s="7">
+      <c r="AO5" s="10">
         <f t="shared" si="1"/>
         <v>243561.19270751916</v>
       </c>
-      <c r="AP5" s="7">
+      <c r="AP5" s="10">
         <f t="shared" si="1"/>
         <v>245996.80463459436</v>
       </c>
-      <c r="AQ5" s="7">
+      <c r="AQ5" s="10">
         <f t="shared" si="1"/>
         <v>248456.77268094031</v>
       </c>
-      <c r="AR5" s="7">
+      <c r="AR5" s="10">
         <f t="shared" si="1"/>
         <v>250941.34040774973</v>
       </c>
-      <c r="AS5" s="7">
+      <c r="AS5" s="10">
         <f t="shared" si="1"/>
         <v>253450.75381182722</v>
       </c>
-      <c r="AT5" s="7">
+      <c r="AT5" s="10">
         <f t="shared" si="1"/>
         <v>255985.2613499455</v>
       </c>
-      <c r="AU5" s="7">
+      <c r="AU5" s="10">
         <f t="shared" si="1"/>
         <v>258545.11396344495</v>
       </c>
-      <c r="AV5" s="7">
+      <c r="AV5" s="10">
         <f t="shared" si="1"/>
         <v>261130.5651030794</v>
       </c>
-      <c r="AW5" s="7">
+      <c r="AW5" s="10">
         <f t="shared" si="1"/>
         <v>263741.87075411022</v>
       </c>
-      <c r="AX5" s="7">
+      <c r="AX5" s="10">
         <f t="shared" si="1"/>
         <v>266379.28946165135</v>
       </c>
-      <c r="AY5" s="7">
+      <c r="AY5" s="10">
         <f t="shared" si="1"/>
         <v>269043.08235626784</v>
       </c>
-      <c r="AZ5" s="7">
+      <c r="AZ5" s="10">
         <f t="shared" si="1"/>
         <v>271733.51317983051</v>
       </c>
-      <c r="BA5" s="7">
+      <c r="BA5" s="10">
         <f t="shared" si="1"/>
         <v>274450.8483116288</v>
       </c>
-      <c r="BB5" s="7">
+      <c r="BB5" s="10">
         <f t="shared" si="1"/>
         <v>277195.35679474508</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="7" customFormat="1">
-      <c r="B6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="7">
+    <row r="6" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="10">
         <f>+C4*1000/C5</f>
         <v>796.41988721610016</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <f>+D4*1000/D5</f>
         <v>728.34517494302622</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="10">
         <f>+E4*1000/E5</f>
         <v>724.11622276029061</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <f>+F4*1000/F5</f>
         <v>793.04314444752504</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="10">
         <f t="shared" ref="K6:T6" si="2">+K4*1000/K5</f>
         <v>758.22493224932248</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="10">
         <f t="shared" si="2"/>
         <v>789.15531335149865</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="10">
         <f t="shared" si="2"/>
         <v>702.60638297872345</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="10">
         <f t="shared" si="2"/>
         <v>634.14868105515586</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="10">
         <f t="shared" si="2"/>
         <v>728.04661487236399</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="10">
         <f t="shared" si="2"/>
         <v>868.44202898550725</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="10">
         <f t="shared" si="2"/>
         <v>895.24886877828055</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="10">
         <f t="shared" si="2"/>
         <v>771.19047619047615</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="10">
         <f t="shared" si="2"/>
         <v>851.70035671819267</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="10">
         <f t="shared" si="2"/>
         <v>895.04424778761063</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="11">
         <f>+Q6*1.05</f>
         <v>940.01131221719459</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="11">
         <f>+R6*1.05</f>
         <v>809.75</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AF6" s="10">
         <f>+AF4*1000/AF5</f>
         <v>757.33274542765548</v>
       </c>
-      <c r="AG6" s="7">
+      <c r="AG6" s="10">
         <f>+AG4*1000/AG5</f>
         <v>768.79589632829379</v>
       </c>
-      <c r="AH6" s="7">
+      <c r="AH6" s="10">
         <f>+AH4*1000/AH5</f>
         <v>725.92729188619603</v>
       </c>
-      <c r="AI6" s="7">
+      <c r="AI6" s="10">
         <f>+AI4*1000/AI5</f>
         <v>800.22092538557729</v>
       </c>
-      <c r="AJ6" s="7">
+      <c r="AJ6" s="10">
         <f>+AJ4*1000/AJ5</f>
         <v>870.085991181027</v>
       </c>
-      <c r="AK6" s="7">
+      <c r="AK6" s="10">
         <f>+AJ6*1.05</f>
         <v>913.59029074007833</v>
       </c>
-      <c r="AL6" s="7">
+      <c r="AL6" s="10">
         <f t="shared" ref="AL6:AM6" si="3">+AK6*1.05</f>
         <v>959.26980527708224</v>
       </c>
-      <c r="AM6" s="7">
+      <c r="AM6" s="10">
         <f t="shared" si="3"/>
         <v>1007.2332955409364</v>
       </c>
-      <c r="AN6" s="7">
+      <c r="AN6" s="10">
         <f>+AM6*1.04</f>
         <v>1047.522627362574</v>
       </c>
-      <c r="AO6" s="7">
+      <c r="AO6" s="10">
         <f>+AN6*1.04</f>
         <v>1089.423532457077</v>
       </c>
-      <c r="AP6" s="7">
+      <c r="AP6" s="10">
         <f>+AO6*1.04</f>
         <v>1133.0004737553602</v>
       </c>
-      <c r="AQ6" s="7">
+      <c r="AQ6" s="10">
         <f>+AP6*1.04</f>
         <v>1178.3204927055747</v>
       </c>
-      <c r="AR6" s="7">
+      <c r="AR6" s="10">
         <f>+AQ6*1.03</f>
         <v>1213.6701074867419</v>
       </c>
-      <c r="AS6" s="7">
+      <c r="AS6" s="10">
         <f>+AR6*1.03</f>
         <v>1250.0802107113443</v>
       </c>
-      <c r="AT6" s="7">
+      <c r="AT6" s="10">
         <f t="shared" ref="AT6:AU6" si="4">+AS6*1.03</f>
         <v>1287.5826170326848</v>
       </c>
-      <c r="AU6" s="7">
+      <c r="AU6" s="10">
         <f t="shared" si="4"/>
         <v>1326.2100955436654</v>
       </c>
-      <c r="AV6" s="7">
+      <c r="AV6" s="10">
         <f>+AU6*1.02</f>
         <v>1352.7342974545388</v>
       </c>
-      <c r="AW6" s="7">
+      <c r="AW6" s="10">
         <f t="shared" ref="AW6:BB6" si="5">+AV6*1.02</f>
         <v>1379.7889834036296</v>
       </c>
-      <c r="AX6" s="7">
+      <c r="AX6" s="10">
         <f t="shared" si="5"/>
         <v>1407.3847630717021</v>
       </c>
-      <c r="AY6" s="7">
+      <c r="AY6" s="10">
         <f t="shared" si="5"/>
         <v>1435.5324583331362</v>
       </c>
-      <c r="AZ6" s="7">
+      <c r="AZ6" s="10">
         <f t="shared" si="5"/>
         <v>1464.243107499799</v>
       </c>
-      <c r="BA6" s="7">
+      <c r="BA6" s="10">
         <f t="shared" si="5"/>
         <v>1493.5279696497951</v>
       </c>
-      <c r="BB6" s="7">
+      <c r="BB6" s="10">
         <f t="shared" si="5"/>
         <v>1523.3985290427911</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="7" customFormat="1">
-      <c r="B7" s="8"/>
+    <row r="7" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:54" s="7" customFormat="1">
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="7">
+    <row r="8" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10">
         <v>6895</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="10">
         <v>5848</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="10">
         <v>5330</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="10">
         <f>25484-E8-D8-C8</f>
         <v>7411</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="10">
         <v>7160</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="10">
         <v>5351</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="10">
         <v>7079</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="10">
         <v>9032</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="10">
         <v>8675</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="10">
         <v>9102</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="10">
         <v>8235</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="10">
         <v>9178</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="10">
         <v>10852</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="10">
         <v>10435</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="10">
         <v>7382</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="10">
         <f>+R8*0.95</f>
         <v>8719.1</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="10">
         <v>22831</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AE8" s="10">
         <v>25850</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AF8" s="10">
         <v>25198</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AG8" s="10">
         <v>25740</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="AH8" s="10">
         <f t="shared" ref="AH8:AH9" si="6">SUM(K8:N8)</f>
         <v>28622</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AI8" s="10">
         <f t="shared" ref="AI8:AI9" si="7">SUM(O8:R8)</f>
         <v>35190</v>
       </c>
-      <c r="AJ8" s="7">
+      <c r="AJ8" s="10">
         <f t="shared" ref="AJ8:AJ9" si="8">SUM(S8:V8)</f>
         <v>37388.1</v>
       </c>
-      <c r="AK8" s="7">
+      <c r="AK8" s="10">
         <f>+AJ8*1.07</f>
         <v>40005.267</v>
       </c>
-      <c r="AL8" s="7">
+      <c r="AL8" s="10">
         <f t="shared" ref="AL8:AQ8" si="9">+AK8*1.07</f>
         <v>42805.635690000003</v>
       </c>
-      <c r="AM8" s="7">
+      <c r="AM8" s="10">
         <f t="shared" si="9"/>
         <v>45802.030188300007</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AN8" s="10">
         <f t="shared" si="9"/>
         <v>49008.172301481012</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AO8" s="10">
         <f t="shared" si="9"/>
         <v>52438.744362584686</v>
       </c>
-      <c r="AP8" s="7">
+      <c r="AP8" s="10">
         <f t="shared" si="9"/>
         <v>56109.456467965618</v>
       </c>
-      <c r="AQ8" s="7">
+      <c r="AQ8" s="10">
         <f t="shared" si="9"/>
         <v>60037.118420723215</v>
       </c>
-      <c r="AR8" s="7">
+      <c r="AR8" s="10">
         <f>+AQ8*1.06</f>
         <v>63639.345525966608</v>
       </c>
-      <c r="AS8" s="7">
+      <c r="AS8" s="10">
         <f t="shared" ref="AS8:AV8" si="10">+AR8*1.06</f>
         <v>67457.706257524609</v>
       </c>
-      <c r="AT8" s="7">
+      <c r="AT8" s="10">
         <f t="shared" si="10"/>
         <v>71505.168632976085</v>
       </c>
-      <c r="AU8" s="7">
+      <c r="AU8" s="10">
         <f t="shared" si="10"/>
         <v>75795.478750954659</v>
       </c>
-      <c r="AV8" s="7">
+      <c r="AV8" s="10">
         <f t="shared" si="10"/>
         <v>80343.207476011943</v>
       </c>
-      <c r="AW8" s="7">
+      <c r="AW8" s="10">
         <f>+AV8*1.05</f>
         <v>84360.367849812537</v>
       </c>
-      <c r="AX8" s="7">
+      <c r="AX8" s="10">
         <f t="shared" ref="AX8:BB8" si="11">+AW8*1.05</f>
         <v>88578.386242303168</v>
       </c>
-      <c r="AY8" s="7">
+      <c r="AY8" s="10">
         <f t="shared" si="11"/>
         <v>93007.30555441833</v>
       </c>
-      <c r="AZ8" s="7">
+      <c r="AZ8" s="10">
         <f t="shared" si="11"/>
         <v>97657.670832139251</v>
       </c>
-      <c r="BA8" s="7">
+      <c r="BA8" s="10">
         <f t="shared" si="11"/>
         <v>102540.55437374621</v>
       </c>
-      <c r="BB8" s="7">
+      <c r="BB8" s="10">
         <f t="shared" si="11"/>
         <v>107667.58209243353</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="7" customFormat="1">
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="7">
+    <row r="9" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="10">
         <v>5862</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10">
         <v>4113</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="10">
         <v>4741</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="10">
         <f>18805-E9-D9-C9</f>
         <v>4089</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="10">
         <v>5977</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="10">
         <v>4368</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="10">
         <v>6582</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="10">
         <v>6797</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="10">
         <v>8435</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="10">
         <v>7807</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="10">
         <v>7368</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="10">
         <v>8252</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="10">
         <v>7248</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="10">
         <v>7646</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="10">
         <v>7224</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="10">
         <f>+R9*0.95</f>
         <v>7839.4</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AD9" s="10">
         <v>20628</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AE9" s="10">
         <v>19222</v>
       </c>
-      <c r="AF9" s="7">
+      <c r="AF9" s="10">
         <v>18380</v>
       </c>
-      <c r="AG9" s="7">
+      <c r="AG9" s="10">
         <v>21280</v>
       </c>
-      <c r="AH9" s="7">
+      <c r="AH9" s="10">
         <f t="shared" si="6"/>
         <v>23724</v>
       </c>
-      <c r="AI9" s="7">
+      <c r="AI9" s="10">
         <f t="shared" si="7"/>
         <v>31862</v>
       </c>
-      <c r="AJ9" s="7">
+      <c r="AJ9" s="10">
         <f t="shared" si="8"/>
         <v>29957.4</v>
       </c>
-      <c r="AK9" s="7">
+      <c r="AK9" s="10">
         <f>+AJ9*1.04</f>
         <v>31155.696000000004</v>
       </c>
-      <c r="AL9" s="7">
+      <c r="AL9" s="10">
         <f t="shared" ref="AL9:BB9" si="12">+AK9*1.04</f>
         <v>32401.923840000003</v>
       </c>
-      <c r="AM9" s="7">
+      <c r="AM9" s="10">
         <f t="shared" si="12"/>
         <v>33698.000793600004</v>
       </c>
-      <c r="AN9" s="7">
+      <c r="AN9" s="10">
         <f t="shared" si="12"/>
         <v>35045.920825344008</v>
       </c>
-      <c r="AO9" s="7">
+      <c r="AO9" s="10">
         <f t="shared" si="12"/>
         <v>36447.757658357768</v>
       </c>
-      <c r="AP9" s="7">
+      <c r="AP9" s="10">
         <f t="shared" si="12"/>
         <v>37905.667964692082</v>
       </c>
-      <c r="AQ9" s="7">
+      <c r="AQ9" s="10">
         <f t="shared" si="12"/>
         <v>39421.894683279766</v>
       </c>
-      <c r="AR9" s="7">
+      <c r="AR9" s="10">
         <f t="shared" si="12"/>
         <v>40998.770470610958</v>
       </c>
-      <c r="AS9" s="7">
+      <c r="AS9" s="10">
         <f t="shared" si="12"/>
         <v>42638.721289435394</v>
       </c>
-      <c r="AT9" s="7">
+      <c r="AT9" s="10">
         <f t="shared" si="12"/>
         <v>44344.270141012814</v>
       </c>
-      <c r="AU9" s="7">
+      <c r="AU9" s="10">
         <f t="shared" si="12"/>
         <v>46118.040946653331</v>
       </c>
-      <c r="AV9" s="7">
+      <c r="AV9" s="10">
         <f t="shared" si="12"/>
         <v>47962.762584519463</v>
       </c>
-      <c r="AW9" s="7">
+      <c r="AW9" s="10">
         <f t="shared" si="12"/>
         <v>49881.273087900241</v>
       </c>
-      <c r="AX9" s="7">
+      <c r="AX9" s="10">
         <f t="shared" si="12"/>
         <v>51876.524011416252</v>
       </c>
-      <c r="AY9" s="7">
+      <c r="AY9" s="10">
         <f t="shared" si="12"/>
         <v>53951.5849718729</v>
       </c>
-      <c r="AZ9" s="7">
+      <c r="AZ9" s="10">
         <f t="shared" si="12"/>
         <v>56109.648370747818</v>
       </c>
-      <c r="BA9" s="7">
+      <c r="BA9" s="10">
         <f t="shared" si="12"/>
         <v>58354.034305577734</v>
       </c>
-      <c r="BB9" s="7">
+      <c r="BB9" s="10">
         <f t="shared" si="12"/>
         <v>60688.195677800846</v>
       </c>
     </row>
-    <row r="10" spans="1:54" s="7" customFormat="1">
-      <c r="B10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="7">
+    <row r="10" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10">
         <v>5489</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="10">
         <v>3954</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="10">
         <v>3740</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="10">
         <f>17417-E10-D10-C10</f>
         <v>4234</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="10">
         <v>10010</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="10">
         <v>6284</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="10">
         <v>6450</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="10">
         <v>7876</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="10">
         <v>12971</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="10">
         <v>7836</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="10">
         <v>8775</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="10">
         <v>8785</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="10">
         <v>14701</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="10">
         <v>8806</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="10">
         <v>8084</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="10">
         <f>+R10*0.95</f>
         <v>8345.75</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AD10" s="10">
         <v>11132</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AE10" s="10">
         <v>12863</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AF10" s="10">
         <v>17381</v>
       </c>
-      <c r="AG10" s="7">
+      <c r="AG10" s="10">
         <v>24482</v>
       </c>
-      <c r="AH10" s="7">
+      <c r="AH10" s="10">
         <f t="shared" ref="AH10" si="13">SUM(K10:N10)</f>
         <v>30620</v>
       </c>
-      <c r="AI10" s="7">
+      <c r="AI10" s="10">
         <f t="shared" ref="AI10" si="14">SUM(O10:R10)</f>
         <v>38367</v>
       </c>
-      <c r="AJ10" s="7">
+      <c r="AJ10" s="10">
         <f t="shared" ref="AJ10" si="15">SUM(S10:V10)</f>
         <v>39936.75</v>
       </c>
-      <c r="AK10" s="7">
+      <c r="AK10" s="10">
         <f>+AJ10*1.04</f>
         <v>41534.22</v>
       </c>
-      <c r="AL10" s="7">
+      <c r="AL10" s="10">
         <f t="shared" ref="AL10:BB10" si="16">+AK10*1.04</f>
         <v>43195.588800000005</v>
       </c>
-      <c r="AM10" s="7">
+      <c r="AM10" s="10">
         <f t="shared" si="16"/>
         <v>44923.412352000007</v>
       </c>
-      <c r="AN10" s="7">
+      <c r="AN10" s="10">
         <f t="shared" si="16"/>
         <v>46720.348846080007</v>
       </c>
-      <c r="AO10" s="7">
+      <c r="AO10" s="10">
         <f t="shared" si="16"/>
         <v>48589.162799923208</v>
       </c>
-      <c r="AP10" s="7">
+      <c r="AP10" s="10">
         <f t="shared" si="16"/>
         <v>50532.729311920135</v>
       </c>
-      <c r="AQ10" s="7">
+      <c r="AQ10" s="10">
         <f t="shared" si="16"/>
         <v>52554.038484396944</v>
       </c>
-      <c r="AR10" s="7">
+      <c r="AR10" s="10">
         <f t="shared" si="16"/>
         <v>54656.200023772821</v>
       </c>
-      <c r="AS10" s="7">
+      <c r="AS10" s="10">
         <f t="shared" si="16"/>
         <v>56842.448024723737</v>
       </c>
-      <c r="AT10" s="7">
+      <c r="AT10" s="10">
         <f t="shared" si="16"/>
         <v>59116.145945712691</v>
       </c>
-      <c r="AU10" s="7">
+      <c r="AU10" s="10">
         <f t="shared" si="16"/>
         <v>61480.791783541201</v>
       </c>
-      <c r="AV10" s="7">
+      <c r="AV10" s="10">
         <f t="shared" si="16"/>
         <v>63940.023454882852</v>
       </c>
-      <c r="AW10" s="7">
+      <c r="AW10" s="10">
         <f t="shared" si="16"/>
         <v>66497.624393078164</v>
       </c>
-      <c r="AX10" s="7">
+      <c r="AX10" s="10">
         <f t="shared" si="16"/>
         <v>69157.52936880129</v>
       </c>
-      <c r="AY10" s="7">
+      <c r="AY10" s="10">
         <f t="shared" si="16"/>
         <v>71923.83054355334</v>
       </c>
-      <c r="AZ10" s="7">
+      <c r="AZ10" s="10">
         <f t="shared" si="16"/>
         <v>74800.783765295477</v>
       </c>
-      <c r="BA10" s="7">
+      <c r="BA10" s="10">
         <f t="shared" si="16"/>
         <v>77792.815115907302</v>
       </c>
-      <c r="BB10" s="7">
+      <c r="BB10" s="10">
         <f t="shared" si="16"/>
         <v>80904.5277205436</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="7" customFormat="1">
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:54" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:54" s="8" customFormat="1">
-      <c r="B12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="8">
+    <row r="12" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2">
         <f>SUM(C8:C10)+C4</f>
         <v>79822</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="2">
         <f>SUM(D8:D10)+D4</f>
         <v>51947</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="2">
         <f>SUM(E8:E10)+E4</f>
         <v>43717</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="2">
         <f>SUM(F8:F10)+F4</f>
         <v>52919</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="2">
         <f t="shared" ref="K12:V12" si="17">SUM(K8:K10)+K4</f>
         <v>79104</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="2">
         <f t="shared" si="17"/>
         <v>44965</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="2">
         <f t="shared" si="17"/>
         <v>46529</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="2">
         <f t="shared" si="17"/>
         <v>50149</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="2">
         <f t="shared" si="17"/>
         <v>95678</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="2">
         <f t="shared" si="17"/>
         <v>72683</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="2">
         <f t="shared" si="17"/>
         <v>63948</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="2">
         <f t="shared" si="17"/>
         <v>65083</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="2">
         <f t="shared" si="17"/>
         <v>104429</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="2">
         <f t="shared" si="17"/>
         <v>77457</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="2">
         <f t="shared" si="17"/>
         <v>63355</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="2">
         <f t="shared" si="17"/>
         <v>63675.08</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AD12" s="2">
         <f t="shared" ref="AD12:AJ12" si="18">SUM(AD8:AD10)+AD4</f>
         <v>191291</v>
       </c>
-      <c r="AE12" s="8">
+      <c r="AE12" s="2">
         <f t="shared" si="18"/>
         <v>199254</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12" s="2">
         <f t="shared" si="18"/>
         <v>225847</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="2">
         <f t="shared" si="18"/>
         <v>213883</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AH12" s="2">
         <f t="shared" si="18"/>
         <v>220747</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AI12" s="2">
         <f t="shared" si="18"/>
         <v>297392</v>
       </c>
-      <c r="AJ12" s="8">
+      <c r="AJ12" s="2">
         <f t="shared" si="18"/>
         <v>308916.08</v>
       </c>
-      <c r="AK12" s="8">
+      <c r="AK12" s="2">
         <f t="shared" ref="AK12:BB12" si="19">SUM(AK8:AK10)+AK4</f>
         <v>326527.85971500003</v>
       </c>
-      <c r="AL12" s="8">
+      <c r="AL12" s="2">
         <f t="shared" si="19"/>
         <v>345172.70198625757</v>
       </c>
-      <c r="AM12" s="8">
+      <c r="AM12" s="2">
         <f t="shared" si="19"/>
         <v>364912.55498636118</v>
       </c>
-      <c r="AN12" s="8">
+      <c r="AN12" s="2">
         <f t="shared" si="19"/>
         <v>383384.20485265029</v>
       </c>
-      <c r="AO12" s="8">
+      <c r="AO12" s="2">
         <f t="shared" si="19"/>
         <v>402816.95974975004</v>
       </c>
-      <c r="AP12" s="8">
+      <c r="AP12" s="2">
         <f t="shared" si="19"/>
         <v>423262.34993787803</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AQ12" s="2">
         <f t="shared" si="19"/>
         <v>444774.75838984246</v>
       </c>
-      <c r="AR12" s="8">
+      <c r="AR12" s="2">
         <f t="shared" si="19"/>
         <v>463854.31960589107</v>
       </c>
-      <c r="AS12" s="8">
+      <c r="AS12" s="2">
         <f t="shared" si="19"/>
         <v>483772.64730172179</v>
       </c>
-      <c r="AT12" s="8">
+      <c r="AT12" s="2">
         <f t="shared" si="19"/>
         <v>504567.75745046022</v>
       </c>
-      <c r="AU12" s="8">
+      <c r="AU12" s="2">
         <f t="shared" si="19"/>
         <v>526279.45177295734</v>
       </c>
-      <c r="AV12" s="8">
+      <c r="AV12" s="2">
         <f t="shared" si="19"/>
         <v>545486.26504403516</v>
       </c>
-      <c r="AW12" s="8">
+      <c r="AW12" s="2">
         <f t="shared" si="19"/>
         <v>564647.39305957616</v>
       </c>
-      <c r="AX12" s="8">
+      <c r="AX12" s="2">
         <f t="shared" si="19"/>
         <v>584510.5928087153</v>
       </c>
-      <c r="AY12" s="8">
+      <c r="AY12" s="2">
         <f t="shared" si="19"/>
         <v>605102.79848226206</v>
       </c>
-      <c r="AZ12" s="8">
+      <c r="AZ12" s="2">
         <f t="shared" si="19"/>
         <v>626452.02671845513</v>
       </c>
-      <c r="BA12" s="8">
+      <c r="BA12" s="2">
         <f t="shared" si="19"/>
         <v>648587.42204276205</v>
       </c>
-      <c r="BB12" s="8">
+      <c r="BB12" s="2">
         <f t="shared" si="19"/>
         <v>671539.30428938428</v>
       </c>
     </row>
-    <row r="13" spans="1:54" s="8" customFormat="1">
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8">
+    <row r="13" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="2">
         <v>8471</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="2">
         <v>9190</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="2">
         <v>9548</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="2">
         <f>37190-E13-D13-C13</f>
         <v>9981</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="2">
         <v>12715</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="2">
         <v>13348</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="2">
         <v>13156</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="2">
         <v>14549</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="2">
         <v>15761</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="2">
         <v>16901</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="2">
         <v>17486</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="2">
         <v>18277</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="2">
         <v>19516</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="2">
         <v>19821</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="2">
         <v>19604</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="2">
         <f>+R13*1.1</f>
         <v>20104.7</v>
       </c>
-      <c r="AD13" s="8">
+      <c r="AD13" s="2">
         <v>24348</v>
       </c>
-      <c r="AE13" s="8">
+      <c r="AE13" s="2">
         <v>29980</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AF13" s="10">
         <v>39748</v>
       </c>
-      <c r="AG13" s="7">
+      <c r="AG13" s="10">
         <v>46291</v>
       </c>
-      <c r="AH13" s="7">
+      <c r="AH13" s="10">
         <f>SUM(K13:N13)</f>
         <v>53768</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="AI13" s="10">
         <f t="shared" ref="AI13" si="20">SUM(O13:R13)</f>
         <v>68425</v>
       </c>
-      <c r="AJ13" s="7">
+      <c r="AJ13" s="10">
         <f t="shared" ref="AJ13" si="21">SUM(S13:V13)</f>
         <v>79045.7</v>
       </c>
-      <c r="AK13" s="7">
+      <c r="AK13" s="10">
         <f>+AJ13*1.15</f>
         <v>90902.554999999993</v>
       </c>
-      <c r="AL13" s="7">
+      <c r="AL13" s="10">
         <f>+AK13*1.15</f>
         <v>104537.93824999998</v>
       </c>
-      <c r="AM13" s="7">
+      <c r="AM13" s="10">
         <f>+AL13*1.15</f>
         <v>120218.62898749996</v>
       </c>
-      <c r="AN13" s="7">
+      <c r="AN13" s="10">
         <f>+AM13*1.1</f>
         <v>132240.49188624998</v>
       </c>
-      <c r="AO13" s="7">
+      <c r="AO13" s="10">
         <f>+AN13*1.1</f>
         <v>145464.54107487499</v>
       </c>
-      <c r="AP13" s="7">
+      <c r="AP13" s="10">
         <f>+AO13*1.1</f>
         <v>160010.9951823625</v>
       </c>
-      <c r="AQ13" s="7">
+      <c r="AQ13" s="10">
         <f>+AP13*1.05</f>
         <v>168011.54494148062</v>
       </c>
-      <c r="AR13" s="7">
+      <c r="AR13" s="10">
         <f t="shared" ref="AR13:BB13" si="22">+AQ13*1.05</f>
         <v>176412.12218855467</v>
       </c>
-      <c r="AS13" s="7">
+      <c r="AS13" s="10">
         <f t="shared" si="22"/>
         <v>185232.72829798242</v>
       </c>
-      <c r="AT13" s="7">
+      <c r="AT13" s="10">
         <f t="shared" si="22"/>
         <v>194494.36471288156</v>
       </c>
-      <c r="AU13" s="7">
+      <c r="AU13" s="10">
         <f t="shared" si="22"/>
         <v>204219.08294852564</v>
       </c>
-      <c r="AV13" s="7">
+      <c r="AV13" s="10">
         <f t="shared" si="22"/>
         <v>214430.03709595194</v>
       </c>
-      <c r="AW13" s="7">
+      <c r="AW13" s="10">
         <f t="shared" si="22"/>
         <v>225151.53895074953</v>
       </c>
-      <c r="AX13" s="7">
+      <c r="AX13" s="10">
         <f t="shared" si="22"/>
         <v>236409.11589828701</v>
       </c>
-      <c r="AY13" s="7">
+      <c r="AY13" s="10">
         <f t="shared" si="22"/>
         <v>248229.57169320137</v>
       </c>
-      <c r="AZ13" s="7">
+      <c r="AZ13" s="10">
         <f t="shared" si="22"/>
         <v>260641.05027786145</v>
       </c>
-      <c r="BA13" s="7">
+      <c r="BA13" s="10">
         <f t="shared" si="22"/>
         <v>273673.10279175453</v>
       </c>
-      <c r="BB13" s="7">
+      <c r="BB13" s="10">
         <f t="shared" si="22"/>
         <v>287356.75793134229</v>
       </c>
     </row>
-    <row r="14" spans="1:54" s="10" customFormat="1">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="12">
         <f t="shared" ref="C14:F14" si="23">+C12+C13</f>
         <v>88293</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="12">
         <f t="shared" si="23"/>
         <v>61137</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="12">
         <f t="shared" si="23"/>
         <v>53265</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="12">
         <f t="shared" si="23"/>
         <v>62900</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="12">
         <f t="shared" ref="K14:N14" si="24">+K12+K13</f>
         <v>91819</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="12">
         <f t="shared" si="24"/>
         <v>58313</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="12">
         <f t="shared" si="24"/>
         <v>59685</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="12">
         <f t="shared" si="24"/>
         <v>64698</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="12">
         <f>+O12+O13</f>
         <v>111439</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="12">
         <f>+P12+P13</f>
         <v>89584</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="12">
         <f>+Q12+Q13</f>
         <v>81434</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="12">
         <f t="shared" ref="R14" si="25">+R12+R13</f>
         <v>83360</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="12">
         <f t="shared" ref="S14" si="26">+S12+S13</f>
         <v>123945</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="12">
         <f>+T12+T13</f>
         <v>97278</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="12">
         <f t="shared" ref="U14:V14" si="27">+U12+U13</f>
         <v>82959</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="12">
         <f t="shared" si="27"/>
         <v>83779.78</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="12">
         <v>182795</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14" s="12">
         <v>233715</v>
       </c>
-      <c r="AD14" s="10">
+      <c r="AD14" s="12">
         <f t="shared" ref="AD14:AG14" si="28">+AD12+AD13</f>
         <v>215639</v>
       </c>
-      <c r="AE14" s="10">
+      <c r="AE14" s="12">
         <f t="shared" si="28"/>
         <v>229234</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AF14" s="12">
         <f t="shared" si="28"/>
         <v>265595</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AG14" s="12">
         <f t="shared" si="28"/>
         <v>260174</v>
       </c>
-      <c r="AH14" s="10">
+      <c r="AH14" s="12">
         <f>+AH12+AH13</f>
         <v>274515</v>
       </c>
-      <c r="AI14" s="10">
+      <c r="AI14" s="12">
         <f>+AI12+AI13</f>
         <v>365817</v>
       </c>
-      <c r="AJ14" s="10">
+      <c r="AJ14" s="12">
         <f>+AJ12+AJ13</f>
         <v>387961.78</v>
       </c>
-      <c r="AK14" s="10">
+      <c r="AK14" s="12">
         <f t="shared" ref="AK14:BB14" si="29">+AK12+AK13</f>
         <v>417430.41471500002</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AL14" s="12">
         <f t="shared" si="29"/>
         <v>449710.64023625758</v>
       </c>
-      <c r="AM14" s="10">
+      <c r="AM14" s="12">
         <f t="shared" si="29"/>
         <v>485131.18397386116</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AN14" s="12">
         <f t="shared" si="29"/>
         <v>515624.69673890027</v>
       </c>
-      <c r="AO14" s="10">
+      <c r="AO14" s="12">
         <f t="shared" si="29"/>
         <v>548281.50082462502</v>
       </c>
-      <c r="AP14" s="10">
+      <c r="AP14" s="12">
         <f t="shared" si="29"/>
         <v>583273.34512024047</v>
       </c>
-      <c r="AQ14" s="10">
+      <c r="AQ14" s="12">
         <f t="shared" si="29"/>
         <v>612786.30333132308</v>
       </c>
-      <c r="AR14" s="10">
+      <c r="AR14" s="12">
         <f t="shared" si="29"/>
         <v>640266.44179444574</v>
       </c>
-      <c r="AS14" s="10">
+      <c r="AS14" s="12">
         <f t="shared" si="29"/>
         <v>669005.37559970422</v>
       </c>
-      <c r="AT14" s="10">
+      <c r="AT14" s="12">
         <f t="shared" si="29"/>
         <v>699062.12216334185</v>
       </c>
-      <c r="AU14" s="10">
+      <c r="AU14" s="12">
         <f t="shared" si="29"/>
         <v>730498.53472148301</v>
       </c>
-      <c r="AV14" s="10">
+      <c r="AV14" s="12">
         <f t="shared" si="29"/>
         <v>759916.30213998712</v>
       </c>
-      <c r="AW14" s="10">
+      <c r="AW14" s="12">
         <f t="shared" si="29"/>
         <v>789798.93201032572</v>
       </c>
-      <c r="AX14" s="10">
+      <c r="AX14" s="12">
         <f t="shared" si="29"/>
         <v>820919.70870700234</v>
       </c>
-      <c r="AY14" s="10">
+      <c r="AY14" s="12">
         <f t="shared" si="29"/>
         <v>853332.37017546338</v>
       </c>
-      <c r="AZ14" s="10">
+      <c r="AZ14" s="12">
         <f t="shared" si="29"/>
         <v>887093.07699631655</v>
       </c>
-      <c r="BA14" s="10">
+      <c r="BA14" s="12">
         <f t="shared" si="29"/>
         <v>922260.52483451657</v>
       </c>
-      <c r="BB14" s="10">
+      <c r="BB14" s="12">
         <f t="shared" si="29"/>
         <v>958896.06222072663</v>
       </c>
     </row>
-    <row r="15" spans="1:54" s="8" customFormat="1">
-      <c r="B15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="8">
+    <row r="15" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="2">
         <v>52075</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="2">
         <v>31321</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="2">
         <v>32693</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="2">
         <v>35197</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="2">
         <v>62130</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="2">
         <v>46447</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="2">
         <v>40899</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="2">
         <v>42790</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="2">
         <v>64309</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="2">
         <v>49290</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="2">
         <v>41485</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="2">
         <f>+V12*0.65</f>
         <v>41388.802000000003</v>
       </c>
-      <c r="AF15" s="7">
+      <c r="AF15" s="10">
         <v>148164</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AG15" s="10">
         <v>144996</v>
       </c>
-      <c r="AH15" s="7">
+      <c r="AH15" s="10">
         <f>SUM(K15:N15)</f>
         <v>151286</v>
       </c>
-      <c r="AI15" s="7">
+      <c r="AI15" s="10">
         <f t="shared" ref="AI15:AI16" si="30">SUM(O15:R15)</f>
         <v>192266</v>
       </c>
-      <c r="AJ15" s="7">
+      <c r="AJ15" s="10">
         <f t="shared" ref="AJ15:AJ16" si="31">SUM(S15:V15)</f>
         <v>196472.802</v>
       </c>
-      <c r="AK15" s="8">
+      <c r="AK15" s="2">
         <f>+AK12*0.64</f>
         <v>208977.83021760001</v>
       </c>
-      <c r="AL15" s="8">
+      <c r="AL15" s="2">
         <f t="shared" ref="AL15:BB15" si="32">+AL12*0.64</f>
         <v>220910.52927120484</v>
       </c>
-      <c r="AM15" s="8">
+      <c r="AM15" s="2">
         <f t="shared" si="32"/>
         <v>233544.03519127116</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="2">
         <f t="shared" si="32"/>
         <v>245365.89110569618</v>
       </c>
-      <c r="AO15" s="8">
+      <c r="AO15" s="2">
         <f t="shared" si="32"/>
         <v>257802.85423984003</v>
       </c>
-      <c r="AP15" s="8">
+      <c r="AP15" s="2">
         <f t="shared" si="32"/>
         <v>270887.90396024194</v>
       </c>
-      <c r="AQ15" s="8">
+      <c r="AQ15" s="2">
         <f t="shared" si="32"/>
         <v>284655.84536949918</v>
       </c>
-      <c r="AR15" s="8">
+      <c r="AR15" s="2">
         <f t="shared" si="32"/>
         <v>296866.76454777032</v>
       </c>
-      <c r="AS15" s="8">
+      <c r="AS15" s="2">
         <f t="shared" si="32"/>
         <v>309614.49427310197</v>
       </c>
-      <c r="AT15" s="8">
+      <c r="AT15" s="2">
         <f t="shared" si="32"/>
         <v>322923.36476829456</v>
       </c>
-      <c r="AU15" s="8">
+      <c r="AU15" s="2">
         <f t="shared" si="32"/>
         <v>336818.84913469269</v>
       </c>
-      <c r="AV15" s="8">
+      <c r="AV15" s="2">
         <f t="shared" si="32"/>
         <v>349111.20962818252</v>
       </c>
-      <c r="AW15" s="8">
+      <c r="AW15" s="2">
         <f t="shared" si="32"/>
         <v>361374.33155812876</v>
       </c>
-      <c r="AX15" s="8">
+      <c r="AX15" s="2">
         <f t="shared" si="32"/>
         <v>374086.7793975778</v>
       </c>
-      <c r="AY15" s="8">
+      <c r="AY15" s="2">
         <f t="shared" si="32"/>
         <v>387265.79102864774</v>
       </c>
-      <c r="AZ15" s="8">
+      <c r="AZ15" s="2">
         <f t="shared" si="32"/>
         <v>400929.29709981132</v>
       </c>
-      <c r="BA15" s="8">
+      <c r="BA15" s="2">
         <f t="shared" si="32"/>
         <v>415095.95010736771</v>
       </c>
-      <c r="BB15" s="8">
+      <c r="BB15" s="2">
         <f t="shared" si="32"/>
         <v>429785.15474520595</v>
       </c>
     </row>
-    <row r="16" spans="1:54" s="8" customFormat="1">
-      <c r="B16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="8">
+    <row r="16" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="2">
         <v>4527</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="2">
         <v>4622</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="2">
         <v>4312</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="2">
         <v>4812</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="2">
         <v>4981</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="2">
         <v>5058</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="2">
         <v>5280</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="2">
         <v>5396</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="2">
         <v>5393</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="2">
         <v>5429</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="2">
         <v>5589</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="2">
         <f>+V13*0.3</f>
         <v>6031.41</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AF16" s="10">
         <v>15592</v>
       </c>
-      <c r="AG16" s="7">
+      <c r="AG16" s="10">
         <v>16786</v>
       </c>
-      <c r="AH16" s="7">
+      <c r="AH16" s="10">
         <f>SUM(K16:N16)</f>
         <v>18273</v>
       </c>
-      <c r="AI16" s="7">
+      <c r="AI16" s="10">
         <f t="shared" si="30"/>
         <v>20715</v>
       </c>
-      <c r="AJ16" s="7">
+      <c r="AJ16" s="10">
         <f t="shared" si="31"/>
         <v>22442.41</v>
       </c>
-      <c r="AK16" s="8">
+      <c r="AK16" s="2">
         <f>+AK13*0.27</f>
         <v>24543.689849999999</v>
       </c>
-      <c r="AL16" s="8">
+      <c r="AL16" s="2">
         <f t="shared" ref="AL16:BB16" si="33">+AL13*0.27</f>
         <v>28225.243327499997</v>
       </c>
-      <c r="AM16" s="8">
+      <c r="AM16" s="2">
         <f t="shared" si="33"/>
         <v>32459.029826624992</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="2">
         <f t="shared" si="33"/>
         <v>35704.932809287493</v>
       </c>
-      <c r="AO16" s="8">
+      <c r="AO16" s="2">
         <f t="shared" si="33"/>
         <v>39275.42609021625</v>
       </c>
-      <c r="AP16" s="8">
+      <c r="AP16" s="2">
         <f t="shared" si="33"/>
         <v>43202.968699237877</v>
       </c>
-      <c r="AQ16" s="8">
+      <c r="AQ16" s="2">
         <f t="shared" si="33"/>
         <v>45363.117134199769</v>
       </c>
-      <c r="AR16" s="8">
+      <c r="AR16" s="2">
         <f t="shared" si="33"/>
         <v>47631.272990909762</v>
       </c>
-      <c r="AS16" s="8">
+      <c r="AS16" s="2">
         <f t="shared" si="33"/>
         <v>50012.836640455258</v>
       </c>
-      <c r="AT16" s="8">
+      <c r="AT16" s="2">
         <f t="shared" si="33"/>
         <v>52513.478472478026</v>
       </c>
-      <c r="AU16" s="8">
+      <c r="AU16" s="2">
         <f t="shared" si="33"/>
         <v>55139.152396101927</v>
       </c>
-      <c r="AV16" s="8">
+      <c r="AV16" s="2">
         <f t="shared" si="33"/>
         <v>57896.110015907027</v>
       </c>
-      <c r="AW16" s="8">
+      <c r="AW16" s="2">
         <f t="shared" si="33"/>
         <v>60790.915516702378</v>
       </c>
-      <c r="AX16" s="8">
+      <c r="AX16" s="2">
         <f t="shared" si="33"/>
         <v>63830.461292537497</v>
       </c>
-      <c r="AY16" s="8">
+      <c r="AY16" s="2">
         <f t="shared" si="33"/>
         <v>67021.984357164372</v>
       </c>
-      <c r="AZ16" s="8">
+      <c r="AZ16" s="2">
         <f t="shared" si="33"/>
         <v>70373.083575022596</v>
       </c>
-      <c r="BA16" s="8">
+      <c r="BA16" s="2">
         <f t="shared" si="33"/>
         <v>73891.737753773734</v>
       </c>
-      <c r="BB16" s="8">
+      <c r="BB16" s="2">
         <f t="shared" si="33"/>
         <v>77586.32464146243</v>
       </c>
     </row>
-    <row r="17" spans="2:54" s="8" customFormat="1">
-      <c r="B17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="8">
+    <row r="17" spans="2:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
         <v>54381</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="2">
         <v>37715</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="2">
         <v>32844</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="2">
         <f>163756-E17-D17-C17</f>
         <v>38816</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="2">
         <f t="shared" ref="K17:N17" si="34">+K15+K16</f>
         <v>56602</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="2">
         <f t="shared" si="34"/>
         <v>35943</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="2">
         <f t="shared" si="34"/>
         <v>37005</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="2">
         <f t="shared" si="34"/>
         <v>40009</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="2">
         <f>+O15+O16</f>
         <v>67111</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="2">
         <f>+P15+P16</f>
         <v>51505</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="2">
         <f>+Q15+Q16</f>
         <v>46179</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="2">
         <f t="shared" ref="R17" si="35">+R15+R16</f>
         <v>48186</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="2">
         <f t="shared" ref="S17" si="36">+S15+S16</f>
         <v>69702</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="2">
         <f>+T15+T16</f>
         <v>54719</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="2">
         <f t="shared" ref="U17" si="37">+U15+U16</f>
         <v>47074</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="2">
         <f t="shared" ref="V17" si="38">+V15+V16</f>
         <v>47420.212</v>
       </c>
-      <c r="AF17" s="8">
+      <c r="AF17" s="2">
         <f t="shared" ref="AF17:AG17" si="39">+AF15+AF16</f>
         <v>163756</v>
       </c>
-      <c r="AG17" s="8">
+      <c r="AG17" s="2">
         <f t="shared" si="39"/>
         <v>161782</v>
       </c>
-      <c r="AH17" s="8">
+      <c r="AH17" s="2">
         <f>+AH15+AH16</f>
         <v>169559</v>
       </c>
-      <c r="AI17" s="8">
+      <c r="AI17" s="2">
         <f>+AI15+AI16</f>
         <v>212981</v>
       </c>
-      <c r="AJ17" s="8">
+      <c r="AJ17" s="2">
         <f>+AJ15+AJ16</f>
         <v>218915.212</v>
       </c>
-      <c r="AK17" s="8">
+      <c r="AK17" s="2">
         <f t="shared" ref="AK17:BB17" si="40">+AK15+AK16</f>
         <v>233521.52006760001</v>
       </c>
-      <c r="AL17" s="8">
+      <c r="AL17" s="2">
         <f t="shared" si="40"/>
         <v>249135.77259870485</v>
       </c>
-      <c r="AM17" s="8">
+      <c r="AM17" s="2">
         <f t="shared" si="40"/>
         <v>266003.06501789618</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="2">
         <f t="shared" si="40"/>
         <v>281070.82391498366</v>
       </c>
-      <c r="AO17" s="8">
+      <c r="AO17" s="2">
         <f t="shared" si="40"/>
         <v>297078.28033005627</v>
       </c>
-      <c r="AP17" s="8">
+      <c r="AP17" s="2">
         <f t="shared" si="40"/>
         <v>314090.87265947979</v>
       </c>
-      <c r="AQ17" s="8">
+      <c r="AQ17" s="2">
         <f t="shared" si="40"/>
         <v>330018.96250369895</v>
       </c>
-      <c r="AR17" s="8">
+      <c r="AR17" s="2">
         <f t="shared" si="40"/>
         <v>344498.03753868007</v>
       </c>
-      <c r="AS17" s="8">
+      <c r="AS17" s="2">
         <f t="shared" si="40"/>
         <v>359627.33091355721</v>
       </c>
-      <c r="AT17" s="8">
+      <c r="AT17" s="2">
         <f t="shared" si="40"/>
         <v>375436.84324077261</v>
       </c>
-      <c r="AU17" s="8">
+      <c r="AU17" s="2">
         <f t="shared" si="40"/>
         <v>391958.0015307946</v>
       </c>
-      <c r="AV17" s="8">
+      <c r="AV17" s="2">
         <f t="shared" si="40"/>
         <v>407007.31964408956</v>
       </c>
-      <c r="AW17" s="8">
+      <c r="AW17" s="2">
         <f t="shared" si="40"/>
         <v>422165.24707483116</v>
       </c>
-      <c r="AX17" s="8">
+      <c r="AX17" s="2">
         <f t="shared" si="40"/>
         <v>437917.24069011532</v>
       </c>
-      <c r="AY17" s="8">
+      <c r="AY17" s="2">
         <f t="shared" si="40"/>
         <v>454287.7753858121</v>
       </c>
-      <c r="AZ17" s="8">
+      <c r="AZ17" s="2">
         <f t="shared" si="40"/>
         <v>471302.3806748339</v>
       </c>
-      <c r="BA17" s="8">
+      <c r="BA17" s="2">
         <f t="shared" si="40"/>
         <v>488987.68786114146</v>
       </c>
-      <c r="BB17" s="8">
+      <c r="BB17" s="2">
         <f t="shared" si="40"/>
         <v>507371.47938666836</v>
       </c>
     </row>
-    <row r="18" spans="2:54" s="8" customFormat="1">
-      <c r="B18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="8">
+    <row r="18" spans="2:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
         <f t="shared" ref="C18" si="41">+C14-C17</f>
         <v>33912</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="2">
         <f t="shared" ref="D18:F18" si="42">+D14-D17</f>
         <v>23422</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="2">
         <f t="shared" si="42"/>
         <v>20421</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="2">
         <f t="shared" si="42"/>
         <v>24084</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="2">
         <f t="shared" ref="K18:N18" si="43">+K14-K17</f>
         <v>35217</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="2">
         <f t="shared" si="43"/>
         <v>22370</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="2">
         <f t="shared" si="43"/>
         <v>22680</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="2">
         <f t="shared" si="43"/>
         <v>24689</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="2">
         <f>+O14-O17</f>
         <v>44328</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="2">
         <f>+P14-P17</f>
         <v>38079</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="2">
         <f>+Q14-Q17</f>
         <v>35255</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="2">
         <f t="shared" ref="R18" si="44">+R14-R17</f>
         <v>35174</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="2">
         <f t="shared" ref="S18" si="45">+S14-S17</f>
         <v>54243</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="2">
         <f>+T14-T17</f>
         <v>42559</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="2">
         <f t="shared" ref="U18" si="46">+U14-U17</f>
         <v>35885</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="2">
         <f t="shared" ref="V18" si="47">+V14-V17</f>
         <v>36359.567999999999</v>
       </c>
-      <c r="AF18" s="8">
+      <c r="AF18" s="2">
         <f t="shared" ref="AF18:AG18" si="48">+AF14-AF17</f>
         <v>101839</v>
       </c>
-      <c r="AG18" s="8">
+      <c r="AG18" s="2">
         <f t="shared" si="48"/>
         <v>98392</v>
       </c>
-      <c r="AH18" s="8">
+      <c r="AH18" s="2">
         <f>+AH14-AH17</f>
         <v>104956</v>
       </c>
-      <c r="AI18" s="8">
+      <c r="AI18" s="2">
         <f>+AI14-AI17</f>
         <v>152836</v>
       </c>
-      <c r="AJ18" s="8">
+      <c r="AJ18" s="2">
         <f>+AJ14-AJ17</f>
         <v>169046.56800000003</v>
       </c>
-      <c r="AK18" s="8">
+      <c r="AK18" s="2">
         <f t="shared" ref="AK18:BB18" si="49">+AK14-AK17</f>
         <v>183908.89464740001</v>
       </c>
-      <c r="AL18" s="8">
+      <c r="AL18" s="2">
         <f t="shared" si="49"/>
         <v>200574.86763755273</v>
       </c>
-      <c r="AM18" s="8">
+      <c r="AM18" s="2">
         <f t="shared" si="49"/>
         <v>219128.11895596498</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="2">
         <f t="shared" si="49"/>
         <v>234553.87282391661</v>
       </c>
-      <c r="AO18" s="8">
+      <c r="AO18" s="2">
         <f t="shared" si="49"/>
         <v>251203.22049456876</v>
       </c>
-      <c r="AP18" s="8">
+      <c r="AP18" s="2">
         <f t="shared" si="49"/>
         <v>269182.47246076068</v>
       </c>
-      <c r="AQ18" s="8">
+      <c r="AQ18" s="2">
         <f t="shared" si="49"/>
         <v>282767.34082762414</v>
       </c>
-      <c r="AR18" s="8">
+      <c r="AR18" s="2">
         <f t="shared" si="49"/>
         <v>295768.40425576566</v>
       </c>
-      <c r="AS18" s="8">
+      <c r="AS18" s="2">
         <f t="shared" si="49"/>
         <v>309378.04468614701</v>
       </c>
-      <c r="AT18" s="8">
+      <c r="AT18" s="2">
         <f t="shared" si="49"/>
         <v>323625.27892256924</v>
       </c>
-      <c r="AU18" s="8">
+      <c r="AU18" s="2">
         <f t="shared" si="49"/>
         <v>338540.53319068841</v>
       </c>
-      <c r="AV18" s="8">
+      <c r="AV18" s="2">
         <f t="shared" si="49"/>
         <v>352908.98249589757</v>
       </c>
-      <c r="AW18" s="8">
+      <c r="AW18" s="2">
         <f t="shared" si="49"/>
         <v>367633.68493549456</v>
       </c>
-      <c r="AX18" s="8">
+      <c r="AX18" s="2">
         <f t="shared" si="49"/>
         <v>383002.46801688703</v>
       </c>
-      <c r="AY18" s="8">
+      <c r="AY18" s="2">
         <f t="shared" si="49"/>
         <v>399044.59478965128</v>
       </c>
-      <c r="AZ18" s="8">
+      <c r="AZ18" s="2">
         <f t="shared" si="49"/>
         <v>415790.69632148265</v>
       </c>
-      <c r="BA18" s="8">
+      <c r="BA18" s="2">
         <f t="shared" si="49"/>
         <v>433272.83697337512</v>
       </c>
-      <c r="BB18" s="8">
+      <c r="BB18" s="2">
         <f t="shared" si="49"/>
         <v>451524.58283405827</v>
       </c>
     </row>
-    <row r="19" spans="2:54" s="8" customFormat="1">
-      <c r="B19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="8">
+    <row r="19" spans="2:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
         <v>3407</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="2">
         <v>3378</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="2">
         <v>3701</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="2">
         <f>14236-E19-D19-C19</f>
         <v>3750</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="2">
         <v>4451</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="2">
         <v>4565</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="2">
         <v>4758</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="2">
         <v>4978</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="2">
         <v>5163</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="2">
         <v>5262</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="2">
         <v>5717</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="2">
         <v>5772</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="2">
         <v>6306</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="2">
         <v>6387</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="2">
         <v>6797</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="2">
         <f>+R19*1.1</f>
         <v>6349.2000000000007</v>
       </c>
-      <c r="AF19" s="7">
+      <c r="AF19" s="10">
         <v>14236</v>
       </c>
-      <c r="AG19" s="7">
+      <c r="AG19" s="10">
         <v>16217</v>
       </c>
-      <c r="AH19" s="7">
+      <c r="AH19" s="10">
         <f>SUM(K19:N19)</f>
         <v>18752</v>
       </c>
-      <c r="AI19" s="7">
+      <c r="AI19" s="10">
         <f t="shared" ref="AI19:AI20" si="50">SUM(O19:R19)</f>
         <v>21914</v>
       </c>
-      <c r="AJ19" s="7">
+      <c r="AJ19" s="10">
         <f t="shared" ref="AJ19:AJ20" si="51">SUM(S19:V19)</f>
         <v>25839.200000000001</v>
       </c>
-      <c r="AK19" s="8">
+      <c r="AK19" s="2">
         <f>+AJ19*1.03</f>
         <v>26614.376</v>
       </c>
-      <c r="AL19" s="8">
+      <c r="AL19" s="2">
         <f t="shared" ref="AL19:BB19" si="52">+AK19*1.03</f>
         <v>27412.807280000001</v>
       </c>
-      <c r="AM19" s="8">
+      <c r="AM19" s="2">
         <f t="shared" si="52"/>
         <v>28235.191498400003</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="2">
         <f t="shared" si="52"/>
         <v>29082.247243352005</v>
       </c>
-      <c r="AO19" s="8">
+      <c r="AO19" s="2">
         <f t="shared" si="52"/>
         <v>29954.714660652568</v>
       </c>
-      <c r="AP19" s="8">
+      <c r="AP19" s="2">
         <f t="shared" si="52"/>
         <v>30853.356100472145</v>
       </c>
-      <c r="AQ19" s="8">
+      <c r="AQ19" s="2">
         <f t="shared" si="52"/>
         <v>31778.956783486312</v>
       </c>
-      <c r="AR19" s="8">
+      <c r="AR19" s="2">
         <f t="shared" si="52"/>
         <v>32732.325486990903</v>
       </c>
-      <c r="AS19" s="8">
+      <c r="AS19" s="2">
         <f t="shared" si="52"/>
         <v>33714.295251600633</v>
       </c>
-      <c r="AT19" s="8">
+      <c r="AT19" s="2">
         <f t="shared" si="52"/>
         <v>34725.72410914865</v>
       </c>
-      <c r="AU19" s="8">
+      <c r="AU19" s="2">
         <f t="shared" si="52"/>
         <v>35767.495832423112</v>
       </c>
-      <c r="AV19" s="8">
+      <c r="AV19" s="2">
         <f t="shared" si="52"/>
         <v>36840.520707395808</v>
       </c>
-      <c r="AW19" s="8">
+      <c r="AW19" s="2">
         <f t="shared" si="52"/>
         <v>37945.736328617684</v>
       </c>
-      <c r="AX19" s="8">
+      <c r="AX19" s="2">
         <f t="shared" si="52"/>
         <v>39084.108418476215</v>
       </c>
-      <c r="AY19" s="8">
+      <c r="AY19" s="2">
         <f t="shared" si="52"/>
         <v>40256.631671030504</v>
       </c>
-      <c r="AZ19" s="8">
+      <c r="AZ19" s="2">
         <f t="shared" si="52"/>
         <v>41464.330621161418</v>
       </c>
-      <c r="BA19" s="8">
+      <c r="BA19" s="2">
         <f t="shared" si="52"/>
         <v>42708.260539796262</v>
       </c>
-      <c r="BB19" s="8">
+      <c r="BB19" s="2">
         <f t="shared" si="52"/>
         <v>43989.508355990154</v>
       </c>
     </row>
-    <row r="20" spans="2:54" s="8" customFormat="1">
-      <c r="B20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="8">
+    <row r="20" spans="2:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
         <v>4231</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="2">
         <v>4150</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="2">
         <v>4108</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="2">
         <f>16705-E20-D20-C20</f>
         <v>4216</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="2">
         <v>5197</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="2">
         <v>4952</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="2">
         <v>4831</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="2">
         <v>4936</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="2">
         <v>5631</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="2">
         <v>5314</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="2">
         <v>5412</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="2">
         <v>5616</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="2">
         <v>6449</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="2">
         <v>6193</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="2">
         <v>6012</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="2">
         <f>+R20*1.1</f>
         <v>6177.6</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AF20" s="10">
         <v>16705</v>
       </c>
-      <c r="AG20" s="7">
+      <c r="AG20" s="10">
         <v>18245</v>
       </c>
-      <c r="AH20" s="7">
+      <c r="AH20" s="10">
         <f>SUM(K20:N20)</f>
         <v>19916</v>
       </c>
-      <c r="AI20" s="7">
+      <c r="AI20" s="10">
         <f t="shared" si="50"/>
         <v>21973</v>
       </c>
-      <c r="AJ20" s="7">
+      <c r="AJ20" s="10">
         <f t="shared" si="51"/>
         <v>24831.599999999999</v>
       </c>
-      <c r="AK20" s="8">
+      <c r="AK20" s="2">
         <f t="shared" ref="AK20:BB20" si="53">+AJ20*1.03</f>
         <v>25576.547999999999</v>
       </c>
-      <c r="AL20" s="8">
+      <c r="AL20" s="2">
         <f t="shared" si="53"/>
         <v>26343.844440000001</v>
       </c>
-      <c r="AM20" s="8">
+      <c r="AM20" s="2">
         <f t="shared" si="53"/>
         <v>27134.159773200001</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="2">
         <f t="shared" si="53"/>
         <v>27948.184566396001</v>
       </c>
-      <c r="AO20" s="8">
+      <c r="AO20" s="2">
         <f t="shared" si="53"/>
         <v>28786.630103387881</v>
       </c>
-      <c r="AP20" s="8">
+      <c r="AP20" s="2">
         <f t="shared" si="53"/>
         <v>29650.229006489517</v>
       </c>
-      <c r="AQ20" s="8">
+      <c r="AQ20" s="2">
         <f t="shared" si="53"/>
         <v>30539.735876684204</v>
       </c>
-      <c r="AR20" s="8">
+      <c r="AR20" s="2">
         <f t="shared" si="53"/>
         <v>31455.92795298473</v>
       </c>
-      <c r="AS20" s="8">
+      <c r="AS20" s="2">
         <f t="shared" si="53"/>
         <v>32399.605791574271</v>
       </c>
-      <c r="AT20" s="8">
+      <c r="AT20" s="2">
         <f t="shared" si="53"/>
         <v>33371.593965321503</v>
       </c>
-      <c r="AU20" s="8">
+      <c r="AU20" s="2">
         <f t="shared" si="53"/>
         <v>34372.741784281148</v>
       </c>
-      <c r="AV20" s="8">
+      <c r="AV20" s="2">
         <f t="shared" si="53"/>
         <v>35403.924037809586</v>
       </c>
-      <c r="AW20" s="8">
+      <c r="AW20" s="2">
         <f t="shared" si="53"/>
         <v>36466.041758943873</v>
       </c>
-      <c r="AX20" s="8">
+      <c r="AX20" s="2">
         <f t="shared" si="53"/>
         <v>37560.02301171219</v>
       </c>
-      <c r="AY20" s="8">
+      <c r="AY20" s="2">
         <f t="shared" si="53"/>
         <v>38686.823702063557</v>
       </c>
-      <c r="AZ20" s="8">
+      <c r="AZ20" s="2">
         <f t="shared" si="53"/>
         <v>39847.428413125468</v>
       </c>
-      <c r="BA20" s="8">
+      <c r="BA20" s="2">
         <f t="shared" si="53"/>
         <v>41042.851265519232</v>
       </c>
-      <c r="BB20" s="8">
+      <c r="BB20" s="2">
         <f t="shared" si="53"/>
         <v>42274.136803484813</v>
       </c>
     </row>
-    <row r="21" spans="2:54" s="8" customFormat="1">
-      <c r="B21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8">
+    <row r="21" spans="2:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2">
         <f t="shared" ref="C21" si="54">+C19+C20</f>
         <v>7638</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="2">
         <f t="shared" ref="D21:F21" si="55">+D19+D20</f>
         <v>7528</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="2">
         <f t="shared" si="55"/>
         <v>7809</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="2">
         <f t="shared" si="55"/>
         <v>7966</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="2">
         <f t="shared" ref="K21:N21" si="56">+K19+K20</f>
         <v>9648</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="2">
         <f t="shared" si="56"/>
         <v>9517</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="2">
         <f t="shared" si="56"/>
         <v>9589</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="2">
         <f t="shared" si="56"/>
         <v>9914</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="2">
         <f>+O19+O20</f>
         <v>10794</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="2">
         <f>+P19+P20</f>
         <v>10576</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="2">
         <f>+Q19+Q20</f>
         <v>11129</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="2">
         <f t="shared" ref="R21" si="57">+R19+R20</f>
         <v>11388</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="2">
         <f t="shared" ref="S21" si="58">+S19+S20</f>
         <v>12755</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="2">
         <f>+T19+T20</f>
         <v>12580</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="2">
         <f t="shared" ref="U21" si="59">+U19+U20</f>
         <v>12809</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="2">
         <f t="shared" ref="V21" si="60">+V19+V20</f>
         <v>12526.800000000001</v>
       </c>
-      <c r="AF21" s="8">
+      <c r="AF21" s="2">
         <f t="shared" ref="AF21:AG21" si="61">+AF19+AF20</f>
         <v>30941</v>
       </c>
-      <c r="AG21" s="8">
+      <c r="AG21" s="2">
         <f t="shared" si="61"/>
         <v>34462</v>
       </c>
-      <c r="AH21" s="8">
+      <c r="AH21" s="2">
         <f>+AH19+AH20</f>
         <v>38668</v>
       </c>
-      <c r="AI21" s="8">
+      <c r="AI21" s="2">
         <f>+AI19+AI20</f>
         <v>43887</v>
       </c>
-      <c r="AJ21" s="8">
+      <c r="AJ21" s="2">
         <f>+AJ19+AJ20</f>
         <v>50670.8</v>
       </c>
-      <c r="AK21" s="8">
+      <c r="AK21" s="2">
         <f t="shared" ref="AK21:BB21" si="62">+AK19+AK20</f>
         <v>52190.923999999999</v>
       </c>
-      <c r="AL21" s="8">
+      <c r="AL21" s="2">
         <f t="shared" si="62"/>
         <v>53756.651720000002</v>
       </c>
-      <c r="AM21" s="8">
+      <c r="AM21" s="2">
         <f t="shared" si="62"/>
         <v>55369.351271600004</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="2">
         <f t="shared" si="62"/>
         <v>57030.431809748006</v>
       </c>
-      <c r="AO21" s="8">
+      <c r="AO21" s="2">
         <f t="shared" si="62"/>
         <v>58741.344764040448</v>
       </c>
-      <c r="AP21" s="8">
+      <c r="AP21" s="2">
         <f t="shared" si="62"/>
         <v>60503.585106961662</v>
       </c>
-      <c r="AQ21" s="8">
+      <c r="AQ21" s="2">
         <f t="shared" si="62"/>
         <v>62318.69266017052</v>
       </c>
-      <c r="AR21" s="8">
+      <c r="AR21" s="2">
         <f t="shared" si="62"/>
         <v>64188.253439975633</v>
       </c>
-      <c r="AS21" s="8">
+      <c r="AS21" s="2">
         <f t="shared" si="62"/>
         <v>66113.901043174905</v>
       </c>
-      <c r="AT21" s="8">
+      <c r="AT21" s="2">
         <f t="shared" si="62"/>
         <v>68097.318074470153</v>
       </c>
-      <c r="AU21" s="8">
+      <c r="AU21" s="2">
         <f t="shared" si="62"/>
         <v>70140.237616704253</v>
       </c>
-      <c r="AV21" s="8">
+      <c r="AV21" s="2">
         <f t="shared" si="62"/>
         <v>72244.444745205401</v>
       </c>
-      <c r="AW21" s="8">
+      <c r="AW21" s="2">
         <f t="shared" si="62"/>
         <v>74411.778087561557</v>
       </c>
-      <c r="AX21" s="8">
+      <c r="AX21" s="2">
         <f t="shared" si="62"/>
         <v>76644.131430188398</v>
       </c>
-      <c r="AY21" s="8">
+      <c r="AY21" s="2">
         <f t="shared" si="62"/>
         <v>78943.455373094068</v>
       </c>
-      <c r="AZ21" s="8">
+      <c r="AZ21" s="2">
         <f t="shared" si="62"/>
         <v>81311.759034286893</v>
       </c>
-      <c r="BA21" s="8">
+      <c r="BA21" s="2">
         <f t="shared" si="62"/>
         <v>83751.111805315493</v>
       </c>
-      <c r="BB21" s="8">
+      <c r="BB21" s="2">
         <f t="shared" si="62"/>
         <v>86263.645159474967</v>
       </c>
     </row>
-    <row r="22" spans="2:54" s="8" customFormat="1">
-      <c r="B22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="8">
+    <row r="22" spans="2:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2">
         <f t="shared" ref="C22" si="63">+C18-C21</f>
         <v>26274</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="2">
         <f t="shared" ref="D22:F22" si="64">+D18-D21</f>
         <v>15894</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="2">
         <f t="shared" si="64"/>
         <v>12612</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="2">
         <f t="shared" si="64"/>
         <v>16118</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="2">
         <f t="shared" ref="K22:N22" si="65">+K18-K21</f>
         <v>25569</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="2">
         <f t="shared" si="65"/>
         <v>12853</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="2">
         <f t="shared" si="65"/>
         <v>13091</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="2">
         <f t="shared" si="65"/>
         <v>14775</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="2">
         <f>+O18-O21</f>
         <v>33534</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="2">
         <f>+P18-P21</f>
         <v>27503</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="2">
         <f>+Q18-Q21</f>
         <v>24126</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="2">
         <f t="shared" ref="R22" si="66">+R18-R21</f>
         <v>23786</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="2">
         <f t="shared" ref="S22" si="67">+S18-S21</f>
         <v>41488</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="2">
         <f>+T18-T21</f>
         <v>29979</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="2">
         <f t="shared" ref="U22" si="68">+U18-U21</f>
         <v>23076</v>
       </c>
-      <c r="V22" s="8">
+      <c r="V22" s="2">
         <f t="shared" ref="V22" si="69">+V18-V21</f>
         <v>23832.767999999996</v>
       </c>
-      <c r="AF22" s="8">
+      <c r="AF22" s="2">
         <f t="shared" ref="AF22:AG22" si="70">+AF18-AF21</f>
         <v>70898</v>
       </c>
-      <c r="AG22" s="8">
+      <c r="AG22" s="2">
         <f t="shared" si="70"/>
         <v>63930</v>
       </c>
-      <c r="AH22" s="8">
+      <c r="AH22" s="2">
         <f>+AH18-AH21</f>
         <v>66288</v>
       </c>
-      <c r="AI22" s="8">
+      <c r="AI22" s="2">
         <f>+AI18-AI21</f>
         <v>108949</v>
       </c>
-      <c r="AJ22" s="8">
+      <c r="AJ22" s="2">
         <f>+AJ18-AJ21</f>
         <v>118375.76800000003</v>
       </c>
-      <c r="AK22" s="8">
+      <c r="AK22" s="2">
         <f t="shared" ref="AK22:BB22" si="71">+AK18-AK21</f>
         <v>131717.97064740001</v>
       </c>
-      <c r="AL22" s="8">
+      <c r="AL22" s="2">
         <f t="shared" si="71"/>
         <v>146818.21591755273</v>
       </c>
-      <c r="AM22" s="8">
+      <c r="AM22" s="2">
         <f t="shared" si="71"/>
         <v>163758.76768436498</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="2">
         <f t="shared" si="71"/>
         <v>177523.44101416861</v>
       </c>
-      <c r="AO22" s="8">
+      <c r="AO22" s="2">
         <f t="shared" si="71"/>
         <v>192461.87573052832</v>
       </c>
-      <c r="AP22" s="8">
+      <c r="AP22" s="2">
         <f t="shared" si="71"/>
         <v>208678.88735379901</v>
       </c>
-      <c r="AQ22" s="8">
+      <c r="AQ22" s="2">
         <f t="shared" si="71"/>
         <v>220448.64816745362</v>
       </c>
-      <c r="AR22" s="8">
+      <c r="AR22" s="2">
         <f t="shared" si="71"/>
         <v>231580.15081579002</v>
       </c>
-      <c r="AS22" s="8">
+      <c r="AS22" s="2">
         <f t="shared" si="71"/>
         <v>243264.14364297211</v>
       </c>
-      <c r="AT22" s="8">
+      <c r="AT22" s="2">
         <f t="shared" si="71"/>
         <v>255527.96084809909</v>
       </c>
-      <c r="AU22" s="8">
+      <c r="AU22" s="2">
         <f t="shared" si="71"/>
         <v>268400.29557398416</v>
       </c>
-      <c r="AV22" s="8">
+      <c r="AV22" s="2">
         <f t="shared" si="71"/>
         <v>280664.53775069216</v>
       </c>
-      <c r="AW22" s="8">
+      <c r="AW22" s="2">
         <f t="shared" si="71"/>
         <v>293221.90684793302</v>
       </c>
-      <c r="AX22" s="8">
+      <c r="AX22" s="2">
         <f t="shared" si="71"/>
         <v>306358.33658669866</v>
       </c>
-      <c r="AY22" s="8">
+      <c r="AY22" s="2">
         <f t="shared" si="71"/>
         <v>320101.13941655721</v>
       </c>
-      <c r="AZ22" s="8">
+      <c r="AZ22" s="2">
         <f t="shared" si="71"/>
         <v>334478.93728719576</v>
       </c>
-      <c r="BA22" s="8">
+      <c r="BA22" s="2">
         <f t="shared" si="71"/>
         <v>349521.72516805964</v>
       </c>
-      <c r="BB22" s="8">
+      <c r="BB22" s="2">
         <f t="shared" si="71"/>
         <v>365260.93767458329</v>
       </c>
     </row>
-    <row r="23" spans="2:54" s="8" customFormat="1">
-      <c r="B23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="8">
+    <row r="23" spans="2:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
         <v>756</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="2">
         <v>274</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="2">
         <v>672</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="2">
         <f>2005-E23-D23-C23</f>
         <v>303</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="2">
         <v>349</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="2">
         <v>282</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="2">
         <v>46</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="2">
         <v>126</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="2">
         <v>45</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="2">
         <v>508</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="2">
         <v>243</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="2">
         <v>-538</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="2">
         <v>-247</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="2">
         <v>160</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="2">
         <v>-10</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V23" s="2">
         <v>0</v>
       </c>
-      <c r="AF23" s="7">
+      <c r="AF23" s="10">
         <v>2005</v>
       </c>
-      <c r="AG23" s="7">
+      <c r="AG23" s="10">
         <v>1807</v>
       </c>
-      <c r="AH23" s="7">
+      <c r="AH23" s="10">
         <f>SUM(K23:N23)</f>
         <v>803</v>
       </c>
-      <c r="AI23" s="7">
+      <c r="AI23" s="10">
         <f t="shared" ref="AI23" si="72">SUM(O23:R23)</f>
         <v>258</v>
       </c>
-      <c r="AJ23" s="7">
+      <c r="AJ23" s="10">
         <f t="shared" ref="AJ23" si="73">SUM(S23:V23)</f>
         <v>-97</v>
       </c>
     </row>
-    <row r="24" spans="2:54" s="8" customFormat="1">
-      <c r="B24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="8">
+    <row r="24" spans="2:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2">
         <f t="shared" ref="C24" si="74">+C22+C23</f>
         <v>27030</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="2">
         <f t="shared" ref="D24:F24" si="75">+D22+D23</f>
         <v>16168</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="2">
         <f t="shared" si="75"/>
         <v>13284</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="2">
         <f t="shared" si="75"/>
         <v>16421</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="2">
         <f t="shared" ref="K24:N24" si="76">+K22+K23</f>
         <v>25918</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="2">
         <f t="shared" si="76"/>
         <v>13135</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="2">
         <f t="shared" si="76"/>
         <v>13137</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="2">
         <f t="shared" si="76"/>
         <v>14901</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="2">
         <f>+O22+O23</f>
         <v>33579</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="2">
         <f>+P22+P23</f>
         <v>28011</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="2">
         <f>+Q22+Q23</f>
         <v>24369</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="2">
         <f t="shared" ref="R24" si="77">+R22+R23</f>
         <v>23248</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="2">
         <f t="shared" ref="S24" si="78">+S22+S23</f>
         <v>41241</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="2">
         <f>+T22+T23</f>
         <v>30139</v>
       </c>
-      <c r="U24" s="8">
+      <c r="U24" s="2">
         <f t="shared" ref="U24:V24" si="79">+U22+U23</f>
         <v>23066</v>
       </c>
-      <c r="V24" s="8">
+      <c r="V24" s="2">
         <f t="shared" si="79"/>
         <v>23832.767999999996</v>
       </c>
-      <c r="AF24" s="8">
+      <c r="AF24" s="2">
         <f t="shared" ref="AF24:AG24" si="80">+AF22+AF23</f>
         <v>72903</v>
       </c>
-      <c r="AG24" s="8">
+      <c r="AG24" s="2">
         <f t="shared" si="80"/>
         <v>65737</v>
       </c>
-      <c r="AH24" s="8">
+      <c r="AH24" s="2">
         <f>+AH22+AH23</f>
         <v>67091</v>
       </c>
-      <c r="AI24" s="8">
+      <c r="AI24" s="2">
         <f>+AI22+AI23</f>
         <v>109207</v>
       </c>
-      <c r="AJ24" s="8">
+      <c r="AJ24" s="2">
         <f>+AJ22+AJ23</f>
         <v>118278.76800000003</v>
       </c>
-      <c r="AK24" s="8">
+      <c r="AK24" s="2">
         <f t="shared" ref="AK24:BB24" si="81">+AK22+AK23</f>
         <v>131717.97064740001</v>
       </c>
-      <c r="AL24" s="8">
+      <c r="AL24" s="2">
         <f t="shared" si="81"/>
         <v>146818.21591755273</v>
       </c>
-      <c r="AM24" s="8">
+      <c r="AM24" s="2">
         <f t="shared" si="81"/>
         <v>163758.76768436498</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="2">
         <f t="shared" si="81"/>
         <v>177523.44101416861</v>
       </c>
-      <c r="AO24" s="8">
+      <c r="AO24" s="2">
         <f t="shared" si="81"/>
         <v>192461.87573052832</v>
       </c>
-      <c r="AP24" s="8">
+      <c r="AP24" s="2">
         <f t="shared" si="81"/>
         <v>208678.88735379901</v>
       </c>
-      <c r="AQ24" s="8">
+      <c r="AQ24" s="2">
         <f t="shared" si="81"/>
         <v>220448.64816745362</v>
       </c>
-      <c r="AR24" s="8">
+      <c r="AR24" s="2">
         <f t="shared" si="81"/>
         <v>231580.15081579002</v>
       </c>
-      <c r="AS24" s="8">
+      <c r="AS24" s="2">
         <f t="shared" si="81"/>
         <v>243264.14364297211</v>
       </c>
-      <c r="AT24" s="8">
+      <c r="AT24" s="2">
         <f t="shared" si="81"/>
         <v>255527.96084809909</v>
       </c>
-      <c r="AU24" s="8">
+      <c r="AU24" s="2">
         <f t="shared" si="81"/>
         <v>268400.29557398416</v>
       </c>
-      <c r="AV24" s="8">
+      <c r="AV24" s="2">
         <f t="shared" si="81"/>
         <v>280664.53775069216</v>
       </c>
-      <c r="AW24" s="8">
+      <c r="AW24" s="2">
         <f t="shared" si="81"/>
         <v>293221.90684793302</v>
       </c>
-      <c r="AX24" s="8">
+      <c r="AX24" s="2">
         <f t="shared" si="81"/>
         <v>306358.33658669866</v>
       </c>
-      <c r="AY24" s="8">
+      <c r="AY24" s="2">
         <f t="shared" si="81"/>
         <v>320101.13941655721</v>
       </c>
-      <c r="AZ24" s="8">
+      <c r="AZ24" s="2">
         <f t="shared" si="81"/>
         <v>334478.93728719576</v>
       </c>
-      <c r="BA24" s="8">
+      <c r="BA24" s="2">
         <f t="shared" si="81"/>
         <v>349521.72516805964</v>
       </c>
-      <c r="BB24" s="8">
+      <c r="BB24" s="2">
         <f t="shared" si="81"/>
         <v>365260.93767458329</v>
       </c>
     </row>
-    <row r="25" spans="2:54" s="8" customFormat="1">
-      <c r="B25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="8">
+    <row r="25" spans="2:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2">
         <v>6965</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="2">
         <v>2346</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="2">
         <v>1765</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="2">
         <f>13372-E25-D25-C25</f>
         <v>2296</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="2">
         <v>3682</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="2">
         <v>1886</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="2">
         <v>1884</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="2">
         <v>2228</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="2">
         <v>4824</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="2">
         <v>4381</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="2">
         <v>2625</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="2">
         <v>2697</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="2">
         <v>6611</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="2">
         <v>5129</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="2">
         <v>3624</v>
       </c>
-      <c r="V25" s="8">
+      <c r="V25" s="2">
         <f>+V24*0.15</f>
         <v>3574.9151999999995</v>
       </c>
-      <c r="AF25" s="7">
+      <c r="AF25" s="10">
         <v>13372</v>
       </c>
-      <c r="AG25" s="7">
+      <c r="AG25" s="10">
         <v>10481</v>
       </c>
-      <c r="AH25" s="7">
+      <c r="AH25" s="10">
         <f>SUM(K25:N25)</f>
         <v>9680</v>
       </c>
-      <c r="AI25" s="7">
+      <c r="AI25" s="10">
         <f t="shared" ref="AI25" si="82">SUM(O25:R25)</f>
         <v>14527</v>
       </c>
-      <c r="AJ25" s="7">
+      <c r="AJ25" s="10">
         <f t="shared" ref="AJ25" si="83">SUM(S25:V25)</f>
         <v>18938.915199999999</v>
       </c>
-      <c r="AK25" s="8">
+      <c r="AK25" s="2">
         <f>+AK24*0.2</f>
         <v>26343.594129480003</v>
       </c>
-      <c r="AL25" s="8">
+      <c r="AL25" s="2">
         <f t="shared" ref="AL25:BB25" si="84">+AL24*0.2</f>
         <v>29363.643183510547</v>
       </c>
-      <c r="AM25" s="8">
+      <c r="AM25" s="2">
         <f t="shared" si="84"/>
         <v>32751.753536872999</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="2">
         <f t="shared" si="84"/>
         <v>35504.68820283372</v>
       </c>
-      <c r="AO25" s="8">
+      <c r="AO25" s="2">
         <f t="shared" si="84"/>
         <v>38492.375146105667</v>
       </c>
-      <c r="AP25" s="8">
+      <c r="AP25" s="2">
         <f t="shared" si="84"/>
         <v>41735.777470759807</v>
       </c>
-      <c r="AQ25" s="8">
+      <c r="AQ25" s="2">
         <f t="shared" si="84"/>
         <v>44089.72963349073</v>
       </c>
-      <c r="AR25" s="8">
+      <c r="AR25" s="2">
         <f t="shared" si="84"/>
         <v>46316.030163158008</v>
       </c>
-      <c r="AS25" s="8">
+      <c r="AS25" s="2">
         <f t="shared" si="84"/>
         <v>48652.828728594424</v>
       </c>
-      <c r="AT25" s="8">
+      <c r="AT25" s="2">
         <f t="shared" si="84"/>
         <v>51105.59216961982</v>
       </c>
-      <c r="AU25" s="8">
+      <c r="AU25" s="2">
         <f t="shared" si="84"/>
         <v>53680.059114796837</v>
       </c>
-      <c r="AV25" s="8">
+      <c r="AV25" s="2">
         <f t="shared" si="84"/>
         <v>56132.907550138436</v>
       </c>
-      <c r="AW25" s="8">
+      <c r="AW25" s="2">
         <f t="shared" si="84"/>
         <v>58644.381369586605</v>
       </c>
-      <c r="AX25" s="8">
+      <c r="AX25" s="2">
         <f t="shared" si="84"/>
         <v>61271.667317339736</v>
       </c>
-      <c r="AY25" s="8">
+      <c r="AY25" s="2">
         <f t="shared" si="84"/>
         <v>64020.227883311447</v>
       </c>
-      <c r="AZ25" s="8">
+      <c r="AZ25" s="2">
         <f t="shared" si="84"/>
         <v>66895.787457439161</v>
       </c>
-      <c r="BA25" s="8">
+      <c r="BA25" s="2">
         <f t="shared" si="84"/>
         <v>69904.345033611928</v>
       </c>
-      <c r="BB25" s="8">
+      <c r="BB25" s="2">
         <f t="shared" si="84"/>
         <v>73052.187534916666</v>
       </c>
     </row>
-    <row r="26" spans="2:54" s="8" customFormat="1">
-      <c r="B26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="8">
+    <row r="26" spans="2:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2">
         <f t="shared" ref="C26" si="85">+C24-C25</f>
         <v>20065</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="2">
         <f t="shared" ref="D26:F26" si="86">+D24-D25</f>
         <v>13822</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="2">
         <f t="shared" si="86"/>
         <v>11519</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="2">
         <f t="shared" si="86"/>
         <v>14125</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="2">
         <f t="shared" ref="K26:N26" si="87">+K24-K25</f>
         <v>22236</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="2">
         <f t="shared" si="87"/>
         <v>11249</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="2">
         <f t="shared" si="87"/>
         <v>11253</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="2">
         <f t="shared" si="87"/>
         <v>12673</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="2">
         <f>+O24-O25</f>
         <v>28755</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="2">
         <f>+P24-P25</f>
         <v>23630</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="2">
         <f>+Q24-Q25</f>
         <v>21744</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="2">
         <f t="shared" ref="R26" si="88">+R24-R25</f>
         <v>20551</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="2">
         <f t="shared" ref="S26" si="89">+S24-S25</f>
         <v>34630</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="2">
         <f>+T24-T25</f>
         <v>25010</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="2">
         <f t="shared" ref="U26:V26" si="90">+U24-U25</f>
         <v>19442</v>
       </c>
-      <c r="V26" s="8">
+      <c r="V26" s="2">
         <f t="shared" si="90"/>
         <v>20257.852799999997</v>
       </c>
-      <c r="AF26" s="8">
+      <c r="AF26" s="2">
         <f t="shared" ref="AF26:AG26" si="91">+AF24-AF25</f>
         <v>59531</v>
       </c>
-      <c r="AG26" s="8">
+      <c r="AG26" s="2">
         <f t="shared" si="91"/>
         <v>55256</v>
       </c>
-      <c r="AH26" s="8">
+      <c r="AH26" s="2">
         <f>+AH24-AH25</f>
         <v>57411</v>
       </c>
-      <c r="AI26" s="8">
+      <c r="AI26" s="2">
         <f>+AI24-AI25</f>
         <v>94680</v>
       </c>
-      <c r="AJ26" s="8">
+      <c r="AJ26" s="2">
         <f>+AJ24-AJ25</f>
         <v>99339.852800000022</v>
       </c>
-      <c r="AK26" s="8">
+      <c r="AK26" s="2">
         <f>+AK24-AK25</f>
         <v>105374.37651792001</v>
       </c>
-      <c r="AL26" s="8">
+      <c r="AL26" s="2">
         <f t="shared" ref="AL26:BB26" si="92">+AL24-AL25</f>
         <v>117454.57273404219</v>
       </c>
-      <c r="AM26" s="8">
+      <c r="AM26" s="2">
         <f t="shared" si="92"/>
         <v>131007.01414749198</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="2">
         <f t="shared" si="92"/>
         <v>142018.75281133488</v>
       </c>
-      <c r="AO26" s="8">
+      <c r="AO26" s="2">
         <f t="shared" si="92"/>
         <v>153969.50058442267</v>
       </c>
-      <c r="AP26" s="8">
+      <c r="AP26" s="2">
         <f t="shared" si="92"/>
         <v>166943.1098830392</v>
       </c>
-      <c r="AQ26" s="8">
+      <c r="AQ26" s="2">
         <f t="shared" si="92"/>
         <v>176358.91853396289</v>
       </c>
-      <c r="AR26" s="8">
+      <c r="AR26" s="2">
         <f t="shared" si="92"/>
         <v>185264.12065263203</v>
       </c>
-      <c r="AS26" s="8">
+      <c r="AS26" s="2">
         <f t="shared" si="92"/>
         <v>194611.3149143777</v>
       </c>
-      <c r="AT26" s="8">
+      <c r="AT26" s="2">
         <f t="shared" si="92"/>
         <v>204422.36867847928</v>
       </c>
-      <c r="AU26" s="8">
+      <c r="AU26" s="2">
         <f t="shared" si="92"/>
         <v>214720.23645918732</v>
       </c>
-      <c r="AV26" s="8">
+      <c r="AV26" s="2">
         <f t="shared" si="92"/>
         <v>224531.63020055374</v>
       </c>
-      <c r="AW26" s="8">
+      <c r="AW26" s="2">
         <f t="shared" si="92"/>
         <v>234577.52547834642</v>
       </c>
-      <c r="AX26" s="8">
+      <c r="AX26" s="2">
         <f t="shared" si="92"/>
         <v>245086.66926935891</v>
       </c>
-      <c r="AY26" s="8">
+      <c r="AY26" s="2">
         <f t="shared" si="92"/>
         <v>256080.91153324576</v>
       </c>
-      <c r="AZ26" s="8">
+      <c r="AZ26" s="2">
         <f t="shared" si="92"/>
         <v>267583.14982975658</v>
       </c>
-      <c r="BA26" s="8">
+      <c r="BA26" s="2">
         <f t="shared" si="92"/>
         <v>279617.38013444771</v>
       </c>
-      <c r="BB26" s="8">
+      <c r="BB26" s="2">
         <f t="shared" si="92"/>
         <v>292208.7501396666</v>
       </c>
     </row>
-    <row r="27" spans="2:54" s="11" customFormat="1">
-      <c r="B27" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="12">
+    <row r="27" spans="2:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="14">
         <f t="shared" ref="C27" si="93">+C26/C28</f>
         <v>0.97255857987156114</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="14">
         <f t="shared" ref="D27:F27" si="94">+D26/D28</f>
         <v>0.68176083107937602</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="14">
         <f t="shared" si="94"/>
         <v>0.58452984598534197</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="14">
         <f t="shared" si="94"/>
         <v>0.70623460408563088</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12">
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14">
         <f t="shared" ref="K27:N27" si="95">+K26/K28</f>
         <v>1.2479223042091785</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="14">
         <f t="shared" si="95"/>
         <v>0.63846699811252383</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="14">
         <f t="shared" si="95"/>
         <v>0.64601300384622584</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="14">
         <f t="shared" si="95"/>
         <v>0.73438904632051849</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="14">
         <f>+O26/O28</f>
         <v>1.6802339741147556</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="14">
         <f>+P26/P28</f>
         <v>1.3958166966021994</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q27" s="14">
         <f>+Q26/Q28</f>
         <v>1.2956943963183782</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="14">
         <f t="shared" ref="R27" si="96">+R26/R28</f>
         <v>1.2354000701047909</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="14">
         <f t="shared" ref="S27" si="97">+S26/S28</f>
         <v>2.0963369432743812</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T27" s="14">
         <f>+T26/T28</f>
         <v>1.5246917147727936</v>
       </c>
-      <c r="U27" s="12">
+      <c r="U27" s="14">
         <f t="shared" ref="U27:V27" si="98">+U26/U28</f>
         <v>1.1955329791418789</v>
       </c>
-      <c r="V27" s="12">
+      <c r="V27" s="14">
         <f t="shared" si="98"/>
         <v>1.2495434951067415</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AF27" s="14">
         <f t="shared" ref="AF27:AG27" si="99">+AF26/AF28</f>
         <v>2.9764851126245446</v>
       </c>
-      <c r="AG27" s="12">
+      <c r="AG27" s="14">
         <f t="shared" si="99"/>
         <v>2.9714474637107351</v>
       </c>
-      <c r="AH27" s="12">
+      <c r="AH27" s="14">
         <f>+AH26/AH28</f>
         <v>3.2753479151477172</v>
       </c>
-      <c r="AI27" s="12">
+      <c r="AI27" s="14">
         <f>+AI26/AI28</f>
         <v>5.6140203576723327</v>
       </c>
-      <c r="AJ27" s="12">
+      <c r="AJ27" s="14">
         <f>+AJ26/AJ28</f>
         <v>6.0761094883645539</v>
       </c>
-      <c r="AK27" s="12">
+      <c r="AK27" s="14">
         <f>+AK26/AK28</f>
         <v>6.4452103656734296</v>
       </c>
-      <c r="AL27" s="12">
+      <c r="AL27" s="14">
         <f t="shared" ref="AL27:BB27" si="100">+AL26/AL28</f>
         <v>7.184094034022146</v>
       </c>
-      <c r="AM27" s="12">
+      <c r="AM27" s="14">
         <f t="shared" si="100"/>
         <v>8.0130273930090343</v>
       </c>
-      <c r="AN27" s="12">
+      <c r="AN27" s="14">
         <f t="shared" si="100"/>
         <v>8.6865589907805028</v>
       </c>
-      <c r="AO27" s="12">
+      <c r="AO27" s="14">
         <f t="shared" si="100"/>
         <v>9.417524961540531</v>
       </c>
-      <c r="AP27" s="12">
+      <c r="AP27" s="14">
         <f t="shared" si="100"/>
         <v>10.211054127688627</v>
       </c>
-      <c r="AQ27" s="12">
+      <c r="AQ27" s="14">
         <f t="shared" si="100"/>
         <v>10.786970868774258</v>
       </c>
-      <c r="AR27" s="12">
+      <c r="AR27" s="14">
         <f t="shared" si="100"/>
         <v>11.33165642612038</v>
       </c>
-      <c r="AS27" s="12">
+      <c r="AS27" s="14">
         <f t="shared" si="100"/>
         <v>11.903376376800431</v>
       </c>
-      <c r="AT27" s="12">
+      <c r="AT27" s="14">
         <f t="shared" si="100"/>
         <v>12.503468235069345</v>
       </c>
-      <c r="AU27" s="12">
+      <c r="AU27" s="14">
         <f t="shared" si="100"/>
         <v>13.133336010877885</v>
       </c>
-      <c r="AV27" s="12">
+      <c r="AV27" s="14">
         <f t="shared" si="100"/>
         <v>13.733448663813054</v>
       </c>
-      <c r="AW27" s="12">
+      <c r="AW27" s="14">
         <f t="shared" si="100"/>
         <v>14.347904573460957</v>
       </c>
-      <c r="AX27" s="12">
+      <c r="AX27" s="14">
         <f t="shared" si="100"/>
         <v>14.990695019624757</v>
       </c>
-      <c r="AY27" s="12">
+      <c r="AY27" s="14">
         <f t="shared" si="100"/>
         <v>15.663156452313547</v>
       </c>
-      <c r="AZ27" s="12">
+      <c r="AZ27" s="14">
         <f t="shared" si="100"/>
         <v>16.366689397863269</v>
       </c>
-      <c r="BA27" s="12">
+      <c r="BA27" s="14">
         <f t="shared" si="100"/>
         <v>17.102761567073266</v>
       </c>
-      <c r="BB27" s="12">
+      <c r="BB27" s="14">
         <f t="shared" si="100"/>
         <v>17.872911115354249</v>
       </c>
     </row>
-    <row r="28" spans="2:54" s="8" customFormat="1">
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="2:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="2">
         <f>5157.787*4</f>
         <v>20631.148000000001</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="2">
         <f>5068.493*4</f>
         <v>20273.972000000002</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="2">
         <f>4926.609*4</f>
         <v>19706.436000000002</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="2">
         <f>5000.109*4</f>
         <v>20000.436000000002</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="2">
         <v>17818.417000000001</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="2">
         <v>17618.764999999999</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="2">
         <v>17419.153999999999</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="2">
         <v>17256.521000000001</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="2">
         <v>17113.687999999998</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="2">
         <v>16929.156999999999</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="2">
         <v>16781.735000000001</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="2">
         <v>16635.097000000002</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="2">
         <v>16519.291000000001</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="2">
         <v>16403.315999999999</v>
       </c>
-      <c r="U28" s="8">
+      <c r="U28" s="2">
         <v>16262.203</v>
       </c>
-      <c r="V28" s="8">
+      <c r="V28" s="2">
         <f>+U28-50</f>
         <v>16212.203</v>
       </c>
-      <c r="AF28" s="8">
+      <c r="AF28" s="2">
         <f>5000.109*4</f>
         <v>20000.436000000002</v>
       </c>
-      <c r="AG28" s="8">
+      <c r="AG28" s="2">
         <v>18595.651000000002</v>
       </c>
-      <c r="AH28" s="8">
+      <c r="AH28" s="2">
         <f>AVERAGE(K28:N28)</f>
         <v>17528.214249999997</v>
       </c>
-      <c r="AI28" s="8">
+      <c r="AI28" s="2">
         <f>AVERAGE(O28:R28)</f>
         <v>16864.919249999999</v>
       </c>
-      <c r="AJ28" s="8">
+      <c r="AJ28" s="2">
         <f>AVERAGE(S28:V28)</f>
         <v>16349.253250000002</v>
       </c>
-      <c r="AK28" s="8">
+      <c r="AK28" s="2">
         <f>+AJ28</f>
         <v>16349.253250000002</v>
       </c>
-      <c r="AL28" s="8">
+      <c r="AL28" s="2">
         <f t="shared" ref="AL28:BB28" si="101">+AK28</f>
         <v>16349.253250000002</v>
       </c>
-      <c r="AM28" s="8">
+      <c r="AM28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AO28" s="8">
+      <c r="AO28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AP28" s="8">
+      <c r="AP28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AQ28" s="8">
+      <c r="AQ28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AR28" s="8">
+      <c r="AR28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AS28" s="8">
+      <c r="AS28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AT28" s="8">
+      <c r="AT28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AU28" s="8">
+      <c r="AU28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AV28" s="8">
+      <c r="AV28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AW28" s="8">
+      <c r="AW28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AX28" s="8">
+      <c r="AX28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AY28" s="8">
+      <c r="AY28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="AZ28" s="8">
+      <c r="AZ28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="BA28" s="8">
+      <c r="BA28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
-      <c r="BB28" s="8">
+      <c r="BB28" s="2">
         <f t="shared" si="101"/>
         <v>16349.253250000002</v>
       </c>
     </row>
-    <row r="30" spans="2:54" s="11" customFormat="1">
-      <c r="B30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13">
+    <row r="30" spans="2:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15">
         <f>O14/K14-1</f>
         <v>0.21368126422635836</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="15">
         <f t="shared" ref="P30" si="102">P14/L14-1</f>
         <v>0.53626121105070901</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="15">
         <f t="shared" ref="Q30" si="103">Q14/M14-1</f>
         <v>0.36439641450950822</v>
       </c>
-      <c r="R30" s="13">
+      <c r="R30" s="15">
         <f t="shared" ref="R30" si="104">R14/N14-1</f>
         <v>0.28844786546724777</v>
       </c>
-      <c r="S30" s="13">
+      <c r="S30" s="15">
         <f>S14/O14-1</f>
         <v>0.11222283042740866</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="15">
         <f>T14/P14-1</f>
         <v>8.5885872477228009E-2</v>
       </c>
-      <c r="U30" s="13">
+      <c r="U30" s="15">
         <f>U14/Q14-1</f>
         <v>1.8726821720657316E-2</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="15">
         <f>V14/R14-1</f>
         <v>5.0357485604606289E-3</v>
       </c>
-      <c r="AC30" s="13">
+      <c r="AC30" s="15">
         <f t="shared" ref="AC30:AF30" si="105">+AC14/AB14-1</f>
         <v>0.27856341803659834</v>
       </c>
-      <c r="AD30" s="13">
+      <c r="AD30" s="15">
         <f t="shared" si="105"/>
         <v>-7.7342061913013738E-2</v>
       </c>
-      <c r="AE30" s="13">
+      <c r="AE30" s="15">
         <f t="shared" si="105"/>
         <v>6.304518199398057E-2</v>
       </c>
-      <c r="AF30" s="13">
+      <c r="AF30" s="15">
         <f t="shared" si="105"/>
         <v>0.15861957650261305</v>
       </c>
-      <c r="AG30" s="13">
+      <c r="AG30" s="15">
         <f>+AG14/AF14-1</f>
         <v>-2.04107758052674E-2</v>
       </c>
-      <c r="AH30" s="13">
+      <c r="AH30" s="15">
         <f>+AH14/AG14-1</f>
         <v>5.5120803769784787E-2</v>
       </c>
-      <c r="AI30" s="13">
+      <c r="AI30" s="15">
         <f t="shared" ref="AI30:BB30" si="106">+AI14/AH14-1</f>
         <v>0.33259384733074704</v>
       </c>
-      <c r="AJ30" s="13">
+      <c r="AJ30" s="15">
         <f t="shared" si="106"/>
         <v>6.0535130953454974E-2</v>
       </c>
-      <c r="AK30" s="13">
+      <c r="AK30" s="15">
         <f t="shared" si="106"/>
         <v>7.5957571683994196E-2</v>
       </c>
-      <c r="AL30" s="13">
+      <c r="AL30" s="15">
         <f t="shared" si="106"/>
         <v>7.7330794267343572E-2</v>
       </c>
-      <c r="AM30" s="13">
+      <c r="AM30" s="15">
         <f t="shared" si="106"/>
         <v>7.8762965712786404E-2</v>
       </c>
-      <c r="AN30" s="13">
+      <c r="AN30" s="15">
         <f t="shared" si="106"/>
         <v>6.2856220693250808E-2</v>
       </c>
-      <c r="AO30" s="13">
+      <c r="AO30" s="15">
         <f t="shared" si="106"/>
         <v>6.3334445173523823E-2</v>
       </c>
-      <c r="AP30" s="13">
+      <c r="AP30" s="15">
         <f t="shared" si="106"/>
         <v>6.3820946435338533E-2</v>
       </c>
-      <c r="AQ30" s="13">
+      <c r="AQ30" s="15">
         <f t="shared" si="106"/>
         <v>5.0598846077902992E-2</v>
       </c>
-      <c r="AR30" s="13">
+      <c r="AR30" s="15">
         <f t="shared" si="106"/>
         <v>4.4844570307350118E-2</v>
       </c>
-      <c r="AS30" s="13">
+      <c r="AS30" s="15">
         <f t="shared" si="106"/>
         <v>4.4885897384709272E-2</v>
       </c>
-      <c r="AT30" s="13">
+      <c r="AT30" s="15">
         <f t="shared" si="106"/>
         <v>4.492751128747563E-2</v>
       </c>
-      <c r="AU30" s="13">
+      <c r="AU30" s="15">
         <f t="shared" si="106"/>
         <v>4.4969411961353289E-2</v>
       </c>
-      <c r="AV30" s="13">
+      <c r="AV30" s="15">
         <f t="shared" si="106"/>
         <v>4.0270809618694559E-2</v>
       </c>
-      <c r="AW30" s="13">
+      <c r="AW30" s="15">
         <f t="shared" si="106"/>
         <v>3.9323580486675391E-2</v>
       </c>
-      <c r="AX30" s="13">
+      <c r="AX30" s="15">
         <f t="shared" si="106"/>
         <v>3.9403417041173894E-2</v>
       </c>
-      <c r="AY30" s="13">
+      <c r="AY30" s="15">
         <f t="shared" si="106"/>
         <v>3.948335156858751E-2</v>
       </c>
-      <c r="AZ30" s="13">
+      <c r="AZ30" s="15">
         <f t="shared" si="106"/>
         <v>3.9563372960891297E-2</v>
       </c>
-      <c r="BA30" s="13">
+      <c r="BA30" s="15">
         <f t="shared" si="106"/>
         <v>3.9643470059845809E-2</v>
       </c>
-      <c r="BB30" s="13">
+      <c r="BB30" s="15">
         <f t="shared" si="106"/>
         <v>3.9723631663388881E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:54" s="11" customFormat="1">
-      <c r="B31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13">
+    <row r="31" spans="2:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15">
         <f t="shared" ref="O31:V31" si="107">+O4/K4-1</f>
         <v>0.1722751398395197</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="15">
         <f t="shared" si="107"/>
         <v>0.65520336993301576</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="15">
         <f t="shared" si="107"/>
         <v>0.49784238019532134</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="15">
         <f t="shared" si="107"/>
         <v>0.46982302223566785</v>
       </c>
-      <c r="S31" s="13">
+      <c r="S31" s="15">
         <f t="shared" si="107"/>
         <v>9.1940180191167231E-2</v>
       </c>
-      <c r="T31" s="13">
+      <c r="T31" s="15">
         <f t="shared" si="107"/>
         <v>5.4904251324627618E-2</v>
       </c>
-      <c r="U31" s="13">
+      <c r="U31" s="15">
         <f t="shared" si="107"/>
         <v>2.7672479150871787E-2</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="15">
         <f t="shared" si="107"/>
         <v>-2.4999999999999467E-3</v>
       </c>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13">
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15">
         <f t="shared" ref="AE31:AJ31" si="108">+AE4/AD4-1</f>
         <v>3.3789319678127372E-2</v>
       </c>
-      <c r="AF31" s="13">
+      <c r="AF31" s="15">
         <f t="shared" si="108"/>
         <v>0.16677870633106662</v>
       </c>
-      <c r="AG31" s="13">
+      <c r="AG31" s="15">
         <f t="shared" si="108"/>
         <v>-0.13649871427878313</v>
       </c>
-      <c r="AH31" s="13">
+      <c r="AH31" s="15">
         <f t="shared" si="108"/>
         <v>-3.2307681502447672E-2</v>
       </c>
-      <c r="AI31" s="13">
+      <c r="AI31" s="15">
         <f t="shared" si="108"/>
         <v>0.39331983364905176</v>
       </c>
-      <c r="AJ31" s="13">
+      <c r="AJ31" s="15">
         <f t="shared" si="108"/>
         <v>5.0323899715064124E-2</v>
       </c>
-      <c r="AK31" s="13">
+      <c r="AK31" s="15">
         <f t="shared" ref="AK31:BB31" si="109">+AK4/AJ4-1</f>
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="AL31" s="13">
+      <c r="AL31" s="15">
         <f t="shared" si="109"/>
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="AM31" s="13">
+      <c r="AM31" s="15">
         <f t="shared" si="109"/>
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="AN31" s="13">
+      <c r="AN31" s="15">
         <f t="shared" si="109"/>
         <v>5.0400000000000222E-2</v>
       </c>
-      <c r="AO31" s="13">
+      <c r="AO31" s="15">
         <f t="shared" si="109"/>
         <v>5.04E-2</v>
       </c>
-      <c r="AP31" s="13">
+      <c r="AP31" s="15">
         <f t="shared" si="109"/>
         <v>5.0400000000000222E-2</v>
       </c>
-      <c r="AQ31" s="13">
+      <c r="AQ31" s="15">
         <f t="shared" si="109"/>
         <v>5.0400000000000222E-2</v>
       </c>
-      <c r="AR31" s="13">
+      <c r="AR31" s="15">
         <f t="shared" si="109"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AS31" s="13">
+      <c r="AS31" s="15">
         <f t="shared" si="109"/>
         <v>4.0300000000000225E-2</v>
       </c>
-      <c r="AT31" s="13">
+      <c r="AT31" s="15">
         <f t="shared" si="109"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AU31" s="13">
+      <c r="AU31" s="15">
         <f t="shared" si="109"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AV31" s="13">
+      <c r="AV31" s="15">
         <f t="shared" si="109"/>
         <v>3.0200000000000227E-2</v>
       </c>
-      <c r="AW31" s="13">
+      <c r="AW31" s="15">
         <f t="shared" si="109"/>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="AX31" s="13">
+      <c r="AX31" s="15">
         <f t="shared" si="109"/>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="AY31" s="13">
+      <c r="AY31" s="15">
         <f t="shared" si="109"/>
         <v>3.0199999999999783E-2</v>
       </c>
-      <c r="AZ31" s="13">
+      <c r="AZ31" s="15">
         <f t="shared" si="109"/>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="BA31" s="13">
+      <c r="BA31" s="15">
         <f t="shared" si="109"/>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="BB31" s="13">
+      <c r="BB31" s="15">
         <f t="shared" si="109"/>
         <v>3.0200000000000227E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:54" s="11" customFormat="1">
-      <c r="B32" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13">
+    <row r="32" spans="2:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15">
         <f>+O13/K13-1</f>
         <v>0.23955957530475813</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="15">
         <f t="shared" ref="P32:V32" si="110">+P13/L13-1</f>
         <v>0.26618219958046141</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="15">
         <f t="shared" si="110"/>
         <v>0.32912739434478566</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R32" s="15">
         <f t="shared" si="110"/>
         <v>0.25623754209911342</v>
       </c>
-      <c r="S32" s="13">
+      <c r="S32" s="15">
         <f t="shared" si="110"/>
         <v>0.23824630416851722</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T32" s="15">
         <f t="shared" si="110"/>
         <v>0.17277084196201398</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U32" s="15">
         <f t="shared" si="110"/>
         <v>0.12112547180601618</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="15">
         <f t="shared" si="110"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AG32" s="13">
+      <c r="AG32" s="15">
         <f>+AG13/AF13-1</f>
         <v>0.16461205595250084</v>
       </c>
-      <c r="AH32" s="13">
+      <c r="AH32" s="15">
         <f t="shared" ref="AH32:AJ32" si="111">+AH13/AG13-1</f>
         <v>0.16152167807997242</v>
       </c>
-      <c r="AI32" s="13">
+      <c r="AI32" s="15">
         <f t="shared" si="111"/>
         <v>0.27259708376729663</v>
       </c>
-      <c r="AJ32" s="13">
+      <c r="AJ32" s="15">
         <f t="shared" si="111"/>
         <v>0.15521666057727423</v>
       </c>
     </row>
-    <row r="33" spans="2:36">
-      <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
         <f t="shared" ref="E33" si="112">+E18/E14</f>
         <v>0.38338496198254013</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="6">
         <f t="shared" ref="K33" si="113">+K18/K14</f>
         <v>0.38354806739345887</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="6">
         <f t="shared" ref="L33:N33" si="114">+L18/L14</f>
         <v>0.38361943305952362</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="6">
         <f t="shared" si="114"/>
         <v>0.37999497361146017</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="6">
         <f t="shared" si="114"/>
         <v>0.38160375900336951</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="6">
         <f t="shared" ref="O33:Q33" si="115">+O18/O14</f>
         <v>0.39777815665969724</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="6">
         <f t="shared" si="115"/>
         <v>0.42506474370423292</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33" s="6">
         <f t="shared" si="115"/>
         <v>0.43292727853230839</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="6">
         <f t="shared" ref="R33" si="116">+R18/R14</f>
         <v>0.42195297504798462</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33" s="6">
         <f>+S18/S14</f>
         <v>0.43763766186615033</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="6">
         <f>+T18/T14</f>
         <v>0.43749871502292398</v>
       </c>
-      <c r="U33" s="14">
+      <c r="U33" s="6">
         <f>+U18/U14</f>
         <v>0.43256307332537758</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="6">
         <f t="shared" ref="V33" si="117">+V18/V14</f>
         <v>0.43398977653080495</v>
       </c>
-      <c r="AF33" s="14">
+      <c r="AF33" s="6">
         <f t="shared" ref="AF33:AJ33" si="118">+AF18/AF14</f>
         <v>0.38343718820007905</v>
       </c>
-      <c r="AG33" s="14">
+      <c r="AG33" s="6">
         <f t="shared" si="118"/>
         <v>0.37817768109034722</v>
       </c>
-      <c r="AH33" s="14">
+      <c r="AH33" s="6">
         <f t="shared" si="118"/>
         <v>0.38233247727810865</v>
       </c>
-      <c r="AI33" s="14">
+      <c r="AI33" s="6">
         <f t="shared" si="118"/>
         <v>0.41779359625167778</v>
       </c>
-      <c r="AJ33" s="14">
+      <c r="AJ33" s="6">
         <f t="shared" si="118"/>
         <v>0.43572995257419433</v>
       </c>
     </row>
-    <row r="34" spans="2:36">
-      <c r="B34" s="8" t="s">
-        <v>74</v>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="K34" s="14">
+        <v>83</v>
+      </c>
+      <c r="K34" s="6">
         <f>(K13-K16)/K13</f>
         <v>0.64396382225717652</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="6">
         <f t="shared" ref="L34:U34" si="119">(L13-L16)/L13</f>
         <v>0.65373089601438417</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="6">
         <f t="shared" si="119"/>
         <v>0.67224080267558528</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="6">
         <f t="shared" si="119"/>
         <v>0.66925561894288266</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="6">
         <f t="shared" si="119"/>
         <v>0.6839667533785927</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="6">
         <f t="shared" si="119"/>
         <v>0.70072776758771671</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q34" s="6">
         <f t="shared" si="119"/>
         <v>0.69804414960539862</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="6">
         <f t="shared" si="119"/>
         <v>0.704765552333534</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S34" s="6">
         <f t="shared" si="119"/>
         <v>0.72366263578602175</v>
       </c>
-      <c r="T34" s="14">
+      <c r="T34" s="6">
         <f t="shared" si="119"/>
         <v>0.72609858231168967</v>
       </c>
-      <c r="U34" s="14">
+      <c r="U34" s="6">
         <f t="shared" si="119"/>
         <v>0.71490512140379514</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V34" s="6">
         <f t="shared" ref="V34" si="120">(V13-V16)/V13</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="AF34" s="14">
+      <c r="AF34" s="6">
         <f t="shared" ref="AF34:AJ34" si="121">(AF13-AF16)/AF13</f>
         <v>0.60772869075173597</v>
       </c>
-      <c r="AG34" s="14">
+      <c r="AG34" s="6">
         <f t="shared" si="121"/>
         <v>0.63738091637683347</v>
       </c>
-      <c r="AH34" s="14">
+      <c r="AH34" s="6">
         <f t="shared" si="121"/>
         <v>0.66015101919357233</v>
       </c>
-      <c r="AI34" s="14">
+      <c r="AI34" s="6">
         <f t="shared" si="121"/>
         <v>0.69725977347460721</v>
       </c>
-      <c r="AJ34" s="14">
+      <c r="AJ34" s="6">
         <f t="shared" si="121"/>
         <v>0.71608310129456754</v>
       </c>
     </row>
-    <row r="35" spans="2:36">
-      <c r="B35" s="8" t="s">
-        <v>75</v>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="K35" s="14">
+        <v>83</v>
+      </c>
+      <c r="K35" s="6">
         <f>(K12-K15)/K12</f>
         <v>0.3416894215210356</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="6">
         <f t="shared" ref="L35:V35" si="122">(L12-L15)/L12</f>
         <v>0.30343600578227509</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="6">
         <f t="shared" si="122"/>
         <v>0.29736293494379851</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="6">
         <f t="shared" si="122"/>
         <v>0.2981515085046561</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="6">
         <f t="shared" si="122"/>
         <v>0.35063441961579467</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="6">
         <f t="shared" si="122"/>
         <v>0.3609647372838215</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q35" s="6">
         <f t="shared" si="122"/>
         <v>0.36043347720022517</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="6">
         <f t="shared" si="122"/>
         <v>0.34253184395310604</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35" s="6">
         <f t="shared" si="122"/>
         <v>0.38418446983117716</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="6">
         <f t="shared" si="122"/>
         <v>0.36364692668190091</v>
       </c>
-      <c r="U35" s="14">
+      <c r="U35" s="6">
         <f t="shared" si="122"/>
         <v>0.34519769552521506</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="6">
         <f t="shared" si="122"/>
         <v>0.35</v>
       </c>
-      <c r="AF35" s="14">
+      <c r="AF35" s="6">
         <f t="shared" ref="AF35:AJ35" si="123">(AF12-AF15)/AF12</f>
         <v>0.34396294836770025</v>
       </c>
-      <c r="AG35" s="14">
+      <c r="AG35" s="6">
         <f t="shared" si="123"/>
         <v>0.32207795851002652</v>
       </c>
-      <c r="AH35" s="14">
+      <c r="AH35" s="6">
         <f t="shared" si="123"/>
         <v>0.31466339293399231</v>
       </c>
-      <c r="AI35" s="14">
+      <c r="AI35" s="6">
         <f t="shared" si="123"/>
         <v>0.35349303276483562</v>
       </c>
-      <c r="AJ35" s="14">
+      <c r="AJ35" s="6">
         <f t="shared" si="123"/>
         <v>0.3639929588644269</v>
       </c>
     </row>
-    <row r="36" spans="2:36">
-      <c r="B36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
         <f t="shared" ref="E36" si="124">+E22/E14</f>
         <v>0.23677837228949591</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="6">
         <f t="shared" ref="K36" si="125">+K22/K14</f>
         <v>0.2784717759940753</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="6">
         <f t="shared" ref="L36:N36" si="126">+L22/L14</f>
         <v>0.22041397287054346</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="6">
         <f t="shared" si="126"/>
         <v>0.21933484124989527</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="6">
         <f t="shared" si="126"/>
         <v>0.2283687285542057</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="6">
         <f t="shared" ref="O36:Q36" si="127">+O22/O14</f>
         <v>0.30091799100853384</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="6">
         <f t="shared" si="127"/>
         <v>0.30700794784782998</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q36" s="6">
         <f t="shared" si="127"/>
         <v>0.29626445956234498</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="6">
         <f t="shared" ref="R36" si="128">+R22/R14</f>
         <v>0.28534069097888676</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S36" s="6">
         <f>+S22/S14</f>
         <v>0.33472911371979508</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="6">
         <f>+T22/T14</f>
         <v>0.30817862209338187</v>
       </c>
-      <c r="U36" s="14">
+      <c r="U36" s="6">
         <f>+U22/U14</f>
         <v>0.27816150146457891</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V36" s="6">
         <f t="shared" ref="V36" si="129">+V22/V14</f>
         <v>0.28446921202228026</v>
       </c>
-      <c r="AF36" s="14">
+      <c r="AF36" s="6">
         <f t="shared" ref="AF36:AJ36" si="130">+AF22/AF14</f>
         <v>0.26694026619477024</v>
       </c>
-      <c r="AG36" s="14">
+      <c r="AG36" s="6">
         <f t="shared" si="130"/>
         <v>0.24572017188496928</v>
       </c>
-      <c r="AH36" s="14">
+      <c r="AH36" s="6">
         <f t="shared" si="130"/>
         <v>0.24147314354406862</v>
       </c>
-      <c r="AI36" s="14">
+      <c r="AI36" s="6">
         <f t="shared" si="130"/>
         <v>0.29782377527561593</v>
       </c>
-      <c r="AJ36" s="14">
+      <c r="AJ36" s="6">
         <f t="shared" si="130"/>
         <v>0.30512224168061097</v>
       </c>
     </row>
-    <row r="37" spans="2:36">
-      <c r="B37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
         <f>E25/E24</f>
         <v>0.13286660644384221</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="6">
         <f>K25/K24</f>
         <v>0.14206343082027933</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="6">
         <f t="shared" ref="L37:U37" si="131">L25/L24</f>
         <v>0.14358583936048724</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="6">
         <f t="shared" si="131"/>
         <v>0.14341173783968944</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="6">
         <f t="shared" si="131"/>
         <v>0.14952016643178309</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="6">
         <f t="shared" si="131"/>
         <v>0.14366121683194855</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="6">
         <f t="shared" si="131"/>
         <v>0.1564028417407447</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q37" s="6">
         <f t="shared" si="131"/>
         <v>0.10771882309491568</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="6">
         <f t="shared" si="131"/>
         <v>0.11600997935306263</v>
       </c>
-      <c r="S37" s="14">
+      <c r="S37" s="6">
         <f t="shared" si="131"/>
         <v>0.16030164157028201</v>
       </c>
-      <c r="T37" s="14">
+      <c r="T37" s="6">
         <f t="shared" si="131"/>
         <v>0.17017817445834302</v>
       </c>
-      <c r="U37" s="14">
+      <c r="U37" s="6">
         <f t="shared" si="131"/>
         <v>0.15711436746726784</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V37" s="6">
         <f t="shared" ref="V37" si="132">V25/V24</f>
         <v>0.15</v>
       </c>
-      <c r="AF37" s="14">
+      <c r="AF37" s="6">
         <f t="shared" ref="AF37:AJ37" si="133">AF25/AF24</f>
         <v>0.18342180705869443</v>
       </c>
-      <c r="AG37" s="14">
+      <c r="AG37" s="6">
         <f t="shared" si="133"/>
         <v>0.15943836804235059</v>
       </c>
-      <c r="AH37" s="14">
+      <c r="AH37" s="6">
         <f t="shared" si="133"/>
         <v>0.14428164731484103</v>
       </c>
-      <c r="AI37" s="14">
+      <c r="AI37" s="6">
         <f t="shared" si="133"/>
         <v>0.13302260844085087</v>
       </c>
-      <c r="AJ37" s="14">
+      <c r="AJ37" s="6">
         <f t="shared" si="133"/>
         <v>0.16012100498036971</v>
       </c>
@@ -5516,7 +5475,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5525,10 +5483,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -5539,43 +5497,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9486331-DCF6-4481-8B8C-1043A371AB76}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="I3" s="17">
+        <v>45200</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/AAPL Model.xlsx
+++ b/AAPL Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0F15D5-D453-B546-87C9-BB2CBC1A0B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77469E89-92A6-7746-B2C4-FA7CCC53B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2140" windowWidth="23940" windowHeight="14920" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="33000" yWindow="3900" windowWidth="23940" windowHeight="14920" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1009,10 +1009,10 @@
   <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1109,24 +1109,24 @@
         <v>44737</v>
       </c>
       <c r="V3" s="9">
-        <f>+R3+365</f>
-        <v>44829</v>
+        <f>+R3+364</f>
+        <v>44828</v>
       </c>
       <c r="W3" s="9">
-        <f t="shared" ref="W3:Z3" si="0">+S3+365</f>
-        <v>44920</v>
+        <f>+S3+371</f>
+        <v>44926</v>
       </c>
       <c r="X3" s="9">
-        <f t="shared" si="0"/>
-        <v>45011</v>
+        <f>+T3+371</f>
+        <v>45017</v>
       </c>
       <c r="Y3" s="9">
-        <f t="shared" si="0"/>
-        <v>45102</v>
+        <f>+U3+371</f>
+        <v>45108</v>
       </c>
       <c r="Z3" s="9">
-        <f t="shared" si="0"/>
-        <v>45194</v>
+        <f>+V3+370</f>
+        <v>45198</v>
       </c>
     </row>
     <row r="4" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1334,6 +1334,23 @@
       <c r="U5" s="10">
         <v>40665</v>
       </c>
+      <c r="V5" s="10">
+        <f>AP5-U5-T5-S5</f>
+        <v>42626</v>
+      </c>
+      <c r="W5" s="10">
+        <v>65775</v>
+      </c>
+      <c r="X5" s="10">
+        <v>51334</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>39669</v>
+      </c>
+      <c r="Z5" s="10">
+        <f>AQ5-Y5-X5-W5</f>
+        <v>43805</v>
+      </c>
       <c r="AJ5" s="10">
         <v>136700</v>
       </c>
@@ -1355,78 +1372,77 @@
         <v>191973</v>
       </c>
       <c r="AP5" s="10">
-        <f>SUM(S5:V5)</f>
-        <v>162863</v>
+        <v>205489</v>
       </c>
       <c r="AQ5" s="10">
         <v>200583</v>
       </c>
       <c r="AR5" s="10">
-        <f t="shared" ref="AR5:BH5" si="1">+AR6*AR7/1000</f>
+        <f t="shared" ref="AR5:BH5" si="0">+AR6*AR7/1000</f>
         <v>0</v>
       </c>
       <c r="AS5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AT5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AW5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AX5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AZ5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BA5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BB5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BC5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BE5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BF5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BG5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BH5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1476,40 +1492,40 @@
         <v>75139.747995418104</v>
       </c>
       <c r="P6" s="10">
-        <f t="shared" ref="P6:U6" si="2">P5/P7*1000</f>
+        <f t="shared" ref="P6:U6" si="1">P5/P7*1000</f>
         <v>56597.402597402601</v>
       </c>
       <c r="Q6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45535.097813578832</v>
       </c>
       <c r="R6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44934.10404624277</v>
       </c>
       <c r="S6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75477.344573234994</v>
       </c>
       <c r="T6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57335.600907029482</v>
       </c>
       <c r="U6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42625.786163522018</v>
       </c>
       <c r="V6" s="10">
-        <f t="shared" ref="V6" si="3">V5/V7*1000</f>
-        <v>0</v>
+        <f t="shared" ref="V6" si="2">V5/V7*1000</f>
+        <v>44541.274817136888</v>
       </c>
       <c r="W6" s="10">
-        <f t="shared" ref="W6" si="4">W5/W7*1000</f>
-        <v>0</v>
+        <f t="shared" ref="W6" si="3">W5/W7*1000</f>
+        <v>67669.753086419747</v>
       </c>
       <c r="X6" s="10">
-        <f t="shared" ref="X6" si="5">X5/X7*1000</f>
-        <v>0</v>
+        <f t="shared" ref="X6" si="4">X5/X7*1000</f>
+        <v>51957.48987854251</v>
       </c>
       <c r="AL6" s="10">
         <f>SUM(C6:F6)</f>
@@ -1529,79 +1545,79 @@
       </c>
       <c r="AP6" s="10">
         <f>SUM(S6:V6)</f>
-        <v>175438.73164378651</v>
+        <v>219980.00646092341</v>
       </c>
       <c r="AQ6" s="10">
         <f>SUM(W6:Z6)</f>
-        <v>0</v>
+        <v>119627.24296496226</v>
       </c>
       <c r="AR6" s="10">
-        <f t="shared" ref="AR6:BH6" si="6">+AQ6*1.01</f>
-        <v>0</v>
+        <f t="shared" ref="AR6:BH6" si="5">+AQ6*1.01</f>
+        <v>120823.5153946119</v>
       </c>
       <c r="AS6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>122031.75054855802</v>
       </c>
       <c r="AT6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>123252.0680540436</v>
       </c>
       <c r="AU6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>124484.58873458403</v>
       </c>
       <c r="AV6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>125729.43462192987</v>
       </c>
       <c r="AW6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>126986.72896814918</v>
       </c>
       <c r="AX6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>128256.59625783068</v>
       </c>
       <c r="AY6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>129539.16222040898</v>
       </c>
       <c r="AZ6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>130834.55384261307</v>
       </c>
       <c r="BA6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>132142.8993810392</v>
       </c>
       <c r="BB6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>133464.3283748496</v>
       </c>
       <c r="BC6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>134798.97165859811</v>
       </c>
       <c r="BD6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>136146.9613751841</v>
       </c>
       <c r="BE6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>137508.43098893593</v>
       </c>
       <c r="BF6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>138883.51529882528</v>
       </c>
       <c r="BG6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>140272.35045181355</v>
       </c>
       <c r="BH6" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>141675.07395633167</v>
       </c>
     </row>
     <row r="7" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1629,15 +1645,15 @@
         <v>758.22493224932248</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" ref="L7:N7" si="7">+L5*1000/L6</f>
+        <f t="shared" ref="L7:N7" si="6">+L5*1000/L6</f>
         <v>789.15531335149865</v>
       </c>
       <c r="M7" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>702.60638297872345</v>
       </c>
       <c r="N7" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>634.14868105515586</v>
       </c>
       <c r="O7" s="10">
@@ -1688,14 +1704,14 @@
       </c>
       <c r="AP7" s="10">
         <f>+AP5*1000/AP6</f>
-        <v>928.31838485175285</v>
+        <v>934.12580218512926</v>
       </c>
       <c r="AR7" s="10">
-        <f t="shared" ref="AR7:AS7" si="8">+AQ7*1.05</f>
+        <f t="shared" ref="AR7:AS7" si="7">+AQ7*1.05</f>
         <v>0</v>
       </c>
       <c r="AS7" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT7" s="10">
@@ -1723,11 +1739,11 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="10">
-        <f t="shared" ref="AZ7:BA7" si="9">+AY7*1.03</f>
+        <f t="shared" ref="AZ7:BA7" si="8">+AY7*1.03</f>
         <v>0</v>
       </c>
       <c r="BA7" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BB7" s="10">
@@ -1735,27 +1751,27 @@
         <v>0</v>
       </c>
       <c r="BC7" s="10">
-        <f t="shared" ref="BC7:BH7" si="10">+BB7*1.02</f>
+        <f t="shared" ref="BC7:BH7" si="9">+BB7*1.02</f>
         <v>0</v>
       </c>
       <c r="BD7" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BE7" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BF7" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BG7" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BH7" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1812,6 +1828,23 @@
       <c r="U9" s="10">
         <v>7382</v>
       </c>
+      <c r="V9" s="10">
+        <f>AP9-U9-T9-S9</f>
+        <v>11508</v>
+      </c>
+      <c r="W9" s="10">
+        <v>7735</v>
+      </c>
+      <c r="X9" s="10">
+        <v>7168</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>6840</v>
+      </c>
+      <c r="Z9" s="10">
+        <f>AQ9-Y9-X9-W9</f>
+        <v>7614</v>
+      </c>
       <c r="AJ9" s="10">
         <v>22831</v>
       </c>
@@ -1825,42 +1858,41 @@
         <v>25740</v>
       </c>
       <c r="AN9" s="10">
-        <f t="shared" ref="AN9:AN10" si="11">SUM(K9:N9)</f>
+        <f t="shared" ref="AN9:AN10" si="10">SUM(K9:N9)</f>
         <v>28622</v>
       </c>
       <c r="AO9" s="10">
-        <f t="shared" ref="AO9:AO10" si="12">SUM(O9:R9)</f>
+        <f t="shared" ref="AO9:AO10" si="11">SUM(O9:R9)</f>
         <v>35190</v>
       </c>
       <c r="AP9" s="10">
-        <f t="shared" ref="AP9:AP10" si="13">SUM(S9:V9)</f>
-        <v>28669</v>
+        <v>40177</v>
       </c>
       <c r="AQ9" s="10">
         <v>29357</v>
       </c>
       <c r="AR9" s="10">
-        <f t="shared" ref="AR9:AW9" si="14">+AQ9*1.07</f>
+        <f t="shared" ref="AR9:AW9" si="12">+AQ9*1.07</f>
         <v>31411.99</v>
       </c>
       <c r="AS9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>33610.829300000005</v>
       </c>
       <c r="AT9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>35963.587351000009</v>
       </c>
       <c r="AU9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>38481.038465570011</v>
       </c>
       <c r="AV9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>41174.711158159917</v>
       </c>
       <c r="AW9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>44056.940939231114</v>
       </c>
       <c r="AX9" s="10">
@@ -1868,19 +1900,19 @@
         <v>46700.357395584986</v>
       </c>
       <c r="AY9" s="10">
-        <f t="shared" ref="AY9:BB9" si="15">+AX9*1.06</f>
+        <f t="shared" ref="AY9:BB9" si="13">+AX9*1.06</f>
         <v>49502.378839320088</v>
       </c>
       <c r="AZ9" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>52472.521569679295</v>
       </c>
       <c r="BA9" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>55620.872863860059</v>
       </c>
       <c r="BB9" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>58958.125235691667</v>
       </c>
       <c r="BC9" s="10">
@@ -1888,23 +1920,23 @@
         <v>61906.031497476251</v>
       </c>
       <c r="BD9" s="10">
-        <f t="shared" ref="BD9:BH9" si="16">+BC9*1.05</f>
+        <f t="shared" ref="BD9:BH9" si="14">+BC9*1.05</f>
         <v>65001.333072350069</v>
       </c>
       <c r="BE9" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>68251.399725967582</v>
       </c>
       <c r="BF9" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>71663.969712265971</v>
       </c>
       <c r="BG9" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>75247.168197879277</v>
       </c>
       <c r="BH9" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>79009.526607773238</v>
       </c>
     </row>
@@ -1958,6 +1990,23 @@
       <c r="U10" s="10">
         <v>7224</v>
       </c>
+      <c r="V10" s="10">
+        <f>AP10-U10-T10-S10</f>
+        <v>7174</v>
+      </c>
+      <c r="W10" s="10">
+        <v>9396</v>
+      </c>
+      <c r="X10" s="10">
+        <v>6670</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>5791</v>
+      </c>
+      <c r="Z10" s="10">
+        <f t="shared" ref="Z10:Z11" si="15">AQ10-Y10-X10-W10</f>
+        <v>6443</v>
+      </c>
       <c r="AJ10" s="10">
         <v>20628</v>
       </c>
@@ -1971,86 +2020,85 @@
         <v>21280</v>
       </c>
       <c r="AN10" s="10">
+        <f t="shared" si="10"/>
+        <v>23724</v>
+      </c>
+      <c r="AO10" s="10">
         <f t="shared" si="11"/>
-        <v>23724</v>
-      </c>
-      <c r="AO10" s="10">
-        <f t="shared" si="12"/>
         <v>31862</v>
       </c>
       <c r="AP10" s="10">
-        <f t="shared" si="13"/>
-        <v>22118</v>
+        <v>29292</v>
       </c>
       <c r="AQ10" s="10">
         <v>28300</v>
       </c>
       <c r="AR10" s="10">
-        <f t="shared" ref="AR10:BH10" si="17">+AQ10*1.04</f>
+        <f t="shared" ref="AR10:BH10" si="16">+AQ10*1.04</f>
         <v>29432</v>
       </c>
       <c r="AS10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30609.280000000002</v>
       </c>
       <c r="AT10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>31833.651200000004</v>
       </c>
       <c r="AU10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>33106.997248000007</v>
       </c>
       <c r="AV10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>34431.277137920006</v>
       </c>
       <c r="AW10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>35808.528223436806</v>
       </c>
       <c r="AX10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>37240.869352374277</v>
       </c>
       <c r="AY10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>38730.504126469248</v>
       </c>
       <c r="AZ10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>40279.724291528022</v>
       </c>
       <c r="BA10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41890.913263189148</v>
       </c>
       <c r="BB10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43566.549793716717</v>
       </c>
       <c r="BC10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>45309.211785465384</v>
       </c>
       <c r="BD10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>47121.580256884001</v>
       </c>
       <c r="BE10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>49006.443467159363</v>
       </c>
       <c r="BF10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>50966.70120584574</v>
       </c>
       <c r="BG10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>53005.369254079575</v>
       </c>
       <c r="BH10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>55125.584024242758</v>
       </c>
     </row>
@@ -2104,6 +2152,23 @@
       <c r="U11" s="10">
         <v>8084</v>
       </c>
+      <c r="V11" s="10">
+        <f>AP11-U11-T11-S11</f>
+        <v>9650</v>
+      </c>
+      <c r="W11" s="10">
+        <v>13482</v>
+      </c>
+      <c r="X11" s="10">
+        <v>8757</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>8284</v>
+      </c>
+      <c r="Z11" s="10">
+        <f t="shared" si="15"/>
+        <v>9322</v>
+      </c>
       <c r="AJ11" s="10">
         <v>11132</v>
       </c>
@@ -2117,86 +2182,85 @@
         <v>24482</v>
       </c>
       <c r="AN11" s="10">
-        <f t="shared" ref="AN11" si="18">SUM(K11:N11)</f>
+        <f t="shared" ref="AN11" si="17">SUM(K11:N11)</f>
         <v>30620</v>
       </c>
       <c r="AO11" s="10">
-        <f t="shared" ref="AO11" si="19">SUM(O11:R11)</f>
+        <f t="shared" ref="AO11" si="18">SUM(O11:R11)</f>
         <v>38367</v>
       </c>
       <c r="AP11" s="10">
-        <f t="shared" ref="AP11" si="20">SUM(S11:V11)</f>
-        <v>31591</v>
+        <v>41241</v>
       </c>
       <c r="AQ11" s="10">
         <v>39845</v>
       </c>
       <c r="AR11" s="10">
-        <f t="shared" ref="AR11:BH11" si="21">+AQ11*1.04</f>
+        <f t="shared" ref="AR11:BH11" si="19">+AQ11*1.04</f>
         <v>41438.800000000003</v>
       </c>
       <c r="AS11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>43096.352000000006</v>
       </c>
       <c r="AT11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>44820.206080000011</v>
       </c>
       <c r="AU11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>46613.014323200012</v>
       </c>
       <c r="AV11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>48477.534896128011</v>
       </c>
       <c r="AW11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>50416.636291973133</v>
       </c>
       <c r="AX11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>52433.30174365206</v>
       </c>
       <c r="AY11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>54530.633813398148</v>
       </c>
       <c r="AZ11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>56711.859165934075</v>
       </c>
       <c r="BA11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>58980.333532571436</v>
       </c>
       <c r="BB11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>61339.546873874293</v>
       </c>
       <c r="BC11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>63793.128748829266</v>
       </c>
       <c r="BD11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>66344.853898782443</v>
       </c>
       <c r="BE11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>68998.648054733741</v>
       </c>
       <c r="BF11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>71758.59397692309</v>
       </c>
       <c r="BG11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>74628.937736000022</v>
       </c>
       <c r="BH11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>77614.095245440025</v>
       </c>
     </row>
@@ -2224,147 +2288,167 @@
         <v>52919</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" ref="K13:U13" si="22">SUM(K9:K11)+K5</f>
+        <f>K5+K9+K10+K11</f>
         <v>79104</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="L13:Z13" si="20">L5+L9+L10+L11</f>
         <v>44965</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>46529</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>50149</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>95678</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>72683</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>63948</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>65083</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>104429</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>77457</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>63355</v>
       </c>
+      <c r="V13" s="2">
+        <f t="shared" si="20"/>
+        <v>70958</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="20"/>
+        <v>96388</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="20"/>
+        <v>73929</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="20"/>
+        <v>60584</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="20"/>
+        <v>67184</v>
+      </c>
       <c r="AJ13" s="2">
-        <f t="shared" ref="AJ13:AP13" si="23">SUM(AJ9:AJ11)+AJ5</f>
+        <f t="shared" ref="AJ13:AP13" si="21">SUM(AJ9:AJ11)+AJ5</f>
         <v>191291</v>
       </c>
       <c r="AK13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>199254</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>225847</v>
       </c>
       <c r="AM13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>213883</v>
       </c>
       <c r="AN13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>220747</v>
       </c>
       <c r="AO13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>297392</v>
       </c>
       <c r="AP13" s="2">
-        <f t="shared" si="23"/>
-        <v>245241</v>
+        <f t="shared" si="21"/>
+        <v>316199</v>
       </c>
       <c r="AQ13" s="2">
         <f>SUM(AQ9:AQ11)+AQ5</f>
         <v>298085</v>
       </c>
       <c r="AR13" s="2">
-        <f t="shared" ref="AR13:BH13" si="24">SUM(AR9:AR11)+AR5</f>
+        <f t="shared" ref="AR13:BH13" si="22">SUM(AR9:AR11)+AR5</f>
         <v>102282.79000000001</v>
       </c>
       <c r="AS13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>107316.46130000002</v>
       </c>
       <c r="AT13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>112617.44463100002</v>
       </c>
       <c r="AU13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>118201.05003677003</v>
       </c>
       <c r="AV13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>124083.52319220793</v>
       </c>
       <c r="AW13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>130282.10545464106</v>
       </c>
       <c r="AX13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>136374.52849161133</v>
       </c>
       <c r="AY13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>142763.51677918748</v>
       </c>
       <c r="AZ13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>149464.1050271414</v>
       </c>
       <c r="BA13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>156492.11965962066</v>
       </c>
       <c r="BB13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>163864.22190328268</v>
       </c>
       <c r="BC13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>171008.37203177091</v>
       </c>
       <c r="BD13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>178467.76722801651</v>
       </c>
       <c r="BE13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>186256.49124786069</v>
       </c>
       <c r="BF13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>194389.26489503481</v>
       </c>
       <c r="BG13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>202881.47518795886</v>
       </c>
       <c r="BH13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>211749.20587745603</v>
       </c>
     </row>
@@ -2418,6 +2502,23 @@
       <c r="U14" s="2">
         <v>19604</v>
       </c>
+      <c r="V14" s="10">
+        <f>AP14-U14-T14-S14</f>
+        <v>19188</v>
+      </c>
+      <c r="W14" s="2">
+        <v>20766</v>
+      </c>
+      <c r="X14" s="2">
+        <v>20970</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>21213</v>
+      </c>
+      <c r="Z14" s="10">
+        <f>AQ14-Y14-X14-W14</f>
+        <v>22251</v>
+      </c>
       <c r="AJ14" s="2">
         <v>24348</v>
       </c>
@@ -2435,12 +2536,11 @@
         <v>53768</v>
       </c>
       <c r="AO14" s="10">
-        <f t="shared" ref="AO14" si="25">SUM(O14:R14)</f>
+        <f t="shared" ref="AO14" si="23">SUM(O14:R14)</f>
         <v>68425</v>
       </c>
       <c r="AP14" s="10">
-        <f t="shared" ref="AP14" si="26">SUM(S14:V14)</f>
-        <v>58941</v>
+        <v>78129</v>
       </c>
       <c r="AQ14" s="10">
         <v>85200</v>
@@ -2470,47 +2570,47 @@
         <v>157471.74135</v>
       </c>
       <c r="AX14" s="10">
-        <f t="shared" ref="AX14:BH14" si="27">+AW14*1.05</f>
+        <f t="shared" ref="AX14:BH14" si="24">+AW14*1.05</f>
         <v>165345.32841750002</v>
       </c>
       <c r="AY14" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>173612.59483837502</v>
       </c>
       <c r="AZ14" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>182293.22458029378</v>
       </c>
       <c r="BA14" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>191407.88580930847</v>
       </c>
       <c r="BB14" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>200978.2800997739</v>
       </c>
       <c r="BC14" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>211027.1941047626</v>
       </c>
       <c r="BD14" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>221578.55381000074</v>
       </c>
       <c r="BE14" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>232657.48150050078</v>
       </c>
       <c r="BF14" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>244290.35557552584</v>
       </c>
       <c r="BG14" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>256504.87335430214</v>
       </c>
       <c r="BH14" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>269330.11702201725</v>
       </c>
     </row>
@@ -2519,35 +2619,35 @@
         <v>7</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:F15" si="28">+C13+C14</f>
+        <f t="shared" ref="C15:F15" si="25">+C13+C14</f>
         <v>88293</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>61137</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>53265</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>62900</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" ref="K15:N15" si="29">+K13+K14</f>
+        <f t="shared" ref="K15:N15" si="26">+K13+K14</f>
         <v>91819</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>58313</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>59685</v>
       </c>
       <c r="N15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>64698</v>
       </c>
       <c r="O15" s="12">
@@ -2563,11 +2663,11 @@
         <v>81434</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ref="R15" si="30">+R13+R14</f>
+        <f t="shared" ref="R15" si="27">+R13+R14</f>
         <v>83360</v>
       </c>
       <c r="S15" s="12">
-        <f t="shared" ref="S15" si="31">+S13+S14</f>
+        <f t="shared" ref="S15" si="28">+S13+S14</f>
         <v>123945</v>
       </c>
       <c r="T15" s="12">
@@ -2575,8 +2675,28 @@
         <v>97278</v>
       </c>
       <c r="U15" s="12">
-        <f t="shared" ref="U15" si="32">+U13+U14</f>
+        <f t="shared" ref="U15:Z15" si="29">+U13+U14</f>
         <v>82959</v>
+      </c>
+      <c r="V15" s="12">
+        <f t="shared" si="29"/>
+        <v>90146</v>
+      </c>
+      <c r="W15" s="12">
+        <f t="shared" si="29"/>
+        <v>117154</v>
+      </c>
+      <c r="X15" s="12">
+        <f t="shared" si="29"/>
+        <v>94899</v>
+      </c>
+      <c r="Y15" s="12">
+        <f t="shared" si="29"/>
+        <v>81797</v>
+      </c>
+      <c r="Z15" s="12">
+        <f t="shared" si="29"/>
+        <v>89435</v>
       </c>
       <c r="AH15" s="12">
         <v>182795</v>
@@ -2585,19 +2705,19 @@
         <v>233715</v>
       </c>
       <c r="AJ15" s="12">
-        <f t="shared" ref="AJ15:AM15" si="33">+AJ13+AJ14</f>
+        <f t="shared" ref="AJ15:AM15" si="30">+AJ13+AJ14</f>
         <v>215639</v>
       </c>
       <c r="AK15" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>229234</v>
       </c>
       <c r="AL15" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>265595</v>
       </c>
       <c r="AM15" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>260174</v>
       </c>
       <c r="AN15" s="12">
@@ -2610,78 +2730,78 @@
       </c>
       <c r="AP15" s="12">
         <f>+AP13+AP14</f>
-        <v>304182</v>
+        <v>394328</v>
       </c>
       <c r="AQ15" s="12">
         <f>+AQ13+AQ14</f>
         <v>383285</v>
       </c>
       <c r="AR15" s="12">
-        <f t="shared" ref="AR15:BH15" si="34">+AR13+AR14</f>
+        <f t="shared" ref="AR15:BH15" si="31">+AR13+AR14</f>
         <v>200262.78999999998</v>
       </c>
       <c r="AS15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>219993.4613</v>
       </c>
       <c r="AT15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>236562.144631</v>
       </c>
       <c r="AU15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>254540.22003677001</v>
       </c>
       <c r="AV15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>274056.61019220791</v>
       </c>
       <c r="AW15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>287753.84680464107</v>
       </c>
       <c r="AX15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>301719.85690911137</v>
       </c>
       <c r="AY15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>316376.11161756248</v>
       </c>
       <c r="AZ15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>331757.32960743515</v>
       </c>
       <c r="BA15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>347900.00546892913</v>
       </c>
       <c r="BB15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>364842.50200305658</v>
       </c>
       <c r="BC15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>382035.56613653351</v>
       </c>
       <c r="BD15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>400046.32103801728</v>
       </c>
       <c r="BE15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>418913.97274836147</v>
       </c>
       <c r="BF15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>438679.62047056062</v>
       </c>
       <c r="BG15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>459386.348542261</v>
       </c>
       <c r="BH15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>481079.32289947325</v>
       </c>
     </row>
@@ -2733,82 +2853,82 @@
         <v>151286</v>
       </c>
       <c r="AO16" s="10">
-        <f t="shared" ref="AO16:AO17" si="35">SUM(O16:R16)</f>
+        <f t="shared" ref="AO16:AO17" si="32">SUM(O16:R16)</f>
         <v>192266</v>
       </c>
       <c r="AP16" s="10">
-        <f t="shared" ref="AP16:AP17" si="36">SUM(S16:V16)</f>
+        <f t="shared" ref="AP16:AP17" si="33">SUM(S16:V16)</f>
         <v>155084</v>
       </c>
       <c r="AQ16" s="2">
         <v>189282</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" ref="AR16:BH16" si="37">+AR13*0.64</f>
+        <f t="shared" ref="AR16:BH16" si="34">+AR13*0.64</f>
         <v>65460.985600000007</v>
       </c>
       <c r="AS16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>68682.535232000024</v>
       </c>
       <c r="AT16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>72075.164563840008</v>
       </c>
       <c r="AU16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>75648.672023532825</v>
       </c>
       <c r="AV16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>79413.454843013067</v>
       </c>
       <c r="AW16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>83380.547490970275</v>
       </c>
       <c r="AX16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>87279.698234631258</v>
       </c>
       <c r="AY16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>91368.650738679993</v>
       </c>
       <c r="AZ16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>95657.027217370502</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>100154.95658215722</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>104873.10201810092</v>
       </c>
       <c r="BC16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>109445.35810033338</v>
       </c>
       <c r="BD16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>114219.37102593057</v>
       </c>
       <c r="BE16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>119204.15439863084</v>
       </c>
       <c r="BF16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>124409.12953282228</v>
       </c>
       <c r="BG16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>129844.14412029367</v>
       </c>
       <c r="BH16" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>135519.49176157187</v>
       </c>
     </row>
@@ -2860,82 +2980,82 @@
         <v>18273</v>
       </c>
       <c r="AO17" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>20715</v>
       </c>
       <c r="AP17" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>16411</v>
       </c>
       <c r="AQ17" s="2">
         <v>24855</v>
       </c>
       <c r="AR17" s="2">
-        <f t="shared" ref="AR17:BH17" si="38">+AR14*0.27</f>
+        <f t="shared" ref="AR17:BH17" si="35">+AR14*0.27</f>
         <v>26454.6</v>
       </c>
       <c r="AS17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>30422.789999999994</v>
       </c>
       <c r="AT17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>33465.068999999996</v>
       </c>
       <c r="AU17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>36811.575899999996</v>
       </c>
       <c r="AV17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>40492.733490000006</v>
       </c>
       <c r="AW17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>42517.370164500004</v>
       </c>
       <c r="AX17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>44643.238672725005</v>
       </c>
       <c r="AY17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>46875.400606361261</v>
       </c>
       <c r="AZ17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>49219.170636679322</v>
       </c>
       <c r="BA17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>51680.129168513289</v>
       </c>
       <c r="BB17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>54264.135626938958</v>
       </c>
       <c r="BC17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>56977.342408285906</v>
       </c>
       <c r="BD17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>59826.209528700201</v>
       </c>
       <c r="BE17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>62817.520005135215</v>
       </c>
       <c r="BF17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>65958.396005391987</v>
       </c>
       <c r="BG17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>69256.315805661579</v>
       </c>
       <c r="BH17" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>72719.131595944666</v>
       </c>
     </row>
@@ -2957,19 +3077,19 @@
         <v>38816</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ref="K18:N18" si="39">+K16+K17</f>
+        <f t="shared" ref="K18:N18" si="36">+K16+K17</f>
         <v>56602</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>35943</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>37005</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>40009</v>
       </c>
       <c r="O18" s="2">
@@ -2985,11 +3105,11 @@
         <v>46179</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" ref="R18" si="40">+R16+R17</f>
+        <f t="shared" ref="R18" si="37">+R16+R17</f>
         <v>48186</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" ref="S18" si="41">+S16+S17</f>
+        <f t="shared" ref="S18" si="38">+S16+S17</f>
         <v>69702</v>
       </c>
       <c r="T18" s="2">
@@ -2997,15 +3117,15 @@
         <v>54719</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" ref="U18" si="42">+U16+U17</f>
+        <f t="shared" ref="U18" si="39">+U16+U17</f>
         <v>47074</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" ref="AL18:AM18" si="43">+AL16+AL17</f>
+        <f t="shared" ref="AL18:AM18" si="40">+AL16+AL17</f>
         <v>163756</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>161782</v>
       </c>
       <c r="AN18" s="2">
@@ -3025,71 +3145,71 @@
         <v>214137</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" ref="AR18:BH18" si="44">+AR16+AR17</f>
+        <f t="shared" ref="AR18:BH18" si="41">+AR16+AR17</f>
         <v>91915.585600000006</v>
       </c>
       <c r="AS18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>99105.325232000017</v>
       </c>
       <c r="AT18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>105540.23356384001</v>
       </c>
       <c r="AU18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>112460.24792353282</v>
       </c>
       <c r="AV18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>119906.18833301307</v>
       </c>
       <c r="AW18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>125897.91765547029</v>
       </c>
       <c r="AX18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>131922.93690735626</v>
       </c>
       <c r="AY18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>138244.05134504125</v>
       </c>
       <c r="AZ18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>144876.19785404982</v>
       </c>
       <c r="BA18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>151835.08575067052</v>
       </c>
       <c r="BB18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>159137.23764503989</v>
       </c>
       <c r="BC18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>166422.70050861928</v>
       </c>
       <c r="BD18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>174045.58055463078</v>
       </c>
       <c r="BE18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>182021.67440376605</v>
       </c>
       <c r="BF18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>190367.52553821425</v>
       </c>
       <c r="BG18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>199100.45992595525</v>
       </c>
       <c r="BH18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>208238.62335751654</v>
       </c>
     </row>
@@ -3098,35 +3218,35 @@
         <v>8</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19" si="45">+C15-C18</f>
+        <f t="shared" ref="C19" si="42">+C15-C18</f>
         <v>33912</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:F19" si="46">+D15-D18</f>
+        <f t="shared" ref="D19:F19" si="43">+D15-D18</f>
         <v>23422</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>20421</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>24084</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" ref="K19:N19" si="47">+K15-K18</f>
+        <f t="shared" ref="K19:N19" si="44">+K15-K18</f>
         <v>35217</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>22370</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>22680</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>24689</v>
       </c>
       <c r="O19" s="2">
@@ -3142,11 +3262,11 @@
         <v>35255</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19" si="48">+R15-R18</f>
+        <f t="shared" ref="R19" si="45">+R15-R18</f>
         <v>35174</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" ref="S19" si="49">+S15-S18</f>
+        <f t="shared" ref="S19" si="46">+S15-S18</f>
         <v>54243</v>
       </c>
       <c r="T19" s="2">
@@ -3154,15 +3274,15 @@
         <v>42559</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" ref="U19" si="50">+U15-U18</f>
+        <f t="shared" ref="U19" si="47">+U15-U18</f>
         <v>35885</v>
       </c>
       <c r="AL19" s="2">
-        <f t="shared" ref="AL19:AM19" si="51">+AL15-AL18</f>
+        <f t="shared" ref="AL19:AM19" si="48">+AL15-AL18</f>
         <v>101839</v>
       </c>
       <c r="AM19" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>98392</v>
       </c>
       <c r="AN19" s="2">
@@ -3175,78 +3295,78 @@
       </c>
       <c r="AP19" s="2">
         <f>+AP15-AP18</f>
-        <v>132687</v>
+        <v>222833</v>
       </c>
       <c r="AQ19" s="2">
         <f>+AQ15-AQ18</f>
         <v>169148</v>
       </c>
       <c r="AR19" s="2">
-        <f t="shared" ref="AR19:BH19" si="52">+AR15-AR18</f>
+        <f t="shared" ref="AR19:BH19" si="49">+AR15-AR18</f>
         <v>108347.20439999997</v>
       </c>
       <c r="AS19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>120888.13606799998</v>
       </c>
       <c r="AT19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>131021.91106715999</v>
       </c>
       <c r="AU19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>142079.97211323719</v>
       </c>
       <c r="AV19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>154150.42185919484</v>
       </c>
       <c r="AW19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>161855.92914917078</v>
       </c>
       <c r="AX19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>169796.92000175512</v>
       </c>
       <c r="AY19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>178132.06027252122</v>
       </c>
       <c r="AZ19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>186881.13175338533</v>
       </c>
       <c r="BA19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>196064.91971825861</v>
       </c>
       <c r="BB19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>205705.26435801669</v>
       </c>
       <c r="BC19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>215612.86562791423</v>
       </c>
       <c r="BD19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>226000.7404833865</v>
       </c>
       <c r="BE19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>236892.29834459542</v>
       </c>
       <c r="BF19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>248312.09493234637</v>
       </c>
       <c r="BG19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>260285.88861630575</v>
       </c>
       <c r="BH19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>272840.69954195671</v>
       </c>
     </row>
@@ -3311,82 +3431,82 @@
         <v>18752</v>
       </c>
       <c r="AO20" s="10">
-        <f t="shared" ref="AO20:AO21" si="53">SUM(O20:R20)</f>
+        <f t="shared" ref="AO20:AO21" si="50">SUM(O20:R20)</f>
         <v>21914</v>
       </c>
       <c r="AP20" s="10">
-        <f t="shared" ref="AP20:AP21" si="54">SUM(S20:V20)</f>
+        <f t="shared" ref="AP20:AP21" si="51">SUM(S20:V20)</f>
         <v>19490</v>
       </c>
       <c r="AQ20" s="2">
         <v>29915</v>
       </c>
       <c r="AR20" s="2">
-        <f t="shared" ref="AR20:BH20" si="55">+AQ20*1.03</f>
+        <f t="shared" ref="AR20:BH20" si="52">+AQ20*1.03</f>
         <v>30812.45</v>
       </c>
       <c r="AS20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>31736.823500000002</v>
       </c>
       <c r="AT20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>32688.928205000004</v>
       </c>
       <c r="AU20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>33669.596051150002</v>
       </c>
       <c r="AV20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>34679.6839326845</v>
       </c>
       <c r="AW20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>35720.074450665037</v>
       </c>
       <c r="AX20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>36791.676684184989</v>
       </c>
       <c r="AY20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>37895.426984710539</v>
       </c>
       <c r="AZ20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>39032.289794251854</v>
       </c>
       <c r="BA20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>40203.258488079409</v>
       </c>
       <c r="BB20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>41409.356242721791</v>
       </c>
       <c r="BC20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>42651.636930003449</v>
       </c>
       <c r="BD20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>43931.186037903557</v>
       </c>
       <c r="BE20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>45249.121619040663</v>
       </c>
       <c r="BF20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>46606.595267611883</v>
       </c>
       <c r="BG20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>48004.793125640244</v>
       </c>
       <c r="BH20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>49444.936919409454</v>
       </c>
     </row>
@@ -3451,82 +3571,82 @@
         <v>19916</v>
       </c>
       <c r="AO21" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>21973</v>
       </c>
       <c r="AP21" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>18654</v>
       </c>
       <c r="AQ21" s="2">
         <v>24932</v>
       </c>
       <c r="AR21" s="2">
-        <f t="shared" ref="AR21:BH21" si="56">+AQ21*1.03</f>
+        <f t="shared" ref="AR21:BH21" si="53">+AQ21*1.03</f>
         <v>25679.96</v>
       </c>
       <c r="AS21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>26450.358799999998</v>
       </c>
       <c r="AT21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>27243.869564000001</v>
       </c>
       <c r="AU21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>28061.185650920001</v>
       </c>
       <c r="AV21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>28903.021220447601</v>
       </c>
       <c r="AW21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>29770.111857061031</v>
       </c>
       <c r="AX21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>30663.215212772862</v>
       </c>
       <c r="AY21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>31583.111669156049</v>
       </c>
       <c r="AZ21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>32530.60501923073</v>
       </c>
       <c r="BA21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>33506.523169807653</v>
       </c>
       <c r="BB21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>34511.718864901886</v>
       </c>
       <c r="BC21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>35547.070430848944</v>
       </c>
       <c r="BD21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>36613.482543774415</v>
       </c>
       <c r="BE21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>37711.887020087648</v>
       </c>
       <c r="BF21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>38843.243630690282</v>
       </c>
       <c r="BG21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>40008.54093961099</v>
       </c>
       <c r="BH21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>41208.797167799319</v>
       </c>
     </row>
@@ -3535,35 +3655,35 @@
         <v>11</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22" si="57">+C20+C21</f>
+        <f t="shared" ref="C22" si="54">+C20+C21</f>
         <v>7638</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:F22" si="58">+D20+D21</f>
+        <f t="shared" ref="D22:F22" si="55">+D20+D21</f>
         <v>7528</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>7809</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>7966</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ref="K22:N22" si="59">+K20+K21</f>
+        <f t="shared" ref="K22:N22" si="56">+K20+K21</f>
         <v>9648</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>9517</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>9589</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>9914</v>
       </c>
       <c r="O22" s="2">
@@ -3579,11 +3699,11 @@
         <v>11129</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22" si="60">+R20+R21</f>
+        <f t="shared" ref="R22" si="57">+R20+R21</f>
         <v>11388</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" ref="S22" si="61">+S20+S21</f>
+        <f t="shared" ref="S22" si="58">+S20+S21</f>
         <v>12755</v>
       </c>
       <c r="T22" s="2">
@@ -3591,15 +3711,15 @@
         <v>12580</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" ref="U22" si="62">+U20+U21</f>
+        <f t="shared" ref="U22" si="59">+U20+U21</f>
         <v>12809</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" ref="AL22:AM22" si="63">+AL20+AL21</f>
+        <f t="shared" ref="AL22:AM22" si="60">+AL20+AL21</f>
         <v>30941</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>34462</v>
       </c>
       <c r="AN22" s="2">
@@ -3619,71 +3739,71 @@
         <v>54847</v>
       </c>
       <c r="AR22" s="2">
-        <f t="shared" ref="AR22:BH22" si="64">+AR20+AR21</f>
+        <f t="shared" ref="AR22:BH22" si="61">+AR20+AR21</f>
         <v>56492.41</v>
       </c>
       <c r="AS22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>58187.1823</v>
       </c>
       <c r="AT22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>59932.797769000004</v>
       </c>
       <c r="AU22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>61730.781702070002</v>
       </c>
       <c r="AV22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>63582.705153132105</v>
       </c>
       <c r="AW22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>65490.186307726064</v>
       </c>
       <c r="AX22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>67454.891896957852</v>
       </c>
       <c r="AY22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>69478.538653866592</v>
       </c>
       <c r="AZ22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>71562.894813482591</v>
       </c>
       <c r="BA22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>73709.78165788707</v>
       </c>
       <c r="BB22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>75921.075107623677</v>
       </c>
       <c r="BC22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>78198.707360852393</v>
       </c>
       <c r="BD22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>80544.668581677979</v>
       </c>
       <c r="BE22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>82961.008639128311</v>
       </c>
       <c r="BF22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>85449.838898302172</v>
       </c>
       <c r="BG22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>88013.334065251227</v>
       </c>
       <c r="BH22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>90653.734087208781</v>
       </c>
     </row>
@@ -3692,35 +3812,35 @@
         <v>12</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23" si="65">+C19-C22</f>
+        <f t="shared" ref="C23" si="62">+C19-C22</f>
         <v>26274</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:F23" si="66">+D19-D22</f>
+        <f t="shared" ref="D23:F23" si="63">+D19-D22</f>
         <v>15894</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>12612</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>16118</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:N23" si="67">+K19-K22</f>
+        <f t="shared" ref="K23:N23" si="64">+K19-K22</f>
         <v>25569</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>12853</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>13091</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>14775</v>
       </c>
       <c r="O23" s="2">
@@ -3736,11 +3856,11 @@
         <v>24126</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" ref="R23" si="68">+R19-R22</f>
+        <f t="shared" ref="R23" si="65">+R19-R22</f>
         <v>23786</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" ref="S23" si="69">+S19-S22</f>
+        <f t="shared" ref="S23" si="66">+S19-S22</f>
         <v>41488</v>
       </c>
       <c r="T23" s="2">
@@ -3748,15 +3868,15 @@
         <v>29979</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" ref="U23" si="70">+U19-U22</f>
+        <f t="shared" ref="U23" si="67">+U19-U22</f>
         <v>23076</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" ref="AL23:AM23" si="71">+AL19-AL22</f>
+        <f t="shared" ref="AL23:AM23" si="68">+AL19-AL22</f>
         <v>70898</v>
       </c>
       <c r="AM23" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>63930</v>
       </c>
       <c r="AN23" s="2">
@@ -3769,78 +3889,78 @@
       </c>
       <c r="AP23" s="2">
         <f>+AP19-AP22</f>
-        <v>94543</v>
+        <v>184689</v>
       </c>
       <c r="AQ23" s="2">
         <f>+AQ19-AQ22</f>
         <v>114301</v>
       </c>
       <c r="AR23" s="2">
-        <f t="shared" ref="AR23:BH23" si="72">+AR19-AR22</f>
+        <f t="shared" ref="AR23:BH23" si="69">+AR19-AR22</f>
         <v>51854.79439999997</v>
       </c>
       <c r="AS23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>62700.953767999978</v>
       </c>
       <c r="AT23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>71089.113298159995</v>
       </c>
       <c r="AU23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>80349.19041116719</v>
       </c>
       <c r="AV23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>90567.71670606274</v>
       </c>
       <c r="AW23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>96365.74284144472</v>
       </c>
       <c r="AX23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>102342.02810479727</v>
       </c>
       <c r="AY23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>108653.52161865463</v>
       </c>
       <c r="AZ23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>115318.23693990274</v>
       </c>
       <c r="BA23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>122355.13806037154</v>
       </c>
       <c r="BB23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>129784.18925039301</v>
       </c>
       <c r="BC23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>137414.15826706184</v>
       </c>
       <c r="BD23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>145456.07190170852</v>
       </c>
       <c r="BE23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>153931.28970546712</v>
       </c>
       <c r="BF23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>162862.2560340442</v>
       </c>
       <c r="BG23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>172272.55455105452</v>
       </c>
       <c r="BH23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>182186.96545474793</v>
       </c>
     </row>
@@ -3905,11 +4025,11 @@
         <v>803</v>
       </c>
       <c r="AO24" s="10">
-        <f t="shared" ref="AO24" si="73">SUM(O24:R24)</f>
+        <f t="shared" ref="AO24" si="70">SUM(O24:R24)</f>
         <v>258</v>
       </c>
       <c r="AP24" s="10">
-        <f t="shared" ref="AP24" si="74">SUM(S24:V24)</f>
+        <f t="shared" ref="AP24" si="71">SUM(S24:V24)</f>
         <v>-97</v>
       </c>
       <c r="AQ24" s="2">
@@ -3921,35 +4041,35 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25" si="75">+C23+C24</f>
+        <f t="shared" ref="C25" si="72">+C23+C24</f>
         <v>27030</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:F25" si="76">+D23+D24</f>
+        <f t="shared" ref="D25:F25" si="73">+D23+D24</f>
         <v>16168</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>13284</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>16421</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ref="K25:N25" si="77">+K23+K24</f>
+        <f t="shared" ref="K25:N25" si="74">+K23+K24</f>
         <v>25918</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>13135</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>13137</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>14901</v>
       </c>
       <c r="O25" s="2">
@@ -3965,11 +4085,11 @@
         <v>24369</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" ref="R25" si="78">+R23+R24</f>
+        <f t="shared" ref="R25" si="75">+R23+R24</f>
         <v>23248</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" ref="S25" si="79">+S23+S24</f>
+        <f t="shared" ref="S25" si="76">+S23+S24</f>
         <v>41241</v>
       </c>
       <c r="T25" s="2">
@@ -3977,15 +4097,15 @@
         <v>30139</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" ref="U25" si="80">+U23+U24</f>
+        <f t="shared" ref="U25" si="77">+U23+U24</f>
         <v>23066</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" ref="AL25:AM25" si="81">+AL23+AL24</f>
+        <f t="shared" ref="AL25:AM25" si="78">+AL23+AL24</f>
         <v>72903</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>65737</v>
       </c>
       <c r="AN25" s="2">
@@ -3998,78 +4118,78 @@
       </c>
       <c r="AP25" s="2">
         <f>+AP23+AP24</f>
-        <v>94446</v>
+        <v>184592</v>
       </c>
       <c r="AQ25" s="2">
         <f>+AQ23+AQ24</f>
         <v>113736</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" ref="AR25:BH25" si="82">+AR23+AR24</f>
+        <f t="shared" ref="AR25:BH25" si="79">+AR23+AR24</f>
         <v>51854.79439999997</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>62700.953767999978</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>71089.113298159995</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>80349.19041116719</v>
       </c>
       <c r="AV25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>90567.71670606274</v>
       </c>
       <c r="AW25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>96365.74284144472</v>
       </c>
       <c r="AX25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>102342.02810479727</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>108653.52161865463</v>
       </c>
       <c r="AZ25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>115318.23693990274</v>
       </c>
       <c r="BA25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>122355.13806037154</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>129784.18925039301</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>137414.15826706184</v>
       </c>
       <c r="BD25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>145456.07190170852</v>
       </c>
       <c r="BE25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>153931.28970546712</v>
       </c>
       <c r="BF25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>162862.2560340442</v>
       </c>
       <c r="BG25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>172272.55455105452</v>
       </c>
       <c r="BH25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>182186.96545474793</v>
       </c>
     </row>
@@ -4134,82 +4254,82 @@
         <v>9680</v>
       </c>
       <c r="AO26" s="10">
-        <f t="shared" ref="AO26" si="83">SUM(O26:R26)</f>
+        <f t="shared" ref="AO26" si="80">SUM(O26:R26)</f>
         <v>14527</v>
       </c>
       <c r="AP26" s="10">
-        <f t="shared" ref="AP26" si="84">SUM(S26:V26)</f>
+        <f t="shared" ref="AP26" si="81">SUM(S26:V26)</f>
         <v>15364</v>
       </c>
       <c r="AQ26" s="2">
         <v>16741</v>
       </c>
       <c r="AR26" s="2">
-        <f t="shared" ref="AR26:BH26" si="85">+AR25*0.2</f>
+        <f t="shared" ref="AR26:BH26" si="82">+AR25*0.2</f>
         <v>10370.958879999995</v>
       </c>
       <c r="AS26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>12540.190753599996</v>
       </c>
       <c r="AT26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>14217.822659632</v>
       </c>
       <c r="AU26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>16069.838082233438</v>
       </c>
       <c r="AV26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>18113.543341212549</v>
       </c>
       <c r="AW26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>19273.148568288943</v>
       </c>
       <c r="AX26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>20468.405620959456</v>
       </c>
       <c r="AY26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>21730.704323730926</v>
       </c>
       <c r="AZ26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>23063.647387980549</v>
       </c>
       <c r="BA26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>24471.027612074307</v>
       </c>
       <c r="BB26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>25956.837850078606</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>27482.83165341237</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>29091.214380341706</v>
       </c>
       <c r="BE26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>30786.257941093427</v>
       </c>
       <c r="BF26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>32572.451206808841</v>
       </c>
       <c r="BG26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>34454.510910210905</v>
       </c>
       <c r="BH26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>36437.39309094959</v>
       </c>
     </row>
@@ -4218,35 +4338,35 @@
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27" si="86">+C25-C26</f>
+        <f t="shared" ref="C27" si="83">+C25-C26</f>
         <v>20065</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:F27" si="87">+D25-D26</f>
+        <f t="shared" ref="D27:F27" si="84">+D25-D26</f>
         <v>13822</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="84"/>
         <v>11519</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="84"/>
         <v>14125</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27:N27" si="88">+K25-K26</f>
+        <f t="shared" ref="K27:N27" si="85">+K25-K26</f>
         <v>22236</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="85"/>
         <v>11249</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="85"/>
         <v>11253</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="85"/>
         <v>12673</v>
       </c>
       <c r="O27" s="2">
@@ -4262,11 +4382,11 @@
         <v>21744</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27" si="89">+R25-R26</f>
+        <f t="shared" ref="R27" si="86">+R25-R26</f>
         <v>20551</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" ref="S27" si="90">+S25-S26</f>
+        <f t="shared" ref="S27" si="87">+S25-S26</f>
         <v>34630</v>
       </c>
       <c r="T27" s="2">
@@ -4274,15 +4394,15 @@
         <v>25010</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" ref="U27" si="91">+U25-U26</f>
+        <f t="shared" ref="U27" si="88">+U25-U26</f>
         <v>19442</v>
       </c>
       <c r="AL27" s="2">
-        <f t="shared" ref="AL27:AM27" si="92">+AL25-AL26</f>
+        <f t="shared" ref="AL27:AM27" si="89">+AL25-AL26</f>
         <v>59531</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="89"/>
         <v>55256</v>
       </c>
       <c r="AN27" s="2">
@@ -4295,78 +4415,78 @@
       </c>
       <c r="AP27" s="2">
         <f>+AP25-AP26</f>
-        <v>79082</v>
+        <v>169228</v>
       </c>
       <c r="AQ27" s="2">
         <f>+AQ25-AQ26</f>
         <v>96995</v>
       </c>
       <c r="AR27" s="2">
-        <f t="shared" ref="AR27:BH27" si="93">+AR25-AR26</f>
+        <f t="shared" ref="AR27:BH27" si="90">+AR25-AR26</f>
         <v>41483.835519999979</v>
       </c>
       <c r="AS27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>50160.763014399985</v>
       </c>
       <c r="AT27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>56871.290638527993</v>
       </c>
       <c r="AU27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>64279.352328933754</v>
       </c>
       <c r="AV27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>72454.173364850198</v>
       </c>
       <c r="AW27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>77092.594273155773</v>
       </c>
       <c r="AX27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>81873.622483837811</v>
       </c>
       <c r="AY27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>86922.817294923705</v>
       </c>
       <c r="AZ27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>92254.589551922196</v>
       </c>
       <c r="BA27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>97884.11044829723</v>
       </c>
       <c r="BB27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>103827.35140031441</v>
       </c>
       <c r="BC27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>109931.32661364946</v>
       </c>
       <c r="BD27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>116364.85752136682</v>
       </c>
       <c r="BE27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>123145.03176437369</v>
       </c>
       <c r="BF27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>130289.80482723536</v>
       </c>
       <c r="BG27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>137818.04364084362</v>
       </c>
       <c r="BH27" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>145749.57236379833</v>
       </c>
     </row>
@@ -4375,19 +4495,19 @@
         <v>19</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" ref="C28" si="94">+C27/C29</f>
+        <f t="shared" ref="C28" si="91">+C27/C29</f>
         <v>0.97255857987156114</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" ref="D28:F28" si="95">+D27/D29</f>
+        <f t="shared" ref="D28:F28" si="92">+D27/D29</f>
         <v>0.68176083107937602</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="92"/>
         <v>0.58452984598534197</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="92"/>
         <v>0.70623460408563088</v>
       </c>
       <c r="G28" s="14"/>
@@ -4395,19 +4515,19 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14">
-        <f t="shared" ref="K28:N28" si="96">+K27/K29</f>
+        <f t="shared" ref="K28:N28" si="93">+K27/K29</f>
         <v>1.2479223042091785</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="93"/>
         <v>0.63846699811252383</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="93"/>
         <v>0.64601300384622584</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="93"/>
         <v>0.73438904632051849</v>
       </c>
       <c r="O28" s="14">
@@ -4423,11 +4543,11 @@
         <v>1.2956943963183782</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28" si="97">+R27/R29</f>
+        <f t="shared" ref="R28" si="94">+R27/R29</f>
         <v>1.2354000701047909</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" ref="S28" si="98">+S27/S29</f>
+        <f t="shared" ref="S28" si="95">+S27/S29</f>
         <v>2.0963369432743812</v>
       </c>
       <c r="T28" s="14">
@@ -4435,16 +4555,16 @@
         <v>1.5246917147727936</v>
       </c>
       <c r="U28" s="14">
-        <f t="shared" ref="U28" si="99">+U27/U29</f>
+        <f t="shared" ref="U28" si="96">+U27/U29</f>
         <v>1.1955329791418789</v>
       </c>
       <c r="V28" s="14"/>
       <c r="AL28" s="14">
-        <f t="shared" ref="AL28:AM28" si="100">+AL27/AL29</f>
+        <f t="shared" ref="AL28:AM28" si="97">+AL27/AL29</f>
         <v>2.9764851126245446</v>
       </c>
       <c r="AM28" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>2.9714474637107351</v>
       </c>
       <c r="AN28" s="14">
@@ -4457,75 +4577,75 @@
       </c>
       <c r="AP28" s="14">
         <f>+AP27/AP29</f>
-        <v>4.8235623966017149</v>
+        <v>10.321967290307718</v>
       </c>
       <c r="AQ28" s="14"/>
       <c r="AR28" s="14">
-        <f t="shared" ref="AR28:BH28" si="101">+AR27/AR29</f>
+        <f t="shared" ref="AR28:BH28" si="98">+AR27/AR29</f>
         <v>2.6348594300985537</v>
       </c>
       <c r="AS28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>3.1859773281019561</v>
       </c>
       <c r="AT28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>3.6121986928753773</v>
       </c>
       <c r="AU28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>4.0827241628335962</v>
       </c>
       <c r="AV28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>4.601950604310252</v>
       </c>
       <c r="AW28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>4.8965614308603431</v>
       </c>
       <c r="AX28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>5.2002300070316432</v>
       </c>
       <c r="AY28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>5.5209312728531303</v>
       </c>
       <c r="AZ28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>5.859580537907644</v>
       </c>
       <c r="BA28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>6.2171414055279826</v>
       </c>
       <c r="BB28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>6.5946283054608648</v>
       </c>
       <c r="BC28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>6.9823242947622823</v>
       </c>
       <c r="BD28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>7.3909521221688648</v>
       </c>
       <c r="BE28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>7.8215971148018406</v>
       </c>
       <c r="BF28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>8.2753997211572514</v>
       </c>
       <c r="BG28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>8.7535582805437517</v>
       </c>
       <c r="BH28" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="98"/>
         <v>9.2573319309020761</v>
       </c>
     </row>
@@ -4605,71 +4725,71 @@
         <v>15744.231</v>
       </c>
       <c r="AR29" s="2">
-        <f t="shared" ref="AR29:BH29" si="102">+AQ29</f>
+        <f t="shared" ref="AR29:BH29" si="99">+AQ29</f>
         <v>15744.231</v>
       </c>
       <c r="AS29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="AT29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="AU29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="AV29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="AW29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="AX29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="AY29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="AZ29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="BA29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="BB29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="BC29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="BD29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="BE29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="BF29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="BG29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
       <c r="BH29" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>15744.231</v>
       </c>
     </row>
@@ -4685,15 +4805,15 @@
         <v>0.21368126422635836</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" ref="P31" si="103">P15/L15-1</f>
+        <f t="shared" ref="P31" si="100">P15/L15-1</f>
         <v>0.53626121105070901</v>
       </c>
       <c r="Q31" s="15">
-        <f t="shared" ref="Q31" si="104">Q15/M15-1</f>
+        <f t="shared" ref="Q31" si="101">Q15/M15-1</f>
         <v>0.36439641450950822</v>
       </c>
       <c r="R31" s="15">
-        <f t="shared" ref="R31" si="105">R15/N15-1</f>
+        <f t="shared" ref="R31" si="102">R15/N15-1</f>
         <v>0.28844786546724777</v>
       </c>
       <c r="S31" s="15">
@@ -4710,19 +4830,19 @@
       </c>
       <c r="V31" s="15"/>
       <c r="AI31" s="15">
-        <f t="shared" ref="AI31:AL31" si="106">+AI15/AH15-1</f>
+        <f t="shared" ref="AI31:AL31" si="103">+AI15/AH15-1</f>
         <v>0.27856341803659834</v>
       </c>
       <c r="AJ31" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>-7.7342061913013738E-2</v>
       </c>
       <c r="AK31" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>6.304518199398057E-2</v>
       </c>
       <c r="AL31" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>0.15861957650261305</v>
       </c>
       <c r="AM31" s="15">
@@ -4734,83 +4854,83 @@
         <v>5.5120803769784787E-2</v>
       </c>
       <c r="AO31" s="15">
-        <f t="shared" ref="AO31:BH31" si="107">+AO15/AN15-1</f>
+        <f t="shared" ref="AO31:BH31" si="104">+AO15/AN15-1</f>
         <v>0.33259384733074704</v>
       </c>
       <c r="AP31" s="15">
-        <f t="shared" si="107"/>
-        <v>-0.16848588228540495</v>
+        <f t="shared" si="104"/>
+        <v>7.7937876041846099E-2</v>
       </c>
       <c r="AQ31" s="15">
-        <f t="shared" si="107"/>
-        <v>0.26005154808634301</v>
+        <f t="shared" si="104"/>
+        <v>-2.800460530319937E-2</v>
       </c>
       <c r="AR31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>-0.4775094511916721</v>
       </c>
       <c r="AS31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>9.8523901020254545E-2</v>
       </c>
       <c r="AT31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>7.5314435406812708E-2</v>
       </c>
       <c r="AU31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>7.5997262511349861E-2</v>
       </c>
       <c r="AV31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>7.6673109470160039E-2</v>
       </c>
       <c r="AW31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.9979588534013741E-2</v>
       </c>
       <c r="AX31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.8534573071935316E-2</v>
       </c>
       <c r="AY31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.8575704822987786E-2</v>
       </c>
       <c r="AZ31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.8616875374160928E-2</v>
       </c>
       <c r="BA31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.8658083547379105E-2</v>
       </c>
       <c r="BB31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.8699328162673972E-2</v>
       </c>
       <c r="BC31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.7124619634729026E-2</v>
       </c>
       <c r="BD31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.7144183678037521E-2</v>
       </c>
       <c r="BE31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.7163667600760517E-2</v>
       </c>
       <c r="BF31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.7183071007450561E-2</v>
       </c>
       <c r="BG31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.7202393513263274E-2</v>
       </c>
       <c r="BH31" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="104"/>
         <v>4.7221634743934038E-2</v>
       </c>
     </row>
@@ -4822,129 +4942,129 @@
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15">
-        <f t="shared" ref="O32:U32" si="108">+O5/K5-1</f>
+        <f t="shared" ref="O32:U32" si="105">+O5/K5-1</f>
         <v>0.1722751398395197</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="105"/>
         <v>0.65520336993301576</v>
       </c>
       <c r="Q32" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="105"/>
         <v>0.49784238019532134</v>
       </c>
       <c r="R32" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="105"/>
         <v>0.46982302223566785</v>
       </c>
       <c r="S32" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="105"/>
         <v>9.1940180191167231E-2</v>
       </c>
       <c r="T32" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="105"/>
         <v>5.4904251324627618E-2</v>
       </c>
       <c r="U32" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="105"/>
         <v>2.7672479150871787E-2</v>
       </c>
       <c r="V32" s="15"/>
       <c r="AJ32" s="15"/>
       <c r="AK32" s="15">
-        <f t="shared" ref="AK32:AP32" si="109">+AK5/AJ5-1</f>
+        <f t="shared" ref="AK32:AP32" si="106">+AK5/AJ5-1</f>
         <v>3.3789319678127372E-2</v>
       </c>
       <c r="AL32" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="106"/>
         <v>0.16677870633106662</v>
       </c>
       <c r="AM32" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="106"/>
         <v>-0.13649871427878313</v>
       </c>
       <c r="AN32" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="106"/>
         <v>-3.2307681502447672E-2</v>
       </c>
       <c r="AO32" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="106"/>
         <v>0.39331983364905176</v>
       </c>
       <c r="AP32" s="15">
-        <f t="shared" si="109"/>
-        <v>-0.15163590713277386</v>
+        <f t="shared" si="106"/>
+        <v>7.0405734139696641E-2</v>
       </c>
       <c r="AQ32" s="15">
-        <f t="shared" ref="AQ32:BH32" si="110">+AQ5/AP5-1</f>
-        <v>0.23160570540884051</v>
+        <f t="shared" ref="AQ32:BH32" si="107">+AQ5/AP5-1</f>
+        <v>-2.3874757286278081E-2</v>
       </c>
       <c r="AR32" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>-1</v>
       </c>
       <c r="AS32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BF32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BH32" s="15" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4960,27 +5080,27 @@
         <v>0.23955957530475813</v>
       </c>
       <c r="P33" s="15">
-        <f t="shared" ref="P33:U33" si="111">+P14/L14-1</f>
+        <f t="shared" ref="P33:U33" si="108">+P14/L14-1</f>
         <v>0.26618219958046141</v>
       </c>
       <c r="Q33" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="108"/>
         <v>0.32912739434478566</v>
       </c>
       <c r="R33" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="108"/>
         <v>0.25623754209911342</v>
       </c>
       <c r="S33" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="108"/>
         <v>0.23824630416851722</v>
       </c>
       <c r="T33" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="108"/>
         <v>0.17277084196201398</v>
       </c>
       <c r="U33" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="108"/>
         <v>0.12112547180601618</v>
       </c>
       <c r="V33" s="15"/>
@@ -4989,16 +5109,16 @@
         <v>0.16461205595250084</v>
       </c>
       <c r="AN33" s="15">
-        <f t="shared" ref="AN33:AP33" si="112">+AN14/AM14-1</f>
+        <f t="shared" ref="AN33:AP33" si="109">+AN14/AM14-1</f>
         <v>0.16152167807997242</v>
       </c>
       <c r="AO33" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="109"/>
         <v>0.27259708376729663</v>
       </c>
       <c r="AP33" s="15">
-        <f t="shared" si="112"/>
-        <v>-0.13860431128973327</v>
+        <f t="shared" si="109"/>
+        <v>0.14181951041286078</v>
       </c>
     </row>
     <row r="34" spans="2:42" x14ac:dyDescent="0.2">
@@ -5008,39 +5128,39 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6">
-        <f t="shared" ref="E34" si="113">+E19/E15</f>
+        <f t="shared" ref="E34" si="110">+E19/E15</f>
         <v>0.38338496198254013</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ref="K34" si="114">+K19/K15</f>
+        <f t="shared" ref="K34" si="111">+K19/K15</f>
         <v>0.38354806739345887</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" ref="L34:N34" si="115">+L19/L15</f>
+        <f t="shared" ref="L34:N34" si="112">+L19/L15</f>
         <v>0.38361943305952362</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="115"/>
+        <f t="shared" si="112"/>
         <v>0.37999497361146017</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="115"/>
+        <f t="shared" si="112"/>
         <v>0.38160375900336951</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" ref="O34:Q34" si="116">+O19/O15</f>
+        <f t="shared" ref="O34:Q34" si="113">+O19/O15</f>
         <v>0.39777815665969724</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="113"/>
         <v>0.42506474370423292</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="113"/>
         <v>0.43292727853230839</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" ref="R34" si="117">+R19/R15</f>
+        <f t="shared" ref="R34" si="114">+R19/R15</f>
         <v>0.42195297504798462</v>
       </c>
       <c r="S34" s="6">
@@ -5057,24 +5177,24 @@
       </c>
       <c r="V34" s="6"/>
       <c r="AL34" s="6">
-        <f t="shared" ref="AL34:AP34" si="118">+AL19/AL15</f>
+        <f t="shared" ref="AL34:AP34" si="115">+AL19/AL15</f>
         <v>0.38343718820007905</v>
       </c>
       <c r="AM34" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="115"/>
         <v>0.37817768109034722</v>
       </c>
       <c r="AN34" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="115"/>
         <v>0.38233247727810865</v>
       </c>
       <c r="AO34" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="115"/>
         <v>0.41779359625167778</v>
       </c>
       <c r="AP34" s="6">
-        <f t="shared" si="118"/>
-        <v>0.43620924315048226</v>
+        <f t="shared" si="115"/>
+        <v>0.56509555496946706</v>
       </c>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.2">
@@ -5091,65 +5211,65 @@
         <v>0.64396382225717652</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" ref="L35:U35" si="119">(L14-L17)/L14</f>
+        <f t="shared" ref="L35:U35" si="116">(L14-L17)/L14</f>
         <v>0.65373089601438417</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="116"/>
         <v>0.67224080267558528</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="116"/>
         <v>0.66925561894288266</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="116"/>
         <v>0.6839667533785927</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="116"/>
         <v>0.70072776758771671</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="116"/>
         <v>0.69804414960539862</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="116"/>
         <v>0.704765552333534</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="116"/>
         <v>0.72366263578602175</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="116"/>
         <v>0.72609858231168967</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="116"/>
         <v>0.71490512140379514</v>
       </c>
       <c r="V35" s="6"/>
       <c r="AL35" s="6">
-        <f t="shared" ref="AL35:AP35" si="120">(AL14-AL17)/AL14</f>
+        <f t="shared" ref="AL35:AP35" si="117">(AL14-AL17)/AL14</f>
         <v>0.60772869075173597</v>
       </c>
       <c r="AM35" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="117"/>
         <v>0.63738091637683347</v>
       </c>
       <c r="AN35" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="117"/>
         <v>0.66015101919357233</v>
       </c>
       <c r="AO35" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="117"/>
         <v>0.69725977347460721</v>
       </c>
       <c r="AP35" s="6">
-        <f t="shared" si="120"/>
-        <v>0.72156902665377243</v>
+        <f t="shared" si="117"/>
+        <v>0.78994995456232642</v>
       </c>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.2">
@@ -5166,65 +5286,65 @@
         <v>0.3416894215210356</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" ref="L36:U36" si="121">(L13-L16)/L13</f>
+        <f t="shared" ref="L36:U36" si="118">(L13-L16)/L13</f>
         <v>0.30343600578227509</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="118"/>
         <v>0.29736293494379851</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="118"/>
         <v>0.2981515085046561</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="118"/>
         <v>0.35063441961579467</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="118"/>
         <v>0.3609647372838215</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="118"/>
         <v>0.36043347720022517</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="118"/>
         <v>0.34253184395310604</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="118"/>
         <v>0.38418446983117716</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="118"/>
         <v>0.36364692668190091</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="118"/>
         <v>0.34519769552521506</v>
       </c>
       <c r="V36" s="6"/>
       <c r="AL36" s="6">
-        <f t="shared" ref="AL36:AP36" si="122">(AL13-AL16)/AL13</f>
+        <f t="shared" ref="AL36:AP36" si="119">(AL13-AL16)/AL13</f>
         <v>0.34396294836770025</v>
       </c>
       <c r="AM36" s="6">
-        <f t="shared" si="122"/>
+        <f t="shared" si="119"/>
         <v>0.32207795851002652</v>
       </c>
       <c r="AN36" s="6">
-        <f t="shared" si="122"/>
+        <f t="shared" si="119"/>
         <v>0.31466339293399231</v>
       </c>
       <c r="AO36" s="6">
-        <f t="shared" si="122"/>
+        <f t="shared" si="119"/>
         <v>0.35349303276483562</v>
       </c>
       <c r="AP36" s="6">
-        <f t="shared" si="122"/>
-        <v>0.36762613103029262</v>
+        <f t="shared" si="119"/>
+        <v>0.50953671580239024</v>
       </c>
     </row>
     <row r="37" spans="2:42" x14ac:dyDescent="0.2">
@@ -5234,39 +5354,39 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6">
-        <f t="shared" ref="E37" si="123">+E23/E15</f>
+        <f t="shared" ref="E37" si="120">+E23/E15</f>
         <v>0.23677837228949591</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" ref="K37" si="124">+K23/K15</f>
+        <f t="shared" ref="K37" si="121">+K23/K15</f>
         <v>0.2784717759940753</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" ref="L37:N37" si="125">+L23/L15</f>
+        <f t="shared" ref="L37:N37" si="122">+L23/L15</f>
         <v>0.22041397287054346</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="122"/>
         <v>0.21933484124989527</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="122"/>
         <v>0.2283687285542057</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" ref="O37:Q37" si="126">+O23/O15</f>
+        <f t="shared" ref="O37:Q37" si="123">+O23/O15</f>
         <v>0.30091799100853384</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="123"/>
         <v>0.30700794784782998</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="123"/>
         <v>0.29626445956234498</v>
       </c>
       <c r="R37" s="6">
-        <f t="shared" ref="R37" si="127">+R23/R15</f>
+        <f t="shared" ref="R37" si="124">+R23/R15</f>
         <v>0.28534069097888676</v>
       </c>
       <c r="S37" s="6">
@@ -5283,24 +5403,24 @@
       </c>
       <c r="V37" s="6"/>
       <c r="AL37" s="6">
-        <f t="shared" ref="AL37:AP37" si="128">+AL23/AL15</f>
+        <f t="shared" ref="AL37:AP37" si="125">+AL23/AL15</f>
         <v>0.26694026619477024</v>
       </c>
       <c r="AM37" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>0.24572017188496928</v>
       </c>
       <c r="AN37" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>0.24147314354406862</v>
       </c>
       <c r="AO37" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="125"/>
         <v>0.29782377527561593</v>
       </c>
       <c r="AP37" s="6">
-        <f t="shared" si="128"/>
-        <v>0.31081063310781043</v>
+        <f t="shared" si="125"/>
+        <v>0.46836390010346718</v>
       </c>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.2">
@@ -5318,65 +5438,65 @@
         <v>0.14206343082027933</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" ref="L38:U38" si="129">L26/L25</f>
+        <f t="shared" ref="L38:U38" si="126">L26/L25</f>
         <v>0.14358583936048724</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="126"/>
         <v>0.14341173783968944</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="126"/>
         <v>0.14952016643178309</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="126"/>
         <v>0.14366121683194855</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="126"/>
         <v>0.1564028417407447</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="126"/>
         <v>0.10771882309491568</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="126"/>
         <v>0.11600997935306263</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="126"/>
         <v>0.16030164157028201</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="126"/>
         <v>0.17017817445834302</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="126"/>
         <v>0.15711436746726784</v>
       </c>
       <c r="V38" s="6"/>
       <c r="AL38" s="6">
-        <f t="shared" ref="AL38:AP38" si="130">AL26/AL25</f>
+        <f t="shared" ref="AL38:AP38" si="127">AL26/AL25</f>
         <v>0.18342180705869443</v>
       </c>
       <c r="AM38" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="127"/>
         <v>0.15943836804235059</v>
       </c>
       <c r="AN38" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="127"/>
         <v>0.14428164731484103</v>
       </c>
       <c r="AO38" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="127"/>
         <v>0.13302260844085087</v>
       </c>
       <c r="AP38" s="6">
-        <f t="shared" si="130"/>
-        <v>0.16267496770641424</v>
+        <f t="shared" si="127"/>
+        <v>8.3232209413192343E-2</v>
       </c>
     </row>
   </sheetData>

--- a/AAPL Model.xlsx
+++ b/AAPL Model.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77469E89-92A6-7746-B2C4-FA7CCC53B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06A3EA2-B37E-BB4F-A7EA-AAC125078C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33000" yWindow="3900" windowWidth="23940" windowHeight="14920" activeTab="1" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="33000" yWindow="3900" windowWidth="23940" windowHeight="14920" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId2"/>
     <sheet name="Valuation" sheetId="4" r:id="rId3"/>
     <sheet name="iPhone" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -67,18 +67,6 @@
     <t>Gross Profit</t>
   </si>
   <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>SG&amp;A</t>
-  </si>
-  <si>
-    <t>OpEx</t>
-  </si>
-  <si>
-    <t>OpInc</t>
-  </si>
-  <si>
     <t>Operating Margin</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>Taxes</t>
   </si>
   <si>
-    <t>Pretax Income</t>
-  </si>
-  <si>
     <t>Interest</t>
   </si>
   <si>
@@ -350,6 +335,21 @@
   </si>
   <si>
     <t>4Q23</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <t>Selling &amp; General &amp; Administrative</t>
+  </si>
+  <si>
+    <t>Research &amp; Development</t>
+  </si>
+  <si>
+    <t>EBT</t>
   </si>
 </sst>
 </file>
@@ -878,141 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDB42F4-D3F6-42E5-97CD-AE20E0C5C6C6}">
-  <dimension ref="N2:P14"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="8.83203125" style="1"/>
-    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>170.03</v>
-      </c>
-    </row>
-    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>16070.752</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2">
-        <f>+O2*O3</f>
-        <v>2732509.9625599999</v>
-      </c>
-    </row>
-    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="2">
-        <f>23646+24658+120805</f>
-        <v>169109</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="2">
-        <f>9982+11128+98959</f>
-        <v>120069</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2">
-        <f>+O4-O5+O6</f>
-        <v>2683469.9625599999</v>
-      </c>
-    </row>
-    <row r="10" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="11" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="4">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O12" s="2">
-        <f>NPV(O10,Model!AQ27:FP27)+Main!O5-Main!O6</f>
-        <v>834698.1523954937</v>
-      </c>
-    </row>
-    <row r="13" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="5">
-        <f>O12/Main!O3</f>
-        <v>51.938960441645399</v>
-      </c>
-    </row>
-    <row r="14" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="6">
-        <f>O13/Main!O2-1</f>
-        <v>-0.69453060964744218</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EB6088-6F7F-4776-A4C2-8340505BB8E8}">
   <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z30" sqref="Z30"/>
+      <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1036,7 +909,7 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.2">
@@ -1131,162 +1004,162 @@
     </row>
     <row r="4" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="V4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AP4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AY4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="BA4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="BB4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="BC4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="BD4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BF4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BG4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BH4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BH4" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="10">
         <v>61576</v>
@@ -1448,7 +1321,7 @@
     </row>
     <row r="6" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="10">
         <v>77316</v>
@@ -1527,6 +1400,14 @@
         <f t="shared" ref="X6" si="4">X5/X7*1000</f>
         <v>51957.48987854251</v>
       </c>
+      <c r="Y6" s="10">
+        <f t="shared" ref="Y6" si="5">Y5/Y7*1000</f>
+        <v>40370.641753678938</v>
+      </c>
+      <c r="Z6" s="10">
+        <f t="shared" ref="Z6" si="6">Z5/Z7*1000</f>
+        <v>44440.048290065031</v>
+      </c>
       <c r="AL6" s="10">
         <f>SUM(C6:F6)</f>
         <v>217722</v>
@@ -1549,80 +1430,80 @@
       </c>
       <c r="AQ6" s="10">
         <f>SUM(W6:Z6)</f>
-        <v>119627.24296496226</v>
+        <v>204437.93300870623</v>
       </c>
       <c r="AR6" s="10">
-        <f t="shared" ref="AR6:BH6" si="5">+AQ6*1.01</f>
-        <v>120823.5153946119</v>
+        <f t="shared" ref="AR6:BH6" si="7">+AQ6*1.01</f>
+        <v>206482.3123387933</v>
       </c>
       <c r="AS6" s="10">
-        <f t="shared" si="5"/>
-        <v>122031.75054855802</v>
+        <f t="shared" si="7"/>
+        <v>208547.13546218124</v>
       </c>
       <c r="AT6" s="10">
-        <f t="shared" si="5"/>
-        <v>123252.0680540436</v>
+        <f t="shared" si="7"/>
+        <v>210632.60681680305</v>
       </c>
       <c r="AU6" s="10">
-        <f t="shared" si="5"/>
-        <v>124484.58873458403</v>
+        <f t="shared" si="7"/>
+        <v>212738.93288497109</v>
       </c>
       <c r="AV6" s="10">
-        <f t="shared" si="5"/>
-        <v>125729.43462192987</v>
+        <f t="shared" si="7"/>
+        <v>214866.32221382079</v>
       </c>
       <c r="AW6" s="10">
-        <f t="shared" si="5"/>
-        <v>126986.72896814918</v>
+        <f t="shared" si="7"/>
+        <v>217014.98543595901</v>
       </c>
       <c r="AX6" s="10">
-        <f t="shared" si="5"/>
-        <v>128256.59625783068</v>
+        <f t="shared" si="7"/>
+        <v>219185.13529031861</v>
       </c>
       <c r="AY6" s="10">
-        <f t="shared" si="5"/>
-        <v>129539.16222040898</v>
+        <f t="shared" si="7"/>
+        <v>221376.98664322178</v>
       </c>
       <c r="AZ6" s="10">
-        <f t="shared" si="5"/>
-        <v>130834.55384261307</v>
+        <f t="shared" si="7"/>
+        <v>223590.75650965399</v>
       </c>
       <c r="BA6" s="10">
-        <f t="shared" si="5"/>
-        <v>132142.8993810392</v>
+        <f t="shared" si="7"/>
+        <v>225826.66407475053</v>
       </c>
       <c r="BB6" s="10">
-        <f t="shared" si="5"/>
-        <v>133464.3283748496</v>
+        <f t="shared" si="7"/>
+        <v>228084.93071549805</v>
       </c>
       <c r="BC6" s="10">
-        <f t="shared" si="5"/>
-        <v>134798.97165859811</v>
+        <f t="shared" si="7"/>
+        <v>230365.78002265302</v>
       </c>
       <c r="BD6" s="10">
-        <f t="shared" si="5"/>
-        <v>136146.9613751841</v>
+        <f t="shared" si="7"/>
+        <v>232669.43782287955</v>
       </c>
       <c r="BE6" s="10">
-        <f t="shared" si="5"/>
-        <v>137508.43098893593</v>
+        <f t="shared" si="7"/>
+        <v>234996.13220110835</v>
       </c>
       <c r="BF6" s="10">
-        <f t="shared" si="5"/>
-        <v>138883.51529882528</v>
+        <f t="shared" si="7"/>
+        <v>237346.09352311943</v>
       </c>
       <c r="BG6" s="10">
-        <f t="shared" si="5"/>
-        <v>140272.35045181355</v>
+        <f t="shared" si="7"/>
+        <v>239719.55445835064</v>
       </c>
       <c r="BH6" s="10">
-        <f t="shared" si="5"/>
-        <v>141675.07395633167</v>
+        <f t="shared" si="7"/>
+        <v>242116.75000293416</v>
       </c>
     </row>
     <row r="7" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="10">
         <f>+C5*1000/C6</f>
@@ -1645,15 +1526,15 @@
         <v>758.22493224932248</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" ref="L7:N7" si="6">+L5*1000/L6</f>
+        <f t="shared" ref="L7:N7" si="8">+L5*1000/L6</f>
         <v>789.15531335149865</v>
       </c>
       <c r="M7" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>702.60638297872345</v>
       </c>
       <c r="N7" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>634.14868105515586</v>
       </c>
       <c r="O7" s="10">
@@ -1685,6 +1566,14 @@
       </c>
       <c r="X7" s="10">
         <v>988</v>
+      </c>
+      <c r="Y7" s="10">
+        <f>U7*1.03</f>
+        <v>982.62</v>
+      </c>
+      <c r="Z7" s="10">
+        <f>V7*1.03</f>
+        <v>985.71</v>
       </c>
       <c r="AL7" s="10">
         <f>+AL5*1000/AL6</f>
@@ -1707,11 +1596,11 @@
         <v>934.12580218512926</v>
       </c>
       <c r="AR7" s="10">
-        <f t="shared" ref="AR7:AS7" si="7">+AQ7*1.05</f>
+        <f t="shared" ref="AR7:AS7" si="9">+AQ7*1.05</f>
         <v>0</v>
       </c>
       <c r="AS7" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AT7" s="10">
@@ -1739,11 +1628,11 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="10">
-        <f t="shared" ref="AZ7:BA7" si="8">+AY7*1.03</f>
+        <f t="shared" ref="AZ7:BA7" si="10">+AY7*1.03</f>
         <v>0</v>
       </c>
       <c r="BA7" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BB7" s="10">
@@ -1751,27 +1640,27 @@
         <v>0</v>
       </c>
       <c r="BC7" s="10">
-        <f t="shared" ref="BC7:BH7" si="9">+BB7*1.02</f>
+        <f t="shared" ref="BC7:BH7" si="11">+BB7*1.02</f>
         <v>0</v>
       </c>
       <c r="BD7" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BE7" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BF7" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BG7" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BH7" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1780,7 +1669,7 @@
     </row>
     <row r="9" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" s="10">
         <v>6895</v>
@@ -1858,11 +1747,11 @@
         <v>25740</v>
       </c>
       <c r="AN9" s="10">
-        <f t="shared" ref="AN9:AN10" si="10">SUM(K9:N9)</f>
+        <f t="shared" ref="AN9:AN10" si="12">SUM(K9:N9)</f>
         <v>28622</v>
       </c>
       <c r="AO9" s="10">
-        <f t="shared" ref="AO9:AO10" si="11">SUM(O9:R9)</f>
+        <f t="shared" ref="AO9:AO10" si="13">SUM(O9:R9)</f>
         <v>35190</v>
       </c>
       <c r="AP9" s="10">
@@ -1872,27 +1761,27 @@
         <v>29357</v>
       </c>
       <c r="AR9" s="10">
-        <f t="shared" ref="AR9:AW9" si="12">+AQ9*1.07</f>
+        <f t="shared" ref="AR9:AW9" si="14">+AQ9*1.07</f>
         <v>31411.99</v>
       </c>
       <c r="AS9" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>33610.829300000005</v>
       </c>
       <c r="AT9" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>35963.587351000009</v>
       </c>
       <c r="AU9" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>38481.038465570011</v>
       </c>
       <c r="AV9" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>41174.711158159917</v>
       </c>
       <c r="AW9" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44056.940939231114</v>
       </c>
       <c r="AX9" s="10">
@@ -1900,19 +1789,19 @@
         <v>46700.357395584986</v>
       </c>
       <c r="AY9" s="10">
-        <f t="shared" ref="AY9:BB9" si="13">+AX9*1.06</f>
+        <f t="shared" ref="AY9:BB9" si="15">+AX9*1.06</f>
         <v>49502.378839320088</v>
       </c>
       <c r="AZ9" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>52472.521569679295</v>
       </c>
       <c r="BA9" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>55620.872863860059</v>
       </c>
       <c r="BB9" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>58958.125235691667</v>
       </c>
       <c r="BC9" s="10">
@@ -1920,29 +1809,29 @@
         <v>61906.031497476251</v>
       </c>
       <c r="BD9" s="10">
-        <f t="shared" ref="BD9:BH9" si="14">+BC9*1.05</f>
+        <f t="shared" ref="BD9:BH9" si="16">+BC9*1.05</f>
         <v>65001.333072350069</v>
       </c>
       <c r="BE9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>68251.399725967582</v>
       </c>
       <c r="BF9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>71663.969712265971</v>
       </c>
       <c r="BG9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>75247.168197879277</v>
       </c>
       <c r="BH9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>79009.526607773238</v>
       </c>
     </row>
     <row r="10" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10">
         <v>5862</v>
@@ -2004,7 +1893,7 @@
         <v>5791</v>
       </c>
       <c r="Z10" s="10">
-        <f t="shared" ref="Z10:Z11" si="15">AQ10-Y10-X10-W10</f>
+        <f t="shared" ref="Z10:Z11" si="17">AQ10-Y10-X10-W10</f>
         <v>6443</v>
       </c>
       <c r="AJ10" s="10">
@@ -2020,11 +1909,11 @@
         <v>21280</v>
       </c>
       <c r="AN10" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>23724</v>
       </c>
       <c r="AO10" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31862</v>
       </c>
       <c r="AP10" s="10">
@@ -2034,77 +1923,77 @@
         <v>28300</v>
       </c>
       <c r="AR10" s="10">
-        <f t="shared" ref="AR10:BH10" si="16">+AQ10*1.04</f>
+        <f t="shared" ref="AR10:BH10" si="18">+AQ10*1.04</f>
         <v>29432</v>
       </c>
       <c r="AS10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30609.280000000002</v>
       </c>
       <c r="AT10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>31833.651200000004</v>
       </c>
       <c r="AU10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>33106.997248000007</v>
       </c>
       <c r="AV10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>34431.277137920006</v>
       </c>
       <c r="AW10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>35808.528223436806</v>
       </c>
       <c r="AX10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>37240.869352374277</v>
       </c>
       <c r="AY10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>38730.504126469248</v>
       </c>
       <c r="AZ10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>40279.724291528022</v>
       </c>
       <c r="BA10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>41890.913263189148</v>
       </c>
       <c r="BB10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>43566.549793716717</v>
       </c>
       <c r="BC10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>45309.211785465384</v>
       </c>
       <c r="BD10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>47121.580256884001</v>
       </c>
       <c r="BE10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>49006.443467159363</v>
       </c>
       <c r="BF10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50966.70120584574</v>
       </c>
       <c r="BG10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>53005.369254079575</v>
       </c>
       <c r="BH10" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>55125.584024242758</v>
       </c>
     </row>
     <row r="11" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10">
         <v>5489</v>
@@ -2166,7 +2055,7 @@
         <v>8284</v>
       </c>
       <c r="Z11" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9322</v>
       </c>
       <c r="AJ11" s="10">
@@ -2182,11 +2071,11 @@
         <v>24482</v>
       </c>
       <c r="AN11" s="10">
-        <f t="shared" ref="AN11" si="17">SUM(K11:N11)</f>
+        <f t="shared" ref="AN11" si="19">SUM(K11:N11)</f>
         <v>30620</v>
       </c>
       <c r="AO11" s="10">
-        <f t="shared" ref="AO11" si="18">SUM(O11:R11)</f>
+        <f t="shared" ref="AO11" si="20">SUM(O11:R11)</f>
         <v>38367</v>
       </c>
       <c r="AP11" s="10">
@@ -2196,71 +2085,71 @@
         <v>39845</v>
       </c>
       <c r="AR11" s="10">
-        <f t="shared" ref="AR11:BH11" si="19">+AQ11*1.04</f>
+        <f t="shared" ref="AR11:BH11" si="21">+AQ11*1.04</f>
         <v>41438.800000000003</v>
       </c>
       <c r="AS11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>43096.352000000006</v>
       </c>
       <c r="AT11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>44820.206080000011</v>
       </c>
       <c r="AU11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>46613.014323200012</v>
       </c>
       <c r="AV11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>48477.534896128011</v>
       </c>
       <c r="AW11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50416.636291973133</v>
       </c>
       <c r="AX11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>52433.30174365206</v>
       </c>
       <c r="AY11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>54530.633813398148</v>
       </c>
       <c r="AZ11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>56711.859165934075</v>
       </c>
       <c r="BA11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>58980.333532571436</v>
       </c>
       <c r="BB11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>61339.546873874293</v>
       </c>
       <c r="BC11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>63793.128748829266</v>
       </c>
       <c r="BD11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>66344.853898782443</v>
       </c>
       <c r="BE11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>68998.648054733741</v>
       </c>
       <c r="BF11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>71758.59397692309</v>
       </c>
       <c r="BG11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>74628.937736000022</v>
       </c>
       <c r="BH11" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>77614.095245440025</v>
       </c>
     </row>
@@ -2269,7 +2158,7 @@
     </row>
     <row r="13" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C9:C11)+C5</f>
@@ -2292,91 +2181,91 @@
         <v>79104</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ref="L13:Z13" si="20">L5+L9+L10+L11</f>
+        <f t="shared" ref="L13:Z13" si="22">L5+L9+L10+L11</f>
         <v>44965</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>46529</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50149</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>95678</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>72683</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>63948</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>65083</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>104429</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>77457</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>63355</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>70958</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>96388</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>73929</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>60584</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>67184</v>
       </c>
       <c r="AJ13" s="2">
-        <f t="shared" ref="AJ13:AP13" si="21">SUM(AJ9:AJ11)+AJ5</f>
+        <f t="shared" ref="AJ13:AP13" si="23">SUM(AJ9:AJ11)+AJ5</f>
         <v>191291</v>
       </c>
       <c r="AK13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>199254</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>225847</v>
       </c>
       <c r="AM13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>213883</v>
       </c>
       <c r="AN13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>220747</v>
       </c>
       <c r="AO13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>297392</v>
       </c>
       <c r="AP13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>316199</v>
       </c>
       <c r="AQ13" s="2">
@@ -2384,77 +2273,77 @@
         <v>298085</v>
       </c>
       <c r="AR13" s="2">
-        <f t="shared" ref="AR13:BH13" si="22">SUM(AR9:AR11)+AR5</f>
+        <f t="shared" ref="AR13:BH13" si="24">SUM(AR9:AR11)+AR5</f>
         <v>102282.79000000001</v>
       </c>
       <c r="AS13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107316.46130000002</v>
       </c>
       <c r="AT13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>112617.44463100002</v>
       </c>
       <c r="AU13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>118201.05003677003</v>
       </c>
       <c r="AV13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>124083.52319220793</v>
       </c>
       <c r="AW13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>130282.10545464106</v>
       </c>
       <c r="AX13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>136374.52849161133</v>
       </c>
       <c r="AY13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>142763.51677918748</v>
       </c>
       <c r="AZ13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>149464.1050271414</v>
       </c>
       <c r="BA13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>156492.11965962066</v>
       </c>
       <c r="BB13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>163864.22190328268</v>
       </c>
       <c r="BC13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>171008.37203177091</v>
       </c>
       <c r="BD13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>178467.76722801651</v>
       </c>
       <c r="BE13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>186256.49124786069</v>
       </c>
       <c r="BF13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>194389.26489503481</v>
       </c>
       <c r="BG13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>202881.47518795886</v>
       </c>
       <c r="BH13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>211749.20587745603</v>
       </c>
     </row>
     <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2">
         <v>8471</v>
@@ -2536,7 +2425,7 @@
         <v>53768</v>
       </c>
       <c r="AO14" s="10">
-        <f t="shared" ref="AO14" si="23">SUM(O14:R14)</f>
+        <f t="shared" ref="AO14" si="25">SUM(O14:R14)</f>
         <v>68425</v>
       </c>
       <c r="AP14" s="10">
@@ -2570,47 +2459,47 @@
         <v>157471.74135</v>
       </c>
       <c r="AX14" s="10">
-        <f t="shared" ref="AX14:BH14" si="24">+AW14*1.05</f>
+        <f t="shared" ref="AX14:BH14" si="26">+AW14*1.05</f>
         <v>165345.32841750002</v>
       </c>
       <c r="AY14" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>173612.59483837502</v>
       </c>
       <c r="AZ14" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>182293.22458029378</v>
       </c>
       <c r="BA14" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>191407.88580930847</v>
       </c>
       <c r="BB14" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>200978.2800997739</v>
       </c>
       <c r="BC14" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>211027.1941047626</v>
       </c>
       <c r="BD14" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>221578.55381000074</v>
       </c>
       <c r="BE14" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>232657.48150050078</v>
       </c>
       <c r="BF14" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>244290.35557552584</v>
       </c>
       <c r="BG14" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>256504.87335430214</v>
       </c>
       <c r="BH14" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>269330.11702201725</v>
       </c>
     </row>
@@ -2619,35 +2508,35 @@
         <v>7</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:F15" si="25">+C13+C14</f>
+        <f t="shared" ref="C15:F15" si="27">+C13+C14</f>
         <v>88293</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>61137</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>53265</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>62900</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" ref="K15:N15" si="26">+K13+K14</f>
+        <f t="shared" ref="K15:N15" si="28">+K13+K14</f>
         <v>91819</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>58313</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>59685</v>
       </c>
       <c r="N15" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>64698</v>
       </c>
       <c r="O15" s="12">
@@ -2663,11 +2552,11 @@
         <v>81434</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ref="R15" si="27">+R13+R14</f>
+        <f t="shared" ref="R15" si="29">+R13+R14</f>
         <v>83360</v>
       </c>
       <c r="S15" s="12">
-        <f t="shared" ref="S15" si="28">+S13+S14</f>
+        <f t="shared" ref="S15" si="30">+S13+S14</f>
         <v>123945</v>
       </c>
       <c r="T15" s="12">
@@ -2675,27 +2564,27 @@
         <v>97278</v>
       </c>
       <c r="U15" s="12">
-        <f t="shared" ref="U15:Z15" si="29">+U13+U14</f>
+        <f t="shared" ref="U15:Z15" si="31">+U13+U14</f>
         <v>82959</v>
       </c>
       <c r="V15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>90146</v>
       </c>
       <c r="W15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>117154</v>
       </c>
       <c r="X15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>94899</v>
       </c>
       <c r="Y15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>81797</v>
       </c>
       <c r="Z15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>89435</v>
       </c>
       <c r="AH15" s="12">
@@ -2705,19 +2594,19 @@
         <v>233715</v>
       </c>
       <c r="AJ15" s="12">
-        <f t="shared" ref="AJ15:AM15" si="30">+AJ13+AJ14</f>
+        <f t="shared" ref="AJ15:AM15" si="32">+AJ13+AJ14</f>
         <v>215639</v>
       </c>
       <c r="AK15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>229234</v>
       </c>
       <c r="AL15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>265595</v>
       </c>
       <c r="AM15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>260174</v>
       </c>
       <c r="AN15" s="12">
@@ -2737,77 +2626,77 @@
         <v>383285</v>
       </c>
       <c r="AR15" s="12">
-        <f t="shared" ref="AR15:BH15" si="31">+AR13+AR14</f>
+        <f t="shared" ref="AR15:BH15" si="33">+AR13+AR14</f>
         <v>200262.78999999998</v>
       </c>
       <c r="AS15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>219993.4613</v>
       </c>
       <c r="AT15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>236562.144631</v>
       </c>
       <c r="AU15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>254540.22003677001</v>
       </c>
       <c r="AV15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>274056.61019220791</v>
       </c>
       <c r="AW15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>287753.84680464107</v>
       </c>
       <c r="AX15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>301719.85690911137</v>
       </c>
       <c r="AY15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>316376.11161756248</v>
       </c>
       <c r="AZ15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>331757.32960743515</v>
       </c>
       <c r="BA15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>347900.00546892913</v>
       </c>
       <c r="BB15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>364842.50200305658</v>
       </c>
       <c r="BC15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>382035.56613653351</v>
       </c>
       <c r="BD15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>400046.32103801728</v>
       </c>
       <c r="BE15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>418913.97274836147</v>
       </c>
       <c r="BF15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>438679.62047056062</v>
       </c>
       <c r="BG15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>459386.348542261</v>
       </c>
       <c r="BH15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>481079.32289947325</v>
       </c>
     </row>
     <row r="16" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K16" s="2">
         <v>52075</v>
@@ -2841,6 +2730,23 @@
       </c>
       <c r="U16" s="2">
         <v>41485</v>
+      </c>
+      <c r="V16" s="10">
+        <f>AP16-U16-T16-S16</f>
+        <v>46387</v>
+      </c>
+      <c r="W16" s="2">
+        <v>60765</v>
+      </c>
+      <c r="X16" s="2">
+        <v>46795</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>39136</v>
+      </c>
+      <c r="Z16" s="10">
+        <f>AQ16-Y16-X16-W16</f>
+        <v>42586</v>
       </c>
       <c r="AL16" s="10">
         <v>148164</v>
@@ -2853,88 +2759,87 @@
         <v>151286</v>
       </c>
       <c r="AO16" s="10">
-        <f t="shared" ref="AO16:AO17" si="32">SUM(O16:R16)</f>
+        <f t="shared" ref="AO16:AO17" si="34">SUM(O16:R16)</f>
         <v>192266</v>
       </c>
       <c r="AP16" s="10">
-        <f t="shared" ref="AP16:AP17" si="33">SUM(S16:V16)</f>
-        <v>155084</v>
+        <v>201471</v>
       </c>
       <c r="AQ16" s="2">
         <v>189282</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" ref="AR16:BH16" si="34">+AR13*0.64</f>
+        <f t="shared" ref="AR16:BH16" si="35">+AR13*0.64</f>
         <v>65460.985600000007</v>
       </c>
       <c r="AS16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>68682.535232000024</v>
       </c>
       <c r="AT16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>72075.164563840008</v>
       </c>
       <c r="AU16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>75648.672023532825</v>
       </c>
       <c r="AV16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>79413.454843013067</v>
       </c>
       <c r="AW16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>83380.547490970275</v>
       </c>
       <c r="AX16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>87279.698234631258</v>
       </c>
       <c r="AY16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>91368.650738679993</v>
       </c>
       <c r="AZ16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>95657.027217370502</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>100154.95658215722</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>104873.10201810092</v>
       </c>
       <c r="BC16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>109445.35810033338</v>
       </c>
       <c r="BD16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>114219.37102593057</v>
       </c>
       <c r="BE16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>119204.15439863084</v>
       </c>
       <c r="BF16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>124409.12953282228</v>
       </c>
       <c r="BG16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>129844.14412029367</v>
       </c>
       <c r="BH16" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>135519.49176157187</v>
       </c>
     </row>
     <row r="17" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K17" s="2">
         <v>4527</v>
@@ -2968,6 +2873,23 @@
       </c>
       <c r="U17" s="2">
         <v>5589</v>
+      </c>
+      <c r="V17" s="10">
+        <f>AP17-U17-T17-S17</f>
+        <v>5664</v>
+      </c>
+      <c r="W17" s="2">
+        <v>6057</v>
+      </c>
+      <c r="X17" s="2">
+        <v>6065</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>6248</v>
+      </c>
+      <c r="Z17" s="10">
+        <f>AQ17-Y17-X17-W17</f>
+        <v>6485</v>
       </c>
       <c r="AL17" s="10">
         <v>15592</v>
@@ -2980,88 +2902,87 @@
         <v>18273</v>
       </c>
       <c r="AO17" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>20715</v>
       </c>
       <c r="AP17" s="10">
-        <f t="shared" si="33"/>
-        <v>16411</v>
+        <v>22075</v>
       </c>
       <c r="AQ17" s="2">
         <v>24855</v>
       </c>
       <c r="AR17" s="2">
-        <f t="shared" ref="AR17:BH17" si="35">+AR14*0.27</f>
+        <f t="shared" ref="AR17:BH17" si="36">+AR14*0.27</f>
         <v>26454.6</v>
       </c>
       <c r="AS17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>30422.789999999994</v>
       </c>
       <c r="AT17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>33465.068999999996</v>
       </c>
       <c r="AU17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>36811.575899999996</v>
       </c>
       <c r="AV17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>40492.733490000006</v>
       </c>
       <c r="AW17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>42517.370164500004</v>
       </c>
       <c r="AX17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>44643.238672725005</v>
       </c>
       <c r="AY17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>46875.400606361261</v>
       </c>
       <c r="AZ17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>49219.170636679322</v>
       </c>
       <c r="BA17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>51680.129168513289</v>
       </c>
       <c r="BB17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>54264.135626938958</v>
       </c>
       <c r="BC17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>56977.342408285906</v>
       </c>
       <c r="BD17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>59826.209528700201</v>
       </c>
       <c r="BE17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>62817.520005135215</v>
       </c>
       <c r="BF17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>65958.396005391987</v>
       </c>
       <c r="BG17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>69256.315805661579</v>
       </c>
       <c r="BH17" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>72719.131595944666</v>
       </c>
     </row>
     <row r="18" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2">
         <v>54381</v>
@@ -3077,19 +2998,19 @@
         <v>38816</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ref="K18:N18" si="36">+K16+K17</f>
+        <f t="shared" ref="K18:N18" si="37">+K16+K17</f>
         <v>56602</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>35943</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>37005</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>40009</v>
       </c>
       <c r="O18" s="2">
@@ -3105,11 +3026,11 @@
         <v>46179</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" ref="R18" si="37">+R16+R17</f>
+        <f t="shared" ref="R18" si="38">+R16+R17</f>
         <v>48186</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" ref="S18" si="38">+S16+S17</f>
+        <f t="shared" ref="S18" si="39">+S16+S17</f>
         <v>69702</v>
       </c>
       <c r="T18" s="2">
@@ -3117,15 +3038,35 @@
         <v>54719</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" ref="U18" si="39">+U16+U17</f>
+        <f t="shared" ref="U18:Z18" si="40">+U16+U17</f>
         <v>47074</v>
       </c>
+      <c r="V18" s="2">
+        <f t="shared" si="40"/>
+        <v>52051</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="40"/>
+        <v>66822</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="40"/>
+        <v>52860</v>
+      </c>
+      <c r="Y18" s="2">
+        <f t="shared" si="40"/>
+        <v>45384</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="40"/>
+        <v>49071</v>
+      </c>
       <c r="AL18" s="2">
-        <f t="shared" ref="AL18:AM18" si="40">+AL16+AL17</f>
+        <f t="shared" ref="AL18:AM18" si="41">+AL16+AL17</f>
         <v>163756</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>161782</v>
       </c>
       <c r="AN18" s="2">
@@ -3138,78 +3079,78 @@
       </c>
       <c r="AP18" s="2">
         <f>+AP16+AP17</f>
-        <v>171495</v>
+        <v>223546</v>
       </c>
       <c r="AQ18" s="2">
         <f>+AQ16+AQ17</f>
         <v>214137</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" ref="AR18:BH18" si="41">+AR16+AR17</f>
+        <f t="shared" ref="AR18:BH18" si="42">+AR16+AR17</f>
         <v>91915.585600000006</v>
       </c>
       <c r="AS18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>99105.325232000017</v>
       </c>
       <c r="AT18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>105540.23356384001</v>
       </c>
       <c r="AU18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>112460.24792353282</v>
       </c>
       <c r="AV18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>119906.18833301307</v>
       </c>
       <c r="AW18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>125897.91765547029</v>
       </c>
       <c r="AX18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>131922.93690735626</v>
       </c>
       <c r="AY18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>138244.05134504125</v>
       </c>
       <c r="AZ18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>144876.19785404982</v>
       </c>
       <c r="BA18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>151835.08575067052</v>
       </c>
       <c r="BB18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>159137.23764503989</v>
       </c>
       <c r="BC18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>166422.70050861928</v>
       </c>
       <c r="BD18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>174045.58055463078</v>
       </c>
       <c r="BE18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>182021.67440376605</v>
       </c>
       <c r="BF18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>190367.52553821425</v>
       </c>
       <c r="BG18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>199100.45992595525</v>
       </c>
       <c r="BH18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>208238.62335751654</v>
       </c>
     </row>
@@ -3218,35 +3159,35 @@
         <v>8</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19" si="42">+C15-C18</f>
+        <f t="shared" ref="C19" si="43">+C15-C18</f>
         <v>33912</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:F19" si="43">+D15-D18</f>
+        <f t="shared" ref="D19:F19" si="44">+D15-D18</f>
         <v>23422</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>20421</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>24084</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" ref="K19:N19" si="44">+K15-K18</f>
+        <f t="shared" ref="K19:N19" si="45">+K15-K18</f>
         <v>35217</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22370</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22680</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>24689</v>
       </c>
       <c r="O19" s="2">
@@ -3262,11 +3203,11 @@
         <v>35255</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19" si="45">+R15-R18</f>
+        <f t="shared" ref="R19" si="46">+R15-R18</f>
         <v>35174</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" ref="S19" si="46">+S15-S18</f>
+        <f t="shared" ref="S19" si="47">+S15-S18</f>
         <v>54243</v>
       </c>
       <c r="T19" s="2">
@@ -3274,15 +3215,35 @@
         <v>42559</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" ref="U19" si="47">+U15-U18</f>
+        <f t="shared" ref="U19:Z19" si="48">+U15-U18</f>
         <v>35885</v>
       </c>
+      <c r="V19" s="2">
+        <f t="shared" si="48"/>
+        <v>38095</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="48"/>
+        <v>50332</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="48"/>
+        <v>42039</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="48"/>
+        <v>36413</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="48"/>
+        <v>40364</v>
+      </c>
       <c r="AL19" s="2">
-        <f t="shared" ref="AL19:AM19" si="48">+AL15-AL18</f>
+        <f t="shared" ref="AL19:AM19" si="49">+AL15-AL18</f>
         <v>101839</v>
       </c>
       <c r="AM19" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>98392</v>
       </c>
       <c r="AN19" s="2">
@@ -3295,84 +3256,84 @@
       </c>
       <c r="AP19" s="2">
         <f>+AP15-AP18</f>
-        <v>222833</v>
+        <v>170782</v>
       </c>
       <c r="AQ19" s="2">
         <f>+AQ15-AQ18</f>
         <v>169148</v>
       </c>
       <c r="AR19" s="2">
-        <f t="shared" ref="AR19:BH19" si="49">+AR15-AR18</f>
+        <f t="shared" ref="AR19:BH19" si="50">+AR15-AR18</f>
         <v>108347.20439999997</v>
       </c>
       <c r="AS19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>120888.13606799998</v>
       </c>
       <c r="AT19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>131021.91106715999</v>
       </c>
       <c r="AU19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>142079.97211323719</v>
       </c>
       <c r="AV19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>154150.42185919484</v>
       </c>
       <c r="AW19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>161855.92914917078</v>
       </c>
       <c r="AX19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>169796.92000175512</v>
       </c>
       <c r="AY19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>178132.06027252122</v>
       </c>
       <c r="AZ19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>186881.13175338533</v>
       </c>
       <c r="BA19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>196064.91971825861</v>
       </c>
       <c r="BB19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>205705.26435801669</v>
       </c>
       <c r="BC19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>215612.86562791423</v>
       </c>
       <c r="BD19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>226000.7404833865</v>
       </c>
       <c r="BE19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>236892.29834459542</v>
       </c>
       <c r="BF19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>248312.09493234637</v>
       </c>
       <c r="BG19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>260285.88861630575</v>
       </c>
       <c r="BH19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>272840.69954195671</v>
       </c>
     </row>
     <row r="20" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C20" s="2">
         <v>3407</v>
@@ -3420,6 +3381,23 @@
       <c r="U20" s="2">
         <v>6797</v>
       </c>
+      <c r="V20" s="10">
+        <f>AP20-U20-T20-S20</f>
+        <v>6761</v>
+      </c>
+      <c r="W20" s="2">
+        <v>7709</v>
+      </c>
+      <c r="X20" s="2">
+        <v>7457</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>7442</v>
+      </c>
+      <c r="Z20" s="10">
+        <f>AQ20-Y20-X20-W20</f>
+        <v>7307</v>
+      </c>
       <c r="AL20" s="10">
         <v>14236</v>
       </c>
@@ -3431,12 +3409,11 @@
         <v>18752</v>
       </c>
       <c r="AO20" s="10">
-        <f t="shared" ref="AO20:AO21" si="50">SUM(O20:R20)</f>
+        <f t="shared" ref="AO20:AO21" si="51">SUM(O20:R20)</f>
         <v>21914</v>
       </c>
       <c r="AP20" s="10">
-        <f t="shared" ref="AP20:AP21" si="51">SUM(S20:V20)</f>
-        <v>19490</v>
+        <v>26251</v>
       </c>
       <c r="AQ20" s="2">
         <v>29915</v>
@@ -3512,7 +3489,7 @@
     </row>
     <row r="21" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2">
         <v>4231</v>
@@ -3560,6 +3537,23 @@
       <c r="U21" s="2">
         <v>6012</v>
       </c>
+      <c r="V21" s="10">
+        <f>AP21-U21-T21-S21</f>
+        <v>6440</v>
+      </c>
+      <c r="W21" s="2">
+        <v>6607</v>
+      </c>
+      <c r="X21" s="2">
+        <v>6201</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>5973</v>
+      </c>
+      <c r="Z21" s="10">
+        <f>AQ21-Y21-X21-W21</f>
+        <v>6151</v>
+      </c>
       <c r="AL21" s="10">
         <v>16705</v>
       </c>
@@ -3571,12 +3565,11 @@
         <v>19916</v>
       </c>
       <c r="AO21" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>21973</v>
       </c>
       <c r="AP21" s="10">
-        <f t="shared" si="51"/>
-        <v>18654</v>
+        <v>25094</v>
       </c>
       <c r="AQ21" s="2">
         <v>24932</v>
@@ -3652,7 +3645,7 @@
     </row>
     <row r="22" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22" si="54">+C20+C21</f>
@@ -3711,8 +3704,28 @@
         <v>12580</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" ref="U22" si="59">+U20+U21</f>
+        <f t="shared" ref="U22:Z22" si="59">+U20+U21</f>
         <v>12809</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" si="59"/>
+        <v>13201</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="59"/>
+        <v>14316</v>
+      </c>
+      <c r="X22" s="2">
+        <f t="shared" si="59"/>
+        <v>13658</v>
+      </c>
+      <c r="Y22" s="2">
+        <f t="shared" si="59"/>
+        <v>13415</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="59"/>
+        <v>13458</v>
       </c>
       <c r="AL22" s="2">
         <f t="shared" ref="AL22:AM22" si="60">+AL20+AL21</f>
@@ -3732,7 +3745,7 @@
       </c>
       <c r="AP22" s="2">
         <f>+AP20+AP21</f>
-        <v>38144</v>
+        <v>51345</v>
       </c>
       <c r="AQ22" s="2">
         <f>+AQ20+AQ21</f>
@@ -3809,7 +3822,7 @@
     </row>
     <row r="23" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ref="C23" si="62">+C19-C22</f>
@@ -3868,8 +3881,28 @@
         <v>29979</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" ref="U23" si="67">+U19-U22</f>
+        <f t="shared" ref="U23:Z23" si="67">+U19-U22</f>
         <v>23076</v>
+      </c>
+      <c r="V23" s="2">
+        <f t="shared" si="67"/>
+        <v>24894</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="67"/>
+        <v>36016</v>
+      </c>
+      <c r="X23" s="2">
+        <f t="shared" si="67"/>
+        <v>28381</v>
+      </c>
+      <c r="Y23" s="2">
+        <f t="shared" si="67"/>
+        <v>22998</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="67"/>
+        <v>26906</v>
       </c>
       <c r="AL23" s="2">
         <f t="shared" ref="AL23:AM23" si="68">+AL19-AL22</f>
@@ -3889,7 +3922,7 @@
       </c>
       <c r="AP23" s="2">
         <f>+AP19-AP22</f>
-        <v>184689</v>
+        <v>119437</v>
       </c>
       <c r="AQ23" s="2">
         <f>+AQ19-AQ22</f>
@@ -3966,7 +3999,7 @@
     </row>
     <row r="24" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2">
         <v>756</v>
@@ -4014,6 +4047,23 @@
       <c r="U24" s="2">
         <v>-10</v>
       </c>
+      <c r="V24" s="10">
+        <f>AP24-U24-T24-S24</f>
+        <v>-237</v>
+      </c>
+      <c r="W24" s="2">
+        <v>-393</v>
+      </c>
+      <c r="X24" s="2">
+        <v>64</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>-265</v>
+      </c>
+      <c r="Z24" s="10">
+        <f>AQ24-Y24-X24-W24</f>
+        <v>29</v>
+      </c>
       <c r="AL24" s="10">
         <v>2005</v>
       </c>
@@ -4029,8 +4079,7 @@
         <v>258</v>
       </c>
       <c r="AP24" s="10">
-        <f t="shared" ref="AP24" si="71">SUM(S24:V24)</f>
-        <v>-97</v>
+        <v>-334</v>
       </c>
       <c r="AQ24" s="2">
         <v>-565</v>
@@ -4038,38 +4087,38 @@
     </row>
     <row r="25" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25" si="72">+C23+C24</f>
+        <f t="shared" ref="C25" si="71">+C23+C24</f>
         <v>27030</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:F25" si="73">+D23+D24</f>
+        <f t="shared" ref="D25:F25" si="72">+D23+D24</f>
         <v>16168</v>
       </c>
       <c r="E25" s="2">
+        <f t="shared" si="72"/>
+        <v>13284</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="72"/>
+        <v>16421</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" ref="K25:N25" si="73">+K23+K24</f>
+        <v>25918</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="73"/>
-        <v>13284</v>
-      </c>
-      <c r="F25" s="2">
+        <v>13135</v>
+      </c>
+      <c r="M25" s="2">
         <f t="shared" si="73"/>
-        <v>16421</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" ref="K25:N25" si="74">+K23+K24</f>
-        <v>25918</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="74"/>
-        <v>13135</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="74"/>
         <v>13137</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>14901</v>
       </c>
       <c r="O25" s="2">
@@ -4085,11 +4134,11 @@
         <v>24369</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" ref="R25" si="75">+R23+R24</f>
+        <f t="shared" ref="R25" si="74">+R23+R24</f>
         <v>23248</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" ref="S25" si="76">+S23+S24</f>
+        <f t="shared" ref="S25" si="75">+S23+S24</f>
         <v>41241</v>
       </c>
       <c r="T25" s="2">
@@ -4097,15 +4146,35 @@
         <v>30139</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" ref="U25" si="77">+U23+U24</f>
+        <f t="shared" ref="U25:Z25" si="76">+U23+U24</f>
         <v>23066</v>
       </c>
+      <c r="V25" s="2">
+        <f t="shared" si="76"/>
+        <v>24657</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="76"/>
+        <v>35623</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="76"/>
+        <v>28445</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="76"/>
+        <v>22733</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="76"/>
+        <v>26935</v>
+      </c>
       <c r="AL25" s="2">
-        <f t="shared" ref="AL25:AM25" si="78">+AL23+AL24</f>
+        <f t="shared" ref="AL25:AM25" si="77">+AL23+AL24</f>
         <v>72903</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>65737</v>
       </c>
       <c r="AN25" s="2">
@@ -4118,84 +4187,84 @@
       </c>
       <c r="AP25" s="2">
         <f>+AP23+AP24</f>
-        <v>184592</v>
+        <v>119103</v>
       </c>
       <c r="AQ25" s="2">
         <f>+AQ23+AQ24</f>
         <v>113736</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" ref="AR25:BH25" si="79">+AR23+AR24</f>
+        <f t="shared" ref="AR25:BH25" si="78">+AR23+AR24</f>
         <v>51854.79439999997</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>62700.953767999978</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>71089.113298159995</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>80349.19041116719</v>
       </c>
       <c r="AV25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>90567.71670606274</v>
       </c>
       <c r="AW25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>96365.74284144472</v>
       </c>
       <c r="AX25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>102342.02810479727</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>108653.52161865463</v>
       </c>
       <c r="AZ25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>115318.23693990274</v>
       </c>
       <c r="BA25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>122355.13806037154</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>129784.18925039301</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>137414.15826706184</v>
       </c>
       <c r="BD25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>145456.07190170852</v>
       </c>
       <c r="BE25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>153931.28970546712</v>
       </c>
       <c r="BF25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>162862.2560340442</v>
       </c>
       <c r="BG25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>172272.55455105452</v>
       </c>
       <c r="BH25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>182186.96545474793</v>
       </c>
     </row>
     <row r="26" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
         <v>6965</v>
@@ -4243,6 +4312,23 @@
       <c r="U26" s="2">
         <v>3624</v>
       </c>
+      <c r="V26" s="10">
+        <f>AP26-U26-T26-S26</f>
+        <v>3936</v>
+      </c>
+      <c r="W26" s="2">
+        <v>5625</v>
+      </c>
+      <c r="X26" s="2">
+        <v>4222</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>2852</v>
+      </c>
+      <c r="Z26" s="10">
+        <f>AQ26-Y26-X26-W26</f>
+        <v>4042</v>
+      </c>
       <c r="AL26" s="10">
         <v>13372</v>
       </c>
@@ -4254,119 +4340,118 @@
         <v>9680</v>
       </c>
       <c r="AO26" s="10">
-        <f t="shared" ref="AO26" si="80">SUM(O26:R26)</f>
+        <f t="shared" ref="AO26" si="79">SUM(O26:R26)</f>
         <v>14527</v>
       </c>
       <c r="AP26" s="10">
-        <f t="shared" ref="AP26" si="81">SUM(S26:V26)</f>
-        <v>15364</v>
+        <v>19300</v>
       </c>
       <c r="AQ26" s="2">
         <v>16741</v>
       </c>
       <c r="AR26" s="2">
-        <f t="shared" ref="AR26:BH26" si="82">+AR25*0.2</f>
+        <f t="shared" ref="AR26:BH26" si="80">+AR25*0.2</f>
         <v>10370.958879999995</v>
       </c>
       <c r="AS26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>12540.190753599996</v>
       </c>
       <c r="AT26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>14217.822659632</v>
       </c>
       <c r="AU26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>16069.838082233438</v>
       </c>
       <c r="AV26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>18113.543341212549</v>
       </c>
       <c r="AW26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>19273.148568288943</v>
       </c>
       <c r="AX26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>20468.405620959456</v>
       </c>
       <c r="AY26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>21730.704323730926</v>
       </c>
       <c r="AZ26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>23063.647387980549</v>
       </c>
       <c r="BA26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>24471.027612074307</v>
       </c>
       <c r="BB26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>25956.837850078606</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>27482.83165341237</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>29091.214380341706</v>
       </c>
       <c r="BE26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>30786.257941093427</v>
       </c>
       <c r="BF26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>32572.451206808841</v>
       </c>
       <c r="BG26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>34454.510910210905</v>
       </c>
       <c r="BH26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>36437.39309094959</v>
       </c>
     </row>
     <row r="27" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27" si="83">+C25-C26</f>
+        <f t="shared" ref="C27" si="81">+C25-C26</f>
         <v>20065</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:F27" si="84">+D25-D26</f>
+        <f t="shared" ref="D27:F27" si="82">+D25-D26</f>
         <v>13822</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>11519</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>14125</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27:N27" si="85">+K25-K26</f>
+        <f t="shared" ref="K27:N27" si="83">+K25-K26</f>
         <v>22236</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>11249</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>11253</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v>12673</v>
       </c>
       <c r="O27" s="2">
@@ -4382,11 +4467,11 @@
         <v>21744</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27" si="86">+R25-R26</f>
+        <f t="shared" ref="R27" si="84">+R25-R26</f>
         <v>20551</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" ref="S27" si="87">+S25-S26</f>
+        <f t="shared" ref="S27" si="85">+S25-S26</f>
         <v>34630</v>
       </c>
       <c r="T27" s="2">
@@ -4394,15 +4479,35 @@
         <v>25010</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" ref="U27" si="88">+U25-U26</f>
+        <f t="shared" ref="U27:Z27" si="86">+U25-U26</f>
         <v>19442</v>
       </c>
+      <c r="V27" s="2">
+        <f t="shared" si="86"/>
+        <v>20721</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="86"/>
+        <v>29998</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="86"/>
+        <v>24223</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="86"/>
+        <v>19881</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="86"/>
+        <v>22893</v>
+      </c>
       <c r="AL27" s="2">
-        <f t="shared" ref="AL27:AM27" si="89">+AL25-AL26</f>
+        <f t="shared" ref="AL27:AM27" si="87">+AL25-AL26</f>
         <v>59531</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>55256</v>
       </c>
       <c r="AN27" s="2">
@@ -4415,99 +4520,99 @@
       </c>
       <c r="AP27" s="2">
         <f>+AP25-AP26</f>
-        <v>169228</v>
+        <v>99803</v>
       </c>
       <c r="AQ27" s="2">
         <f>+AQ25-AQ26</f>
         <v>96995</v>
       </c>
       <c r="AR27" s="2">
-        <f t="shared" ref="AR27:BH27" si="90">+AR25-AR26</f>
+        <f t="shared" ref="AR27:BH27" si="88">+AR25-AR26</f>
         <v>41483.835519999979</v>
       </c>
       <c r="AS27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>50160.763014399985</v>
       </c>
       <c r="AT27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>56871.290638527993</v>
       </c>
       <c r="AU27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>64279.352328933754</v>
       </c>
       <c r="AV27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>72454.173364850198</v>
       </c>
       <c r="AW27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>77092.594273155773</v>
       </c>
       <c r="AX27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>81873.622483837811</v>
       </c>
       <c r="AY27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>86922.817294923705</v>
       </c>
       <c r="AZ27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>92254.589551922196</v>
       </c>
       <c r="BA27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>97884.11044829723</v>
       </c>
       <c r="BB27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>103827.35140031441</v>
       </c>
       <c r="BC27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>109931.32661364946</v>
       </c>
       <c r="BD27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>116364.85752136682</v>
       </c>
       <c r="BE27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>123145.03176437369</v>
       </c>
       <c r="BF27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>130289.80482723536</v>
       </c>
       <c r="BG27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>137818.04364084362</v>
       </c>
       <c r="BH27" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>145749.57236379833</v>
       </c>
     </row>
     <row r="28" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" ref="C28" si="91">+C27/C29</f>
+        <f t="shared" ref="C28" si="89">+C27/C29</f>
         <v>0.97255857987156114</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" ref="D28:F28" si="92">+D27/D29</f>
+        <f t="shared" ref="D28:F28" si="90">+D27/D29</f>
         <v>0.68176083107937602</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>0.58452984598534197</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>0.70623460408563088</v>
       </c>
       <c r="G28" s="14"/>
@@ -4515,19 +4620,19 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14">
-        <f t="shared" ref="K28:N28" si="93">+K27/K29</f>
+        <f t="shared" ref="K28:N28" si="91">+K27/K29</f>
         <v>1.2479223042091785</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0.63846699811252383</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0.64601300384622584</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0.73438904632051849</v>
       </c>
       <c r="O28" s="14">
@@ -4543,11 +4648,11 @@
         <v>1.2956943963183782</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28" si="94">+R27/R29</f>
+        <f t="shared" ref="R28" si="92">+R27/R29</f>
         <v>1.2354000701047909</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" ref="S28" si="95">+S27/S29</f>
+        <f t="shared" ref="S28" si="93">+S27/S29</f>
         <v>2.0963369432743812</v>
       </c>
       <c r="T28" s="14">
@@ -4555,16 +4660,35 @@
         <v>1.5246917147727936</v>
       </c>
       <c r="U28" s="14">
-        <f t="shared" ref="U28" si="96">+U27/U29</f>
+        <f t="shared" ref="U28:Z28" si="94">+U27/U29</f>
         <v>1.1955329791418789</v>
       </c>
-      <c r="V28" s="14"/>
+      <c r="V28" s="14">
+        <f t="shared" si="94"/>
+        <v>1.3215730910090044</v>
+      </c>
+      <c r="W28" s="14">
+        <f t="shared" si="94"/>
+        <v>1.8875305383476451</v>
+      </c>
+      <c r="X28" s="14">
+        <f t="shared" si="94"/>
+        <v>1.5343487496226362</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" si="94"/>
+        <v>1.2664982079442137</v>
+      </c>
+      <c r="Z28" s="14">
+        <f t="shared" si="94"/>
+        <v>1.4675533399194707</v>
+      </c>
       <c r="AL28" s="14">
-        <f t="shared" ref="AL28:AM28" si="97">+AL27/AL29</f>
+        <f t="shared" ref="AL28:AM28" si="95">+AL27/AL29</f>
         <v>2.9764851126245446</v>
       </c>
       <c r="AM28" s="14">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>2.9714474637107351</v>
       </c>
       <c r="AN28" s="14">
@@ -4577,75 +4701,78 @@
       </c>
       <c r="AP28" s="14">
         <f>+AP27/AP29</f>
-        <v>10.321967290307718</v>
-      </c>
-      <c r="AQ28" s="14"/>
+        <v>6.1546144376377772</v>
+      </c>
+      <c r="AQ28" s="14">
+        <f>+AQ27/AQ29</f>
+        <v>6.1606692635543778</v>
+      </c>
       <c r="AR28" s="14">
-        <f t="shared" ref="AR28:BH28" si="98">+AR27/AR29</f>
+        <f t="shared" ref="AR28:BH28" si="96">+AR27/AR29</f>
         <v>2.6348594300985537</v>
       </c>
       <c r="AS28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>3.1859773281019561</v>
       </c>
       <c r="AT28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>3.6121986928753773</v>
       </c>
       <c r="AU28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>4.0827241628335962</v>
       </c>
       <c r="AV28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>4.601950604310252</v>
       </c>
       <c r="AW28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>4.8965614308603431</v>
       </c>
       <c r="AX28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>5.2002300070316432</v>
       </c>
       <c r="AY28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>5.5209312728531303</v>
       </c>
       <c r="AZ28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>5.859580537907644</v>
       </c>
       <c r="BA28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>6.2171414055279826</v>
       </c>
       <c r="BB28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>6.5946283054608648</v>
       </c>
       <c r="BC28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>6.9823242947622823</v>
       </c>
       <c r="BD28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>7.3909521221688648</v>
       </c>
       <c r="BE28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>7.8215971148018406</v>
       </c>
       <c r="BF28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>8.2753997211572514</v>
       </c>
       <c r="BG28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>8.7535582805437517</v>
       </c>
       <c r="BH28" s="14">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>9.2573319309020761</v>
       </c>
     </row>
@@ -4702,6 +4829,23 @@
       <c r="U29" s="2">
         <v>16262.203</v>
       </c>
+      <c r="V29" s="2">
+        <f>AP29*4-U29-T29-S29</f>
+        <v>15679.041999999998</v>
+      </c>
+      <c r="W29" s="2">
+        <v>15892.723</v>
+      </c>
+      <c r="X29" s="2">
+        <v>15787.154</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>15697.614</v>
+      </c>
+      <c r="Z29" s="2">
+        <f>AQ29*4-Y29-X29-W29</f>
+        <v>15599.432999999995</v>
+      </c>
       <c r="AL29" s="2">
         <f>5000.109*4</f>
         <v>20000.436000000002</v>
@@ -4718,84 +4862,83 @@
         <v>16864.919249999999</v>
       </c>
       <c r="AP29" s="2">
-        <f>AVERAGE(S29:V29)</f>
-        <v>16394.936666666668</v>
+        <v>16215.963</v>
       </c>
       <c r="AQ29" s="2">
         <v>15744.231</v>
       </c>
       <c r="AR29" s="2">
-        <f t="shared" ref="AR29:BH29" si="99">+AQ29</f>
+        <f t="shared" ref="AR29:BH29" si="97">+AQ29</f>
         <v>15744.231</v>
       </c>
       <c r="AS29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="AT29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="AU29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="AV29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="AW29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="AX29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="AY29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="AZ29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="BA29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="BB29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="BC29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="BD29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="BE29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="BF29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="BG29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
       <c r="BH29" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>15744.231</v>
       </c>
     </row>
     <row r="31" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
@@ -4805,15 +4948,15 @@
         <v>0.21368126422635836</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" ref="P31" si="100">P15/L15-1</f>
+        <f t="shared" ref="P31" si="98">P15/L15-1</f>
         <v>0.53626121105070901</v>
       </c>
       <c r="Q31" s="15">
-        <f t="shared" ref="Q31" si="101">Q15/M15-1</f>
+        <f t="shared" ref="Q31" si="99">Q15/M15-1</f>
         <v>0.36439641450950822</v>
       </c>
       <c r="R31" s="15">
-        <f t="shared" ref="R31" si="102">R15/N15-1</f>
+        <f t="shared" ref="R31" si="100">R15/N15-1</f>
         <v>0.28844786546724777</v>
       </c>
       <c r="S31" s="15">
@@ -4828,21 +4971,40 @@
         <f>U15/Q15-1</f>
         <v>1.8726821720657316E-2</v>
       </c>
-      <c r="V31" s="15"/>
+      <c r="V31" s="15">
+        <f t="shared" ref="V31:Z31" si="101">V15/R15-1</f>
+        <v>8.1405950095969182E-2</v>
+      </c>
+      <c r="W31" s="15">
+        <f t="shared" si="101"/>
+        <v>-5.4790431239662762E-2</v>
+      </c>
+      <c r="X31" s="15">
+        <f t="shared" si="101"/>
+        <v>-2.4455683710602583E-2</v>
+      </c>
+      <c r="Y31" s="15">
+        <f t="shared" si="101"/>
+        <v>-1.4006919080509661E-2</v>
+      </c>
+      <c r="Z31" s="15">
+        <f t="shared" si="101"/>
+        <v>-7.8872052004526072E-3</v>
+      </c>
       <c r="AI31" s="15">
-        <f t="shared" ref="AI31:AL31" si="103">+AI15/AH15-1</f>
+        <f t="shared" ref="AI31:AL31" si="102">+AI15/AH15-1</f>
         <v>0.27856341803659834</v>
       </c>
       <c r="AJ31" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>-7.7342061913013738E-2</v>
       </c>
       <c r="AK31" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>6.304518199398057E-2</v>
       </c>
       <c r="AL31" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>0.15861957650261305</v>
       </c>
       <c r="AM31" s="15">
@@ -4854,223 +5016,242 @@
         <v>5.5120803769784787E-2</v>
       </c>
       <c r="AO31" s="15">
-        <f t="shared" ref="AO31:BH31" si="104">+AO15/AN15-1</f>
+        <f t="shared" ref="AO31:BH31" si="103">+AO15/AN15-1</f>
         <v>0.33259384733074704</v>
       </c>
       <c r="AP31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>7.7937876041846099E-2</v>
       </c>
       <c r="AQ31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>-2.800460530319937E-2</v>
       </c>
       <c r="AR31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>-0.4775094511916721</v>
       </c>
       <c r="AS31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>9.8523901020254545E-2</v>
       </c>
       <c r="AT31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>7.5314435406812708E-2</v>
       </c>
       <c r="AU31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>7.5997262511349861E-2</v>
       </c>
       <c r="AV31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>7.6673109470160039E-2</v>
       </c>
       <c r="AW31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.9979588534013741E-2</v>
       </c>
       <c r="AX31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.8534573071935316E-2</v>
       </c>
       <c r="AY31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.8575704822987786E-2</v>
       </c>
       <c r="AZ31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.8616875374160928E-2</v>
       </c>
       <c r="BA31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.8658083547379105E-2</v>
       </c>
       <c r="BB31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.8699328162673972E-2</v>
       </c>
       <c r="BC31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.7124619634729026E-2</v>
       </c>
       <c r="BD31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.7144183678037521E-2</v>
       </c>
       <c r="BE31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.7163667600760517E-2</v>
       </c>
       <c r="BF31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.7183071007450561E-2</v>
       </c>
       <c r="BG31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.7202393513263274E-2</v>
       </c>
       <c r="BH31" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.7221634743934038E-2</v>
       </c>
     </row>
     <row r="32" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15">
-        <f t="shared" ref="O32:U32" si="105">+O5/K5-1</f>
+        <f t="shared" ref="O32:U32" si="104">+O5/K5-1</f>
         <v>0.1722751398395197</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.65520336993301576</v>
       </c>
       <c r="Q32" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.49784238019532134</v>
       </c>
       <c r="R32" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.46982302223566785</v>
       </c>
       <c r="S32" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>9.1940180191167231E-2</v>
       </c>
       <c r="T32" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>5.4904251324627618E-2</v>
       </c>
       <c r="U32" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>2.7672479150871787E-2</v>
       </c>
-      <c r="V32" s="15"/>
+      <c r="V32" s="15">
+        <f t="shared" ref="V32" si="105">+V5/R5-1</f>
+        <v>9.6686220026757308E-2</v>
+      </c>
+      <c r="W32" s="15">
+        <f t="shared" ref="W32" si="106">+W5/S5-1</f>
+        <v>-8.1713854917071505E-2</v>
+      </c>
+      <c r="X32" s="15">
+        <f t="shared" ref="X32" si="107">+X5/T5-1</f>
+        <v>1.510777140597197E-2</v>
+      </c>
+      <c r="Y32" s="15">
+        <f t="shared" ref="Y32" si="108">+Y5/U5-1</f>
+        <v>-2.4492807082257428E-2</v>
+      </c>
+      <c r="Z32" s="15">
+        <f t="shared" ref="Z32" si="109">+Z5/V5-1</f>
+        <v>2.7659175151315996E-2</v>
+      </c>
       <c r="AJ32" s="15"/>
       <c r="AK32" s="15">
-        <f t="shared" ref="AK32:AP32" si="106">+AK5/AJ5-1</f>
+        <f t="shared" ref="AK32:AP32" si="110">+AK5/AJ5-1</f>
         <v>3.3789319678127372E-2</v>
       </c>
       <c r="AL32" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>0.16677870633106662</v>
       </c>
       <c r="AM32" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>-0.13649871427878313</v>
       </c>
       <c r="AN32" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>-3.2307681502447672E-2</v>
       </c>
       <c r="AO32" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>0.39331983364905176</v>
       </c>
       <c r="AP32" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>7.0405734139696641E-2</v>
       </c>
       <c r="AQ32" s="15">
-        <f t="shared" ref="AQ32:BH32" si="107">+AQ5/AP5-1</f>
+        <f t="shared" ref="AQ32:BH32" si="111">+AQ5/AP5-1</f>
         <v>-2.3874757286278081E-2</v>
       </c>
       <c r="AR32" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>-1</v>
       </c>
       <c r="AS32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AV32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AX32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BA32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BF32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BH32" s="15" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="2:42" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
@@ -5080,87 +5261,106 @@
         <v>0.23955957530475813</v>
       </c>
       <c r="P33" s="15">
-        <f t="shared" ref="P33:U33" si="108">+P14/L14-1</f>
+        <f t="shared" ref="P33:U33" si="112">+P14/L14-1</f>
         <v>0.26618219958046141</v>
       </c>
       <c r="Q33" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.32912739434478566</v>
       </c>
       <c r="R33" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.25623754209911342</v>
       </c>
       <c r="S33" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.23824630416851722</v>
       </c>
       <c r="T33" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.17277084196201398</v>
       </c>
       <c r="U33" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0.12112547180601618</v>
       </c>
-      <c r="V33" s="15"/>
+      <c r="V33" s="15">
+        <f t="shared" ref="V33" si="113">+V14/R14-1</f>
+        <v>4.984406631285232E-2</v>
+      </c>
+      <c r="W33" s="15">
+        <f t="shared" ref="W33" si="114">+W14/S14-1</f>
+        <v>6.4050010248001721E-2</v>
+      </c>
+      <c r="X33" s="15">
+        <f t="shared" ref="X33" si="115">+X14/T14-1</f>
+        <v>5.7968820947480015E-2</v>
+      </c>
+      <c r="Y33" s="15">
+        <f t="shared" ref="Y33" si="116">+Y14/U14-1</f>
+        <v>8.2075086716996593E-2</v>
+      </c>
+      <c r="Z33" s="15">
+        <f t="shared" ref="Z33" si="117">+Z14/V14-1</f>
+        <v>0.15963101938711688</v>
+      </c>
       <c r="AM33" s="15">
         <f>+AM14/AL14-1</f>
         <v>0.16461205595250084</v>
       </c>
       <c r="AN33" s="15">
-        <f t="shared" ref="AN33:AP33" si="109">+AN14/AM14-1</f>
+        <f t="shared" ref="AN33:AP33" si="118">+AN14/AM14-1</f>
         <v>0.16152167807997242</v>
       </c>
       <c r="AO33" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>0.27259708376729663</v>
       </c>
       <c r="AP33" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>0.14181951041286078</v>
       </c>
     </row>
     <row r="34" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6">
-        <f t="shared" ref="E34" si="110">+E19/E15</f>
+        <f t="shared" ref="E34" si="119">+E19/E15</f>
         <v>0.38338496198254013</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ref="K34" si="111">+K19/K15</f>
+        <f t="shared" ref="K34" si="120">+K19/K15</f>
         <v>0.38354806739345887</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" ref="L34:N34" si="112">+L19/L15</f>
+        <f t="shared" ref="L34:N34" si="121">+L19/L15</f>
         <v>0.38361943305952362</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="121"/>
         <v>0.37999497361146017</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="121"/>
         <v>0.38160375900336951</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" ref="O34:Q34" si="113">+O19/O15</f>
+        <f t="shared" ref="O34:Q34" si="122">+O19/O15</f>
         <v>0.39777815665969724</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>0.42506474370423292</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="113"/>
+        <f t="shared" si="122"/>
         <v>0.43292727853230839</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" ref="R34" si="114">+R19/R15</f>
+        <f t="shared" ref="R34" si="123">+R19/R15</f>
         <v>0.42195297504798462</v>
       </c>
       <c r="S34" s="6">
@@ -5175,218 +5375,275 @@
         <f>+U19/U15</f>
         <v>0.43256307332537758</v>
       </c>
-      <c r="V34" s="6"/>
+      <c r="V34" s="6">
+        <f t="shared" ref="V34:Z34" si="124">+V19/V15</f>
+        <v>0.4225922392563175</v>
+      </c>
+      <c r="W34" s="6">
+        <f t="shared" si="124"/>
+        <v>0.42962254809908323</v>
+      </c>
+      <c r="X34" s="6">
+        <f t="shared" si="124"/>
+        <v>0.4429867543388234</v>
+      </c>
+      <c r="Y34" s="6">
+        <f t="shared" si="124"/>
+        <v>0.44516302553883397</v>
+      </c>
+      <c r="Z34" s="6">
+        <f t="shared" si="124"/>
+        <v>0.45132218929949125</v>
+      </c>
       <c r="AL34" s="6">
-        <f t="shared" ref="AL34:AP34" si="115">+AL19/AL15</f>
+        <f t="shared" ref="AL34:AP34" si="125">+AL19/AL15</f>
         <v>0.38343718820007905</v>
       </c>
       <c r="AM34" s="6">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.37817768109034722</v>
       </c>
       <c r="AN34" s="6">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.38233247727810865</v>
       </c>
       <c r="AO34" s="6">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.41779359625167778</v>
       </c>
       <c r="AP34" s="6">
-        <f t="shared" si="115"/>
-        <v>0.56509555496946706</v>
+        <f t="shared" si="125"/>
+        <v>0.43309630561360085</v>
       </c>
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K35" s="6">
         <f>(K14-K17)/K14</f>
         <v>0.64396382225717652</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" ref="L35:U35" si="116">(L14-L17)/L14</f>
+        <f t="shared" ref="L35:U35" si="126">(L14-L17)/L14</f>
         <v>0.65373089601438417</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.67224080267558528</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.66925561894288266</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.6839667533785927</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.70072776758771671</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.69804414960539862</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.704765552333534</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.72366263578602175</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.72609858231168967</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.71490512140379514</v>
       </c>
-      <c r="V35" s="6"/>
+      <c r="V35" s="6">
+        <f t="shared" ref="V35:Z35" si="127">(V14-V17)/V14</f>
+        <v>0.70481550969355844</v>
+      </c>
+      <c r="W35" s="6">
+        <f t="shared" si="127"/>
+        <v>0.70832129442357705</v>
+      </c>
+      <c r="X35" s="6">
+        <f t="shared" si="127"/>
+        <v>0.71077730090605629</v>
+      </c>
+      <c r="Y35" s="6">
+        <f t="shared" si="127"/>
+        <v>0.70546363079243857</v>
+      </c>
+      <c r="Z35" s="6">
+        <f t="shared" si="127"/>
+        <v>0.70855242461012991</v>
+      </c>
       <c r="AL35" s="6">
-        <f t="shared" ref="AL35:AP35" si="117">(AL14-AL17)/AL14</f>
+        <f t="shared" ref="AL35:AP35" si="128">(AL14-AL17)/AL14</f>
         <v>0.60772869075173597</v>
       </c>
       <c r="AM35" s="6">
-        <f t="shared" si="117"/>
+        <f t="shared" si="128"/>
         <v>0.63738091637683347</v>
       </c>
       <c r="AN35" s="6">
-        <f t="shared" si="117"/>
+        <f t="shared" si="128"/>
         <v>0.66015101919357233</v>
       </c>
       <c r="AO35" s="6">
-        <f t="shared" si="117"/>
+        <f t="shared" si="128"/>
         <v>0.69725977347460721</v>
       </c>
       <c r="AP35" s="6">
-        <f t="shared" si="117"/>
-        <v>0.78994995456232642</v>
+        <f t="shared" si="128"/>
+        <v>0.71745446633132381</v>
       </c>
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K36" s="6">
         <f>(K13-K16)/K13</f>
         <v>0.3416894215210356</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" ref="L36:U36" si="118">(L13-L16)/L13</f>
+        <f t="shared" ref="L36:U36" si="129">(L13-L16)/L13</f>
         <v>0.30343600578227509</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.29736293494379851</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.2981515085046561</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.35063441961579467</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.3609647372838215</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.36043347720022517</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.34253184395310604</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.38418446983117716</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.36364692668190091</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.34519769552521506</v>
       </c>
-      <c r="V36" s="6"/>
+      <c r="V36" s="6">
+        <f t="shared" ref="V36:Z36" si="130">(V13-V16)/V13</f>
+        <v>0.34627526142224979</v>
+      </c>
+      <c r="W36" s="6">
+        <f t="shared" si="130"/>
+        <v>0.36957920073038136</v>
+      </c>
+      <c r="X36" s="6">
+        <f t="shared" si="130"/>
+        <v>0.36702782399329087</v>
+      </c>
+      <c r="Y36" s="6">
+        <f t="shared" si="130"/>
+        <v>0.35402086359434837</v>
+      </c>
+      <c r="Z36" s="6">
+        <f t="shared" si="130"/>
+        <v>0.36612884020004766</v>
+      </c>
       <c r="AL36" s="6">
-        <f t="shared" ref="AL36:AP36" si="119">(AL13-AL16)/AL13</f>
+        <f t="shared" ref="AL36:AP36" si="131">(AL13-AL16)/AL13</f>
         <v>0.34396294836770025</v>
       </c>
       <c r="AM36" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v>0.32207795851002652</v>
       </c>
       <c r="AN36" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v>0.31466339293399231</v>
       </c>
       <c r="AO36" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v>0.35349303276483562</v>
       </c>
       <c r="AP36" s="6">
-        <f t="shared" si="119"/>
-        <v>0.50953671580239024</v>
+        <f t="shared" si="131"/>
+        <v>0.36283479707399452</v>
       </c>
     </row>
     <row r="37" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6">
-        <f t="shared" ref="E37" si="120">+E23/E15</f>
+        <f t="shared" ref="E37" si="132">+E23/E15</f>
         <v>0.23677837228949591</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" ref="K37" si="121">+K23/K15</f>
+        <f t="shared" ref="K37" si="133">+K23/K15</f>
         <v>0.2784717759940753</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" ref="L37:N37" si="122">+L23/L15</f>
+        <f t="shared" ref="L37:N37" si="134">+L23/L15</f>
         <v>0.22041397287054346</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>0.21933484124989527</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>0.2283687285542057</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" ref="O37:Q37" si="123">+O23/O15</f>
+        <f t="shared" ref="O37:Q37" si="135">+O23/O15</f>
         <v>0.30091799100853384</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="135"/>
         <v>0.30700794784782998</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="135"/>
         <v>0.29626445956234498</v>
       </c>
       <c r="R37" s="6">
-        <f t="shared" ref="R37" si="124">+R23/R15</f>
+        <f t="shared" ref="R37" si="136">+R23/R15</f>
         <v>0.28534069097888676</v>
       </c>
       <c r="S37" s="6">
@@ -5403,29 +5660,29 @@
       </c>
       <c r="V37" s="6"/>
       <c r="AL37" s="6">
-        <f t="shared" ref="AL37:AP37" si="125">+AL23/AL15</f>
+        <f t="shared" ref="AL37:AP37" si="137">+AL23/AL15</f>
         <v>0.26694026619477024</v>
       </c>
       <c r="AM37" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="137"/>
         <v>0.24572017188496928</v>
       </c>
       <c r="AN37" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="137"/>
         <v>0.24147314354406862</v>
       </c>
       <c r="AO37" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="137"/>
         <v>0.29782377527561593</v>
       </c>
       <c r="AP37" s="6">
-        <f t="shared" si="125"/>
-        <v>0.46836390010346718</v>
+        <f t="shared" si="137"/>
+        <v>0.30288744395528594</v>
       </c>
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -5438,65 +5695,65 @@
         <v>0.14206343082027933</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" ref="L38:U38" si="126">L26/L25</f>
+        <f t="shared" ref="L38:U38" si="138">L26/L25</f>
         <v>0.14358583936048724</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>0.14341173783968944</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>0.14952016643178309</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>0.14366121683194855</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>0.1564028417407447</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>0.10771882309491568</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>0.11600997935306263</v>
       </c>
       <c r="S38" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>0.16030164157028201</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>0.17017817445834302</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>0.15711436746726784</v>
       </c>
       <c r="V38" s="6"/>
       <c r="AL38" s="6">
-        <f t="shared" ref="AL38:AP38" si="127">AL26/AL25</f>
+        <f t="shared" ref="AL38:AP38" si="139">AL26/AL25</f>
         <v>0.18342180705869443</v>
       </c>
       <c r="AM38" s="6">
-        <f t="shared" si="127"/>
+        <f t="shared" si="139"/>
         <v>0.15943836804235059</v>
       </c>
       <c r="AN38" s="6">
-        <f t="shared" si="127"/>
+        <f t="shared" si="139"/>
         <v>0.14428164731484103</v>
       </c>
       <c r="AO38" s="6">
-        <f t="shared" si="127"/>
+        <f t="shared" si="139"/>
         <v>0.13302260844085087</v>
       </c>
       <c r="AP38" s="6">
-        <f t="shared" si="127"/>
-        <v>8.3232209413192343E-2</v>
+        <f t="shared" si="139"/>
+        <v>0.16204461684424407</v>
       </c>
     </row>
   </sheetData>
@@ -5506,6 +5763,133 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDB42F4-D3F6-42E5-97CD-AE20E0C5C6C6}">
+  <dimension ref="N2:P14"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="8.83203125" style="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>170.03</v>
+      </c>
+    </row>
+    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16070.752</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <f>+O2*O3</f>
+        <v>2732509.9625599999</v>
+      </c>
+    </row>
+    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="2">
+        <f>23646+24658+120805</f>
+        <v>169109</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="2">
+        <f>9982+11128+98959</f>
+        <v>120069</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
+        <f>+O4-O5+O6</f>
+        <v>2683469.9625599999</v>
+      </c>
+    </row>
+    <row r="10" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="4">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="2">
+        <f>NPV(O10,Model!AQ27:FP27)+Main!O5-Main!O6</f>
+        <v>834698.1523954937</v>
+      </c>
+    </row>
+    <row r="13" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="5">
+        <f>O12/Main!O3</f>
+        <v>51.938960441645399</v>
+      </c>
+    </row>
+    <row r="14" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="6">
+        <f>O13/Main!O2-1</f>
+        <v>-0.69453060964744218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5546,45 +5930,45 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I3" s="17">
         <v>45200</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/AAPL Model.xlsx
+++ b/AAPL Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06A3EA2-B37E-BB4F-A7EA-AAC125078C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C4227D-7F76-B948-9903-ABA5780CBE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33000" yWindow="3900" windowWidth="23940" windowHeight="14920" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>Price</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>EBT</t>
+  </si>
+  <si>
+    <t>Drivers</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>671479</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>44585</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -539,7 +542,7 @@
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>37908</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>82685</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -879,13 +882,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EB6088-6F7F-4776-A4C2-8340505BB8E8}">
-  <dimension ref="A1:BH38"/>
+  <dimension ref="A1:BH39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="AL15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
+      <selection pane="bottomRight" activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1251,72 +1254,72 @@
         <v>200583</v>
       </c>
       <c r="AR5" s="10">
-        <f t="shared" ref="AR5:BH5" si="0">+AR6*AR7/1000</f>
-        <v>0</v>
+        <f>+AR6*AR7/1000</f>
+        <v>208666.49490000002</v>
       </c>
       <c r="AS5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="AS5:BH5" si="0">+AS6*AS7/1000</f>
+        <v>217075.75464447003</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>225823.90755664217</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>234924.61103117486</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>244392.07285573121</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>254241.07339181722</v>
       </c>
       <c r="AX5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>264486.98864950746</v>
       </c>
       <c r="AY5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>275145.81429208262</v>
       </c>
       <c r="AZ5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>286234.19060805353</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>297769.42848955811</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>309769.53645768733</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>322253.24877693213</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>335240.05470264249</v>
       </c>
       <c r="BE5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>348750.22890715901</v>
       </c>
       <c r="BF5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>362804.86313211749</v>
       </c>
       <c r="BG5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>377425.8991163419</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>392636.16285073047</v>
       </c>
     </row>
     <row r="6" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1595,73 +1598,77 @@
         <f>+AP5*1000/AP6</f>
         <v>934.12580218512926</v>
       </c>
+      <c r="AQ7" s="10">
+        <f>AQ5/AQ6*1000</f>
+        <v>981.14374885338884</v>
+      </c>
       <c r="AR7" s="10">
-        <f t="shared" ref="AR7:AS7" si="9">+AQ7*1.05</f>
-        <v>0</v>
+        <f>+AQ7*1.03</f>
+        <v>1010.5780613189905</v>
       </c>
       <c r="AS7" s="10">
+        <f t="shared" ref="AS7:BH7" si="9">+AR7*1.03</f>
+        <v>1040.8954031585604</v>
+      </c>
+      <c r="AT7" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AT7" s="10">
-        <f>+AS7*1.04</f>
-        <v>0</v>
+        <v>1072.1222652533172</v>
       </c>
       <c r="AU7" s="10">
-        <f>+AT7*1.04</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1104.2859332109167</v>
       </c>
       <c r="AV7" s="10">
-        <f>+AU7*1.04</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1137.4145112072442</v>
       </c>
       <c r="AW7" s="10">
-        <f>+AV7*1.04</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1171.5369465434617</v>
       </c>
       <c r="AX7" s="10">
-        <f>+AW7*1.03</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1206.6830549397655</v>
       </c>
       <c r="AY7" s="10">
-        <f>+AX7*1.03</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1242.8835465879586</v>
       </c>
       <c r="AZ7" s="10">
-        <f t="shared" ref="AZ7:BA7" si="10">+AY7*1.03</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1280.1700529855973</v>
       </c>
       <c r="BA7" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1318.5751545751652</v>
       </c>
       <c r="BB7" s="10">
-        <f>+BA7*1.02</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1358.1324092124203</v>
       </c>
       <c r="BC7" s="10">
-        <f t="shared" ref="BC7:BH7" si="11">+BB7*1.02</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1398.876381488793</v>
       </c>
       <c r="BD7" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1440.8426729334567</v>
       </c>
       <c r="BE7" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1484.0679531214605</v>
       </c>
       <c r="BF7" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1528.5899917151044</v>
       </c>
       <c r="BG7" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1574.4476914665574</v>
       </c>
       <c r="BH7" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1621.6811222105541</v>
       </c>
     </row>
     <row r="8" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1747,11 +1754,11 @@
         <v>25740</v>
       </c>
       <c r="AN9" s="10">
-        <f t="shared" ref="AN9:AN10" si="12">SUM(K9:N9)</f>
+        <f t="shared" ref="AN9:AN10" si="10">SUM(K9:N9)</f>
         <v>28622</v>
       </c>
       <c r="AO9" s="10">
-        <f t="shared" ref="AO9:AO10" si="13">SUM(O9:R9)</f>
+        <f t="shared" ref="AO9:AO10" si="11">SUM(O9:R9)</f>
         <v>35190</v>
       </c>
       <c r="AP9" s="10">
@@ -1761,27 +1768,27 @@
         <v>29357</v>
       </c>
       <c r="AR9" s="10">
-        <f t="shared" ref="AR9:AW9" si="14">+AQ9*1.07</f>
+        <f t="shared" ref="AR9:AW9" si="12">+AQ9*1.07</f>
         <v>31411.99</v>
       </c>
       <c r="AS9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>33610.829300000005</v>
       </c>
       <c r="AT9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>35963.587351000009</v>
       </c>
       <c r="AU9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>38481.038465570011</v>
       </c>
       <c r="AV9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>41174.711158159917</v>
       </c>
       <c r="AW9" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>44056.940939231114</v>
       </c>
       <c r="AX9" s="10">
@@ -1789,19 +1796,19 @@
         <v>46700.357395584986</v>
       </c>
       <c r="AY9" s="10">
-        <f t="shared" ref="AY9:BB9" si="15">+AX9*1.06</f>
+        <f t="shared" ref="AY9:BB9" si="13">+AX9*1.06</f>
         <v>49502.378839320088</v>
       </c>
       <c r="AZ9" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>52472.521569679295</v>
       </c>
       <c r="BA9" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>55620.872863860059</v>
       </c>
       <c r="BB9" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>58958.125235691667</v>
       </c>
       <c r="BC9" s="10">
@@ -1809,23 +1816,23 @@
         <v>61906.031497476251</v>
       </c>
       <c r="BD9" s="10">
-        <f t="shared" ref="BD9:BH9" si="16">+BC9*1.05</f>
+        <f t="shared" ref="BD9:BH9" si="14">+BC9*1.05</f>
         <v>65001.333072350069</v>
       </c>
       <c r="BE9" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>68251.399725967582</v>
       </c>
       <c r="BF9" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>71663.969712265971</v>
       </c>
       <c r="BG9" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>75247.168197879277</v>
       </c>
       <c r="BH9" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>79009.526607773238</v>
       </c>
     </row>
@@ -1893,7 +1900,7 @@
         <v>5791</v>
       </c>
       <c r="Z10" s="10">
-        <f t="shared" ref="Z10:Z11" si="17">AQ10-Y10-X10-W10</f>
+        <f t="shared" ref="Z10:Z11" si="15">AQ10-Y10-X10-W10</f>
         <v>6443</v>
       </c>
       <c r="AJ10" s="10">
@@ -1909,11 +1916,11 @@
         <v>21280</v>
       </c>
       <c r="AN10" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>23724</v>
       </c>
       <c r="AO10" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>31862</v>
       </c>
       <c r="AP10" s="10">
@@ -1923,71 +1930,71 @@
         <v>28300</v>
       </c>
       <c r="AR10" s="10">
-        <f t="shared" ref="AR10:BH10" si="18">+AQ10*1.04</f>
+        <f t="shared" ref="AR10:BH10" si="16">+AQ10*1.04</f>
         <v>29432</v>
       </c>
       <c r="AS10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>30609.280000000002</v>
       </c>
       <c r="AT10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>31833.651200000004</v>
       </c>
       <c r="AU10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>33106.997248000007</v>
       </c>
       <c r="AV10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>34431.277137920006</v>
       </c>
       <c r="AW10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>35808.528223436806</v>
       </c>
       <c r="AX10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>37240.869352374277</v>
       </c>
       <c r="AY10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>38730.504126469248</v>
       </c>
       <c r="AZ10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>40279.724291528022</v>
       </c>
       <c r="BA10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>41890.913263189148</v>
       </c>
       <c r="BB10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>43566.549793716717</v>
       </c>
       <c r="BC10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>45309.211785465384</v>
       </c>
       <c r="BD10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>47121.580256884001</v>
       </c>
       <c r="BE10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>49006.443467159363</v>
       </c>
       <c r="BF10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>50966.70120584574</v>
       </c>
       <c r="BG10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>53005.369254079575</v>
       </c>
       <c r="BH10" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>55125.584024242758</v>
       </c>
     </row>
@@ -2055,7 +2062,7 @@
         <v>8284</v>
       </c>
       <c r="Z11" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>9322</v>
       </c>
       <c r="AJ11" s="10">
@@ -2071,11 +2078,11 @@
         <v>24482</v>
       </c>
       <c r="AN11" s="10">
-        <f t="shared" ref="AN11" si="19">SUM(K11:N11)</f>
+        <f t="shared" ref="AN11" si="17">SUM(K11:N11)</f>
         <v>30620</v>
       </c>
       <c r="AO11" s="10">
-        <f t="shared" ref="AO11" si="20">SUM(O11:R11)</f>
+        <f t="shared" ref="AO11" si="18">SUM(O11:R11)</f>
         <v>38367</v>
       </c>
       <c r="AP11" s="10">
@@ -2085,71 +2092,71 @@
         <v>39845</v>
       </c>
       <c r="AR11" s="10">
-        <f t="shared" ref="AR11:BH11" si="21">+AQ11*1.04</f>
+        <f t="shared" ref="AR11:BH11" si="19">+AQ11*1.04</f>
         <v>41438.800000000003</v>
       </c>
       <c r="AS11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>43096.352000000006</v>
       </c>
       <c r="AT11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>44820.206080000011</v>
       </c>
       <c r="AU11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>46613.014323200012</v>
       </c>
       <c r="AV11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>48477.534896128011</v>
       </c>
       <c r="AW11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>50416.636291973133</v>
       </c>
       <c r="AX11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>52433.30174365206</v>
       </c>
       <c r="AY11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>54530.633813398148</v>
       </c>
       <c r="AZ11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>56711.859165934075</v>
       </c>
       <c r="BA11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>58980.333532571436</v>
       </c>
       <c r="BB11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>61339.546873874293</v>
       </c>
       <c r="BC11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>63793.128748829266</v>
       </c>
       <c r="BD11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>66344.853898782443</v>
       </c>
       <c r="BE11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>68998.648054733741</v>
       </c>
       <c r="BF11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>71758.59397692309</v>
       </c>
       <c r="BG11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>74628.937736000022</v>
       </c>
       <c r="BH11" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>77614.095245440025</v>
       </c>
     </row>
@@ -2181,91 +2188,91 @@
         <v>79104</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ref="L13:Z13" si="22">L5+L9+L10+L11</f>
+        <f t="shared" ref="L13:Z13" si="20">L5+L9+L10+L11</f>
         <v>44965</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>46529</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>50149</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>95678</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>72683</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>63948</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>65083</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>104429</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>77457</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>63355</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>70958</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>96388</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>73929</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>60584</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>67184</v>
       </c>
       <c r="AJ13" s="2">
-        <f t="shared" ref="AJ13:AP13" si="23">SUM(AJ9:AJ11)+AJ5</f>
+        <f t="shared" ref="AJ13:AP13" si="21">SUM(AJ9:AJ11)+AJ5</f>
         <v>191291</v>
       </c>
       <c r="AK13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>199254</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>225847</v>
       </c>
       <c r="AM13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>213883</v>
       </c>
       <c r="AN13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>220747</v>
       </c>
       <c r="AO13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>297392</v>
       </c>
       <c r="AP13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>316199</v>
       </c>
       <c r="AQ13" s="2">
@@ -2273,72 +2280,72 @@
         <v>298085</v>
       </c>
       <c r="AR13" s="2">
-        <f t="shared" ref="AR13:BH13" si="24">SUM(AR9:AR11)+AR5</f>
-        <v>102282.79000000001</v>
+        <f t="shared" ref="AR13:BH13" si="22">SUM(AR9:AR11)+AR5</f>
+        <v>310949.28490000003</v>
       </c>
       <c r="AS13" s="2">
-        <f t="shared" si="24"/>
-        <v>107316.46130000002</v>
+        <f t="shared" si="22"/>
+        <v>324392.21594447002</v>
       </c>
       <c r="AT13" s="2">
-        <f t="shared" si="24"/>
-        <v>112617.44463100002</v>
+        <f t="shared" si="22"/>
+        <v>338441.35218764219</v>
       </c>
       <c r="AU13" s="2">
-        <f t="shared" si="24"/>
-        <v>118201.05003677003</v>
+        <f t="shared" si="22"/>
+        <v>353125.66106794489</v>
       </c>
       <c r="AV13" s="2">
-        <f t="shared" si="24"/>
-        <v>124083.52319220793</v>
+        <f t="shared" si="22"/>
+        <v>368475.59604793915</v>
       </c>
       <c r="AW13" s="2">
-        <f t="shared" si="24"/>
-        <v>130282.10545464106</v>
+        <f t="shared" si="22"/>
+        <v>384523.17884645826</v>
       </c>
       <c r="AX13" s="2">
-        <f t="shared" si="24"/>
-        <v>136374.52849161133</v>
+        <f t="shared" si="22"/>
+        <v>400861.51714111876</v>
       </c>
       <c r="AY13" s="2">
-        <f t="shared" si="24"/>
-        <v>142763.51677918748</v>
+        <f t="shared" si="22"/>
+        <v>417909.33107127011</v>
       </c>
       <c r="AZ13" s="2">
-        <f t="shared" si="24"/>
-        <v>149464.1050271414</v>
+        <f t="shared" si="22"/>
+        <v>435698.29563519493</v>
       </c>
       <c r="BA13" s="2">
-        <f t="shared" si="24"/>
-        <v>156492.11965962066</v>
+        <f t="shared" si="22"/>
+        <v>454261.54814917874</v>
       </c>
       <c r="BB13" s="2">
-        <f t="shared" si="24"/>
-        <v>163864.22190328268</v>
+        <f t="shared" si="22"/>
+        <v>473633.75836097001</v>
       </c>
       <c r="BC13" s="2">
-        <f t="shared" si="24"/>
-        <v>171008.37203177091</v>
+        <f t="shared" si="22"/>
+        <v>493261.62080870301</v>
       </c>
       <c r="BD13" s="2">
-        <f t="shared" si="24"/>
-        <v>178467.76722801651</v>
+        <f t="shared" si="22"/>
+        <v>513707.821930659</v>
       </c>
       <c r="BE13" s="2">
-        <f t="shared" si="24"/>
-        <v>186256.49124786069</v>
+        <f t="shared" si="22"/>
+        <v>535006.72015501966</v>
       </c>
       <c r="BF13" s="2">
-        <f t="shared" si="24"/>
-        <v>194389.26489503481</v>
+        <f t="shared" si="22"/>
+        <v>557194.12802715227</v>
       </c>
       <c r="BG13" s="2">
-        <f t="shared" si="24"/>
-        <v>202881.47518795886</v>
+        <f t="shared" si="22"/>
+        <v>580307.37430430076</v>
       </c>
       <c r="BH13" s="2">
-        <f t="shared" si="24"/>
-        <v>211749.20587745603</v>
+        <f t="shared" si="22"/>
+        <v>604385.36872818647</v>
       </c>
     </row>
     <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2425,7 +2432,7 @@
         <v>53768</v>
       </c>
       <c r="AO14" s="10">
-        <f t="shared" ref="AO14" si="25">SUM(O14:R14)</f>
+        <f t="shared" ref="AO14" si="23">SUM(O14:R14)</f>
         <v>68425</v>
       </c>
       <c r="AP14" s="10">
@@ -2459,47 +2466,47 @@
         <v>157471.74135</v>
       </c>
       <c r="AX14" s="10">
-        <f t="shared" ref="AX14:BH14" si="26">+AW14*1.05</f>
+        <f t="shared" ref="AX14:BH14" si="24">+AW14*1.05</f>
         <v>165345.32841750002</v>
       </c>
       <c r="AY14" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>173612.59483837502</v>
       </c>
       <c r="AZ14" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>182293.22458029378</v>
       </c>
       <c r="BA14" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>191407.88580930847</v>
       </c>
       <c r="BB14" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>200978.2800997739</v>
       </c>
       <c r="BC14" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>211027.1941047626</v>
       </c>
       <c r="BD14" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>221578.55381000074</v>
       </c>
       <c r="BE14" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>232657.48150050078</v>
       </c>
       <c r="BF14" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>244290.35557552584</v>
       </c>
       <c r="BG14" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>256504.87335430214</v>
       </c>
       <c r="BH14" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>269330.11702201725</v>
       </c>
     </row>
@@ -2508,35 +2515,35 @@
         <v>7</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:F15" si="27">+C13+C14</f>
+        <f t="shared" ref="C15:F15" si="25">+C13+C14</f>
         <v>88293</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>61137</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>53265</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>62900</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" ref="K15:N15" si="28">+K13+K14</f>
+        <f t="shared" ref="K15:N15" si="26">+K13+K14</f>
         <v>91819</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>58313</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>59685</v>
       </c>
       <c r="N15" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>64698</v>
       </c>
       <c r="O15" s="12">
@@ -2552,11 +2559,11 @@
         <v>81434</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ref="R15" si="29">+R13+R14</f>
+        <f t="shared" ref="R15" si="27">+R13+R14</f>
         <v>83360</v>
       </c>
       <c r="S15" s="12">
-        <f t="shared" ref="S15" si="30">+S13+S14</f>
+        <f t="shared" ref="S15" si="28">+S13+S14</f>
         <v>123945</v>
       </c>
       <c r="T15" s="12">
@@ -2564,27 +2571,27 @@
         <v>97278</v>
       </c>
       <c r="U15" s="12">
-        <f t="shared" ref="U15:Z15" si="31">+U13+U14</f>
+        <f t="shared" ref="U15:Z15" si="29">+U13+U14</f>
         <v>82959</v>
       </c>
       <c r="V15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>90146</v>
       </c>
       <c r="W15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>117154</v>
       </c>
       <c r="X15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>94899</v>
       </c>
       <c r="Y15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>81797</v>
       </c>
       <c r="Z15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>89435</v>
       </c>
       <c r="AH15" s="12">
@@ -2594,19 +2601,19 @@
         <v>233715</v>
       </c>
       <c r="AJ15" s="12">
-        <f t="shared" ref="AJ15:AM15" si="32">+AJ13+AJ14</f>
+        <f t="shared" ref="AJ15:AM15" si="30">+AJ13+AJ14</f>
         <v>215639</v>
       </c>
       <c r="AK15" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>229234</v>
       </c>
       <c r="AL15" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>265595</v>
       </c>
       <c r="AM15" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>260174</v>
       </c>
       <c r="AN15" s="12">
@@ -2626,72 +2633,72 @@
         <v>383285</v>
       </c>
       <c r="AR15" s="12">
-        <f t="shared" ref="AR15:BH15" si="33">+AR13+AR14</f>
-        <v>200262.78999999998</v>
+        <f t="shared" ref="AR15:BH15" si="31">+AR13+AR14</f>
+        <v>408929.28490000003</v>
       </c>
       <c r="AS15" s="12">
-        <f t="shared" si="33"/>
-        <v>219993.4613</v>
+        <f t="shared" si="31"/>
+        <v>437069.21594447002</v>
       </c>
       <c r="AT15" s="12">
-        <f t="shared" si="33"/>
-        <v>236562.144631</v>
+        <f t="shared" si="31"/>
+        <v>462386.0521876422</v>
       </c>
       <c r="AU15" s="12">
-        <f t="shared" si="33"/>
-        <v>254540.22003677001</v>
+        <f t="shared" si="31"/>
+        <v>489464.83106794488</v>
       </c>
       <c r="AV15" s="12">
-        <f t="shared" si="33"/>
-        <v>274056.61019220791</v>
+        <f t="shared" si="31"/>
+        <v>518448.68304793915</v>
       </c>
       <c r="AW15" s="12">
-        <f t="shared" si="33"/>
-        <v>287753.84680464107</v>
+        <f t="shared" si="31"/>
+        <v>541994.92019645823</v>
       </c>
       <c r="AX15" s="12">
-        <f t="shared" si="33"/>
-        <v>301719.85690911137</v>
+        <f t="shared" si="31"/>
+        <v>566206.84555861878</v>
       </c>
       <c r="AY15" s="12">
-        <f t="shared" si="33"/>
-        <v>316376.11161756248</v>
+        <f t="shared" si="31"/>
+        <v>591521.92590964516</v>
       </c>
       <c r="AZ15" s="12">
-        <f t="shared" si="33"/>
-        <v>331757.32960743515</v>
+        <f t="shared" si="31"/>
+        <v>617991.52021548874</v>
       </c>
       <c r="BA15" s="12">
-        <f t="shared" si="33"/>
-        <v>347900.00546892913</v>
+        <f t="shared" si="31"/>
+        <v>645669.43395848724</v>
       </c>
       <c r="BB15" s="12">
-        <f t="shared" si="33"/>
-        <v>364842.50200305658</v>
+        <f t="shared" si="31"/>
+        <v>674612.03846074385</v>
       </c>
       <c r="BC15" s="12">
-        <f t="shared" si="33"/>
-        <v>382035.56613653351</v>
+        <f t="shared" si="31"/>
+        <v>704288.81491346564</v>
       </c>
       <c r="BD15" s="12">
-        <f t="shared" si="33"/>
-        <v>400046.32103801728</v>
+        <f t="shared" si="31"/>
+        <v>735286.37574065977</v>
       </c>
       <c r="BE15" s="12">
-        <f t="shared" si="33"/>
-        <v>418913.97274836147</v>
+        <f t="shared" si="31"/>
+        <v>767664.20165552048</v>
       </c>
       <c r="BF15" s="12">
-        <f t="shared" si="33"/>
-        <v>438679.62047056062</v>
+        <f t="shared" si="31"/>
+        <v>801484.48360267817</v>
       </c>
       <c r="BG15" s="12">
-        <f t="shared" si="33"/>
-        <v>459386.348542261</v>
+        <f t="shared" si="31"/>
+        <v>836812.24765860289</v>
       </c>
       <c r="BH15" s="12">
-        <f t="shared" si="33"/>
-        <v>481079.32289947325</v>
+        <f t="shared" si="31"/>
+        <v>873715.48575020372</v>
       </c>
     </row>
     <row r="16" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2759,7 +2766,7 @@
         <v>151286</v>
       </c>
       <c r="AO16" s="10">
-        <f t="shared" ref="AO16:AO17" si="34">SUM(O16:R16)</f>
+        <f t="shared" ref="AO16:AO17" si="32">SUM(O16:R16)</f>
         <v>192266</v>
       </c>
       <c r="AP16" s="10">
@@ -2769,72 +2776,72 @@
         <v>189282</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" ref="AR16:BH16" si="35">+AR13*0.64</f>
-        <v>65460.985600000007</v>
+        <f t="shared" ref="AR16:BH16" si="33">+AR13*0.64</f>
+        <v>199007.54233600001</v>
       </c>
       <c r="AS16" s="2">
-        <f t="shared" si="35"/>
-        <v>68682.535232000024</v>
+        <f t="shared" si="33"/>
+        <v>207611.01820446082</v>
       </c>
       <c r="AT16" s="2">
-        <f t="shared" si="35"/>
-        <v>72075.164563840008</v>
+        <f t="shared" si="33"/>
+        <v>216602.46540009099</v>
       </c>
       <c r="AU16" s="2">
-        <f t="shared" si="35"/>
-        <v>75648.672023532825</v>
+        <f t="shared" si="33"/>
+        <v>226000.42308348473</v>
       </c>
       <c r="AV16" s="2">
-        <f t="shared" si="35"/>
-        <v>79413.454843013067</v>
+        <f t="shared" si="33"/>
+        <v>235824.38147068105</v>
       </c>
       <c r="AW16" s="2">
-        <f t="shared" si="35"/>
-        <v>83380.547490970275</v>
+        <f t="shared" si="33"/>
+        <v>246094.83446173329</v>
       </c>
       <c r="AX16" s="2">
-        <f t="shared" si="35"/>
-        <v>87279.698234631258</v>
+        <f t="shared" si="33"/>
+        <v>256551.37097031603</v>
       </c>
       <c r="AY16" s="2">
-        <f t="shared" si="35"/>
-        <v>91368.650738679993</v>
+        <f t="shared" si="33"/>
+        <v>267461.97188561287</v>
       </c>
       <c r="AZ16" s="2">
-        <f t="shared" si="35"/>
-        <v>95657.027217370502</v>
+        <f t="shared" si="33"/>
+        <v>278846.90920652478</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" si="35"/>
-        <v>100154.95658215722</v>
+        <f t="shared" si="33"/>
+        <v>290727.39081547438</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" si="35"/>
-        <v>104873.10201810092</v>
+        <f t="shared" si="33"/>
+        <v>303125.60535102081</v>
       </c>
       <c r="BC16" s="2">
-        <f t="shared" si="35"/>
-        <v>109445.35810033338</v>
+        <f t="shared" si="33"/>
+        <v>315687.43731756991</v>
       </c>
       <c r="BD16" s="2">
-        <f t="shared" si="35"/>
-        <v>114219.37102593057</v>
+        <f t="shared" si="33"/>
+        <v>328773.00603562174</v>
       </c>
       <c r="BE16" s="2">
-        <f t="shared" si="35"/>
-        <v>119204.15439863084</v>
+        <f t="shared" si="33"/>
+        <v>342404.3008992126</v>
       </c>
       <c r="BF16" s="2">
-        <f t="shared" si="35"/>
-        <v>124409.12953282228</v>
+        <f t="shared" si="33"/>
+        <v>356604.24193737743</v>
       </c>
       <c r="BG16" s="2">
-        <f t="shared" si="35"/>
-        <v>129844.14412029367</v>
+        <f t="shared" si="33"/>
+        <v>371396.71955475252</v>
       </c>
       <c r="BH16" s="2">
-        <f t="shared" si="35"/>
-        <v>135519.49176157187</v>
+        <f t="shared" si="33"/>
+        <v>386806.63598603936</v>
       </c>
     </row>
     <row r="17" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2902,7 +2909,7 @@
         <v>18273</v>
       </c>
       <c r="AO17" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>20715</v>
       </c>
       <c r="AP17" s="10">
@@ -2912,71 +2919,71 @@
         <v>24855</v>
       </c>
       <c r="AR17" s="2">
-        <f t="shared" ref="AR17:BH17" si="36">+AR14*0.27</f>
+        <f>+AR14*0.27</f>
         <v>26454.6</v>
       </c>
       <c r="AS17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AS17:BH17" si="34">+AS14*0.27</f>
         <v>30422.789999999994</v>
       </c>
       <c r="AT17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>33465.068999999996</v>
       </c>
       <c r="AU17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>36811.575899999996</v>
       </c>
       <c r="AV17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>40492.733490000006</v>
       </c>
       <c r="AW17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>42517.370164500004</v>
       </c>
       <c r="AX17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>44643.238672725005</v>
       </c>
       <c r="AY17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>46875.400606361261</v>
       </c>
       <c r="AZ17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>49219.170636679322</v>
       </c>
       <c r="BA17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>51680.129168513289</v>
       </c>
       <c r="BB17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>54264.135626938958</v>
       </c>
       <c r="BC17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>56977.342408285906</v>
       </c>
       <c r="BD17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>59826.209528700201</v>
       </c>
       <c r="BE17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>62817.520005135215</v>
       </c>
       <c r="BF17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>65958.396005391987</v>
       </c>
       <c r="BG17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>69256.315805661579</v>
       </c>
       <c r="BH17" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>72719.131595944666</v>
       </c>
     </row>
@@ -2998,19 +3005,19 @@
         <v>38816</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ref="K18:N18" si="37">+K16+K17</f>
+        <f t="shared" ref="K18:N18" si="35">+K16+K17</f>
         <v>56602</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>35943</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>37005</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>40009</v>
       </c>
       <c r="O18" s="2">
@@ -3026,11 +3033,11 @@
         <v>46179</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" ref="R18" si="38">+R16+R17</f>
+        <f t="shared" ref="R18" si="36">+R16+R17</f>
         <v>48186</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" ref="S18" si="39">+S16+S17</f>
+        <f t="shared" ref="S18" si="37">+S16+S17</f>
         <v>69702</v>
       </c>
       <c r="T18" s="2">
@@ -3038,35 +3045,35 @@
         <v>54719</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" ref="U18:Z18" si="40">+U16+U17</f>
+        <f t="shared" ref="U18:Z18" si="38">+U16+U17</f>
         <v>47074</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>52051</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>66822</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>52860</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>45384</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>49071</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" ref="AL18:AM18" si="41">+AL16+AL17</f>
+        <f t="shared" ref="AL18:AM18" si="39">+AL16+AL17</f>
         <v>163756</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>161782</v>
       </c>
       <c r="AN18" s="2">
@@ -3086,72 +3093,72 @@
         <v>214137</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" ref="AR18:BH18" si="42">+AR16+AR17</f>
-        <v>91915.585600000006</v>
+        <f t="shared" ref="AR18:BH18" si="40">+AR16+AR17</f>
+        <v>225462.14233600002</v>
       </c>
       <c r="AS18" s="2">
-        <f t="shared" si="42"/>
-        <v>99105.325232000017</v>
+        <f t="shared" si="40"/>
+        <v>238033.80820446083</v>
       </c>
       <c r="AT18" s="2">
-        <f t="shared" si="42"/>
-        <v>105540.23356384001</v>
+        <f t="shared" si="40"/>
+        <v>250067.53440009098</v>
       </c>
       <c r="AU18" s="2">
-        <f t="shared" si="42"/>
-        <v>112460.24792353282</v>
+        <f t="shared" si="40"/>
+        <v>262811.99898348469</v>
       </c>
       <c r="AV18" s="2">
-        <f t="shared" si="42"/>
-        <v>119906.18833301307</v>
+        <f t="shared" si="40"/>
+        <v>276317.11496068106</v>
       </c>
       <c r="AW18" s="2">
-        <f t="shared" si="42"/>
-        <v>125897.91765547029</v>
+        <f t="shared" si="40"/>
+        <v>288612.20462623332</v>
       </c>
       <c r="AX18" s="2">
-        <f t="shared" si="42"/>
-        <v>131922.93690735626</v>
+        <f t="shared" si="40"/>
+        <v>301194.60964304104</v>
       </c>
       <c r="AY18" s="2">
-        <f t="shared" si="42"/>
-        <v>138244.05134504125</v>
+        <f t="shared" si="40"/>
+        <v>314337.37249197415</v>
       </c>
       <c r="AZ18" s="2">
-        <f t="shared" si="42"/>
-        <v>144876.19785404982</v>
+        <f t="shared" si="40"/>
+        <v>328066.07984320412</v>
       </c>
       <c r="BA18" s="2">
-        <f t="shared" si="42"/>
-        <v>151835.08575067052</v>
+        <f t="shared" si="40"/>
+        <v>342407.51998398767</v>
       </c>
       <c r="BB18" s="2">
-        <f t="shared" si="42"/>
-        <v>159137.23764503989</v>
+        <f t="shared" si="40"/>
+        <v>357389.74097795977</v>
       </c>
       <c r="BC18" s="2">
-        <f t="shared" si="42"/>
-        <v>166422.70050861928</v>
+        <f t="shared" si="40"/>
+        <v>372664.7797258558</v>
       </c>
       <c r="BD18" s="2">
-        <f t="shared" si="42"/>
-        <v>174045.58055463078</v>
+        <f t="shared" si="40"/>
+        <v>388599.21556432196</v>
       </c>
       <c r="BE18" s="2">
-        <f t="shared" si="42"/>
-        <v>182021.67440376605</v>
+        <f t="shared" si="40"/>
+        <v>405221.82090434781</v>
       </c>
       <c r="BF18" s="2">
-        <f t="shared" si="42"/>
-        <v>190367.52553821425</v>
+        <f t="shared" si="40"/>
+        <v>422562.63794276945</v>
       </c>
       <c r="BG18" s="2">
-        <f t="shared" si="42"/>
-        <v>199100.45992595525</v>
+        <f t="shared" si="40"/>
+        <v>440653.03536041407</v>
       </c>
       <c r="BH18" s="2">
-        <f t="shared" si="42"/>
-        <v>208238.62335751654</v>
+        <f t="shared" si="40"/>
+        <v>459525.76758198405</v>
       </c>
     </row>
     <row r="19" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3159,35 +3166,35 @@
         <v>8</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19" si="43">+C15-C18</f>
+        <f t="shared" ref="C19" si="41">+C15-C18</f>
         <v>33912</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:F19" si="44">+D15-D18</f>
+        <f t="shared" ref="D19:F19" si="42">+D15-D18</f>
         <v>23422</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>20421</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>24084</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" ref="K19:N19" si="45">+K15-K18</f>
+        <f t="shared" ref="K19:N19" si="43">+K15-K18</f>
         <v>35217</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>22370</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>22680</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>24689</v>
       </c>
       <c r="O19" s="2">
@@ -3203,11 +3210,11 @@
         <v>35255</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19" si="46">+R15-R18</f>
+        <f t="shared" ref="R19" si="44">+R15-R18</f>
         <v>35174</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" ref="S19" si="47">+S15-S18</f>
+        <f t="shared" ref="S19" si="45">+S15-S18</f>
         <v>54243</v>
       </c>
       <c r="T19" s="2">
@@ -3215,35 +3222,35 @@
         <v>42559</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" ref="U19:Z19" si="48">+U15-U18</f>
+        <f t="shared" ref="U19:Z19" si="46">+U15-U18</f>
         <v>35885</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>38095</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>50332</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>42039</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>36413</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>40364</v>
       </c>
       <c r="AL19" s="2">
-        <f t="shared" ref="AL19:AM19" si="49">+AL15-AL18</f>
+        <f t="shared" ref="AL19:AM19" si="47">+AL15-AL18</f>
         <v>101839</v>
       </c>
       <c r="AM19" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>98392</v>
       </c>
       <c r="AN19" s="2">
@@ -3263,72 +3270,72 @@
         <v>169148</v>
       </c>
       <c r="AR19" s="2">
-        <f t="shared" ref="AR19:BH19" si="50">+AR15-AR18</f>
-        <v>108347.20439999997</v>
+        <f t="shared" ref="AR19:BH19" si="48">+AR15-AR18</f>
+        <v>183467.14256400001</v>
       </c>
       <c r="AS19" s="2">
-        <f t="shared" si="50"/>
-        <v>120888.13606799998</v>
+        <f t="shared" si="48"/>
+        <v>199035.40774000919</v>
       </c>
       <c r="AT19" s="2">
-        <f t="shared" si="50"/>
-        <v>131021.91106715999</v>
+        <f t="shared" si="48"/>
+        <v>212318.51778755122</v>
       </c>
       <c r="AU19" s="2">
-        <f t="shared" si="50"/>
-        <v>142079.97211323719</v>
+        <f t="shared" si="48"/>
+        <v>226652.83208446018</v>
       </c>
       <c r="AV19" s="2">
-        <f t="shared" si="50"/>
-        <v>154150.42185919484</v>
+        <f t="shared" si="48"/>
+        <v>242131.56808725809</v>
       </c>
       <c r="AW19" s="2">
-        <f t="shared" si="50"/>
-        <v>161855.92914917078</v>
+        <f t="shared" si="48"/>
+        <v>253382.71557022491</v>
       </c>
       <c r="AX19" s="2">
-        <f t="shared" si="50"/>
-        <v>169796.92000175512</v>
+        <f t="shared" si="48"/>
+        <v>265012.23591557774</v>
       </c>
       <c r="AY19" s="2">
-        <f t="shared" si="50"/>
-        <v>178132.06027252122</v>
+        <f t="shared" si="48"/>
+        <v>277184.55341767101</v>
       </c>
       <c r="AZ19" s="2">
-        <f t="shared" si="50"/>
-        <v>186881.13175338533</v>
+        <f t="shared" si="48"/>
+        <v>289925.44037228462</v>
       </c>
       <c r="BA19" s="2">
-        <f t="shared" si="50"/>
-        <v>196064.91971825861</v>
+        <f t="shared" si="48"/>
+        <v>303261.91397449956</v>
       </c>
       <c r="BB19" s="2">
-        <f t="shared" si="50"/>
-        <v>205705.26435801669</v>
+        <f t="shared" si="48"/>
+        <v>317222.29748278408</v>
       </c>
       <c r="BC19" s="2">
-        <f t="shared" si="50"/>
-        <v>215612.86562791423</v>
+        <f t="shared" si="48"/>
+        <v>331624.03518760984</v>
       </c>
       <c r="BD19" s="2">
-        <f t="shared" si="50"/>
-        <v>226000.7404833865</v>
+        <f t="shared" si="48"/>
+        <v>346687.16017633781</v>
       </c>
       <c r="BE19" s="2">
-        <f t="shared" si="50"/>
-        <v>236892.29834459542</v>
+        <f t="shared" si="48"/>
+        <v>362442.38075117266</v>
       </c>
       <c r="BF19" s="2">
-        <f t="shared" si="50"/>
-        <v>248312.09493234637</v>
+        <f t="shared" si="48"/>
+        <v>378921.84565990872</v>
       </c>
       <c r="BG19" s="2">
-        <f t="shared" si="50"/>
-        <v>260285.88861630575</v>
+        <f t="shared" si="48"/>
+        <v>396159.21229818882</v>
       </c>
       <c r="BH19" s="2">
-        <f t="shared" si="50"/>
-        <v>272840.69954195671</v>
+        <f t="shared" si="48"/>
+        <v>414189.71816821967</v>
       </c>
     </row>
     <row r="20" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3409,7 +3416,7 @@
         <v>18752</v>
       </c>
       <c r="AO20" s="10">
-        <f t="shared" ref="AO20:AO21" si="51">SUM(O20:R20)</f>
+        <f t="shared" ref="AO20:AO21" si="49">SUM(O20:R20)</f>
         <v>21914</v>
       </c>
       <c r="AP20" s="10">
@@ -3419,71 +3426,71 @@
         <v>29915</v>
       </c>
       <c r="AR20" s="2">
-        <f t="shared" ref="AR20:BH20" si="52">+AQ20*1.03</f>
+        <f t="shared" ref="AR20:BH20" si="50">+AQ20*1.03</f>
         <v>30812.45</v>
       </c>
       <c r="AS20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>31736.823500000002</v>
       </c>
       <c r="AT20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>32688.928205000004</v>
       </c>
       <c r="AU20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>33669.596051150002</v>
       </c>
       <c r="AV20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>34679.6839326845</v>
       </c>
       <c r="AW20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>35720.074450665037</v>
       </c>
       <c r="AX20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>36791.676684184989</v>
       </c>
       <c r="AY20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>37895.426984710539</v>
       </c>
       <c r="AZ20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>39032.289794251854</v>
       </c>
       <c r="BA20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>40203.258488079409</v>
       </c>
       <c r="BB20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>41409.356242721791</v>
       </c>
       <c r="BC20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>42651.636930003449</v>
       </c>
       <c r="BD20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>43931.186037903557</v>
       </c>
       <c r="BE20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>45249.121619040663</v>
       </c>
       <c r="BF20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>46606.595267611883</v>
       </c>
       <c r="BG20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>48004.793125640244</v>
       </c>
       <c r="BH20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>49444.936919409454</v>
       </c>
     </row>
@@ -3565,7 +3572,7 @@
         <v>19916</v>
       </c>
       <c r="AO21" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>21973</v>
       </c>
       <c r="AP21" s="10">
@@ -3575,71 +3582,71 @@
         <v>24932</v>
       </c>
       <c r="AR21" s="2">
-        <f t="shared" ref="AR21:BH21" si="53">+AQ21*1.03</f>
+        <f t="shared" ref="AR21:BH21" si="51">+AQ21*1.03</f>
         <v>25679.96</v>
       </c>
       <c r="AS21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>26450.358799999998</v>
       </c>
       <c r="AT21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>27243.869564000001</v>
       </c>
       <c r="AU21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>28061.185650920001</v>
       </c>
       <c r="AV21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>28903.021220447601</v>
       </c>
       <c r="AW21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>29770.111857061031</v>
       </c>
       <c r="AX21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>30663.215212772862</v>
       </c>
       <c r="AY21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>31583.111669156049</v>
       </c>
       <c r="AZ21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>32530.60501923073</v>
       </c>
       <c r="BA21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>33506.523169807653</v>
       </c>
       <c r="BB21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>34511.718864901886</v>
       </c>
       <c r="BC21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>35547.070430848944</v>
       </c>
       <c r="BD21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>36613.482543774415</v>
       </c>
       <c r="BE21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>37711.887020087648</v>
       </c>
       <c r="BF21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>38843.243630690282</v>
       </c>
       <c r="BG21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>40008.54093961099</v>
       </c>
       <c r="BH21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>41208.797167799319</v>
       </c>
     </row>
@@ -3648,35 +3655,35 @@
         <v>100</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22" si="54">+C20+C21</f>
+        <f t="shared" ref="C22" si="52">+C20+C21</f>
         <v>7638</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:F22" si="55">+D20+D21</f>
+        <f t="shared" ref="D22:F22" si="53">+D20+D21</f>
         <v>7528</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>7809</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>7966</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ref="K22:N22" si="56">+K20+K21</f>
+        <f t="shared" ref="K22:N22" si="54">+K20+K21</f>
         <v>9648</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>9517</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>9589</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>9914</v>
       </c>
       <c r="O22" s="2">
@@ -3692,11 +3699,11 @@
         <v>11129</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22" si="57">+R20+R21</f>
+        <f t="shared" ref="R22" si="55">+R20+R21</f>
         <v>11388</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" ref="S22" si="58">+S20+S21</f>
+        <f t="shared" ref="S22" si="56">+S20+S21</f>
         <v>12755</v>
       </c>
       <c r="T22" s="2">
@@ -3704,35 +3711,35 @@
         <v>12580</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" ref="U22:Z22" si="59">+U20+U21</f>
+        <f t="shared" ref="U22:Z22" si="57">+U20+U21</f>
         <v>12809</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>13201</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>14316</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>13658</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>13415</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>13458</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" ref="AL22:AM22" si="60">+AL20+AL21</f>
+        <f t="shared" ref="AL22:AM22" si="58">+AL20+AL21</f>
         <v>30941</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>34462</v>
       </c>
       <c r="AN22" s="2">
@@ -3752,71 +3759,71 @@
         <v>54847</v>
       </c>
       <c r="AR22" s="2">
-        <f t="shared" ref="AR22:BH22" si="61">+AR20+AR21</f>
+        <f t="shared" ref="AR22:BH22" si="59">+AR20+AR21</f>
         <v>56492.41</v>
       </c>
       <c r="AS22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>58187.1823</v>
       </c>
       <c r="AT22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>59932.797769000004</v>
       </c>
       <c r="AU22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>61730.781702070002</v>
       </c>
       <c r="AV22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>63582.705153132105</v>
       </c>
       <c r="AW22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>65490.186307726064</v>
       </c>
       <c r="AX22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>67454.891896957852</v>
       </c>
       <c r="AY22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>69478.538653866592</v>
       </c>
       <c r="AZ22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>71562.894813482591</v>
       </c>
       <c r="BA22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>73709.78165788707</v>
       </c>
       <c r="BB22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>75921.075107623677</v>
       </c>
       <c r="BC22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>78198.707360852393</v>
       </c>
       <c r="BD22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>80544.668581677979</v>
       </c>
       <c r="BE22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>82961.008639128311</v>
       </c>
       <c r="BF22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>85449.838898302172</v>
       </c>
       <c r="BG22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>88013.334065251227</v>
       </c>
       <c r="BH22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>90653.734087208781</v>
       </c>
     </row>
@@ -3825,35 +3832,35 @@
         <v>99</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23" si="62">+C19-C22</f>
+        <f t="shared" ref="C23" si="60">+C19-C22</f>
         <v>26274</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:F23" si="63">+D19-D22</f>
+        <f t="shared" ref="D23:F23" si="61">+D19-D22</f>
         <v>15894</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>12612</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>16118</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:N23" si="64">+K19-K22</f>
+        <f t="shared" ref="K23:N23" si="62">+K19-K22</f>
         <v>25569</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>12853</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>13091</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>14775</v>
       </c>
       <c r="O23" s="2">
@@ -3869,11 +3876,11 @@
         <v>24126</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" ref="R23" si="65">+R19-R22</f>
+        <f t="shared" ref="R23" si="63">+R19-R22</f>
         <v>23786</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" ref="S23" si="66">+S19-S22</f>
+        <f t="shared" ref="S23" si="64">+S19-S22</f>
         <v>41488</v>
       </c>
       <c r="T23" s="2">
@@ -3881,35 +3888,35 @@
         <v>29979</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" ref="U23:Z23" si="67">+U19-U22</f>
+        <f t="shared" ref="U23:Z23" si="65">+U19-U22</f>
         <v>23076</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>24894</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>36016</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>28381</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>22998</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>26906</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" ref="AL23:AM23" si="68">+AL19-AL22</f>
+        <f t="shared" ref="AL23:AM23" si="66">+AL19-AL22</f>
         <v>70898</v>
       </c>
       <c r="AM23" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>63930</v>
       </c>
       <c r="AN23" s="2">
@@ -3929,72 +3936,72 @@
         <v>114301</v>
       </c>
       <c r="AR23" s="2">
-        <f t="shared" ref="AR23:BH23" si="69">+AR19-AR22</f>
-        <v>51854.79439999997</v>
+        <f t="shared" ref="AR23:BH23" si="67">+AR19-AR22</f>
+        <v>126974.73256400001</v>
       </c>
       <c r="AS23" s="2">
-        <f t="shared" si="69"/>
-        <v>62700.953767999978</v>
+        <f t="shared" si="67"/>
+        <v>140848.22544000921</v>
       </c>
       <c r="AT23" s="2">
-        <f t="shared" si="69"/>
-        <v>71089.113298159995</v>
+        <f t="shared" si="67"/>
+        <v>152385.72001855122</v>
       </c>
       <c r="AU23" s="2">
-        <f t="shared" si="69"/>
-        <v>80349.19041116719</v>
+        <f t="shared" si="67"/>
+        <v>164922.05038239018</v>
       </c>
       <c r="AV23" s="2">
-        <f t="shared" si="69"/>
-        <v>90567.71670606274</v>
+        <f t="shared" si="67"/>
+        <v>178548.86293412599</v>
       </c>
       <c r="AW23" s="2">
-        <f t="shared" si="69"/>
-        <v>96365.74284144472</v>
+        <f t="shared" si="67"/>
+        <v>187892.52926249884</v>
       </c>
       <c r="AX23" s="2">
-        <f t="shared" si="69"/>
-        <v>102342.02810479727</v>
+        <f t="shared" si="67"/>
+        <v>197557.34401861989</v>
       </c>
       <c r="AY23" s="2">
-        <f t="shared" si="69"/>
-        <v>108653.52161865463</v>
+        <f t="shared" si="67"/>
+        <v>207706.01476380441</v>
       </c>
       <c r="AZ23" s="2">
-        <f t="shared" si="69"/>
-        <v>115318.23693990274</v>
+        <f t="shared" si="67"/>
+        <v>218362.54555880203</v>
       </c>
       <c r="BA23" s="2">
-        <f t="shared" si="69"/>
-        <v>122355.13806037154</v>
+        <f t="shared" si="67"/>
+        <v>229552.13231661249</v>
       </c>
       <c r="BB23" s="2">
-        <f t="shared" si="69"/>
-        <v>129784.18925039301</v>
+        <f t="shared" si="67"/>
+        <v>241301.2223751604</v>
       </c>
       <c r="BC23" s="2">
-        <f t="shared" si="69"/>
-        <v>137414.15826706184</v>
+        <f t="shared" si="67"/>
+        <v>253425.32782675745</v>
       </c>
       <c r="BD23" s="2">
-        <f t="shared" si="69"/>
-        <v>145456.07190170852</v>
+        <f t="shared" si="67"/>
+        <v>266142.49159465986</v>
       </c>
       <c r="BE23" s="2">
-        <f t="shared" si="69"/>
-        <v>153931.28970546712</v>
+        <f t="shared" si="67"/>
+        <v>279481.37211204437</v>
       </c>
       <c r="BF23" s="2">
-        <f t="shared" si="69"/>
-        <v>162862.2560340442</v>
+        <f t="shared" si="67"/>
+        <v>293472.00676160655</v>
       </c>
       <c r="BG23" s="2">
-        <f t="shared" si="69"/>
-        <v>172272.55455105452</v>
+        <f t="shared" si="67"/>
+        <v>308145.8782329376</v>
       </c>
       <c r="BH23" s="2">
-        <f t="shared" si="69"/>
-        <v>182186.96545474793</v>
+        <f t="shared" si="67"/>
+        <v>323535.98408101092</v>
       </c>
     </row>
     <row r="24" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4075,7 +4082,7 @@
         <v>803</v>
       </c>
       <c r="AO24" s="10">
-        <f t="shared" ref="AO24" si="70">SUM(O24:R24)</f>
+        <f t="shared" ref="AO24" si="68">SUM(O24:R24)</f>
         <v>258</v>
       </c>
       <c r="AP24" s="10">
@@ -4090,35 +4097,35 @@
         <v>103</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25" si="71">+C23+C24</f>
+        <f t="shared" ref="C25" si="69">+C23+C24</f>
         <v>27030</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:F25" si="72">+D23+D24</f>
+        <f t="shared" ref="D25:F25" si="70">+D23+D24</f>
         <v>16168</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>13284</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>16421</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ref="K25:N25" si="73">+K23+K24</f>
+        <f t="shared" ref="K25:N25" si="71">+K23+K24</f>
         <v>25918</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>13135</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>13137</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>14901</v>
       </c>
       <c r="O25" s="2">
@@ -4134,11 +4141,11 @@
         <v>24369</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" ref="R25" si="74">+R23+R24</f>
+        <f t="shared" ref="R25" si="72">+R23+R24</f>
         <v>23248</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" ref="S25" si="75">+S23+S24</f>
+        <f t="shared" ref="S25" si="73">+S23+S24</f>
         <v>41241</v>
       </c>
       <c r="T25" s="2">
@@ -4146,35 +4153,35 @@
         <v>30139</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" ref="U25:Z25" si="76">+U23+U24</f>
+        <f t="shared" ref="U25:Z25" si="74">+U23+U24</f>
         <v>23066</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>24657</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>35623</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>28445</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>22733</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>26935</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" ref="AL25:AM25" si="77">+AL23+AL24</f>
+        <f t="shared" ref="AL25:AM25" si="75">+AL23+AL24</f>
         <v>72903</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>65737</v>
       </c>
       <c r="AN25" s="2">
@@ -4194,72 +4201,72 @@
         <v>113736</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" ref="AR25:BH25" si="78">+AR23+AR24</f>
-        <v>51854.79439999997</v>
+        <f t="shared" ref="AR25:BH25" si="76">+AR23+AR24</f>
+        <v>126974.73256400001</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="78"/>
-        <v>62700.953767999978</v>
+        <f t="shared" si="76"/>
+        <v>140848.22544000921</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="78"/>
-        <v>71089.113298159995</v>
+        <f t="shared" si="76"/>
+        <v>152385.72001855122</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" si="78"/>
-        <v>80349.19041116719</v>
+        <f t="shared" si="76"/>
+        <v>164922.05038239018</v>
       </c>
       <c r="AV25" s="2">
-        <f t="shared" si="78"/>
-        <v>90567.71670606274</v>
+        <f t="shared" si="76"/>
+        <v>178548.86293412599</v>
       </c>
       <c r="AW25" s="2">
-        <f t="shared" si="78"/>
-        <v>96365.74284144472</v>
+        <f t="shared" si="76"/>
+        <v>187892.52926249884</v>
       </c>
       <c r="AX25" s="2">
-        <f t="shared" si="78"/>
-        <v>102342.02810479727</v>
+        <f t="shared" si="76"/>
+        <v>197557.34401861989</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" si="78"/>
-        <v>108653.52161865463</v>
+        <f t="shared" si="76"/>
+        <v>207706.01476380441</v>
       </c>
       <c r="AZ25" s="2">
-        <f t="shared" si="78"/>
-        <v>115318.23693990274</v>
+        <f t="shared" si="76"/>
+        <v>218362.54555880203</v>
       </c>
       <c r="BA25" s="2">
-        <f t="shared" si="78"/>
-        <v>122355.13806037154</v>
+        <f t="shared" si="76"/>
+        <v>229552.13231661249</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" si="78"/>
-        <v>129784.18925039301</v>
+        <f t="shared" si="76"/>
+        <v>241301.2223751604</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" si="78"/>
-        <v>137414.15826706184</v>
+        <f t="shared" si="76"/>
+        <v>253425.32782675745</v>
       </c>
       <c r="BD25" s="2">
-        <f t="shared" si="78"/>
-        <v>145456.07190170852</v>
+        <f t="shared" si="76"/>
+        <v>266142.49159465986</v>
       </c>
       <c r="BE25" s="2">
-        <f t="shared" si="78"/>
-        <v>153931.28970546712</v>
+        <f t="shared" si="76"/>
+        <v>279481.37211204437</v>
       </c>
       <c r="BF25" s="2">
-        <f t="shared" si="78"/>
-        <v>162862.2560340442</v>
+        <f t="shared" si="76"/>
+        <v>293472.00676160655</v>
       </c>
       <c r="BG25" s="2">
-        <f t="shared" si="78"/>
-        <v>172272.55455105452</v>
+        <f t="shared" si="76"/>
+        <v>308145.8782329376</v>
       </c>
       <c r="BH25" s="2">
-        <f t="shared" si="78"/>
-        <v>182186.96545474793</v>
+        <f t="shared" si="76"/>
+        <v>323535.98408101092</v>
       </c>
     </row>
     <row r="26" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4340,7 +4347,7 @@
         <v>9680</v>
       </c>
       <c r="AO26" s="10">
-        <f t="shared" ref="AO26" si="79">SUM(O26:R26)</f>
+        <f t="shared" ref="AO26" si="77">SUM(O26:R26)</f>
         <v>14527</v>
       </c>
       <c r="AP26" s="10">
@@ -4350,72 +4357,72 @@
         <v>16741</v>
       </c>
       <c r="AR26" s="2">
-        <f t="shared" ref="AR26:BH26" si="80">+AR25*0.2</f>
-        <v>10370.958879999995</v>
+        <f t="shared" ref="AR26:BH26" si="78">+AR25*0.2</f>
+        <v>25394.946512800001</v>
       </c>
       <c r="AS26" s="2">
-        <f t="shared" si="80"/>
-        <v>12540.190753599996</v>
+        <f t="shared" si="78"/>
+        <v>28169.645088001842</v>
       </c>
       <c r="AT26" s="2">
-        <f t="shared" si="80"/>
-        <v>14217.822659632</v>
+        <f t="shared" si="78"/>
+        <v>30477.144003710244</v>
       </c>
       <c r="AU26" s="2">
-        <f t="shared" si="80"/>
-        <v>16069.838082233438</v>
+        <f t="shared" si="78"/>
+        <v>32984.410076478038</v>
       </c>
       <c r="AV26" s="2">
-        <f t="shared" si="80"/>
-        <v>18113.543341212549</v>
+        <f t="shared" si="78"/>
+        <v>35709.772586825202</v>
       </c>
       <c r="AW26" s="2">
-        <f t="shared" si="80"/>
-        <v>19273.148568288943</v>
+        <f t="shared" si="78"/>
+        <v>37578.505852499766</v>
       </c>
       <c r="AX26" s="2">
-        <f t="shared" si="80"/>
-        <v>20468.405620959456</v>
+        <f t="shared" si="78"/>
+        <v>39511.468803723983</v>
       </c>
       <c r="AY26" s="2">
-        <f t="shared" si="80"/>
-        <v>21730.704323730926</v>
+        <f t="shared" si="78"/>
+        <v>41541.202952760883</v>
       </c>
       <c r="AZ26" s="2">
-        <f t="shared" si="80"/>
-        <v>23063.647387980549</v>
+        <f t="shared" si="78"/>
+        <v>43672.50911176041</v>
       </c>
       <c r="BA26" s="2">
-        <f t="shared" si="80"/>
-        <v>24471.027612074307</v>
+        <f t="shared" si="78"/>
+        <v>45910.426463322503</v>
       </c>
       <c r="BB26" s="2">
-        <f t="shared" si="80"/>
-        <v>25956.837850078606</v>
+        <f t="shared" si="78"/>
+        <v>48260.244475032086</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" si="80"/>
-        <v>27482.83165341237</v>
+        <f t="shared" si="78"/>
+        <v>50685.065565351491</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="80"/>
-        <v>29091.214380341706</v>
+        <f t="shared" si="78"/>
+        <v>53228.498318931976</v>
       </c>
       <c r="BE26" s="2">
-        <f t="shared" si="80"/>
-        <v>30786.257941093427</v>
+        <f t="shared" si="78"/>
+        <v>55896.274422408875</v>
       </c>
       <c r="BF26" s="2">
-        <f t="shared" si="80"/>
-        <v>32572.451206808841</v>
+        <f t="shared" si="78"/>
+        <v>58694.401352321314</v>
       </c>
       <c r="BG26" s="2">
-        <f t="shared" si="80"/>
-        <v>34454.510910210905</v>
+        <f t="shared" si="78"/>
+        <v>61629.175646587522</v>
       </c>
       <c r="BH26" s="2">
-        <f t="shared" si="80"/>
-        <v>36437.39309094959</v>
+        <f t="shared" si="78"/>
+        <v>64707.196816202188</v>
       </c>
     </row>
     <row r="27" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4423,35 +4430,35 @@
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27" si="81">+C25-C26</f>
+        <f t="shared" ref="C27" si="79">+C25-C26</f>
         <v>20065</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:F27" si="82">+D25-D26</f>
+        <f t="shared" ref="D27:F27" si="80">+D25-D26</f>
         <v>13822</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>11519</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="80"/>
         <v>14125</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27:N27" si="83">+K25-K26</f>
+        <f t="shared" ref="K27:N27" si="81">+K25-K26</f>
         <v>22236</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>11249</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>11253</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>12673</v>
       </c>
       <c r="O27" s="2">
@@ -4467,11 +4474,11 @@
         <v>21744</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27" si="84">+R25-R26</f>
+        <f t="shared" ref="R27" si="82">+R25-R26</f>
         <v>20551</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" ref="S27" si="85">+S25-S26</f>
+        <f t="shared" ref="S27" si="83">+S25-S26</f>
         <v>34630</v>
       </c>
       <c r="T27" s="2">
@@ -4479,35 +4486,35 @@
         <v>25010</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" ref="U27:Z27" si="86">+U25-U26</f>
+        <f t="shared" ref="U27:Z27" si="84">+U25-U26</f>
         <v>19442</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>20721</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>29998</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>24223</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>19881</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>22893</v>
       </c>
       <c r="AL27" s="2">
-        <f t="shared" ref="AL27:AM27" si="87">+AL25-AL26</f>
+        <f t="shared" ref="AL27:AM27" si="85">+AL25-AL26</f>
         <v>59531</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>55256</v>
       </c>
       <c r="AN27" s="2">
@@ -4527,72 +4534,72 @@
         <v>96995</v>
       </c>
       <c r="AR27" s="2">
-        <f t="shared" ref="AR27:BH27" si="88">+AR25-AR26</f>
-        <v>41483.835519999979</v>
+        <f t="shared" ref="AR27:BH27" si="86">+AR25-AR26</f>
+        <v>101579.7860512</v>
       </c>
       <c r="AS27" s="2">
-        <f t="shared" si="88"/>
-        <v>50160.763014399985</v>
+        <f t="shared" si="86"/>
+        <v>112678.58035200737</v>
       </c>
       <c r="AT27" s="2">
-        <f t="shared" si="88"/>
-        <v>56871.290638527993</v>
+        <f t="shared" si="86"/>
+        <v>121908.57601484098</v>
       </c>
       <c r="AU27" s="2">
-        <f t="shared" si="88"/>
-        <v>64279.352328933754</v>
+        <f t="shared" si="86"/>
+        <v>131937.64030591215</v>
       </c>
       <c r="AV27" s="2">
-        <f t="shared" si="88"/>
-        <v>72454.173364850198</v>
+        <f t="shared" si="86"/>
+        <v>142839.09034730081</v>
       </c>
       <c r="AW27" s="2">
-        <f t="shared" si="88"/>
-        <v>77092.594273155773</v>
+        <f t="shared" si="86"/>
+        <v>150314.02340999906</v>
       </c>
       <c r="AX27" s="2">
-        <f t="shared" si="88"/>
-        <v>81873.622483837811</v>
+        <f t="shared" si="86"/>
+        <v>158045.8752148959</v>
       </c>
       <c r="AY27" s="2">
-        <f t="shared" si="88"/>
-        <v>86922.817294923705</v>
+        <f t="shared" si="86"/>
+        <v>166164.81181104353</v>
       </c>
       <c r="AZ27" s="2">
-        <f t="shared" si="88"/>
-        <v>92254.589551922196</v>
+        <f t="shared" si="86"/>
+        <v>174690.03644704161</v>
       </c>
       <c r="BA27" s="2">
-        <f t="shared" si="88"/>
-        <v>97884.11044829723</v>
+        <f t="shared" si="86"/>
+        <v>183641.70585328998</v>
       </c>
       <c r="BB27" s="2">
-        <f t="shared" si="88"/>
-        <v>103827.35140031441</v>
+        <f t="shared" si="86"/>
+        <v>193040.97790012832</v>
       </c>
       <c r="BC27" s="2">
-        <f t="shared" si="88"/>
-        <v>109931.32661364946</v>
+        <f t="shared" si="86"/>
+        <v>202740.26226140597</v>
       </c>
       <c r="BD27" s="2">
-        <f t="shared" si="88"/>
-        <v>116364.85752136682</v>
+        <f t="shared" si="86"/>
+        <v>212913.9932757279</v>
       </c>
       <c r="BE27" s="2">
-        <f t="shared" si="88"/>
-        <v>123145.03176437369</v>
+        <f t="shared" si="86"/>
+        <v>223585.0976896355</v>
       </c>
       <c r="BF27" s="2">
-        <f t="shared" si="88"/>
-        <v>130289.80482723536</v>
+        <f t="shared" si="86"/>
+        <v>234777.60540928523</v>
       </c>
       <c r="BG27" s="2">
-        <f t="shared" si="88"/>
-        <v>137818.04364084362</v>
+        <f t="shared" si="86"/>
+        <v>246516.70258635009</v>
       </c>
       <c r="BH27" s="2">
-        <f t="shared" si="88"/>
-        <v>145749.57236379833</v>
+        <f t="shared" si="86"/>
+        <v>258828.78726480872</v>
       </c>
     </row>
     <row r="28" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -4600,19 +4607,19 @@
         <v>14</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" ref="C28" si="89">+C27/C29</f>
+        <f t="shared" ref="C28" si="87">+C27/C29</f>
         <v>0.97255857987156114</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" ref="D28:F28" si="90">+D27/D29</f>
+        <f t="shared" ref="D28:F28" si="88">+D27/D29</f>
         <v>0.68176083107937602</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>0.58452984598534197</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>0.70623460408563088</v>
       </c>
       <c r="G28" s="14"/>
@@ -4620,19 +4627,19 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14">
-        <f t="shared" ref="K28:N28" si="91">+K27/K29</f>
+        <f t="shared" ref="K28:N28" si="89">+K27/K29</f>
         <v>1.2479223042091785</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>0.63846699811252383</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>0.64601300384622584</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>0.73438904632051849</v>
       </c>
       <c r="O28" s="14">
@@ -4648,11 +4655,11 @@
         <v>1.2956943963183782</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28" si="92">+R27/R29</f>
+        <f t="shared" ref="R28" si="90">+R27/R29</f>
         <v>1.2354000701047909</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" ref="S28" si="93">+S27/S29</f>
+        <f t="shared" ref="S28" si="91">+S27/S29</f>
         <v>2.0963369432743812</v>
       </c>
       <c r="T28" s="14">
@@ -4660,35 +4667,35 @@
         <v>1.5246917147727936</v>
       </c>
       <c r="U28" s="14">
-        <f t="shared" ref="U28:Z28" si="94">+U27/U29</f>
+        <f t="shared" ref="U28:Z28" si="92">+U27/U29</f>
         <v>1.1955329791418789</v>
       </c>
       <c r="V28" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>1.3215730910090044</v>
       </c>
       <c r="W28" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>1.8875305383476451</v>
       </c>
       <c r="X28" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>1.5343487496226362</v>
       </c>
       <c r="Y28" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>1.2664982079442137</v>
       </c>
       <c r="Z28" s="14">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>1.4675533399194707</v>
       </c>
       <c r="AL28" s="14">
-        <f t="shared" ref="AL28:AM28" si="95">+AL27/AL29</f>
+        <f t="shared" ref="AL28:AM28" si="93">+AL27/AL29</f>
         <v>2.9764851126245446</v>
       </c>
       <c r="AM28" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>2.9714474637107351</v>
       </c>
       <c r="AN28" s="14">
@@ -4708,72 +4715,72 @@
         <v>6.1606692635543778</v>
       </c>
       <c r="AR28" s="14">
-        <f t="shared" ref="AR28:BH28" si="96">+AR27/AR29</f>
-        <v>2.6348594300985537</v>
+        <f t="shared" ref="AR28:BH28" si="94">+AR27/AR29</f>
+        <v>6.4518734545497969</v>
       </c>
       <c r="AS28" s="14">
-        <f t="shared" si="96"/>
-        <v>3.1859773281019561</v>
+        <f t="shared" si="94"/>
+        <v>7.1568170177385841</v>
       </c>
       <c r="AT28" s="14">
-        <f t="shared" si="96"/>
-        <v>3.6121986928753773</v>
+        <f t="shared" si="94"/>
+        <v>7.7430632220043636</v>
       </c>
       <c r="AU28" s="14">
-        <f t="shared" si="96"/>
-        <v>4.0827241628335962</v>
+        <f t="shared" si="94"/>
+        <v>8.3800625324864804</v>
       </c>
       <c r="AV28" s="14">
-        <f t="shared" si="96"/>
-        <v>4.601950604310252</v>
+        <f t="shared" si="94"/>
+        <v>9.072471710260146</v>
       </c>
       <c r="AW28" s="14">
-        <f t="shared" si="96"/>
-        <v>4.8965614308603431</v>
+        <f t="shared" si="94"/>
+        <v>9.5472445373800134</v>
       </c>
       <c r="AX28" s="14">
-        <f t="shared" si="96"/>
-        <v>5.2002300070316432</v>
+        <f t="shared" si="94"/>
+        <v>10.038335642744057</v>
       </c>
       <c r="AY28" s="14">
-        <f t="shared" si="96"/>
-        <v>5.5209312728531303</v>
+        <f t="shared" si="94"/>
+        <v>10.55401256568476</v>
       </c>
       <c r="AZ28" s="14">
-        <f t="shared" si="96"/>
-        <v>5.859580537907644</v>
+        <f t="shared" si="94"/>
+        <v>11.095495006840386</v>
       </c>
       <c r="BA28" s="14">
-        <f t="shared" si="96"/>
-        <v>6.2171414055279826</v>
+        <f t="shared" si="94"/>
+        <v>11.664063227558715</v>
       </c>
       <c r="BB28" s="14">
-        <f t="shared" si="96"/>
-        <v>6.5946283054608648</v>
+        <f t="shared" si="94"/>
+        <v>12.261061076919432</v>
       </c>
       <c r="BC28" s="14">
-        <f t="shared" si="96"/>
-        <v>6.9823242947622823</v>
+        <f t="shared" si="94"/>
+        <v>12.877114306910638</v>
       </c>
       <c r="BD28" s="14">
-        <f t="shared" si="96"/>
-        <v>7.3909521221688648</v>
+        <f t="shared" si="94"/>
+        <v>13.523302171806797</v>
       </c>
       <c r="BE28" s="14">
-        <f t="shared" si="96"/>
-        <v>7.8215971148018406</v>
+        <f t="shared" si="94"/>
+        <v>14.20108087144018</v>
       </c>
       <c r="BF28" s="14">
-        <f t="shared" si="96"/>
-        <v>8.2753997211572514</v>
+        <f t="shared" si="94"/>
+        <v>14.911976673188118</v>
       </c>
       <c r="BG28" s="14">
-        <f t="shared" si="96"/>
-        <v>8.7535582805437517</v>
+        <f t="shared" si="94"/>
+        <v>15.65758928374146</v>
       </c>
       <c r="BH28" s="14">
-        <f t="shared" si="96"/>
-        <v>9.2573319309020761</v>
+        <f t="shared" si="94"/>
+        <v>16.439595383528655</v>
       </c>
     </row>
     <row r="29" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4868,651 +4875,689 @@
         <v>15744.231</v>
       </c>
       <c r="AR29" s="2">
-        <f t="shared" ref="AR29:BH29" si="97">+AQ29</f>
+        <f t="shared" ref="AR29:BH29" si="95">+AQ29</f>
         <v>15744.231</v>
       </c>
       <c r="AS29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="AT29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="AU29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="AV29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="AW29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="AX29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="AY29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="AZ29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="BA29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="BB29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="BC29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="BD29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="BE29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="BF29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="BG29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
       <c r="BH29" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>15744.231</v>
       </c>
     </row>
-    <row r="31" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15">
-        <f>O15/K15-1</f>
-        <v>0.21368126422635836</v>
-      </c>
-      <c r="P31" s="15">
-        <f t="shared" ref="P31" si="98">P15/L15-1</f>
-        <v>0.53626121105070901</v>
-      </c>
-      <c r="Q31" s="15">
-        <f t="shared" ref="Q31" si="99">Q15/M15-1</f>
-        <v>0.36439641450950822</v>
-      </c>
-      <c r="R31" s="15">
-        <f t="shared" ref="R31" si="100">R15/N15-1</f>
-        <v>0.28844786546724777</v>
-      </c>
-      <c r="S31" s="15">
-        <f>S15/O15-1</f>
-        <v>0.11222283042740866</v>
-      </c>
-      <c r="T31" s="15">
-        <f>T15/P15-1</f>
-        <v>8.5885872477228009E-2</v>
-      </c>
-      <c r="U31" s="15">
-        <f>U15/Q15-1</f>
-        <v>1.8726821720657316E-2</v>
-      </c>
-      <c r="V31" s="15">
-        <f t="shared" ref="V31:Z31" si="101">V15/R15-1</f>
-        <v>8.1405950095969182E-2</v>
-      </c>
-      <c r="W31" s="15">
-        <f t="shared" si="101"/>
-        <v>-5.4790431239662762E-2</v>
-      </c>
-      <c r="X31" s="15">
-        <f t="shared" si="101"/>
-        <v>-2.4455683710602583E-2</v>
-      </c>
-      <c r="Y31" s="15">
-        <f t="shared" si="101"/>
-        <v>-1.4006919080509661E-2</v>
-      </c>
-      <c r="Z31" s="15">
-        <f t="shared" si="101"/>
-        <v>-7.8872052004526072E-3</v>
-      </c>
-      <c r="AI31" s="15">
-        <f t="shared" ref="AI31:AL31" si="102">+AI15/AH15-1</f>
-        <v>0.27856341803659834</v>
-      </c>
-      <c r="AJ31" s="15">
-        <f t="shared" si="102"/>
-        <v>-7.7342061913013738E-2</v>
-      </c>
-      <c r="AK31" s="15">
-        <f t="shared" si="102"/>
-        <v>6.304518199398057E-2</v>
-      </c>
-      <c r="AL31" s="15">
-        <f t="shared" si="102"/>
-        <v>0.15861957650261305</v>
-      </c>
-      <c r="AM31" s="15">
-        <f>+AM15/AL15-1</f>
-        <v>-2.04107758052674E-2</v>
-      </c>
-      <c r="AN31" s="15">
-        <f>+AN15/AM15-1</f>
-        <v>5.5120803769784787E-2</v>
-      </c>
-      <c r="AO31" s="15">
-        <f t="shared" ref="AO31:BH31" si="103">+AO15/AN15-1</f>
-        <v>0.33259384733074704</v>
-      </c>
-      <c r="AP31" s="15">
-        <f t="shared" si="103"/>
-        <v>7.7937876041846099E-2</v>
-      </c>
-      <c r="AQ31" s="15">
-        <f t="shared" si="103"/>
-        <v>-2.800460530319937E-2</v>
-      </c>
-      <c r="AR31" s="15">
-        <f t="shared" si="103"/>
-        <v>-0.4775094511916721</v>
-      </c>
-      <c r="AS31" s="15">
-        <f t="shared" si="103"/>
-        <v>9.8523901020254545E-2</v>
-      </c>
-      <c r="AT31" s="15">
-        <f t="shared" si="103"/>
-        <v>7.5314435406812708E-2</v>
-      </c>
-      <c r="AU31" s="15">
-        <f t="shared" si="103"/>
-        <v>7.5997262511349861E-2</v>
-      </c>
-      <c r="AV31" s="15">
-        <f t="shared" si="103"/>
-        <v>7.6673109470160039E-2</v>
-      </c>
-      <c r="AW31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.9979588534013741E-2</v>
-      </c>
-      <c r="AX31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.8534573071935316E-2</v>
-      </c>
-      <c r="AY31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.8575704822987786E-2</v>
-      </c>
-      <c r="AZ31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.8616875374160928E-2</v>
-      </c>
-      <c r="BA31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.8658083547379105E-2</v>
-      </c>
-      <c r="BB31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.8699328162673972E-2</v>
-      </c>
-      <c r="BC31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.7124619634729026E-2</v>
-      </c>
-      <c r="BD31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.7144183678037521E-2</v>
-      </c>
-      <c r="BE31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.7163667600760517E-2</v>
-      </c>
-      <c r="BF31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.7183071007450561E-2</v>
-      </c>
-      <c r="BG31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.7202393513263274E-2</v>
-      </c>
-      <c r="BH31" s="15">
-        <f t="shared" si="103"/>
-        <v>4.7221634743934038E-2</v>
+    <row r="31" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15">
-        <f t="shared" ref="O32:U32" si="104">+O5/K5-1</f>
-        <v>0.1722751398395197</v>
+        <f>O15/K15-1</f>
+        <v>0.21368126422635836</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" si="104"/>
-        <v>0.65520336993301576</v>
+        <f t="shared" ref="P32" si="96">P15/L15-1</f>
+        <v>0.53626121105070901</v>
       </c>
       <c r="Q32" s="15">
-        <f t="shared" si="104"/>
-        <v>0.49784238019532134</v>
+        <f t="shared" ref="Q32" si="97">Q15/M15-1</f>
+        <v>0.36439641450950822</v>
       </c>
       <c r="R32" s="15">
-        <f t="shared" si="104"/>
-        <v>0.46982302223566785</v>
+        <f t="shared" ref="R32" si="98">R15/N15-1</f>
+        <v>0.28844786546724777</v>
       </c>
       <c r="S32" s="15">
-        <f t="shared" si="104"/>
-        <v>9.1940180191167231E-2</v>
+        <f>S15/O15-1</f>
+        <v>0.11222283042740866</v>
       </c>
       <c r="T32" s="15">
-        <f t="shared" si="104"/>
-        <v>5.4904251324627618E-2</v>
+        <f>T15/P15-1</f>
+        <v>8.5885872477228009E-2</v>
       </c>
       <c r="U32" s="15">
-        <f t="shared" si="104"/>
-        <v>2.7672479150871787E-2</v>
+        <f>U15/Q15-1</f>
+        <v>1.8726821720657316E-2</v>
       </c>
       <c r="V32" s="15">
-        <f t="shared" ref="V32" si="105">+V5/R5-1</f>
-        <v>9.6686220026757308E-2</v>
+        <f t="shared" ref="V32:Z32" si="99">V15/R15-1</f>
+        <v>8.1405950095969182E-2</v>
       </c>
       <c r="W32" s="15">
-        <f t="shared" ref="W32" si="106">+W5/S5-1</f>
-        <v>-8.1713854917071505E-2</v>
+        <f t="shared" si="99"/>
+        <v>-5.4790431239662762E-2</v>
       </c>
       <c r="X32" s="15">
-        <f t="shared" ref="X32" si="107">+X5/T5-1</f>
-        <v>1.510777140597197E-2</v>
+        <f t="shared" si="99"/>
+        <v>-2.4455683710602583E-2</v>
       </c>
       <c r="Y32" s="15">
-        <f t="shared" ref="Y32" si="108">+Y5/U5-1</f>
-        <v>-2.4492807082257428E-2</v>
+        <f t="shared" si="99"/>
+        <v>-1.4006919080509661E-2</v>
       </c>
       <c r="Z32" s="15">
-        <f t="shared" ref="Z32" si="109">+Z5/V5-1</f>
-        <v>2.7659175151315996E-2</v>
-      </c>
-      <c r="AJ32" s="15"/>
+        <f t="shared" si="99"/>
+        <v>-7.8872052004526072E-3</v>
+      </c>
+      <c r="AI32" s="15">
+        <f t="shared" ref="AI32:AL32" si="100">+AI15/AH15-1</f>
+        <v>0.27856341803659834</v>
+      </c>
+      <c r="AJ32" s="15">
+        <f t="shared" si="100"/>
+        <v>-7.7342061913013738E-2</v>
+      </c>
       <c r="AK32" s="15">
-        <f t="shared" ref="AK32:AP32" si="110">+AK5/AJ5-1</f>
-        <v>3.3789319678127372E-2</v>
+        <f t="shared" si="100"/>
+        <v>6.304518199398057E-2</v>
       </c>
       <c r="AL32" s="15">
-        <f t="shared" si="110"/>
-        <v>0.16677870633106662</v>
+        <f t="shared" si="100"/>
+        <v>0.15861957650261305</v>
       </c>
       <c r="AM32" s="15">
-        <f t="shared" si="110"/>
-        <v>-0.13649871427878313</v>
+        <f>+AM15/AL15-1</f>
+        <v>-2.04107758052674E-2</v>
       </c>
       <c r="AN32" s="15">
-        <f t="shared" si="110"/>
-        <v>-3.2307681502447672E-2</v>
+        <f>+AN15/AM15-1</f>
+        <v>5.5120803769784787E-2</v>
       </c>
       <c r="AO32" s="15">
-        <f t="shared" si="110"/>
-        <v>0.39331983364905176</v>
+        <f t="shared" ref="AO32:BH32" si="101">+AO15/AN15-1</f>
+        <v>0.33259384733074704</v>
       </c>
       <c r="AP32" s="15">
-        <f t="shared" si="110"/>
-        <v>7.0405734139696641E-2</v>
+        <f t="shared" si="101"/>
+        <v>7.7937876041846099E-2</v>
       </c>
       <c r="AQ32" s="15">
-        <f t="shared" ref="AQ32:BH32" si="111">+AQ5/AP5-1</f>
-        <v>-2.3874757286278081E-2</v>
+        <f t="shared" si="101"/>
+        <v>-2.800460530319937E-2</v>
       </c>
       <c r="AR32" s="15">
-        <f t="shared" si="111"/>
-        <v>-1</v>
-      </c>
-      <c r="AS32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AV32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BE32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BF32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BG32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH32" s="15" t="e">
-        <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="101"/>
+        <v>6.6906570567593304E-2</v>
+      </c>
+      <c r="AS32" s="15">
+        <f t="shared" si="101"/>
+        <v>6.8813685112699474E-2</v>
+      </c>
+      <c r="AT32" s="15">
+        <f t="shared" si="101"/>
+        <v>5.7924089182223915E-2</v>
+      </c>
+      <c r="AU32" s="15">
+        <f t="shared" si="101"/>
+        <v>5.8563139506884854E-2</v>
+      </c>
+      <c r="AV32" s="15">
+        <f t="shared" si="101"/>
+        <v>5.9215392282128798E-2</v>
+      </c>
+      <c r="AW32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.541671706077377E-2</v>
+      </c>
+      <c r="AX32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.4671867687218203E-2</v>
+      </c>
+      <c r="AY32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.4709951053400809E-2</v>
+      </c>
+      <c r="AZ32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.4748289364149096E-2</v>
+      </c>
+      <c r="BA32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.4786882728338195E-2</v>
+      </c>
+      <c r="BB32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.4825731217930764E-2</v>
+      </c>
+      <c r="BC32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.3990878847100179E-2</v>
+      </c>
+      <c r="BD32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.4012570086041647E-2</v>
+      </c>
+      <c r="BE32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.4034306881106433E-2</v>
+      </c>
+      <c r="BF32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.4056088422805173E-2</v>
+      </c>
+      <c r="BG32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.4077913894385201E-2</v>
+      </c>
+      <c r="BH32" s="15">
+        <f t="shared" si="101"/>
+        <v>4.4099782471941573E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:42" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15">
+        <f t="shared" ref="O33:U33" si="102">+O5/K5-1</f>
+        <v>0.1722751398395197</v>
+      </c>
+      <c r="P33" s="15">
+        <f t="shared" si="102"/>
+        <v>0.65520336993301576</v>
+      </c>
+      <c r="Q33" s="15">
+        <f t="shared" si="102"/>
+        <v>0.49784238019532134</v>
+      </c>
+      <c r="R33" s="15">
+        <f t="shared" si="102"/>
+        <v>0.46982302223566785</v>
+      </c>
+      <c r="S33" s="15">
+        <f t="shared" si="102"/>
+        <v>9.1940180191167231E-2</v>
+      </c>
+      <c r="T33" s="15">
+        <f t="shared" si="102"/>
+        <v>5.4904251324627618E-2</v>
+      </c>
+      <c r="U33" s="15">
+        <f t="shared" si="102"/>
+        <v>2.7672479150871787E-2</v>
+      </c>
+      <c r="V33" s="15">
+        <f t="shared" ref="V33" si="103">+V5/R5-1</f>
+        <v>9.6686220026757308E-2</v>
+      </c>
+      <c r="W33" s="15">
+        <f t="shared" ref="W33" si="104">+W5/S5-1</f>
+        <v>-8.1713854917071505E-2</v>
+      </c>
+      <c r="X33" s="15">
+        <f t="shared" ref="X33" si="105">+X5/T5-1</f>
+        <v>1.510777140597197E-2</v>
+      </c>
+      <c r="Y33" s="15">
+        <f t="shared" ref="Y33" si="106">+Y5/U5-1</f>
+        <v>-2.4492807082257428E-2</v>
+      </c>
+      <c r="Z33" s="15">
+        <f t="shared" ref="Z33" si="107">+Z5/V5-1</f>
+        <v>2.7659175151315996E-2</v>
+      </c>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15">
+        <f t="shared" ref="AK33:AP33" si="108">+AK5/AJ5-1</f>
+        <v>3.3789319678127372E-2</v>
+      </c>
+      <c r="AL33" s="15">
+        <f t="shared" si="108"/>
+        <v>0.16677870633106662</v>
+      </c>
+      <c r="AM33" s="15">
+        <f t="shared" si="108"/>
+        <v>-0.13649871427878313</v>
+      </c>
+      <c r="AN33" s="15">
+        <f t="shared" si="108"/>
+        <v>-3.2307681502447672E-2</v>
+      </c>
+      <c r="AO33" s="15">
+        <f t="shared" si="108"/>
+        <v>0.39331983364905176</v>
+      </c>
+      <c r="AP33" s="15">
+        <f t="shared" si="108"/>
+        <v>7.0405734139696641E-2</v>
+      </c>
+      <c r="AQ33" s="15">
+        <f t="shared" ref="AQ33:BH33" si="109">+AQ5/AP5-1</f>
+        <v>-2.3874757286278081E-2</v>
+      </c>
+      <c r="AR33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="AS33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="AT33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="AU33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="AV33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="AW33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000225E-2</v>
+      </c>
+      <c r="AX33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="AY33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="AZ33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="BA33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="BB33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="BC33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="BD33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="BE33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="BF33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="BG33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000225E-2</v>
+      </c>
+      <c r="BH33" s="15">
+        <f t="shared" si="109"/>
+        <v>4.0300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15">
         <f>+O14/K14-1</f>
         <v>0.23955957530475813</v>
       </c>
-      <c r="P33" s="15">
-        <f t="shared" ref="P33:U33" si="112">+P14/L14-1</f>
+      <c r="P34" s="15">
+        <f t="shared" ref="P34:U34" si="110">+P14/L14-1</f>
         <v>0.26618219958046141</v>
       </c>
-      <c r="Q33" s="15">
-        <f t="shared" si="112"/>
+      <c r="Q34" s="15">
+        <f t="shared" si="110"/>
         <v>0.32912739434478566</v>
       </c>
-      <c r="R33" s="15">
-        <f t="shared" si="112"/>
+      <c r="R34" s="15">
+        <f t="shared" si="110"/>
         <v>0.25623754209911342</v>
       </c>
-      <c r="S33" s="15">
-        <f t="shared" si="112"/>
+      <c r="S34" s="15">
+        <f t="shared" si="110"/>
         <v>0.23824630416851722</v>
       </c>
-      <c r="T33" s="15">
-        <f t="shared" si="112"/>
+      <c r="T34" s="15">
+        <f t="shared" si="110"/>
         <v>0.17277084196201398</v>
       </c>
-      <c r="U33" s="15">
-        <f t="shared" si="112"/>
+      <c r="U34" s="15">
+        <f t="shared" si="110"/>
         <v>0.12112547180601618</v>
       </c>
-      <c r="V33" s="15">
-        <f t="shared" ref="V33" si="113">+V14/R14-1</f>
+      <c r="V34" s="15">
+        <f t="shared" ref="V34" si="111">+V14/R14-1</f>
         <v>4.984406631285232E-2</v>
       </c>
-      <c r="W33" s="15">
-        <f t="shared" ref="W33" si="114">+W14/S14-1</f>
+      <c r="W34" s="15">
+        <f t="shared" ref="W34" si="112">+W14/S14-1</f>
         <v>6.4050010248001721E-2</v>
       </c>
-      <c r="X33" s="15">
-        <f t="shared" ref="X33" si="115">+X14/T14-1</f>
+      <c r="X34" s="15">
+        <f t="shared" ref="X34" si="113">+X14/T14-1</f>
         <v>5.7968820947480015E-2</v>
       </c>
-      <c r="Y33" s="15">
-        <f t="shared" ref="Y33" si="116">+Y14/U14-1</f>
+      <c r="Y34" s="15">
+        <f t="shared" ref="Y34" si="114">+Y14/U14-1</f>
         <v>8.2075086716996593E-2</v>
       </c>
-      <c r="Z33" s="15">
-        <f t="shared" ref="Z33" si="117">+Z14/V14-1</f>
+      <c r="Z34" s="15">
+        <f t="shared" ref="Z34" si="115">+Z14/V14-1</f>
         <v>0.15963101938711688</v>
       </c>
-      <c r="AM33" s="15">
+      <c r="AM34" s="15">
         <f>+AM14/AL14-1</f>
         <v>0.16461205595250084</v>
       </c>
-      <c r="AN33" s="15">
-        <f t="shared" ref="AN33:AP33" si="118">+AN14/AM14-1</f>
+      <c r="AN34" s="15">
+        <f t="shared" ref="AN34:AQ34" si="116">+AN14/AM14-1</f>
         <v>0.16152167807997242</v>
       </c>
-      <c r="AO33" s="15">
-        <f t="shared" si="118"/>
+      <c r="AO34" s="15">
+        <f t="shared" si="116"/>
         <v>0.27259708376729663</v>
       </c>
-      <c r="AP33" s="15">
-        <f t="shared" si="118"/>
+      <c r="AP34" s="15">
+        <f t="shared" si="116"/>
         <v>0.14181951041286078</v>
       </c>
+      <c r="AQ34" s="15">
+        <f t="shared" si="116"/>
+        <v>9.0504166186691215E-2</v>
+      </c>
+      <c r="AR34" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="AS34" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT34" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="AU34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AV34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AW34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AX34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AY34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AZ34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="BA34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="BB34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="BC34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="BD34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="BE34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="BF34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="BG34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="BH34" s="15">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6">
-        <f t="shared" ref="E34" si="119">+E19/E15</f>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
+        <f t="shared" ref="E35" si="117">+E19/E15</f>
         <v>0.38338496198254013</v>
       </c>
-      <c r="K34" s="6">
-        <f t="shared" ref="K34" si="120">+K19/K15</f>
+      <c r="K35" s="6">
+        <f t="shared" ref="K35" si="118">+K19/K15</f>
         <v>0.38354806739345887</v>
       </c>
-      <c r="L34" s="6">
-        <f t="shared" ref="L34:N34" si="121">+L19/L15</f>
+      <c r="L35" s="6">
+        <f t="shared" ref="L35:N35" si="119">+L19/L15</f>
         <v>0.38361943305952362</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" si="121"/>
+      <c r="M35" s="6">
+        <f t="shared" si="119"/>
         <v>0.37999497361146017</v>
       </c>
-      <c r="N34" s="6">
-        <f t="shared" si="121"/>
+      <c r="N35" s="6">
+        <f t="shared" si="119"/>
         <v>0.38160375900336951</v>
       </c>
-      <c r="O34" s="6">
-        <f t="shared" ref="O34:Q34" si="122">+O19/O15</f>
+      <c r="O35" s="6">
+        <f t="shared" ref="O35:Q35" si="120">+O19/O15</f>
         <v>0.39777815665969724</v>
       </c>
-      <c r="P34" s="6">
-        <f t="shared" si="122"/>
+      <c r="P35" s="6">
+        <f t="shared" si="120"/>
         <v>0.42506474370423292</v>
       </c>
-      <c r="Q34" s="6">
-        <f t="shared" si="122"/>
+      <c r="Q35" s="6">
+        <f t="shared" si="120"/>
         <v>0.43292727853230839</v>
       </c>
-      <c r="R34" s="6">
-        <f t="shared" ref="R34" si="123">+R19/R15</f>
+      <c r="R35" s="6">
+        <f t="shared" ref="R35" si="121">+R19/R15</f>
         <v>0.42195297504798462</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S35" s="6">
         <f>+S19/S15</f>
         <v>0.43763766186615033</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T35" s="6">
         <f>+T19/T15</f>
         <v>0.43749871502292398</v>
       </c>
-      <c r="U34" s="6">
+      <c r="U35" s="6">
         <f>+U19/U15</f>
         <v>0.43256307332537758</v>
       </c>
-      <c r="V34" s="6">
-        <f t="shared" ref="V34:Z34" si="124">+V19/V15</f>
+      <c r="V35" s="6">
+        <f t="shared" ref="V35:Z35" si="122">+V19/V15</f>
         <v>0.4225922392563175</v>
       </c>
-      <c r="W34" s="6">
+      <c r="W35" s="6">
+        <f t="shared" si="122"/>
+        <v>0.42962254809908323</v>
+      </c>
+      <c r="X35" s="6">
+        <f t="shared" si="122"/>
+        <v>0.4429867543388234</v>
+      </c>
+      <c r="Y35" s="6">
+        <f t="shared" si="122"/>
+        <v>0.44516302553883397</v>
+      </c>
+      <c r="Z35" s="6">
+        <f t="shared" si="122"/>
+        <v>0.45132218929949125</v>
+      </c>
+      <c r="AL35" s="6">
+        <f t="shared" ref="AL35:AP35" si="123">+AL19/AL15</f>
+        <v>0.38343718820007905</v>
+      </c>
+      <c r="AM35" s="6">
+        <f t="shared" si="123"/>
+        <v>0.37817768109034722</v>
+      </c>
+      <c r="AN35" s="6">
+        <f t="shared" si="123"/>
+        <v>0.38233247727810865</v>
+      </c>
+      <c r="AO35" s="6">
+        <f t="shared" si="123"/>
+        <v>0.41779359625167778</v>
+      </c>
+      <c r="AP35" s="6">
+        <f t="shared" si="123"/>
+        <v>0.43309630561360085</v>
+      </c>
+      <c r="AQ35" s="6">
+        <f t="shared" ref="AQ35:BH35" si="124">+AQ19/AQ15</f>
+        <v>0.44131129577207562</v>
+      </c>
+      <c r="AR35" s="6">
         <f t="shared" si="124"/>
-        <v>0.42962254809908323</v>
-      </c>
-      <c r="X34" s="6">
+        <v>0.44865249161322657</v>
+      </c>
+      <c r="AS35" s="6">
         <f t="shared" si="124"/>
-        <v>0.4429867543388234</v>
-      </c>
-      <c r="Y34" s="6">
+        <v>0.45538647079023931</v>
+      </c>
+      <c r="AT35" s="6">
         <f t="shared" si="124"/>
-        <v>0.44516302553883397</v>
-      </c>
-      <c r="Z34" s="6">
+        <v>0.45918019538658061</v>
+      </c>
+      <c r="AU35" s="6">
         <f t="shared" si="124"/>
-        <v>0.45132218929949125</v>
-      </c>
-      <c r="AL34" s="6">
-        <f t="shared" ref="AL34:AP34" si="125">+AL19/AL15</f>
-        <v>0.38343718820007905</v>
-      </c>
-      <c r="AM34" s="6">
-        <f t="shared" si="125"/>
-        <v>0.37817768109034722</v>
-      </c>
-      <c r="AN34" s="6">
-        <f t="shared" si="125"/>
-        <v>0.38233247727810865</v>
-      </c>
-      <c r="AO34" s="6">
-        <f t="shared" si="125"/>
-        <v>0.41779359625167778</v>
-      </c>
-      <c r="AP34" s="6">
-        <f t="shared" si="125"/>
-        <v>0.43309630561360085</v>
+        <v>0.46306254851841938</v>
+      </c>
+      <c r="AV35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.4670309251511186</v>
+      </c>
+      <c r="AW35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.46750016675134271</v>
+      </c>
+      <c r="AX35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.46804844906832077</v>
+      </c>
+      <c r="AY35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.46859556894939325</v>
+      </c>
+      <c r="AZ35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.46914145403029139</v>
+      </c>
+      <c r="BA35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.46968603131056308</v>
+      </c>
+      <c r="BB35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.47022922716675397</v>
+      </c>
+      <c r="BC35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.47086369705921816</v>
+      </c>
+      <c r="BD35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.47149950225463799</v>
+      </c>
+      <c r="BE35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.47213661907060511</v>
+      </c>
+      <c r="BF35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.47277502361200113</v>
+      </c>
+      <c r="BG35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.47341469177421891</v>
+      </c>
+      <c r="BH35" s="6">
+        <f t="shared" si="124"/>
+        <v>0.47405559924645424</v>
       </c>
     </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="6">
-        <f>(K14-K17)/K14</f>
-        <v>0.64396382225717652</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" ref="L35:U35" si="126">(L14-L17)/L14</f>
-        <v>0.65373089601438417</v>
-      </c>
-      <c r="M35" s="6">
-        <f t="shared" si="126"/>
-        <v>0.67224080267558528</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" si="126"/>
-        <v>0.66925561894288266</v>
-      </c>
-      <c r="O35" s="6">
-        <f t="shared" si="126"/>
-        <v>0.6839667533785927</v>
-      </c>
-      <c r="P35" s="6">
-        <f t="shared" si="126"/>
-        <v>0.70072776758771671</v>
-      </c>
-      <c r="Q35" s="6">
-        <f t="shared" si="126"/>
-        <v>0.69804414960539862</v>
-      </c>
-      <c r="R35" s="6">
-        <f t="shared" si="126"/>
-        <v>0.704765552333534</v>
-      </c>
-      <c r="S35" s="6">
-        <f t="shared" si="126"/>
-        <v>0.72366263578602175</v>
-      </c>
-      <c r="T35" s="6">
-        <f t="shared" si="126"/>
-        <v>0.72609858231168967</v>
-      </c>
-      <c r="U35" s="6">
-        <f t="shared" si="126"/>
-        <v>0.71490512140379514</v>
-      </c>
-      <c r="V35" s="6">
-        <f t="shared" ref="V35:Z35" si="127">(V14-V17)/V14</f>
-        <v>0.70481550969355844</v>
-      </c>
-      <c r="W35" s="6">
-        <f t="shared" si="127"/>
-        <v>0.70832129442357705</v>
-      </c>
-      <c r="X35" s="6">
-        <f t="shared" si="127"/>
-        <v>0.71077730090605629</v>
-      </c>
-      <c r="Y35" s="6">
-        <f t="shared" si="127"/>
-        <v>0.70546363079243857</v>
-      </c>
-      <c r="Z35" s="6">
-        <f t="shared" si="127"/>
-        <v>0.70855242461012991</v>
-      </c>
-      <c r="AL35" s="6">
-        <f t="shared" ref="AL35:AP35" si="128">(AL14-AL17)/AL14</f>
-        <v>0.60772869075173597</v>
-      </c>
-      <c r="AM35" s="6">
-        <f t="shared" si="128"/>
-        <v>0.63738091637683347</v>
-      </c>
-      <c r="AN35" s="6">
-        <f t="shared" si="128"/>
-        <v>0.66015101919357233</v>
-      </c>
-      <c r="AO35" s="6">
-        <f t="shared" si="128"/>
-        <v>0.69725977347460721</v>
-      </c>
-      <c r="AP35" s="6">
-        <f t="shared" si="128"/>
-        <v>0.71745446633132381</v>
-      </c>
-    </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -5520,238 +5565,387 @@
         <v>49</v>
       </c>
       <c r="K36" s="6">
+        <f>(K14-K17)/K14</f>
+        <v>0.64396382225717652</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" ref="L36:U36" si="125">(L14-L17)/L14</f>
+        <v>0.65373089601438417</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="125"/>
+        <v>0.67224080267558528</v>
+      </c>
+      <c r="N36" s="6">
+        <f t="shared" si="125"/>
+        <v>0.66925561894288266</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="125"/>
+        <v>0.6839667533785927</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="125"/>
+        <v>0.70072776758771671</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" si="125"/>
+        <v>0.69804414960539862</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" si="125"/>
+        <v>0.704765552333534</v>
+      </c>
+      <c r="S36" s="6">
+        <f t="shared" si="125"/>
+        <v>0.72366263578602175</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="125"/>
+        <v>0.72609858231168967</v>
+      </c>
+      <c r="U36" s="6">
+        <f t="shared" si="125"/>
+        <v>0.71490512140379514</v>
+      </c>
+      <c r="V36" s="6">
+        <f t="shared" ref="V36:Z36" si="126">(V14-V17)/V14</f>
+        <v>0.70481550969355844</v>
+      </c>
+      <c r="W36" s="6">
+        <f t="shared" si="126"/>
+        <v>0.70832129442357705</v>
+      </c>
+      <c r="X36" s="6">
+        <f t="shared" si="126"/>
+        <v>0.71077730090605629</v>
+      </c>
+      <c r="Y36" s="6">
+        <f t="shared" si="126"/>
+        <v>0.70546363079243857</v>
+      </c>
+      <c r="Z36" s="6">
+        <f t="shared" si="126"/>
+        <v>0.70855242461012991</v>
+      </c>
+      <c r="AL36" s="6">
+        <f t="shared" ref="AL36:AP36" si="127">(AL14-AL17)/AL14</f>
+        <v>0.60772869075173597</v>
+      </c>
+      <c r="AM36" s="6">
+        <f t="shared" si="127"/>
+        <v>0.63738091637683347</v>
+      </c>
+      <c r="AN36" s="6">
+        <f t="shared" si="127"/>
+        <v>0.66015101919357233</v>
+      </c>
+      <c r="AO36" s="6">
+        <f t="shared" si="127"/>
+        <v>0.69725977347460721</v>
+      </c>
+      <c r="AP36" s="6">
+        <f t="shared" si="127"/>
+        <v>0.71745446633132381</v>
+      </c>
+      <c r="AQ36" s="6">
+        <f t="shared" ref="AQ36" si="128">(AQ14-AQ17)/AQ14</f>
+        <v>0.70827464788732397</v>
+      </c>
+      <c r="AR36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="AS36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="AT36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="AU36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="AV36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="AW36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="AX36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="AY36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="AZ36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="BA36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="BB36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="BC36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="BD36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="BE36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="BF36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="BG36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="BH36" s="6">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="6">
         <f>(K13-K16)/K13</f>
         <v>0.3416894215210356</v>
       </c>
-      <c r="L36" s="6">
-        <f t="shared" ref="L36:U36" si="129">(L13-L16)/L13</f>
+      <c r="L37" s="6">
+        <f t="shared" ref="L37:U37" si="129">(L13-L16)/L13</f>
         <v>0.30343600578227509</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M37" s="6">
         <f t="shared" si="129"/>
         <v>0.29736293494379851</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N37" s="6">
         <f t="shared" si="129"/>
         <v>0.2981515085046561</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O37" s="6">
         <f t="shared" si="129"/>
         <v>0.35063441961579467</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P37" s="6">
         <f t="shared" si="129"/>
         <v>0.3609647372838215</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q37" s="6">
         <f t="shared" si="129"/>
         <v>0.36043347720022517</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R37" s="6">
         <f t="shared" si="129"/>
         <v>0.34253184395310604</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S37" s="6">
         <f t="shared" si="129"/>
         <v>0.38418446983117716</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T37" s="6">
         <f t="shared" si="129"/>
         <v>0.36364692668190091</v>
       </c>
-      <c r="U36" s="6">
+      <c r="U37" s="6">
         <f t="shared" si="129"/>
         <v>0.34519769552521506</v>
       </c>
-      <c r="V36" s="6">
-        <f t="shared" ref="V36:Z36" si="130">(V13-V16)/V13</f>
+      <c r="V37" s="6">
+        <f t="shared" ref="V37:Z37" si="130">(V13-V16)/V13</f>
         <v>0.34627526142224979</v>
       </c>
-      <c r="W36" s="6">
+      <c r="W37" s="6">
         <f t="shared" si="130"/>
         <v>0.36957920073038136</v>
       </c>
-      <c r="X36" s="6">
+      <c r="X37" s="6">
         <f t="shared" si="130"/>
         <v>0.36702782399329087</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="Y37" s="6">
         <f t="shared" si="130"/>
         <v>0.35402086359434837</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="Z37" s="6">
         <f t="shared" si="130"/>
         <v>0.36612884020004766</v>
       </c>
-      <c r="AL36" s="6">
-        <f t="shared" ref="AL36:AP36" si="131">(AL13-AL16)/AL13</f>
+      <c r="AL37" s="6">
+        <f t="shared" ref="AL37:AP37" si="131">(AL13-AL16)/AL13</f>
         <v>0.34396294836770025</v>
       </c>
-      <c r="AM36" s="6">
+      <c r="AM37" s="6">
         <f t="shared" si="131"/>
         <v>0.32207795851002652</v>
       </c>
-      <c r="AN36" s="6">
+      <c r="AN37" s="6">
         <f t="shared" si="131"/>
         <v>0.31466339293399231</v>
       </c>
-      <c r="AO36" s="6">
+      <c r="AO37" s="6">
         <f t="shared" si="131"/>
         <v>0.35349303276483562</v>
       </c>
-      <c r="AP36" s="6">
+      <c r="AP37" s="6">
         <f t="shared" si="131"/>
         <v>0.36283479707399452</v>
       </c>
     </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6">
-        <f t="shared" ref="E37" si="132">+E23/E15</f>
-        <v>0.23677837228949591</v>
-      </c>
-      <c r="K37" s="6">
-        <f t="shared" ref="K37" si="133">+K23/K15</f>
-        <v>0.2784717759940753</v>
-      </c>
-      <c r="L37" s="6">
-        <f t="shared" ref="L37:N37" si="134">+L23/L15</f>
-        <v>0.22041397287054346</v>
-      </c>
-      <c r="M37" s="6">
-        <f t="shared" si="134"/>
-        <v>0.21933484124989527</v>
-      </c>
-      <c r="N37" s="6">
-        <f t="shared" si="134"/>
-        <v>0.2283687285542057</v>
-      </c>
-      <c r="O37" s="6">
-        <f t="shared" ref="O37:Q37" si="135">+O23/O15</f>
-        <v>0.30091799100853384</v>
-      </c>
-      <c r="P37" s="6">
-        <f t="shared" si="135"/>
-        <v>0.30700794784782998</v>
-      </c>
-      <c r="Q37" s="6">
-        <f t="shared" si="135"/>
-        <v>0.29626445956234498</v>
-      </c>
-      <c r="R37" s="6">
-        <f t="shared" ref="R37" si="136">+R23/R15</f>
-        <v>0.28534069097888676</v>
-      </c>
-      <c r="S37" s="6">
-        <f>+S23/S15</f>
-        <v>0.33472911371979508</v>
-      </c>
-      <c r="T37" s="6">
-        <f>+T23/T15</f>
-        <v>0.30817862209338187</v>
-      </c>
-      <c r="U37" s="6">
-        <f>+U23/U15</f>
-        <v>0.27816150146457891</v>
-      </c>
-      <c r="V37" s="6"/>
-      <c r="AL37" s="6">
-        <f t="shared" ref="AL37:AP37" si="137">+AL23/AL15</f>
-        <v>0.26694026619477024</v>
-      </c>
-      <c r="AM37" s="6">
-        <f t="shared" si="137"/>
-        <v>0.24572017188496928</v>
-      </c>
-      <c r="AN37" s="6">
-        <f t="shared" si="137"/>
-        <v>0.24147314354406862</v>
-      </c>
-      <c r="AO37" s="6">
-        <f t="shared" si="137"/>
-        <v>0.29782377527561593</v>
-      </c>
-      <c r="AP37" s="6">
-        <f t="shared" si="137"/>
-        <v>0.30288744395528594</v>
-      </c>
-    </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6">
+        <f t="shared" ref="E38" si="132">+E23/E15</f>
+        <v>0.23677837228949591</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" ref="K38" si="133">+K23/K15</f>
+        <v>0.2784717759940753</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" ref="L38:N38" si="134">+L23/L15</f>
+        <v>0.22041397287054346</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="134"/>
+        <v>0.21933484124989527</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" si="134"/>
+        <v>0.2283687285542057</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" ref="O38:Q38" si="135">+O23/O15</f>
+        <v>0.30091799100853384</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="135"/>
+        <v>0.30700794784782998</v>
+      </c>
+      <c r="Q38" s="6">
+        <f t="shared" si="135"/>
+        <v>0.29626445956234498</v>
+      </c>
+      <c r="R38" s="6">
+        <f t="shared" ref="R38" si="136">+R23/R15</f>
+        <v>0.28534069097888676</v>
+      </c>
+      <c r="S38" s="6">
+        <f>+S23/S15</f>
+        <v>0.33472911371979508</v>
+      </c>
+      <c r="T38" s="6">
+        <f>+T23/T15</f>
+        <v>0.30817862209338187</v>
+      </c>
+      <c r="U38" s="6">
+        <f>+U23/U15</f>
+        <v>0.27816150146457891</v>
+      </c>
+      <c r="V38" s="6"/>
+      <c r="AL38" s="6">
+        <f t="shared" ref="AL38:AP38" si="137">+AL23/AL15</f>
+        <v>0.26694026619477024</v>
+      </c>
+      <c r="AM38" s="6">
+        <f t="shared" si="137"/>
+        <v>0.24572017188496928</v>
+      </c>
+      <c r="AN38" s="6">
+        <f t="shared" si="137"/>
+        <v>0.24147314354406862</v>
+      </c>
+      <c r="AO38" s="6">
+        <f t="shared" si="137"/>
+        <v>0.29782377527561593</v>
+      </c>
+      <c r="AP38" s="6">
+        <f t="shared" si="137"/>
+        <v>0.30288744395528594</v>
+      </c>
+    </row>
+    <row r="39" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
         <f>E26/E25</f>
         <v>0.13286660644384221</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K39" s="6">
         <f>K26/K25</f>
         <v>0.14206343082027933</v>
       </c>
-      <c r="L38" s="6">
-        <f t="shared" ref="L38:U38" si="138">L26/L25</f>
+      <c r="L39" s="6">
+        <f t="shared" ref="L39:U39" si="138">L26/L25</f>
         <v>0.14358583936048724</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M39" s="6">
         <f t="shared" si="138"/>
         <v>0.14341173783968944</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N39" s="6">
         <f t="shared" si="138"/>
         <v>0.14952016643178309</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O39" s="6">
         <f t="shared" si="138"/>
         <v>0.14366121683194855</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P39" s="6">
         <f t="shared" si="138"/>
         <v>0.1564028417407447</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q39" s="6">
         <f t="shared" si="138"/>
         <v>0.10771882309491568</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R39" s="6">
         <f t="shared" si="138"/>
         <v>0.11600997935306263</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S39" s="6">
         <f t="shared" si="138"/>
         <v>0.16030164157028201</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T39" s="6">
         <f t="shared" si="138"/>
         <v>0.17017817445834302</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U39" s="6">
         <f t="shared" si="138"/>
         <v>0.15711436746726784</v>
       </c>
-      <c r="V38" s="6"/>
-      <c r="AL38" s="6">
-        <f t="shared" ref="AL38:AP38" si="139">AL26/AL25</f>
+      <c r="V39" s="6"/>
+      <c r="AL39" s="6">
+        <f t="shared" ref="AL39:AP39" si="139">AL26/AL25</f>
         <v>0.18342180705869443</v>
       </c>
-      <c r="AM38" s="6">
+      <c r="AM39" s="6">
         <f t="shared" si="139"/>
         <v>0.15943836804235059</v>
       </c>
-      <c r="AN38" s="6">
+      <c r="AN39" s="6">
         <f t="shared" si="139"/>
         <v>0.14428164731484103</v>
       </c>
-      <c r="AO38" s="6">
+      <c r="AO39" s="6">
         <f t="shared" si="139"/>
         <v>0.13302260844085087</v>
       </c>
-      <c r="AP38" s="6">
+      <c r="AP39" s="6">
         <f t="shared" si="139"/>
         <v>0.16204461684424407</v>
       </c>
@@ -5866,7 +6060,7 @@
       </c>
       <c r="O12" s="2">
         <f>NPV(O10,Model!AQ27:FP27)+Main!O5-Main!O6</f>
-        <v>834698.1523954937</v>
+        <v>1494799.5871310632</v>
       </c>
     </row>
     <row r="13" spans="14:16" x14ac:dyDescent="0.2">
@@ -5875,7 +6069,7 @@
       </c>
       <c r="O13" s="5">
         <f>O12/Main!O3</f>
-        <v>51.938960441645399</v>
+        <v>93.013667756870561</v>
       </c>
     </row>
     <row r="14" spans="14:16" x14ac:dyDescent="0.2">
@@ -5884,7 +6078,7 @@
       </c>
       <c r="O14" s="6">
         <f>O13/Main!O2-1</f>
-        <v>-0.69453060964744218</v>
+        <v>-0.45295731484520052</v>
       </c>
     </row>
   </sheetData>

--- a/AAPL Model.xlsx
+++ b/AAPL Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C4227D-7F76-B948-9903-ABA5780CBE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B61180-9E68-2E4F-8A21-A983A6762F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33000" yWindow="3900" windowWidth="23940" windowHeight="14920" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="6300" yWindow="2140" windowWidth="23940" windowHeight="14920" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>

--- a/AAPL Model.xlsx
+++ b/AAPL Model.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B61180-9E68-2E4F-8A21-A983A6762F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0D3F3-7217-484A-8D7A-BA1B0E7D8EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2140" windowWidth="23940" windowHeight="14920" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
+    <workbookView xWindow="4040" yWindow="760" windowWidth="23940" windowHeight="14920" xr2:uid="{B6F3B1E3-62A6-41E2-953C-3DEF4B9ACA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
     <sheet name="Main" sheetId="1" r:id="rId2"/>
-    <sheet name="Valuation" sheetId="4" r:id="rId3"/>
-    <sheet name="iPhone" sheetId="3" r:id="rId4"/>
+    <sheet name="iPhone" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>Price</t>
   </si>
@@ -353,6 +352,21 @@
   </si>
   <si>
     <t>Drivers</t>
+  </si>
+  <si>
+    <t>1FQ2024E</t>
+  </si>
+  <si>
+    <t>2FQ2024E</t>
+  </si>
+  <si>
+    <t>3FQ2024E</t>
+  </si>
+  <si>
+    <t>4FQ2024E</t>
+  </si>
+  <si>
+    <t>NTM</t>
   </si>
 </sst>
 </file>
@@ -534,13 +548,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>37908</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>37908</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>82685</xdr:rowOff>
@@ -882,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EB6088-6F7F-4776-A4C2-8340505BB8E8}">
-  <dimension ref="A1:BH39"/>
+  <dimension ref="A1:BJ39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="AL15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="AO5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM27" sqref="AM27"/>
+      <selection pane="bottomRight" activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -901,26 +915,30 @@
     <col min="19" max="19" width="9.1640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="8.83203125" style="1"/>
     <col min="21" max="21" width="9.1640625" style="1" customWidth="1"/>
-    <col min="22" max="42" width="8.83203125" style="1"/>
-    <col min="43" max="43" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="59" width="8.83203125" style="1"/>
-    <col min="60" max="60" width="9.5" style="1" customWidth="1"/>
-    <col min="61" max="62" width="8.83203125" style="1"/>
-    <col min="63" max="63" width="10.83203125" style="1" customWidth="1"/>
-    <col min="64" max="16384" width="8.83203125" style="1"/>
+    <col min="22" max="26" width="8.83203125" style="1"/>
+    <col min="28" max="44" width="8.83203125" style="1"/>
+    <col min="45" max="45" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="61" width="8.83203125" style="1"/>
+    <col min="62" max="62" width="9.5" style="1" customWidth="1"/>
+    <col min="63" max="64" width="8.83203125" style="1"/>
+    <col min="65" max="65" width="10.83203125" style="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="AA2" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="C3" s="9">
         <v>43099</v>
@@ -1001,11 +1019,27 @@
         <v>45108</v>
       </c>
       <c r="Z3" s="9">
-        <f>+V3+370</f>
-        <v>45198</v>
+        <f>+V3+371</f>
+        <v>45199</v>
+      </c>
+      <c r="AA3" s="9">
+        <f>W3+365</f>
+        <v>45291</v>
+      </c>
+      <c r="AB3" s="9">
+        <f t="shared" ref="AB3:AE3" si="0">X3+365</f>
+        <v>45382</v>
+      </c>
+      <c r="AC3" s="9">
+        <f t="shared" si="0"/>
+        <v>45473</v>
+      </c>
+      <c r="AD3" s="9">
+        <f>Z3+366</f>
+        <v>45565</v>
       </c>
     </row>
-    <row r="4" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
@@ -1078,89 +1112,101 @@
       <c r="Z4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AY4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="BA4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="BB4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BC4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BD4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BF4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BG4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BH4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BI4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BJ4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1211,7 +1257,7 @@
         <v>40665</v>
       </c>
       <c r="V5" s="10">
-        <f>AP5-U5-T5-S5</f>
+        <f>AR5-U5-T5-S5</f>
         <v>42626</v>
       </c>
       <c r="W5" s="10">
@@ -1224,105 +1270,105 @@
         <v>39669</v>
       </c>
       <c r="Z5" s="10">
-        <f>AQ5-Y5-X5-W5</f>
+        <f>AS5-Y5-X5-W5</f>
         <v>43805</v>
       </c>
-      <c r="AJ5" s="10">
+      <c r="AL5" s="10">
         <v>136700</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AM5" s="10">
         <v>141319</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AN5" s="10">
         <v>164888</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AO5" s="10">
         <v>142381</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AP5" s="10">
         <f>SUM(K5:N5)</f>
         <v>137781</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AQ5" s="10">
         <f>SUM(O5:R5)</f>
         <v>191973</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AR5" s="10">
         <v>205489</v>
       </c>
-      <c r="AQ5" s="10">
+      <c r="AS5" s="10">
         <v>200583</v>
       </c>
-      <c r="AR5" s="10">
-        <f>+AR6*AR7/1000</f>
+      <c r="AT5" s="10">
+        <f>+AT6*AT7/1000</f>
         <v>208666.49490000002</v>
       </c>
-      <c r="AS5" s="10">
-        <f t="shared" ref="AS5:BH5" si="0">+AS6*AS7/1000</f>
+      <c r="AU5" s="10">
+        <f t="shared" ref="AU5:BJ5" si="1">+AU6*AU7/1000</f>
         <v>217075.75464447003</v>
       </c>
-      <c r="AT5" s="10">
-        <f t="shared" si="0"/>
+      <c r="AV5" s="10">
+        <f t="shared" si="1"/>
         <v>225823.90755664217</v>
       </c>
-      <c r="AU5" s="10">
-        <f t="shared" si="0"/>
+      <c r="AW5" s="10">
+        <f t="shared" si="1"/>
         <v>234924.61103117486</v>
       </c>
-      <c r="AV5" s="10">
-        <f t="shared" si="0"/>
+      <c r="AX5" s="10">
+        <f t="shared" si="1"/>
         <v>244392.07285573121</v>
       </c>
-      <c r="AW5" s="10">
-        <f t="shared" si="0"/>
+      <c r="AY5" s="10">
+        <f t="shared" si="1"/>
         <v>254241.07339181722</v>
       </c>
-      <c r="AX5" s="10">
-        <f t="shared" si="0"/>
+      <c r="AZ5" s="10">
+        <f t="shared" si="1"/>
         <v>264486.98864950746</v>
       </c>
-      <c r="AY5" s="10">
-        <f t="shared" si="0"/>
+      <c r="BA5" s="10">
+        <f t="shared" si="1"/>
         <v>275145.81429208262</v>
       </c>
-      <c r="AZ5" s="10">
-        <f t="shared" si="0"/>
+      <c r="BB5" s="10">
+        <f t="shared" si="1"/>
         <v>286234.19060805353</v>
       </c>
-      <c r="BA5" s="10">
-        <f t="shared" si="0"/>
+      <c r="BC5" s="10">
+        <f t="shared" si="1"/>
         <v>297769.42848955811</v>
       </c>
-      <c r="BB5" s="10">
-        <f t="shared" si="0"/>
+      <c r="BD5" s="10">
+        <f t="shared" si="1"/>
         <v>309769.53645768733</v>
       </c>
-      <c r="BC5" s="10">
-        <f t="shared" si="0"/>
+      <c r="BE5" s="10">
+        <f t="shared" si="1"/>
         <v>322253.24877693213</v>
       </c>
-      <c r="BD5" s="10">
-        <f t="shared" si="0"/>
+      <c r="BF5" s="10">
+        <f t="shared" si="1"/>
         <v>335240.05470264249</v>
       </c>
-      <c r="BE5" s="10">
-        <f t="shared" si="0"/>
+      <c r="BG5" s="10">
+        <f t="shared" si="1"/>
         <v>348750.22890715901</v>
       </c>
-      <c r="BF5" s="10">
-        <f t="shared" si="0"/>
+      <c r="BH5" s="10">
+        <f t="shared" si="1"/>
         <v>362804.86313211749</v>
       </c>
-      <c r="BG5" s="10">
-        <f t="shared" si="0"/>
+      <c r="BI5" s="10">
+        <f t="shared" si="1"/>
         <v>377425.8991163419</v>
       </c>
-      <c r="BH5" s="10">
-        <f t="shared" si="0"/>
+      <c r="BJ5" s="10">
+        <f t="shared" si="1"/>
         <v>392636.16285073047</v>
       </c>
     </row>
-    <row r="6" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
@@ -1368,143 +1414,143 @@
         <v>75139.747995418104</v>
       </c>
       <c r="P6" s="10">
-        <f t="shared" ref="P6:U6" si="1">P5/P7*1000</f>
+        <f t="shared" ref="P6:U6" si="2">P5/P7*1000</f>
         <v>56597.402597402601</v>
       </c>
       <c r="Q6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45535.097813578832</v>
       </c>
       <c r="R6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44934.10404624277</v>
       </c>
       <c r="S6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75477.344573234994</v>
       </c>
       <c r="T6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57335.600907029482</v>
       </c>
       <c r="U6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42625.786163522018</v>
       </c>
       <c r="V6" s="10">
-        <f t="shared" ref="V6" si="2">V5/V7*1000</f>
+        <f t="shared" ref="V6" si="3">V5/V7*1000</f>
         <v>44541.274817136888</v>
       </c>
       <c r="W6" s="10">
-        <f t="shared" ref="W6" si="3">W5/W7*1000</f>
+        <f t="shared" ref="W6" si="4">W5/W7*1000</f>
         <v>67669.753086419747</v>
       </c>
       <c r="X6" s="10">
-        <f t="shared" ref="X6" si="4">X5/X7*1000</f>
+        <f t="shared" ref="X6" si="5">X5/X7*1000</f>
         <v>51957.48987854251</v>
       </c>
       <c r="Y6" s="10">
-        <f t="shared" ref="Y6" si="5">Y5/Y7*1000</f>
+        <f t="shared" ref="Y6" si="6">Y5/Y7*1000</f>
         <v>40370.641753678938</v>
       </c>
       <c r="Z6" s="10">
-        <f t="shared" ref="Z6" si="6">Z5/Z7*1000</f>
+        <f t="shared" ref="Z6" si="7">Z5/Z7*1000</f>
         <v>44440.048290065031</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AN6" s="10">
         <f>SUM(C6:F6)</f>
         <v>217722</v>
       </c>
-      <c r="AM6" s="10">
+      <c r="AO6" s="10">
         <f>SUM(G6:J6)</f>
         <v>185200</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AP6" s="10">
         <f>SUM(K6:N6)</f>
         <v>189800</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AQ6" s="10">
         <f>SUM(O6:R6)</f>
         <v>222206.35245264234</v>
       </c>
-      <c r="AP6" s="10">
+      <c r="AR6" s="10">
         <f>SUM(S6:V6)</f>
         <v>219980.00646092341</v>
       </c>
-      <c r="AQ6" s="10">
+      <c r="AS6" s="10">
         <f>SUM(W6:Z6)</f>
         <v>204437.93300870623</v>
       </c>
-      <c r="AR6" s="10">
-        <f t="shared" ref="AR6:BH6" si="7">+AQ6*1.01</f>
+      <c r="AT6" s="10">
+        <f t="shared" ref="AT6:BJ6" si="8">+AS6*1.01</f>
         <v>206482.3123387933</v>
       </c>
-      <c r="AS6" s="10">
-        <f t="shared" si="7"/>
+      <c r="AU6" s="10">
+        <f t="shared" si="8"/>
         <v>208547.13546218124</v>
       </c>
-      <c r="AT6" s="10">
-        <f t="shared" si="7"/>
+      <c r="AV6" s="10">
+        <f t="shared" si="8"/>
         <v>210632.60681680305</v>
       </c>
-      <c r="AU6" s="10">
-        <f t="shared" si="7"/>
+      <c r="AW6" s="10">
+        <f t="shared" si="8"/>
         <v>212738.93288497109</v>
       </c>
-      <c r="AV6" s="10">
-        <f t="shared" si="7"/>
+      <c r="AX6" s="10">
+        <f t="shared" si="8"/>
         <v>214866.32221382079</v>
       </c>
-      <c r="AW6" s="10">
-        <f t="shared" si="7"/>
+      <c r="AY6" s="10">
+        <f t="shared" si="8"/>
         <v>217014.98543595901</v>
       </c>
-      <c r="AX6" s="10">
-        <f t="shared" si="7"/>
+      <c r="AZ6" s="10">
+        <f t="shared" si="8"/>
         <v>219185.13529031861</v>
       </c>
-      <c r="AY6" s="10">
-        <f t="shared" si="7"/>
+      <c r="BA6" s="10">
+        <f t="shared" si="8"/>
         <v>221376.98664322178</v>
       </c>
-      <c r="AZ6" s="10">
-        <f t="shared" si="7"/>
+      <c r="BB6" s="10">
+        <f t="shared" si="8"/>
         <v>223590.75650965399</v>
       </c>
-      <c r="BA6" s="10">
-        <f t="shared" si="7"/>
+      <c r="BC6" s="10">
+        <f t="shared" si="8"/>
         <v>225826.66407475053</v>
       </c>
-      <c r="BB6" s="10">
-        <f t="shared" si="7"/>
+      <c r="BD6" s="10">
+        <f t="shared" si="8"/>
         <v>228084.93071549805</v>
       </c>
-      <c r="BC6" s="10">
-        <f t="shared" si="7"/>
+      <c r="BE6" s="10">
+        <f t="shared" si="8"/>
         <v>230365.78002265302</v>
       </c>
-      <c r="BD6" s="10">
-        <f t="shared" si="7"/>
+      <c r="BF6" s="10">
+        <f t="shared" si="8"/>
         <v>232669.43782287955</v>
       </c>
-      <c r="BE6" s="10">
-        <f t="shared" si="7"/>
+      <c r="BG6" s="10">
+        <f t="shared" si="8"/>
         <v>234996.13220110835</v>
       </c>
-      <c r="BF6" s="10">
-        <f t="shared" si="7"/>
+      <c r="BH6" s="10">
+        <f t="shared" si="8"/>
         <v>237346.09352311943</v>
       </c>
-      <c r="BG6" s="10">
-        <f t="shared" si="7"/>
+      <c r="BI6" s="10">
+        <f t="shared" si="8"/>
         <v>239719.55445835064</v>
       </c>
-      <c r="BH6" s="10">
-        <f t="shared" si="7"/>
+      <c r="BJ6" s="10">
+        <f t="shared" si="8"/>
         <v>242116.75000293416</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
@@ -1529,15 +1575,15 @@
         <v>758.22493224932248</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" ref="L7:N7" si="8">+L5*1000/L6</f>
+        <f t="shared" ref="L7:N7" si="9">+L5*1000/L6</f>
         <v>789.15531335149865</v>
       </c>
       <c r="M7" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>702.60638297872345</v>
       </c>
       <c r="N7" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>634.14868105515586</v>
       </c>
       <c r="O7" s="10">
@@ -1578,103 +1624,103 @@
         <f>V7*1.03</f>
         <v>985.71</v>
       </c>
-      <c r="AL7" s="10">
-        <f>+AL5*1000/AL6</f>
-        <v>757.33274542765548</v>
-      </c>
-      <c r="AM7" s="10">
-        <f>+AM5*1000/AM6</f>
-        <v>768.79589632829379</v>
-      </c>
       <c r="AN7" s="10">
         <f>+AN5*1000/AN6</f>
-        <v>725.92729188619603</v>
+        <v>757.33274542765548</v>
       </c>
       <c r="AO7" s="10">
         <f>+AO5*1000/AO6</f>
-        <v>863.94019739338546</v>
+        <v>768.79589632829379</v>
       </c>
       <c r="AP7" s="10">
         <f>+AP5*1000/AP6</f>
+        <v>725.92729188619603</v>
+      </c>
+      <c r="AQ7" s="10">
+        <f>+AQ5*1000/AQ6</f>
+        <v>863.94019739338546</v>
+      </c>
+      <c r="AR7" s="10">
+        <f>+AR5*1000/AR6</f>
         <v>934.12580218512926</v>
       </c>
-      <c r="AQ7" s="10">
-        <f>AQ5/AQ6*1000</f>
+      <c r="AS7" s="10">
+        <f>AS5/AS6*1000</f>
         <v>981.14374885338884</v>
       </c>
-      <c r="AR7" s="10">
-        <f>+AQ7*1.03</f>
+      <c r="AT7" s="10">
+        <f>+AS7*1.03</f>
         <v>1010.5780613189905</v>
       </c>
-      <c r="AS7" s="10">
-        <f t="shared" ref="AS7:BH7" si="9">+AR7*1.03</f>
+      <c r="AU7" s="10">
+        <f t="shared" ref="AU7:BJ7" si="10">+AT7*1.03</f>
         <v>1040.8954031585604</v>
       </c>
-      <c r="AT7" s="10">
-        <f t="shared" si="9"/>
+      <c r="AV7" s="10">
+        <f t="shared" si="10"/>
         <v>1072.1222652533172</v>
       </c>
-      <c r="AU7" s="10">
-        <f t="shared" si="9"/>
+      <c r="AW7" s="10">
+        <f t="shared" si="10"/>
         <v>1104.2859332109167</v>
       </c>
-      <c r="AV7" s="10">
-        <f t="shared" si="9"/>
+      <c r="AX7" s="10">
+        <f t="shared" si="10"/>
         <v>1137.4145112072442</v>
       </c>
-      <c r="AW7" s="10">
-        <f t="shared" si="9"/>
+      <c r="AY7" s="10">
+        <f t="shared" si="10"/>
         <v>1171.5369465434617</v>
       </c>
-      <c r="AX7" s="10">
-        <f t="shared" si="9"/>
+      <c r="AZ7" s="10">
+        <f t="shared" si="10"/>
         <v>1206.6830549397655</v>
       </c>
-      <c r="AY7" s="10">
-        <f t="shared" si="9"/>
+      <c r="BA7" s="10">
+        <f t="shared" si="10"/>
         <v>1242.8835465879586</v>
       </c>
-      <c r="AZ7" s="10">
-        <f t="shared" si="9"/>
+      <c r="BB7" s="10">
+        <f t="shared" si="10"/>
         <v>1280.1700529855973</v>
       </c>
-      <c r="BA7" s="10">
-        <f t="shared" si="9"/>
+      <c r="BC7" s="10">
+        <f t="shared" si="10"/>
         <v>1318.5751545751652</v>
       </c>
-      <c r="BB7" s="10">
-        <f t="shared" si="9"/>
+      <c r="BD7" s="10">
+        <f t="shared" si="10"/>
         <v>1358.1324092124203</v>
       </c>
-      <c r="BC7" s="10">
-        <f t="shared" si="9"/>
+      <c r="BE7" s="10">
+        <f t="shared" si="10"/>
         <v>1398.876381488793</v>
       </c>
-      <c r="BD7" s="10">
-        <f t="shared" si="9"/>
+      <c r="BF7" s="10">
+        <f t="shared" si="10"/>
         <v>1440.8426729334567</v>
       </c>
-      <c r="BE7" s="10">
-        <f t="shared" si="9"/>
+      <c r="BG7" s="10">
+        <f t="shared" si="10"/>
         <v>1484.0679531214605</v>
       </c>
-      <c r="BF7" s="10">
-        <f t="shared" si="9"/>
+      <c r="BH7" s="10">
+        <f t="shared" si="10"/>
         <v>1528.5899917151044</v>
       </c>
-      <c r="BG7" s="10">
-        <f t="shared" si="9"/>
+      <c r="BI7" s="10">
+        <f t="shared" si="10"/>
         <v>1574.4476914665574</v>
       </c>
-      <c r="BH7" s="10">
-        <f t="shared" si="9"/>
+      <c r="BJ7" s="10">
+        <f t="shared" si="10"/>
         <v>1621.6811222105541</v>
       </c>
     </row>
-    <row r="8" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1725,7 +1771,7 @@
         <v>7382</v>
       </c>
       <c r="V9" s="10">
-        <f>AP9-U9-T9-S9</f>
+        <f>AR9-U9-T9-S9</f>
         <v>11508</v>
       </c>
       <c r="W9" s="10">
@@ -1738,105 +1784,105 @@
         <v>6840</v>
       </c>
       <c r="Z9" s="10">
-        <f>AQ9-Y9-X9-W9</f>
+        <f>AS9-Y9-X9-W9</f>
         <v>7614</v>
       </c>
-      <c r="AJ9" s="10">
+      <c r="AL9" s="10">
         <v>22831</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AM9" s="10">
         <v>25850</v>
       </c>
-      <c r="AL9" s="10">
+      <c r="AN9" s="10">
         <v>25198</v>
       </c>
-      <c r="AM9" s="10">
+      <c r="AO9" s="10">
         <v>25740</v>
       </c>
-      <c r="AN9" s="10">
-        <f t="shared" ref="AN9:AN10" si="10">SUM(K9:N9)</f>
+      <c r="AP9" s="10">
+        <f t="shared" ref="AP9:AP10" si="11">SUM(K9:N9)</f>
         <v>28622</v>
       </c>
-      <c r="AO9" s="10">
-        <f t="shared" ref="AO9:AO10" si="11">SUM(O9:R9)</f>
+      <c r="AQ9" s="10">
+        <f t="shared" ref="AQ9:AQ10" si="12">SUM(O9:R9)</f>
         <v>35190</v>
       </c>
-      <c r="AP9" s="10">
+      <c r="AR9" s="10">
         <v>40177</v>
       </c>
-      <c r="AQ9" s="10">
+      <c r="AS9" s="10">
         <v>29357</v>
       </c>
-      <c r="AR9" s="10">
-        <f t="shared" ref="AR9:AW9" si="12">+AQ9*1.07</f>
+      <c r="AT9" s="10">
+        <f t="shared" ref="AT9:AY9" si="13">+AS9*1.07</f>
         <v>31411.99</v>
       </c>
-      <c r="AS9" s="10">
-        <f t="shared" si="12"/>
+      <c r="AU9" s="10">
+        <f t="shared" si="13"/>
         <v>33610.829300000005</v>
       </c>
-      <c r="AT9" s="10">
-        <f t="shared" si="12"/>
+      <c r="AV9" s="10">
+        <f t="shared" si="13"/>
         <v>35963.587351000009</v>
       </c>
-      <c r="AU9" s="10">
-        <f t="shared" si="12"/>
+      <c r="AW9" s="10">
+        <f t="shared" si="13"/>
         <v>38481.038465570011</v>
       </c>
-      <c r="AV9" s="10">
-        <f t="shared" si="12"/>
+      <c r="AX9" s="10">
+        <f t="shared" si="13"/>
         <v>41174.711158159917</v>
       </c>
-      <c r="AW9" s="10">
-        <f t="shared" si="12"/>
+      <c r="AY9" s="10">
+        <f t="shared" si="13"/>
         <v>44056.940939231114</v>
       </c>
-      <c r="AX9" s="10">
-        <f>+AW9*1.06</f>
+      <c r="AZ9" s="10">
+        <f>+AY9*1.06</f>
         <v>46700.357395584986</v>
       </c>
-      <c r="AY9" s="10">
-        <f t="shared" ref="AY9:BB9" si="13">+AX9*1.06</f>
+      <c r="BA9" s="10">
+        <f t="shared" ref="BA9:BD9" si="14">+AZ9*1.06</f>
         <v>49502.378839320088</v>
       </c>
-      <c r="AZ9" s="10">
-        <f t="shared" si="13"/>
+      <c r="BB9" s="10">
+        <f t="shared" si="14"/>
         <v>52472.521569679295</v>
       </c>
-      <c r="BA9" s="10">
-        <f t="shared" si="13"/>
+      <c r="BC9" s="10">
+        <f t="shared" si="14"/>
         <v>55620.872863860059</v>
       </c>
-      <c r="BB9" s="10">
-        <f t="shared" si="13"/>
+      <c r="BD9" s="10">
+        <f t="shared" si="14"/>
         <v>58958.125235691667</v>
       </c>
-      <c r="BC9" s="10">
-        <f>+BB9*1.05</f>
+      <c r="BE9" s="10">
+        <f>+BD9*1.05</f>
         <v>61906.031497476251</v>
       </c>
-      <c r="BD9" s="10">
-        <f t="shared" ref="BD9:BH9" si="14">+BC9*1.05</f>
+      <c r="BF9" s="10">
+        <f t="shared" ref="BF9:BJ9" si="15">+BE9*1.05</f>
         <v>65001.333072350069</v>
       </c>
-      <c r="BE9" s="10">
-        <f t="shared" si="14"/>
+      <c r="BG9" s="10">
+        <f t="shared" si="15"/>
         <v>68251.399725967582</v>
       </c>
-      <c r="BF9" s="10">
-        <f t="shared" si="14"/>
+      <c r="BH9" s="10">
+        <f t="shared" si="15"/>
         <v>71663.969712265971</v>
       </c>
-      <c r="BG9" s="10">
-        <f t="shared" si="14"/>
+      <c r="BI9" s="10">
+        <f t="shared" si="15"/>
         <v>75247.168197879277</v>
       </c>
-      <c r="BH9" s="10">
-        <f t="shared" si="14"/>
+      <c r="BJ9" s="10">
+        <f t="shared" si="15"/>
         <v>79009.526607773238</v>
       </c>
     </row>
-    <row r="10" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1887,7 +1933,7 @@
         <v>7224</v>
       </c>
       <c r="V10" s="10">
-        <f>AP10-U10-T10-S10</f>
+        <f>AR10-U10-T10-S10</f>
         <v>7174</v>
       </c>
       <c r="W10" s="10">
@@ -1900,105 +1946,105 @@
         <v>5791</v>
       </c>
       <c r="Z10" s="10">
-        <f t="shared" ref="Z10:Z11" si="15">AQ10-Y10-X10-W10</f>
+        <f t="shared" ref="Z10:Z11" si="16">AS10-Y10-X10-W10</f>
         <v>6443</v>
       </c>
-      <c r="AJ10" s="10">
+      <c r="AL10" s="10">
         <v>20628</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="AM10" s="10">
         <v>19222</v>
       </c>
-      <c r="AL10" s="10">
+      <c r="AN10" s="10">
         <v>18380</v>
       </c>
-      <c r="AM10" s="10">
+      <c r="AO10" s="10">
         <v>21280</v>
       </c>
-      <c r="AN10" s="10">
-        <f t="shared" si="10"/>
+      <c r="AP10" s="10">
+        <f t="shared" si="11"/>
         <v>23724</v>
       </c>
-      <c r="AO10" s="10">
-        <f t="shared" si="11"/>
+      <c r="AQ10" s="10">
+        <f t="shared" si="12"/>
         <v>31862</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="AR10" s="10">
         <v>29292</v>
       </c>
-      <c r="AQ10" s="10">
+      <c r="AS10" s="10">
         <v>28300</v>
       </c>
-      <c r="AR10" s="10">
-        <f t="shared" ref="AR10:BH10" si="16">+AQ10*1.04</f>
+      <c r="AT10" s="10">
+        <f t="shared" ref="AT10:BJ10" si="17">+AS10*1.04</f>
         <v>29432</v>
       </c>
-      <c r="AS10" s="10">
-        <f t="shared" si="16"/>
+      <c r="AU10" s="10">
+        <f t="shared" si="17"/>
         <v>30609.280000000002</v>
       </c>
-      <c r="AT10" s="10">
-        <f t="shared" si="16"/>
+      <c r="AV10" s="10">
+        <f t="shared" si="17"/>
         <v>31833.651200000004</v>
       </c>
-      <c r="AU10" s="10">
-        <f t="shared" si="16"/>
+      <c r="AW10" s="10">
+        <f t="shared" si="17"/>
         <v>33106.997248000007</v>
       </c>
-      <c r="AV10" s="10">
-        <f t="shared" si="16"/>
+      <c r="AX10" s="10">
+        <f t="shared" si="17"/>
         <v>34431.277137920006</v>
       </c>
-      <c r="AW10" s="10">
-        <f t="shared" si="16"/>
+      <c r="AY10" s="10">
+        <f t="shared" si="17"/>
         <v>35808.528223436806</v>
       </c>
-      <c r="AX10" s="10">
-        <f t="shared" si="16"/>
+      <c r="AZ10" s="10">
+        <f t="shared" si="17"/>
         <v>37240.869352374277</v>
       </c>
-      <c r="AY10" s="10">
-        <f t="shared" si="16"/>
+      <c r="BA10" s="10">
+        <f t="shared" si="17"/>
         <v>38730.504126469248</v>
       </c>
-      <c r="AZ10" s="10">
-        <f t="shared" si="16"/>
+      <c r="BB10" s="10">
+        <f t="shared" si="17"/>
         <v>40279.724291528022</v>
       </c>
-      <c r="BA10" s="10">
-        <f t="shared" si="16"/>
+      <c r="BC10" s="10">
+        <f t="shared" si="17"/>
         <v>41890.913263189148</v>
       </c>
-      <c r="BB10" s="10">
-        <f t="shared" si="16"/>
+      <c r="BD10" s="10">
+        <f t="shared" si="17"/>
         <v>43566.549793716717</v>
       </c>
-      <c r="BC10" s="10">
-        <f t="shared" si="16"/>
+      <c r="BE10" s="10">
+        <f t="shared" si="17"/>
         <v>45309.211785465384</v>
       </c>
-      <c r="BD10" s="10">
-        <f t="shared" si="16"/>
+      <c r="BF10" s="10">
+        <f t="shared" si="17"/>
         <v>47121.580256884001</v>
       </c>
-      <c r="BE10" s="10">
-        <f t="shared" si="16"/>
+      <c r="BG10" s="10">
+        <f t="shared" si="17"/>
         <v>49006.443467159363</v>
       </c>
-      <c r="BF10" s="10">
-        <f t="shared" si="16"/>
+      <c r="BH10" s="10">
+        <f t="shared" si="17"/>
         <v>50966.70120584574</v>
       </c>
-      <c r="BG10" s="10">
-        <f t="shared" si="16"/>
+      <c r="BI10" s="10">
+        <f t="shared" si="17"/>
         <v>53005.369254079575</v>
       </c>
-      <c r="BH10" s="10">
-        <f t="shared" si="16"/>
+      <c r="BJ10" s="10">
+        <f t="shared" si="17"/>
         <v>55125.584024242758</v>
       </c>
     </row>
-    <row r="11" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2049,7 +2095,7 @@
         <v>8084</v>
       </c>
       <c r="V11" s="10">
-        <f>AP11-U11-T11-S11</f>
+        <f>AR11-U11-T11-S11</f>
         <v>9650</v>
       </c>
       <c r="W11" s="10">
@@ -2062,108 +2108,108 @@
         <v>8284</v>
       </c>
       <c r="Z11" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9322</v>
       </c>
-      <c r="AJ11" s="10">
+      <c r="AL11" s="10">
         <v>11132</v>
       </c>
-      <c r="AK11" s="10">
+      <c r="AM11" s="10">
         <v>12863</v>
       </c>
-      <c r="AL11" s="10">
+      <c r="AN11" s="10">
         <v>17381</v>
       </c>
-      <c r="AM11" s="10">
+      <c r="AO11" s="10">
         <v>24482</v>
       </c>
-      <c r="AN11" s="10">
-        <f t="shared" ref="AN11" si="17">SUM(K11:N11)</f>
+      <c r="AP11" s="10">
+        <f t="shared" ref="AP11" si="18">SUM(K11:N11)</f>
         <v>30620</v>
       </c>
-      <c r="AO11" s="10">
-        <f t="shared" ref="AO11" si="18">SUM(O11:R11)</f>
+      <c r="AQ11" s="10">
+        <f t="shared" ref="AQ11" si="19">SUM(O11:R11)</f>
         <v>38367</v>
       </c>
-      <c r="AP11" s="10">
+      <c r="AR11" s="10">
         <v>41241</v>
       </c>
-      <c r="AQ11" s="10">
+      <c r="AS11" s="10">
         <v>39845</v>
       </c>
-      <c r="AR11" s="10">
-        <f t="shared" ref="AR11:BH11" si="19">+AQ11*1.04</f>
+      <c r="AT11" s="10">
+        <f t="shared" ref="AT11:BJ11" si="20">+AS11*1.04</f>
         <v>41438.800000000003</v>
       </c>
-      <c r="AS11" s="10">
-        <f t="shared" si="19"/>
+      <c r="AU11" s="10">
+        <f t="shared" si="20"/>
         <v>43096.352000000006</v>
       </c>
-      <c r="AT11" s="10">
-        <f t="shared" si="19"/>
+      <c r="AV11" s="10">
+        <f t="shared" si="20"/>
         <v>44820.206080000011</v>
       </c>
-      <c r="AU11" s="10">
-        <f t="shared" si="19"/>
+      <c r="AW11" s="10">
+        <f t="shared" si="20"/>
         <v>46613.014323200012</v>
       </c>
-      <c r="AV11" s="10">
-        <f t="shared" si="19"/>
+      <c r="AX11" s="10">
+        <f t="shared" si="20"/>
         <v>48477.534896128011</v>
       </c>
-      <c r="AW11" s="10">
-        <f t="shared" si="19"/>
+      <c r="AY11" s="10">
+        <f t="shared" si="20"/>
         <v>50416.636291973133</v>
       </c>
-      <c r="AX11" s="10">
-        <f t="shared" si="19"/>
+      <c r="AZ11" s="10">
+        <f t="shared" si="20"/>
         <v>52433.30174365206</v>
       </c>
-      <c r="AY11" s="10">
-        <f t="shared" si="19"/>
+      <c r="BA11" s="10">
+        <f t="shared" si="20"/>
         <v>54530.633813398148</v>
       </c>
-      <c r="AZ11" s="10">
-        <f t="shared" si="19"/>
+      <c r="BB11" s="10">
+        <f t="shared" si="20"/>
         <v>56711.859165934075</v>
       </c>
-      <c r="BA11" s="10">
-        <f t="shared" si="19"/>
+      <c r="BC11" s="10">
+        <f t="shared" si="20"/>
         <v>58980.333532571436</v>
       </c>
-      <c r="BB11" s="10">
-        <f t="shared" si="19"/>
+      <c r="BD11" s="10">
+        <f t="shared" si="20"/>
         <v>61339.546873874293</v>
       </c>
-      <c r="BC11" s="10">
-        <f t="shared" si="19"/>
+      <c r="BE11" s="10">
+        <f t="shared" si="20"/>
         <v>63793.128748829266</v>
       </c>
-      <c r="BD11" s="10">
-        <f t="shared" si="19"/>
+      <c r="BF11" s="10">
+        <f t="shared" si="20"/>
         <v>66344.853898782443</v>
       </c>
-      <c r="BE11" s="10">
-        <f t="shared" si="19"/>
+      <c r="BG11" s="10">
+        <f t="shared" si="20"/>
         <v>68998.648054733741</v>
       </c>
-      <c r="BF11" s="10">
-        <f t="shared" si="19"/>
+      <c r="BH11" s="10">
+        <f t="shared" si="20"/>
         <v>71758.59397692309</v>
       </c>
-      <c r="BG11" s="10">
-        <f t="shared" si="19"/>
+      <c r="BI11" s="10">
+        <f t="shared" si="20"/>
         <v>74628.937736000022</v>
       </c>
-      <c r="BH11" s="10">
-        <f t="shared" si="19"/>
+      <c r="BJ11" s="10">
+        <f t="shared" si="20"/>
         <v>77614.095245440025</v>
       </c>
     </row>
-    <row r="12" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
@@ -2188,167 +2234,167 @@
         <v>79104</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ref="L13:Z13" si="20">L5+L9+L10+L11</f>
+        <f t="shared" ref="L13:Z13" si="21">L5+L9+L10+L11</f>
         <v>44965</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>46529</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>50149</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>95678</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>72683</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>63948</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>65083</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>104429</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>77457</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>63355</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>70958</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>96388</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>73929</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>60584</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>67184</v>
       </c>
-      <c r="AJ13" s="2">
-        <f t="shared" ref="AJ13:AP13" si="21">SUM(AJ9:AJ11)+AJ5</f>
+      <c r="AL13" s="2">
+        <f t="shared" ref="AL13:AR13" si="22">SUM(AL9:AL11)+AL5</f>
         <v>191291</v>
       </c>
-      <c r="AK13" s="2">
-        <f t="shared" si="21"/>
+      <c r="AM13" s="2">
+        <f t="shared" si="22"/>
         <v>199254</v>
       </c>
-      <c r="AL13" s="2">
-        <f t="shared" si="21"/>
+      <c r="AN13" s="2">
+        <f t="shared" si="22"/>
         <v>225847</v>
       </c>
-      <c r="AM13" s="2">
-        <f t="shared" si="21"/>
+      <c r="AO13" s="2">
+        <f t="shared" si="22"/>
         <v>213883</v>
       </c>
-      <c r="AN13" s="2">
-        <f t="shared" si="21"/>
+      <c r="AP13" s="2">
+        <f t="shared" si="22"/>
         <v>220747</v>
       </c>
-      <c r="AO13" s="2">
-        <f t="shared" si="21"/>
+      <c r="AQ13" s="2">
+        <f t="shared" si="22"/>
         <v>297392</v>
       </c>
-      <c r="AP13" s="2">
-        <f t="shared" si="21"/>
+      <c r="AR13" s="2">
+        <f t="shared" si="22"/>
         <v>316199</v>
       </c>
-      <c r="AQ13" s="2">
-        <f>SUM(AQ9:AQ11)+AQ5</f>
+      <c r="AS13" s="2">
+        <f>SUM(AS9:AS11)+AS5</f>
         <v>298085</v>
       </c>
-      <c r="AR13" s="2">
-        <f t="shared" ref="AR13:BH13" si="22">SUM(AR9:AR11)+AR5</f>
+      <c r="AT13" s="2">
+        <f t="shared" ref="AT13:BJ13" si="23">SUM(AT9:AT11)+AT5</f>
         <v>310949.28490000003</v>
       </c>
-      <c r="AS13" s="2">
-        <f t="shared" si="22"/>
+      <c r="AU13" s="2">
+        <f t="shared" si="23"/>
         <v>324392.21594447002</v>
       </c>
-      <c r="AT13" s="2">
-        <f t="shared" si="22"/>
+      <c r="AV13" s="2">
+        <f t="shared" si="23"/>
         <v>338441.35218764219</v>
       </c>
-      <c r="AU13" s="2">
-        <f t="shared" si="22"/>
+      <c r="AW13" s="2">
+        <f t="shared" si="23"/>
         <v>353125.66106794489</v>
       </c>
-      <c r="AV13" s="2">
-        <f t="shared" si="22"/>
+      <c r="AX13" s="2">
+        <f t="shared" si="23"/>
         <v>368475.59604793915</v>
       </c>
-      <c r="AW13" s="2">
-        <f t="shared" si="22"/>
+      <c r="AY13" s="2">
+        <f t="shared" si="23"/>
         <v>384523.17884645826</v>
       </c>
-      <c r="AX13" s="2">
-        <f t="shared" si="22"/>
+      <c r="AZ13" s="2">
+        <f t="shared" si="23"/>
         <v>400861.51714111876</v>
       </c>
-      <c r="AY13" s="2">
-        <f t="shared" si="22"/>
+      <c r="BA13" s="2">
+        <f t="shared" si="23"/>
         <v>417909.33107127011</v>
       </c>
-      <c r="AZ13" s="2">
-        <f t="shared" si="22"/>
+      <c r="BB13" s="2">
+        <f t="shared" si="23"/>
         <v>435698.29563519493</v>
       </c>
-      <c r="BA13" s="2">
-        <f t="shared" si="22"/>
+      <c r="BC13" s="2">
+        <f t="shared" si="23"/>
         <v>454261.54814917874</v>
       </c>
-      <c r="BB13" s="2">
-        <f t="shared" si="22"/>
+      <c r="BD13" s="2">
+        <f t="shared" si="23"/>
         <v>473633.75836097001</v>
       </c>
-      <c r="BC13" s="2">
-        <f t="shared" si="22"/>
+      <c r="BE13" s="2">
+        <f t="shared" si="23"/>
         <v>493261.62080870301</v>
       </c>
-      <c r="BD13" s="2">
-        <f t="shared" si="22"/>
+      <c r="BF13" s="2">
+        <f t="shared" si="23"/>
         <v>513707.821930659</v>
       </c>
-      <c r="BE13" s="2">
-        <f t="shared" si="22"/>
+      <c r="BG13" s="2">
+        <f t="shared" si="23"/>
         <v>535006.72015501966</v>
       </c>
-      <c r="BF13" s="2">
-        <f t="shared" si="22"/>
+      <c r="BH13" s="2">
+        <f t="shared" si="23"/>
         <v>557194.12802715227</v>
       </c>
-      <c r="BG13" s="2">
-        <f t="shared" si="22"/>
+      <c r="BI13" s="2">
+        <f t="shared" si="23"/>
         <v>580307.37430430076</v>
       </c>
-      <c r="BH13" s="2">
-        <f t="shared" si="22"/>
+      <c r="BJ13" s="2">
+        <f t="shared" si="23"/>
         <v>604385.36872818647</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
@@ -2399,7 +2445,7 @@
         <v>19604</v>
       </c>
       <c r="V14" s="10">
-        <f>AP14-U14-T14-S14</f>
+        <f>AR14-U14-T14-S14</f>
         <v>19188</v>
       </c>
       <c r="W14" s="2">
@@ -2412,138 +2458,139 @@
         <v>21213</v>
       </c>
       <c r="Z14" s="10">
-        <f>AQ14-Y14-X14-W14</f>
+        <f>AS14-Y14-X14-W14</f>
         <v>22251</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AB14" s="10"/>
+      <c r="AL14" s="2">
         <v>24348</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AM14" s="2">
         <v>29980</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AN14" s="10">
         <v>39748</v>
       </c>
-      <c r="AM14" s="10">
+      <c r="AO14" s="10">
         <v>46291</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AP14" s="10">
         <f>SUM(K14:N14)</f>
         <v>53768</v>
       </c>
-      <c r="AO14" s="10">
-        <f t="shared" ref="AO14" si="23">SUM(O14:R14)</f>
+      <c r="AQ14" s="10">
+        <f t="shared" ref="AQ14" si="24">SUM(O14:R14)</f>
         <v>68425</v>
       </c>
-      <c r="AP14" s="10">
+      <c r="AR14" s="10">
         <v>78129</v>
       </c>
-      <c r="AQ14" s="10">
+      <c r="AS14" s="10">
         <v>85200</v>
       </c>
-      <c r="AR14" s="10">
-        <f>+AQ14*1.15</f>
+      <c r="AT14" s="10">
+        <f>+AS14*1.15</f>
         <v>97979.999999999985</v>
       </c>
-      <c r="AS14" s="10">
-        <f>+AR14*1.15</f>
+      <c r="AU14" s="10">
+        <f>+AT14*1.15</f>
         <v>112676.99999999997</v>
-      </c>
-      <c r="AT14" s="10">
-        <f>+AS14*1.1</f>
-        <v>123944.69999999998</v>
-      </c>
-      <c r="AU14" s="10">
-        <f>+AT14*1.1</f>
-        <v>136339.16999999998</v>
       </c>
       <c r="AV14" s="10">
         <f>+AU14*1.1</f>
+        <v>123944.69999999998</v>
+      </c>
+      <c r="AW14" s="10">
+        <f>+AV14*1.1</f>
+        <v>136339.16999999998</v>
+      </c>
+      <c r="AX14" s="10">
+        <f>+AW14*1.1</f>
         <v>149973.087</v>
       </c>
-      <c r="AW14" s="10">
-        <f>+AV14*1.05</f>
+      <c r="AY14" s="10">
+        <f>+AX14*1.05</f>
         <v>157471.74135</v>
       </c>
-      <c r="AX14" s="10">
-        <f t="shared" ref="AX14:BH14" si="24">+AW14*1.05</f>
+      <c r="AZ14" s="10">
+        <f t="shared" ref="AZ14:BJ14" si="25">+AY14*1.05</f>
         <v>165345.32841750002</v>
       </c>
-      <c r="AY14" s="10">
-        <f t="shared" si="24"/>
+      <c r="BA14" s="10">
+        <f t="shared" si="25"/>
         <v>173612.59483837502</v>
       </c>
-      <c r="AZ14" s="10">
-        <f t="shared" si="24"/>
+      <c r="BB14" s="10">
+        <f t="shared" si="25"/>
         <v>182293.22458029378</v>
       </c>
-      <c r="BA14" s="10">
-        <f t="shared" si="24"/>
+      <c r="BC14" s="10">
+        <f t="shared" si="25"/>
         <v>191407.88580930847</v>
       </c>
-      <c r="BB14" s="10">
-        <f t="shared" si="24"/>
+      <c r="BD14" s="10">
+        <f t="shared" si="25"/>
         <v>200978.2800997739</v>
       </c>
-      <c r="BC14" s="10">
-        <f t="shared" si="24"/>
+      <c r="BE14" s="10">
+        <f t="shared" si="25"/>
         <v>211027.1941047626</v>
       </c>
-      <c r="BD14" s="10">
-        <f t="shared" si="24"/>
+      <c r="BF14" s="10">
+        <f t="shared" si="25"/>
         <v>221578.55381000074</v>
       </c>
-      <c r="BE14" s="10">
-        <f t="shared" si="24"/>
+      <c r="BG14" s="10">
+        <f t="shared" si="25"/>
         <v>232657.48150050078</v>
       </c>
-      <c r="BF14" s="10">
-        <f t="shared" si="24"/>
+      <c r="BH14" s="10">
+        <f t="shared" si="25"/>
         <v>244290.35557552584</v>
       </c>
-      <c r="BG14" s="10">
-        <f t="shared" si="24"/>
+      <c r="BI14" s="10">
+        <f t="shared" si="25"/>
         <v>256504.87335430214</v>
       </c>
-      <c r="BH14" s="10">
-        <f t="shared" si="24"/>
+      <c r="BJ14" s="10">
+        <f t="shared" si="25"/>
         <v>269330.11702201725</v>
       </c>
     </row>
-    <row r="15" spans="1:60" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:F15" si="25">+C13+C14</f>
+        <f t="shared" ref="C15:F15" si="26">+C13+C14</f>
         <v>88293</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>61137</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>53265</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>62900</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" ref="K15:N15" si="26">+K13+K14</f>
+        <f t="shared" ref="K15:N15" si="27">+K13+K14</f>
         <v>91819</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>58313</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>59685</v>
       </c>
       <c r="N15" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>64698</v>
       </c>
       <c r="O15" s="12">
@@ -2559,11 +2606,11 @@
         <v>81434</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ref="R15" si="27">+R13+R14</f>
+        <f t="shared" ref="R15" si="28">+R13+R14</f>
         <v>83360</v>
       </c>
       <c r="S15" s="12">
-        <f t="shared" ref="S15" si="28">+S13+S14</f>
+        <f t="shared" ref="S15" si="29">+S13+S14</f>
         <v>123945</v>
       </c>
       <c r="T15" s="12">
@@ -2571,137 +2618,137 @@
         <v>97278</v>
       </c>
       <c r="U15" s="12">
-        <f t="shared" ref="U15:Z15" si="29">+U13+U14</f>
+        <f t="shared" ref="U15:Z15" si="30">+U13+U14</f>
         <v>82959</v>
       </c>
       <c r="V15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>90146</v>
       </c>
       <c r="W15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>117154</v>
       </c>
       <c r="X15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>94899</v>
       </c>
       <c r="Y15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>81797</v>
       </c>
       <c r="Z15" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>89435</v>
       </c>
-      <c r="AH15" s="12">
+      <c r="AJ15" s="12">
         <v>182795</v>
       </c>
-      <c r="AI15" s="12">
+      <c r="AK15" s="12">
         <v>233715</v>
       </c>
-      <c r="AJ15" s="12">
-        <f t="shared" ref="AJ15:AM15" si="30">+AJ13+AJ14</f>
+      <c r="AL15" s="12">
+        <f t="shared" ref="AL15:AO15" si="31">+AL13+AL14</f>
         <v>215639</v>
       </c>
-      <c r="AK15" s="12">
-        <f t="shared" si="30"/>
+      <c r="AM15" s="12">
+        <f t="shared" si="31"/>
         <v>229234</v>
       </c>
-      <c r="AL15" s="12">
-        <f t="shared" si="30"/>
+      <c r="AN15" s="12">
+        <f t="shared" si="31"/>
         <v>265595</v>
       </c>
-      <c r="AM15" s="12">
-        <f t="shared" si="30"/>
+      <c r="AO15" s="12">
+        <f t="shared" si="31"/>
         <v>260174</v>
-      </c>
-      <c r="AN15" s="12">
-        <f>+AN13+AN14</f>
-        <v>274515</v>
-      </c>
-      <c r="AO15" s="12">
-        <f>+AO13+AO14</f>
-        <v>365817</v>
       </c>
       <c r="AP15" s="12">
         <f>+AP13+AP14</f>
-        <v>394328</v>
+        <v>274515</v>
       </c>
       <c r="AQ15" s="12">
         <f>+AQ13+AQ14</f>
+        <v>365817</v>
+      </c>
+      <c r="AR15" s="12">
+        <f>+AR13+AR14</f>
+        <v>394328</v>
+      </c>
+      <c r="AS15" s="12">
+        <f>+AS13+AS14</f>
         <v>383285</v>
       </c>
-      <c r="AR15" s="12">
-        <f t="shared" ref="AR15:BH15" si="31">+AR13+AR14</f>
+      <c r="AT15" s="12">
+        <f t="shared" ref="AT15:BJ15" si="32">+AT13+AT14</f>
         <v>408929.28490000003</v>
       </c>
-      <c r="AS15" s="12">
-        <f t="shared" si="31"/>
+      <c r="AU15" s="12">
+        <f t="shared" si="32"/>
         <v>437069.21594447002</v>
       </c>
-      <c r="AT15" s="12">
-        <f t="shared" si="31"/>
+      <c r="AV15" s="12">
+        <f t="shared" si="32"/>
         <v>462386.0521876422</v>
       </c>
-      <c r="AU15" s="12">
-        <f t="shared" si="31"/>
+      <c r="AW15" s="12">
+        <f t="shared" si="32"/>
         <v>489464.83106794488</v>
       </c>
-      <c r="AV15" s="12">
-        <f t="shared" si="31"/>
+      <c r="AX15" s="12">
+        <f t="shared" si="32"/>
         <v>518448.68304793915</v>
       </c>
-      <c r="AW15" s="12">
-        <f t="shared" si="31"/>
+      <c r="AY15" s="12">
+        <f t="shared" si="32"/>
         <v>541994.92019645823</v>
       </c>
-      <c r="AX15" s="12">
-        <f t="shared" si="31"/>
+      <c r="AZ15" s="12">
+        <f t="shared" si="32"/>
         <v>566206.84555861878</v>
       </c>
-      <c r="AY15" s="12">
-        <f t="shared" si="31"/>
+      <c r="BA15" s="12">
+        <f t="shared" si="32"/>
         <v>591521.92590964516</v>
       </c>
-      <c r="AZ15" s="12">
-        <f t="shared" si="31"/>
+      <c r="BB15" s="12">
+        <f t="shared" si="32"/>
         <v>617991.52021548874</v>
       </c>
-      <c r="BA15" s="12">
-        <f t="shared" si="31"/>
+      <c r="BC15" s="12">
+        <f t="shared" si="32"/>
         <v>645669.43395848724</v>
       </c>
-      <c r="BB15" s="12">
-        <f t="shared" si="31"/>
+      <c r="BD15" s="12">
+        <f t="shared" si="32"/>
         <v>674612.03846074385</v>
       </c>
-      <c r="BC15" s="12">
-        <f t="shared" si="31"/>
+      <c r="BE15" s="12">
+        <f t="shared" si="32"/>
         <v>704288.81491346564</v>
       </c>
-      <c r="BD15" s="12">
-        <f t="shared" si="31"/>
+      <c r="BF15" s="12">
+        <f t="shared" si="32"/>
         <v>735286.37574065977</v>
       </c>
-      <c r="BE15" s="12">
-        <f t="shared" si="31"/>
+      <c r="BG15" s="12">
+        <f t="shared" si="32"/>
         <v>767664.20165552048</v>
       </c>
-      <c r="BF15" s="12">
-        <f t="shared" si="31"/>
+      <c r="BH15" s="12">
+        <f t="shared" si="32"/>
         <v>801484.48360267817</v>
       </c>
-      <c r="BG15" s="12">
-        <f t="shared" si="31"/>
+      <c r="BI15" s="12">
+        <f t="shared" si="32"/>
         <v>836812.24765860289</v>
       </c>
-      <c r="BH15" s="12">
-        <f t="shared" si="31"/>
+      <c r="BJ15" s="12">
+        <f t="shared" si="32"/>
         <v>873715.48575020372</v>
       </c>
     </row>
-    <row r="16" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
@@ -2739,7 +2786,7 @@
         <v>41485</v>
       </c>
       <c r="V16" s="10">
-        <f>AP16-U16-T16-S16</f>
+        <f>AR16-U16-T16-S16</f>
         <v>46387</v>
       </c>
       <c r="W16" s="2">
@@ -2752,99 +2799,100 @@
         <v>39136</v>
       </c>
       <c r="Z16" s="10">
-        <f>AQ16-Y16-X16-W16</f>
+        <f>AS16-Y16-X16-W16</f>
         <v>42586</v>
       </c>
-      <c r="AL16" s="10">
+      <c r="AB16" s="10"/>
+      <c r="AN16" s="10">
         <v>148164</v>
       </c>
-      <c r="AM16" s="10">
+      <c r="AO16" s="10">
         <v>144996</v>
       </c>
-      <c r="AN16" s="10">
+      <c r="AP16" s="10">
         <f>SUM(K16:N16)</f>
         <v>151286</v>
       </c>
-      <c r="AO16" s="10">
-        <f t="shared" ref="AO16:AO17" si="32">SUM(O16:R16)</f>
+      <c r="AQ16" s="10">
+        <f t="shared" ref="AQ16:AQ17" si="33">SUM(O16:R16)</f>
         <v>192266</v>
       </c>
-      <c r="AP16" s="10">
+      <c r="AR16" s="10">
         <v>201471</v>
       </c>
-      <c r="AQ16" s="2">
+      <c r="AS16" s="2">
         <v>189282</v>
       </c>
-      <c r="AR16" s="2">
-        <f t="shared" ref="AR16:BH16" si="33">+AR13*0.64</f>
+      <c r="AT16" s="2">
+        <f t="shared" ref="AT16:BJ16" si="34">+AT13*0.64</f>
         <v>199007.54233600001</v>
       </c>
-      <c r="AS16" s="2">
-        <f t="shared" si="33"/>
+      <c r="AU16" s="2">
+        <f t="shared" si="34"/>
         <v>207611.01820446082</v>
       </c>
-      <c r="AT16" s="2">
-        <f t="shared" si="33"/>
+      <c r="AV16" s="2">
+        <f t="shared" si="34"/>
         <v>216602.46540009099</v>
       </c>
-      <c r="AU16" s="2">
-        <f t="shared" si="33"/>
+      <c r="AW16" s="2">
+        <f t="shared" si="34"/>
         <v>226000.42308348473</v>
       </c>
-      <c r="AV16" s="2">
-        <f t="shared" si="33"/>
+      <c r="AX16" s="2">
+        <f t="shared" si="34"/>
         <v>235824.38147068105</v>
       </c>
-      <c r="AW16" s="2">
-        <f t="shared" si="33"/>
+      <c r="AY16" s="2">
+        <f t="shared" si="34"/>
         <v>246094.83446173329</v>
       </c>
-      <c r="AX16" s="2">
-        <f t="shared" si="33"/>
+      <c r="AZ16" s="2">
+        <f t="shared" si="34"/>
         <v>256551.37097031603</v>
       </c>
-      <c r="AY16" s="2">
-        <f t="shared" si="33"/>
+      <c r="BA16" s="2">
+        <f t="shared" si="34"/>
         <v>267461.97188561287</v>
       </c>
-      <c r="AZ16" s="2">
-        <f t="shared" si="33"/>
+      <c r="BB16" s="2">
+        <f t="shared" si="34"/>
         <v>278846.90920652478</v>
       </c>
-      <c r="BA16" s="2">
-        <f t="shared" si="33"/>
+      <c r="BC16" s="2">
+        <f t="shared" si="34"/>
         <v>290727.39081547438</v>
       </c>
-      <c r="BB16" s="2">
-        <f t="shared" si="33"/>
+      <c r="BD16" s="2">
+        <f t="shared" si="34"/>
         <v>303125.60535102081</v>
       </c>
-      <c r="BC16" s="2">
-        <f t="shared" si="33"/>
+      <c r="BE16" s="2">
+        <f t="shared" si="34"/>
         <v>315687.43731756991</v>
       </c>
-      <c r="BD16" s="2">
-        <f t="shared" si="33"/>
+      <c r="BF16" s="2">
+        <f t="shared" si="34"/>
         <v>328773.00603562174</v>
       </c>
-      <c r="BE16" s="2">
-        <f t="shared" si="33"/>
+      <c r="BG16" s="2">
+        <f t="shared" si="34"/>
         <v>342404.3008992126</v>
       </c>
-      <c r="BF16" s="2">
-        <f t="shared" si="33"/>
+      <c r="BH16" s="2">
+        <f t="shared" si="34"/>
         <v>356604.24193737743</v>
       </c>
-      <c r="BG16" s="2">
-        <f t="shared" si="33"/>
+      <c r="BI16" s="2">
+        <f t="shared" si="34"/>
         <v>371396.71955475252</v>
       </c>
-      <c r="BH16" s="2">
-        <f t="shared" si="33"/>
+      <c r="BJ16" s="2">
+        <f t="shared" si="34"/>
         <v>386806.63598603936</v>
       </c>
     </row>
-    <row r="17" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
@@ -2882,7 +2930,7 @@
         <v>5589</v>
       </c>
       <c r="V17" s="10">
-        <f>AP17-U17-T17-S17</f>
+        <f>AR17-U17-T17-S17</f>
         <v>5664</v>
       </c>
       <c r="W17" s="2">
@@ -2895,99 +2943,100 @@
         <v>6248</v>
       </c>
       <c r="Z17" s="10">
-        <f>AQ17-Y17-X17-W17</f>
+        <f>AS17-Y17-X17-W17</f>
         <v>6485</v>
       </c>
-      <c r="AL17" s="10">
+      <c r="AB17" s="10"/>
+      <c r="AN17" s="10">
         <v>15592</v>
       </c>
-      <c r="AM17" s="10">
+      <c r="AO17" s="10">
         <v>16786</v>
       </c>
-      <c r="AN17" s="10">
+      <c r="AP17" s="10">
         <f>SUM(K17:N17)</f>
         <v>18273</v>
       </c>
-      <c r="AO17" s="10">
-        <f t="shared" si="32"/>
+      <c r="AQ17" s="10">
+        <f t="shared" si="33"/>
         <v>20715</v>
       </c>
-      <c r="AP17" s="10">
+      <c r="AR17" s="10">
         <v>22075</v>
       </c>
-      <c r="AQ17" s="2">
+      <c r="AS17" s="2">
         <v>24855</v>
       </c>
-      <c r="AR17" s="2">
-        <f>+AR14*0.27</f>
+      <c r="AT17" s="2">
+        <f>+AT14*0.27</f>
         <v>26454.6</v>
       </c>
-      <c r="AS17" s="2">
-        <f t="shared" ref="AS17:BH17" si="34">+AS14*0.27</f>
+      <c r="AU17" s="2">
+        <f t="shared" ref="AU17:BJ17" si="35">+AU14*0.27</f>
         <v>30422.789999999994</v>
       </c>
-      <c r="AT17" s="2">
-        <f t="shared" si="34"/>
+      <c r="AV17" s="2">
+        <f t="shared" si="35"/>
         <v>33465.068999999996</v>
       </c>
-      <c r="AU17" s="2">
-        <f t="shared" si="34"/>
+      <c r="AW17" s="2">
+        <f t="shared" si="35"/>
         <v>36811.575899999996</v>
       </c>
-      <c r="AV17" s="2">
-        <f t="shared" si="34"/>
+      <c r="AX17" s="2">
+        <f t="shared" si="35"/>
         <v>40492.733490000006</v>
       </c>
-      <c r="AW17" s="2">
-        <f t="shared" si="34"/>
+      <c r="AY17" s="2">
+        <f t="shared" si="35"/>
         <v>42517.370164500004</v>
       </c>
-      <c r="AX17" s="2">
-        <f t="shared" si="34"/>
+      <c r="AZ17" s="2">
+        <f t="shared" si="35"/>
         <v>44643.238672725005</v>
       </c>
-      <c r="AY17" s="2">
-        <f t="shared" si="34"/>
+      <c r="BA17" s="2">
+        <f t="shared" si="35"/>
         <v>46875.400606361261</v>
       </c>
-      <c r="AZ17" s="2">
-        <f t="shared" si="34"/>
+      <c r="BB17" s="2">
+        <f t="shared" si="35"/>
         <v>49219.170636679322</v>
       </c>
-      <c r="BA17" s="2">
-        <f t="shared" si="34"/>
+      <c r="BC17" s="2">
+        <f t="shared" si="35"/>
         <v>51680.129168513289</v>
       </c>
-      <c r="BB17" s="2">
-        <f t="shared" si="34"/>
+      <c r="BD17" s="2">
+        <f t="shared" si="35"/>
         <v>54264.135626938958</v>
       </c>
-      <c r="BC17" s="2">
-        <f t="shared" si="34"/>
+      <c r="BE17" s="2">
+        <f t="shared" si="35"/>
         <v>56977.342408285906</v>
       </c>
-      <c r="BD17" s="2">
-        <f t="shared" si="34"/>
+      <c r="BF17" s="2">
+        <f t="shared" si="35"/>
         <v>59826.209528700201</v>
       </c>
-      <c r="BE17" s="2">
-        <f t="shared" si="34"/>
+      <c r="BG17" s="2">
+        <f t="shared" si="35"/>
         <v>62817.520005135215</v>
       </c>
-      <c r="BF17" s="2">
-        <f t="shared" si="34"/>
+      <c r="BH17" s="2">
+        <f t="shared" si="35"/>
         <v>65958.396005391987</v>
       </c>
-      <c r="BG17" s="2">
-        <f t="shared" si="34"/>
+      <c r="BI17" s="2">
+        <f t="shared" si="35"/>
         <v>69256.315805661579</v>
       </c>
-      <c r="BH17" s="2">
-        <f t="shared" si="34"/>
+      <c r="BJ17" s="2">
+        <f t="shared" si="35"/>
         <v>72719.131595944666</v>
       </c>
     </row>
-    <row r="18" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>96</v>
       </c>
@@ -3005,19 +3054,19 @@
         <v>38816</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ref="K18:N18" si="35">+K16+K17</f>
+        <f t="shared" ref="K18:N18" si="36">+K16+K17</f>
         <v>56602</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>35943</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>37005</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>40009</v>
       </c>
       <c r="O18" s="2">
@@ -3033,11 +3082,11 @@
         <v>46179</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" ref="R18" si="36">+R16+R17</f>
+        <f t="shared" ref="R18" si="37">+R16+R17</f>
         <v>48186</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" ref="S18" si="37">+S16+S17</f>
+        <f t="shared" ref="S18" si="38">+S16+S17</f>
         <v>69702</v>
       </c>
       <c r="T18" s="2">
@@ -3045,156 +3094,156 @@
         <v>54719</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" ref="U18:Z18" si="38">+U16+U17</f>
+        <f t="shared" ref="U18:Z18" si="39">+U16+U17</f>
         <v>47074</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>52051</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>66822</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>52860</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>45384</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>49071</v>
       </c>
-      <c r="AL18" s="2">
-        <f t="shared" ref="AL18:AM18" si="39">+AL16+AL17</f>
+      <c r="AN18" s="2">
+        <f t="shared" ref="AN18:AO18" si="40">+AN16+AN17</f>
         <v>163756</v>
       </c>
-      <c r="AM18" s="2">
-        <f t="shared" si="39"/>
+      <c r="AO18" s="2">
+        <f t="shared" si="40"/>
         <v>161782</v>
-      </c>
-      <c r="AN18" s="2">
-        <f>+AN16+AN17</f>
-        <v>169559</v>
-      </c>
-      <c r="AO18" s="2">
-        <f>+AO16+AO17</f>
-        <v>212981</v>
       </c>
       <c r="AP18" s="2">
         <f>+AP16+AP17</f>
-        <v>223546</v>
+        <v>169559</v>
       </c>
       <c r="AQ18" s="2">
         <f>+AQ16+AQ17</f>
+        <v>212981</v>
+      </c>
+      <c r="AR18" s="2">
+        <f>+AR16+AR17</f>
+        <v>223546</v>
+      </c>
+      <c r="AS18" s="2">
+        <f>+AS16+AS17</f>
         <v>214137</v>
       </c>
-      <c r="AR18" s="2">
-        <f t="shared" ref="AR18:BH18" si="40">+AR16+AR17</f>
+      <c r="AT18" s="2">
+        <f t="shared" ref="AT18:BJ18" si="41">+AT16+AT17</f>
         <v>225462.14233600002</v>
       </c>
-      <c r="AS18" s="2">
-        <f t="shared" si="40"/>
+      <c r="AU18" s="2">
+        <f t="shared" si="41"/>
         <v>238033.80820446083</v>
       </c>
-      <c r="AT18" s="2">
-        <f t="shared" si="40"/>
+      <c r="AV18" s="2">
+        <f t="shared" si="41"/>
         <v>250067.53440009098</v>
       </c>
-      <c r="AU18" s="2">
-        <f t="shared" si="40"/>
+      <c r="AW18" s="2">
+        <f t="shared" si="41"/>
         <v>262811.99898348469</v>
       </c>
-      <c r="AV18" s="2">
-        <f t="shared" si="40"/>
+      <c r="AX18" s="2">
+        <f t="shared" si="41"/>
         <v>276317.11496068106</v>
       </c>
-      <c r="AW18" s="2">
-        <f t="shared" si="40"/>
+      <c r="AY18" s="2">
+        <f t="shared" si="41"/>
         <v>288612.20462623332</v>
       </c>
-      <c r="AX18" s="2">
-        <f t="shared" si="40"/>
+      <c r="AZ18" s="2">
+        <f t="shared" si="41"/>
         <v>301194.60964304104</v>
       </c>
-      <c r="AY18" s="2">
-        <f t="shared" si="40"/>
+      <c r="BA18" s="2">
+        <f t="shared" si="41"/>
         <v>314337.37249197415</v>
       </c>
-      <c r="AZ18" s="2">
-        <f t="shared" si="40"/>
+      <c r="BB18" s="2">
+        <f t="shared" si="41"/>
         <v>328066.07984320412</v>
       </c>
-      <c r="BA18" s="2">
-        <f t="shared" si="40"/>
+      <c r="BC18" s="2">
+        <f t="shared" si="41"/>
         <v>342407.51998398767</v>
       </c>
-      <c r="BB18" s="2">
-        <f t="shared" si="40"/>
+      <c r="BD18" s="2">
+        <f t="shared" si="41"/>
         <v>357389.74097795977</v>
       </c>
-      <c r="BC18" s="2">
-        <f t="shared" si="40"/>
+      <c r="BE18" s="2">
+        <f t="shared" si="41"/>
         <v>372664.7797258558</v>
       </c>
-      <c r="BD18" s="2">
-        <f t="shared" si="40"/>
+      <c r="BF18" s="2">
+        <f t="shared" si="41"/>
         <v>388599.21556432196</v>
       </c>
-      <c r="BE18" s="2">
-        <f t="shared" si="40"/>
+      <c r="BG18" s="2">
+        <f t="shared" si="41"/>
         <v>405221.82090434781</v>
       </c>
-      <c r="BF18" s="2">
-        <f t="shared" si="40"/>
+      <c r="BH18" s="2">
+        <f t="shared" si="41"/>
         <v>422562.63794276945</v>
       </c>
-      <c r="BG18" s="2">
-        <f t="shared" si="40"/>
+      <c r="BI18" s="2">
+        <f t="shared" si="41"/>
         <v>440653.03536041407</v>
       </c>
-      <c r="BH18" s="2">
-        <f t="shared" si="40"/>
+      <c r="BJ18" s="2">
+        <f t="shared" si="41"/>
         <v>459525.76758198405</v>
       </c>
     </row>
-    <row r="19" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19" si="41">+C15-C18</f>
+        <f t="shared" ref="C19" si="42">+C15-C18</f>
         <v>33912</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:F19" si="42">+D15-D18</f>
+        <f t="shared" ref="D19:F19" si="43">+D15-D18</f>
         <v>23422</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>20421</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>24084</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" ref="K19:N19" si="43">+K15-K18</f>
+        <f t="shared" ref="K19:N19" si="44">+K15-K18</f>
         <v>35217</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>22370</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>22680</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>24689</v>
       </c>
       <c r="O19" s="2">
@@ -3210,11 +3259,11 @@
         <v>35255</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19" si="44">+R15-R18</f>
+        <f t="shared" ref="R19" si="45">+R15-R18</f>
         <v>35174</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" ref="S19" si="45">+S15-S18</f>
+        <f t="shared" ref="S19" si="46">+S15-S18</f>
         <v>54243</v>
       </c>
       <c r="T19" s="2">
@@ -3222,123 +3271,123 @@
         <v>42559</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" ref="U19:Z19" si="46">+U15-U18</f>
+        <f t="shared" ref="U19:Z19" si="47">+U15-U18</f>
         <v>35885</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>38095</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50332</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>42039</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>36413</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>40364</v>
       </c>
-      <c r="AL19" s="2">
-        <f t="shared" ref="AL19:AM19" si="47">+AL15-AL18</f>
+      <c r="AN19" s="2">
+        <f t="shared" ref="AN19:AO19" si="48">+AN15-AN18</f>
         <v>101839</v>
       </c>
-      <c r="AM19" s="2">
-        <f t="shared" si="47"/>
+      <c r="AO19" s="2">
+        <f t="shared" si="48"/>
         <v>98392</v>
-      </c>
-      <c r="AN19" s="2">
-        <f>+AN15-AN18</f>
-        <v>104956</v>
-      </c>
-      <c r="AO19" s="2">
-        <f>+AO15-AO18</f>
-        <v>152836</v>
       </c>
       <c r="AP19" s="2">
         <f>+AP15-AP18</f>
-        <v>170782</v>
+        <v>104956</v>
       </c>
       <c r="AQ19" s="2">
         <f>+AQ15-AQ18</f>
+        <v>152836</v>
+      </c>
+      <c r="AR19" s="2">
+        <f>+AR15-AR18</f>
+        <v>170782</v>
+      </c>
+      <c r="AS19" s="2">
+        <f>+AS15-AS18</f>
         <v>169148</v>
       </c>
-      <c r="AR19" s="2">
-        <f t="shared" ref="AR19:BH19" si="48">+AR15-AR18</f>
+      <c r="AT19" s="2">
+        <f t="shared" ref="AT19:BJ19" si="49">+AT15-AT18</f>
         <v>183467.14256400001</v>
       </c>
-      <c r="AS19" s="2">
-        <f t="shared" si="48"/>
+      <c r="AU19" s="2">
+        <f t="shared" si="49"/>
         <v>199035.40774000919</v>
       </c>
-      <c r="AT19" s="2">
-        <f t="shared" si="48"/>
+      <c r="AV19" s="2">
+        <f t="shared" si="49"/>
         <v>212318.51778755122</v>
       </c>
-      <c r="AU19" s="2">
-        <f t="shared" si="48"/>
+      <c r="AW19" s="2">
+        <f t="shared" si="49"/>
         <v>226652.83208446018</v>
       </c>
-      <c r="AV19" s="2">
-        <f t="shared" si="48"/>
+      <c r="AX19" s="2">
+        <f t="shared" si="49"/>
         <v>242131.56808725809</v>
       </c>
-      <c r="AW19" s="2">
-        <f t="shared" si="48"/>
+      <c r="AY19" s="2">
+        <f t="shared" si="49"/>
         <v>253382.71557022491</v>
       </c>
-      <c r="AX19" s="2">
-        <f t="shared" si="48"/>
+      <c r="AZ19" s="2">
+        <f t="shared" si="49"/>
         <v>265012.23591557774</v>
       </c>
-      <c r="AY19" s="2">
-        <f t="shared" si="48"/>
+      <c r="BA19" s="2">
+        <f t="shared" si="49"/>
         <v>277184.55341767101</v>
       </c>
-      <c r="AZ19" s="2">
-        <f t="shared" si="48"/>
+      <c r="BB19" s="2">
+        <f t="shared" si="49"/>
         <v>289925.44037228462</v>
       </c>
-      <c r="BA19" s="2">
-        <f t="shared" si="48"/>
+      <c r="BC19" s="2">
+        <f t="shared" si="49"/>
         <v>303261.91397449956</v>
       </c>
-      <c r="BB19" s="2">
-        <f t="shared" si="48"/>
+      <c r="BD19" s="2">
+        <f t="shared" si="49"/>
         <v>317222.29748278408</v>
       </c>
-      <c r="BC19" s="2">
-        <f t="shared" si="48"/>
+      <c r="BE19" s="2">
+        <f t="shared" si="49"/>
         <v>331624.03518760984</v>
       </c>
-      <c r="BD19" s="2">
-        <f t="shared" si="48"/>
+      <c r="BF19" s="2">
+        <f t="shared" si="49"/>
         <v>346687.16017633781</v>
       </c>
-      <c r="BE19" s="2">
-        <f t="shared" si="48"/>
+      <c r="BG19" s="2">
+        <f t="shared" si="49"/>
         <v>362442.38075117266</v>
       </c>
-      <c r="BF19" s="2">
-        <f t="shared" si="48"/>
+      <c r="BH19" s="2">
+        <f t="shared" si="49"/>
         <v>378921.84565990872</v>
       </c>
-      <c r="BG19" s="2">
-        <f t="shared" si="48"/>
+      <c r="BI19" s="2">
+        <f t="shared" si="49"/>
         <v>396159.21229818882</v>
       </c>
-      <c r="BH19" s="2">
-        <f t="shared" si="48"/>
+      <c r="BJ19" s="2">
+        <f t="shared" si="49"/>
         <v>414189.71816821967</v>
       </c>
     </row>
-    <row r="20" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>102</v>
       </c>
@@ -3389,7 +3438,7 @@
         <v>6797</v>
       </c>
       <c r="V20" s="10">
-        <f>AP20-U20-T20-S20</f>
+        <f>AR20-U20-T20-S20</f>
         <v>6761</v>
       </c>
       <c r="W20" s="2">
@@ -3402,99 +3451,100 @@
         <v>7442</v>
       </c>
       <c r="Z20" s="10">
-        <f>AQ20-Y20-X20-W20</f>
+        <f>AS20-Y20-X20-W20</f>
         <v>7307</v>
       </c>
-      <c r="AL20" s="10">
+      <c r="AB20" s="10"/>
+      <c r="AN20" s="10">
         <v>14236</v>
       </c>
-      <c r="AM20" s="10">
+      <c r="AO20" s="10">
         <v>16217</v>
       </c>
-      <c r="AN20" s="10">
+      <c r="AP20" s="10">
         <f>SUM(K20:N20)</f>
         <v>18752</v>
       </c>
-      <c r="AO20" s="10">
-        <f t="shared" ref="AO20:AO21" si="49">SUM(O20:R20)</f>
+      <c r="AQ20" s="10">
+        <f t="shared" ref="AQ20:AQ21" si="50">SUM(O20:R20)</f>
         <v>21914</v>
       </c>
-      <c r="AP20" s="10">
+      <c r="AR20" s="10">
         <v>26251</v>
       </c>
-      <c r="AQ20" s="2">
+      <c r="AS20" s="2">
         <v>29915</v>
       </c>
-      <c r="AR20" s="2">
-        <f t="shared" ref="AR20:BH20" si="50">+AQ20*1.03</f>
+      <c r="AT20" s="2">
+        <f t="shared" ref="AT20:BJ20" si="51">+AS20*1.03</f>
         <v>30812.45</v>
       </c>
-      <c r="AS20" s="2">
-        <f t="shared" si="50"/>
+      <c r="AU20" s="2">
+        <f t="shared" si="51"/>
         <v>31736.823500000002</v>
       </c>
-      <c r="AT20" s="2">
-        <f t="shared" si="50"/>
+      <c r="AV20" s="2">
+        <f t="shared" si="51"/>
         <v>32688.928205000004</v>
       </c>
-      <c r="AU20" s="2">
-        <f t="shared" si="50"/>
+      <c r="AW20" s="2">
+        <f t="shared" si="51"/>
         <v>33669.596051150002</v>
       </c>
-      <c r="AV20" s="2">
-        <f t="shared" si="50"/>
+      <c r="AX20" s="2">
+        <f t="shared" si="51"/>
         <v>34679.6839326845</v>
       </c>
-      <c r="AW20" s="2">
-        <f t="shared" si="50"/>
+      <c r="AY20" s="2">
+        <f t="shared" si="51"/>
         <v>35720.074450665037</v>
       </c>
-      <c r="AX20" s="2">
-        <f t="shared" si="50"/>
+      <c r="AZ20" s="2">
+        <f t="shared" si="51"/>
         <v>36791.676684184989</v>
       </c>
-      <c r="AY20" s="2">
-        <f t="shared" si="50"/>
+      <c r="BA20" s="2">
+        <f t="shared" si="51"/>
         <v>37895.426984710539</v>
       </c>
-      <c r="AZ20" s="2">
-        <f t="shared" si="50"/>
+      <c r="BB20" s="2">
+        <f t="shared" si="51"/>
         <v>39032.289794251854</v>
       </c>
-      <c r="BA20" s="2">
-        <f t="shared" si="50"/>
+      <c r="BC20" s="2">
+        <f t="shared" si="51"/>
         <v>40203.258488079409</v>
       </c>
-      <c r="BB20" s="2">
-        <f t="shared" si="50"/>
+      <c r="BD20" s="2">
+        <f t="shared" si="51"/>
         <v>41409.356242721791</v>
       </c>
-      <c r="BC20" s="2">
-        <f t="shared" si="50"/>
+      <c r="BE20" s="2">
+        <f t="shared" si="51"/>
         <v>42651.636930003449</v>
       </c>
-      <c r="BD20" s="2">
-        <f t="shared" si="50"/>
+      <c r="BF20" s="2">
+        <f t="shared" si="51"/>
         <v>43931.186037903557</v>
       </c>
-      <c r="BE20" s="2">
-        <f t="shared" si="50"/>
+      <c r="BG20" s="2">
+        <f t="shared" si="51"/>
         <v>45249.121619040663</v>
       </c>
-      <c r="BF20" s="2">
-        <f t="shared" si="50"/>
+      <c r="BH20" s="2">
+        <f t="shared" si="51"/>
         <v>46606.595267611883</v>
       </c>
-      <c r="BG20" s="2">
-        <f t="shared" si="50"/>
+      <c r="BI20" s="2">
+        <f t="shared" si="51"/>
         <v>48004.793125640244</v>
       </c>
-      <c r="BH20" s="2">
-        <f t="shared" si="50"/>
+      <c r="BJ20" s="2">
+        <f t="shared" si="51"/>
         <v>49444.936919409454</v>
       </c>
     </row>
-    <row r="21" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>101</v>
       </c>
@@ -3545,7 +3595,7 @@
         <v>6012</v>
       </c>
       <c r="V21" s="10">
-        <f>AP21-U21-T21-S21</f>
+        <f>AR21-U21-T21-S21</f>
         <v>6440</v>
       </c>
       <c r="W21" s="2">
@@ -3558,132 +3608,133 @@
         <v>5973</v>
       </c>
       <c r="Z21" s="10">
-        <f>AQ21-Y21-X21-W21</f>
+        <f>AS21-Y21-X21-W21</f>
         <v>6151</v>
       </c>
-      <c r="AL21" s="10">
+      <c r="AB21" s="10"/>
+      <c r="AN21" s="10">
         <v>16705</v>
       </c>
-      <c r="AM21" s="10">
+      <c r="AO21" s="10">
         <v>18245</v>
       </c>
-      <c r="AN21" s="10">
+      <c r="AP21" s="10">
         <f>SUM(K21:N21)</f>
         <v>19916</v>
       </c>
-      <c r="AO21" s="10">
-        <f t="shared" si="49"/>
+      <c r="AQ21" s="10">
+        <f t="shared" si="50"/>
         <v>21973</v>
       </c>
-      <c r="AP21" s="10">
+      <c r="AR21" s="10">
         <v>25094</v>
       </c>
-      <c r="AQ21" s="2">
+      <c r="AS21" s="2">
         <v>24932</v>
       </c>
-      <c r="AR21" s="2">
-        <f t="shared" ref="AR21:BH21" si="51">+AQ21*1.03</f>
+      <c r="AT21" s="2">
+        <f t="shared" ref="AT21:BJ21" si="52">+AS21*1.03</f>
         <v>25679.96</v>
       </c>
-      <c r="AS21" s="2">
-        <f t="shared" si="51"/>
+      <c r="AU21" s="2">
+        <f t="shared" si="52"/>
         <v>26450.358799999998</v>
       </c>
-      <c r="AT21" s="2">
-        <f t="shared" si="51"/>
+      <c r="AV21" s="2">
+        <f t="shared" si="52"/>
         <v>27243.869564000001</v>
       </c>
-      <c r="AU21" s="2">
-        <f t="shared" si="51"/>
+      <c r="AW21" s="2">
+        <f t="shared" si="52"/>
         <v>28061.185650920001</v>
       </c>
-      <c r="AV21" s="2">
-        <f t="shared" si="51"/>
+      <c r="AX21" s="2">
+        <f t="shared" si="52"/>
         <v>28903.021220447601</v>
       </c>
-      <c r="AW21" s="2">
-        <f t="shared" si="51"/>
+      <c r="AY21" s="2">
+        <f t="shared" si="52"/>
         <v>29770.111857061031</v>
       </c>
-      <c r="AX21" s="2">
-        <f t="shared" si="51"/>
+      <c r="AZ21" s="2">
+        <f t="shared" si="52"/>
         <v>30663.215212772862</v>
       </c>
-      <c r="AY21" s="2">
-        <f t="shared" si="51"/>
+      <c r="BA21" s="2">
+        <f t="shared" si="52"/>
         <v>31583.111669156049</v>
       </c>
-      <c r="AZ21" s="2">
-        <f t="shared" si="51"/>
+      <c r="BB21" s="2">
+        <f t="shared" si="52"/>
         <v>32530.60501923073</v>
       </c>
-      <c r="BA21" s="2">
-        <f t="shared" si="51"/>
+      <c r="BC21" s="2">
+        <f t="shared" si="52"/>
         <v>33506.523169807653</v>
       </c>
-      <c r="BB21" s="2">
-        <f t="shared" si="51"/>
+      <c r="BD21" s="2">
+        <f t="shared" si="52"/>
         <v>34511.718864901886</v>
       </c>
-      <c r="BC21" s="2">
-        <f t="shared" si="51"/>
+      <c r="BE21" s="2">
+        <f t="shared" si="52"/>
         <v>35547.070430848944</v>
       </c>
-      <c r="BD21" s="2">
-        <f t="shared" si="51"/>
+      <c r="BF21" s="2">
+        <f t="shared" si="52"/>
         <v>36613.482543774415</v>
       </c>
-      <c r="BE21" s="2">
-        <f t="shared" si="51"/>
+      <c r="BG21" s="2">
+        <f t="shared" si="52"/>
         <v>37711.887020087648</v>
       </c>
-      <c r="BF21" s="2">
-        <f t="shared" si="51"/>
+      <c r="BH21" s="2">
+        <f t="shared" si="52"/>
         <v>38843.243630690282</v>
       </c>
-      <c r="BG21" s="2">
-        <f t="shared" si="51"/>
+      <c r="BI21" s="2">
+        <f t="shared" si="52"/>
         <v>40008.54093961099</v>
       </c>
-      <c r="BH21" s="2">
-        <f t="shared" si="51"/>
+      <c r="BJ21" s="2">
+        <f t="shared" si="52"/>
         <v>41208.797167799319</v>
       </c>
     </row>
-    <row r="22" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22" si="52">+C20+C21</f>
+        <f t="shared" ref="C22" si="53">+C20+C21</f>
         <v>7638</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:F22" si="53">+D20+D21</f>
+        <f t="shared" ref="D22:F22" si="54">+D20+D21</f>
         <v>7528</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7809</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7966</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ref="K22:N22" si="54">+K20+K21</f>
+        <f t="shared" ref="K22:N22" si="55">+K20+K21</f>
         <v>9648</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9517</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9589</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9914</v>
       </c>
       <c r="O22" s="2">
@@ -3699,11 +3750,11 @@
         <v>11129</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22" si="55">+R20+R21</f>
+        <f t="shared" ref="R22" si="56">+R20+R21</f>
         <v>11388</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" ref="S22" si="56">+S20+S21</f>
+        <f t="shared" ref="S22" si="57">+S20+S21</f>
         <v>12755</v>
       </c>
       <c r="T22" s="2">
@@ -3711,156 +3762,156 @@
         <v>12580</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" ref="U22:Z22" si="57">+U20+U21</f>
+        <f t="shared" ref="U22:Z22" si="58">+U20+U21</f>
         <v>12809</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>13201</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>14316</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>13658</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>13415</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>13458</v>
       </c>
-      <c r="AL22" s="2">
-        <f t="shared" ref="AL22:AM22" si="58">+AL20+AL21</f>
+      <c r="AN22" s="2">
+        <f t="shared" ref="AN22:AO22" si="59">+AN20+AN21</f>
         <v>30941</v>
       </c>
-      <c r="AM22" s="2">
-        <f t="shared" si="58"/>
+      <c r="AO22" s="2">
+        <f t="shared" si="59"/>
         <v>34462</v>
-      </c>
-      <c r="AN22" s="2">
-        <f>+AN20+AN21</f>
-        <v>38668</v>
-      </c>
-      <c r="AO22" s="2">
-        <f>+AO20+AO21</f>
-        <v>43887</v>
       </c>
       <c r="AP22" s="2">
         <f>+AP20+AP21</f>
-        <v>51345</v>
+        <v>38668</v>
       </c>
       <c r="AQ22" s="2">
         <f>+AQ20+AQ21</f>
+        <v>43887</v>
+      </c>
+      <c r="AR22" s="2">
+        <f>+AR20+AR21</f>
+        <v>51345</v>
+      </c>
+      <c r="AS22" s="2">
+        <f>+AS20+AS21</f>
         <v>54847</v>
       </c>
-      <c r="AR22" s="2">
-        <f t="shared" ref="AR22:BH22" si="59">+AR20+AR21</f>
+      <c r="AT22" s="2">
+        <f t="shared" ref="AT22:BJ22" si="60">+AT20+AT21</f>
         <v>56492.41</v>
       </c>
-      <c r="AS22" s="2">
-        <f t="shared" si="59"/>
+      <c r="AU22" s="2">
+        <f t="shared" si="60"/>
         <v>58187.1823</v>
       </c>
-      <c r="AT22" s="2">
-        <f t="shared" si="59"/>
+      <c r="AV22" s="2">
+        <f t="shared" si="60"/>
         <v>59932.797769000004</v>
       </c>
-      <c r="AU22" s="2">
-        <f t="shared" si="59"/>
+      <c r="AW22" s="2">
+        <f t="shared" si="60"/>
         <v>61730.781702070002</v>
       </c>
-      <c r="AV22" s="2">
-        <f t="shared" si="59"/>
+      <c r="AX22" s="2">
+        <f t="shared" si="60"/>
         <v>63582.705153132105</v>
       </c>
-      <c r="AW22" s="2">
-        <f t="shared" si="59"/>
+      <c r="AY22" s="2">
+        <f t="shared" si="60"/>
         <v>65490.186307726064</v>
       </c>
-      <c r="AX22" s="2">
-        <f t="shared" si="59"/>
+      <c r="AZ22" s="2">
+        <f t="shared" si="60"/>
         <v>67454.891896957852</v>
       </c>
-      <c r="AY22" s="2">
-        <f t="shared" si="59"/>
+      <c r="BA22" s="2">
+        <f t="shared" si="60"/>
         <v>69478.538653866592</v>
       </c>
-      <c r="AZ22" s="2">
-        <f t="shared" si="59"/>
+      <c r="BB22" s="2">
+        <f t="shared" si="60"/>
         <v>71562.894813482591</v>
       </c>
-      <c r="BA22" s="2">
-        <f t="shared" si="59"/>
+      <c r="BC22" s="2">
+        <f t="shared" si="60"/>
         <v>73709.78165788707</v>
       </c>
-      <c r="BB22" s="2">
-        <f t="shared" si="59"/>
+      <c r="BD22" s="2">
+        <f t="shared" si="60"/>
         <v>75921.075107623677</v>
       </c>
-      <c r="BC22" s="2">
-        <f t="shared" si="59"/>
+      <c r="BE22" s="2">
+        <f t="shared" si="60"/>
         <v>78198.707360852393</v>
       </c>
-      <c r="BD22" s="2">
-        <f t="shared" si="59"/>
+      <c r="BF22" s="2">
+        <f t="shared" si="60"/>
         <v>80544.668581677979</v>
       </c>
-      <c r="BE22" s="2">
-        <f t="shared" si="59"/>
+      <c r="BG22" s="2">
+        <f t="shared" si="60"/>
         <v>82961.008639128311</v>
       </c>
-      <c r="BF22" s="2">
-        <f t="shared" si="59"/>
+      <c r="BH22" s="2">
+        <f t="shared" si="60"/>
         <v>85449.838898302172</v>
       </c>
-      <c r="BG22" s="2">
-        <f t="shared" si="59"/>
+      <c r="BI22" s="2">
+        <f t="shared" si="60"/>
         <v>88013.334065251227</v>
       </c>
-      <c r="BH22" s="2">
-        <f t="shared" si="59"/>
+      <c r="BJ22" s="2">
+        <f t="shared" si="60"/>
         <v>90653.734087208781</v>
       </c>
     </row>
-    <row r="23" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23" si="60">+C19-C22</f>
+        <f t="shared" ref="C23" si="61">+C19-C22</f>
         <v>26274</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:F23" si="61">+D19-D22</f>
+        <f t="shared" ref="D23:F23" si="62">+D19-D22</f>
         <v>15894</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>12612</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>16118</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:N23" si="62">+K19-K22</f>
+        <f t="shared" ref="K23:N23" si="63">+K19-K22</f>
         <v>25569</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>12853</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>13091</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>14775</v>
       </c>
       <c r="O23" s="2">
@@ -3876,11 +3927,11 @@
         <v>24126</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" ref="R23" si="63">+R19-R22</f>
+        <f t="shared" ref="R23" si="64">+R19-R22</f>
         <v>23786</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" ref="S23" si="64">+S19-S22</f>
+        <f t="shared" ref="S23" si="65">+S19-S22</f>
         <v>41488</v>
       </c>
       <c r="T23" s="2">
@@ -3888,123 +3939,123 @@
         <v>29979</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" ref="U23:Z23" si="65">+U19-U22</f>
+        <f t="shared" ref="U23:Z23" si="66">+U19-U22</f>
         <v>23076</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>24894</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>36016</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>28381</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>22998</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>26906</v>
       </c>
-      <c r="AL23" s="2">
-        <f t="shared" ref="AL23:AM23" si="66">+AL19-AL22</f>
+      <c r="AN23" s="2">
+        <f t="shared" ref="AN23:AO23" si="67">+AN19-AN22</f>
         <v>70898</v>
       </c>
-      <c r="AM23" s="2">
-        <f t="shared" si="66"/>
+      <c r="AO23" s="2">
+        <f t="shared" si="67"/>
         <v>63930</v>
-      </c>
-      <c r="AN23" s="2">
-        <f>+AN19-AN22</f>
-        <v>66288</v>
-      </c>
-      <c r="AO23" s="2">
-        <f>+AO19-AO22</f>
-        <v>108949</v>
       </c>
       <c r="AP23" s="2">
         <f>+AP19-AP22</f>
-        <v>119437</v>
+        <v>66288</v>
       </c>
       <c r="AQ23" s="2">
         <f>+AQ19-AQ22</f>
+        <v>108949</v>
+      </c>
+      <c r="AR23" s="2">
+        <f>+AR19-AR22</f>
+        <v>119437</v>
+      </c>
+      <c r="AS23" s="2">
+        <f>+AS19-AS22</f>
         <v>114301</v>
       </c>
-      <c r="AR23" s="2">
-        <f t="shared" ref="AR23:BH23" si="67">+AR19-AR22</f>
+      <c r="AT23" s="2">
+        <f t="shared" ref="AT23:BJ23" si="68">+AT19-AT22</f>
         <v>126974.73256400001</v>
       </c>
-      <c r="AS23" s="2">
-        <f t="shared" si="67"/>
+      <c r="AU23" s="2">
+        <f t="shared" si="68"/>
         <v>140848.22544000921</v>
       </c>
-      <c r="AT23" s="2">
-        <f t="shared" si="67"/>
+      <c r="AV23" s="2">
+        <f t="shared" si="68"/>
         <v>152385.72001855122</v>
       </c>
-      <c r="AU23" s="2">
-        <f t="shared" si="67"/>
+      <c r="AW23" s="2">
+        <f t="shared" si="68"/>
         <v>164922.05038239018</v>
       </c>
-      <c r="AV23" s="2">
-        <f t="shared" si="67"/>
+      <c r="AX23" s="2">
+        <f t="shared" si="68"/>
         <v>178548.86293412599</v>
       </c>
-      <c r="AW23" s="2">
-        <f t="shared" si="67"/>
+      <c r="AY23" s="2">
+        <f t="shared" si="68"/>
         <v>187892.52926249884</v>
       </c>
-      <c r="AX23" s="2">
-        <f t="shared" si="67"/>
+      <c r="AZ23" s="2">
+        <f t="shared" si="68"/>
         <v>197557.34401861989</v>
       </c>
-      <c r="AY23" s="2">
-        <f t="shared" si="67"/>
+      <c r="BA23" s="2">
+        <f t="shared" si="68"/>
         <v>207706.01476380441</v>
       </c>
-      <c r="AZ23" s="2">
-        <f t="shared" si="67"/>
+      <c r="BB23" s="2">
+        <f t="shared" si="68"/>
         <v>218362.54555880203</v>
       </c>
-      <c r="BA23" s="2">
-        <f t="shared" si="67"/>
+      <c r="BC23" s="2">
+        <f t="shared" si="68"/>
         <v>229552.13231661249</v>
       </c>
-      <c r="BB23" s="2">
-        <f t="shared" si="67"/>
+      <c r="BD23" s="2">
+        <f t="shared" si="68"/>
         <v>241301.2223751604</v>
       </c>
-      <c r="BC23" s="2">
-        <f t="shared" si="67"/>
+      <c r="BE23" s="2">
+        <f t="shared" si="68"/>
         <v>253425.32782675745</v>
       </c>
-      <c r="BD23" s="2">
-        <f t="shared" si="67"/>
+      <c r="BF23" s="2">
+        <f t="shared" si="68"/>
         <v>266142.49159465986</v>
       </c>
-      <c r="BE23" s="2">
-        <f t="shared" si="67"/>
+      <c r="BG23" s="2">
+        <f t="shared" si="68"/>
         <v>279481.37211204437</v>
       </c>
-      <c r="BF23" s="2">
-        <f t="shared" si="67"/>
+      <c r="BH23" s="2">
+        <f t="shared" si="68"/>
         <v>293472.00676160655</v>
       </c>
-      <c r="BG23" s="2">
-        <f t="shared" si="67"/>
+      <c r="BI23" s="2">
+        <f t="shared" si="68"/>
         <v>308145.8782329376</v>
       </c>
-      <c r="BH23" s="2">
-        <f t="shared" si="67"/>
+      <c r="BJ23" s="2">
+        <f t="shared" si="68"/>
         <v>323535.98408101092</v>
       </c>
     </row>
-    <row r="24" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
@@ -4055,7 +4106,7 @@
         <v>-10</v>
       </c>
       <c r="V24" s="10">
-        <f>AP24-U24-T24-S24</f>
+        <f>AR24-U24-T24-S24</f>
         <v>-237</v>
       </c>
       <c r="W24" s="2">
@@ -4068,64 +4119,65 @@
         <v>-265</v>
       </c>
       <c r="Z24" s="10">
-        <f>AQ24-Y24-X24-W24</f>
+        <f>AS24-Y24-X24-W24</f>
         <v>29</v>
       </c>
-      <c r="AL24" s="10">
+      <c r="AB24" s="10"/>
+      <c r="AN24" s="10">
         <v>2005</v>
       </c>
-      <c r="AM24" s="10">
+      <c r="AO24" s="10">
         <v>1807</v>
       </c>
-      <c r="AN24" s="10">
+      <c r="AP24" s="10">
         <f>SUM(K24:N24)</f>
         <v>803</v>
       </c>
-      <c r="AO24" s="10">
-        <f t="shared" ref="AO24" si="68">SUM(O24:R24)</f>
+      <c r="AQ24" s="10">
+        <f t="shared" ref="AQ24" si="69">SUM(O24:R24)</f>
         <v>258</v>
       </c>
-      <c r="AP24" s="10">
+      <c r="AR24" s="10">
         <v>-334</v>
       </c>
-      <c r="AQ24" s="2">
+      <c r="AS24" s="2">
         <v>-565</v>
       </c>
     </row>
-    <row r="25" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25" si="69">+C23+C24</f>
+        <f t="shared" ref="C25" si="70">+C23+C24</f>
         <v>27030</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:F25" si="70">+D23+D24</f>
+        <f t="shared" ref="D25:F25" si="71">+D23+D24</f>
         <v>16168</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>13284</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>16421</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ref="K25:N25" si="71">+K23+K24</f>
+        <f t="shared" ref="K25:N25" si="72">+K23+K24</f>
         <v>25918</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>13135</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>13137</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>14901</v>
       </c>
       <c r="O25" s="2">
@@ -4141,11 +4193,11 @@
         <v>24369</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" ref="R25" si="72">+R23+R24</f>
+        <f t="shared" ref="R25" si="73">+R23+R24</f>
         <v>23248</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" ref="S25" si="73">+S23+S24</f>
+        <f t="shared" ref="S25" si="74">+S23+S24</f>
         <v>41241</v>
       </c>
       <c r="T25" s="2">
@@ -4153,123 +4205,123 @@
         <v>30139</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" ref="U25:Z25" si="74">+U23+U24</f>
+        <f t="shared" ref="U25:Z25" si="75">+U23+U24</f>
         <v>23066</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>24657</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>35623</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>28445</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>22733</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>26935</v>
       </c>
-      <c r="AL25" s="2">
-        <f t="shared" ref="AL25:AM25" si="75">+AL23+AL24</f>
+      <c r="AN25" s="2">
+        <f t="shared" ref="AN25:AO25" si="76">+AN23+AN24</f>
         <v>72903</v>
       </c>
-      <c r="AM25" s="2">
-        <f t="shared" si="75"/>
+      <c r="AO25" s="2">
+        <f t="shared" si="76"/>
         <v>65737</v>
-      </c>
-      <c r="AN25" s="2">
-        <f>+AN23+AN24</f>
-        <v>67091</v>
-      </c>
-      <c r="AO25" s="2">
-        <f>+AO23+AO24</f>
-        <v>109207</v>
       </c>
       <c r="AP25" s="2">
         <f>+AP23+AP24</f>
-        <v>119103</v>
+        <v>67091</v>
       </c>
       <c r="AQ25" s="2">
         <f>+AQ23+AQ24</f>
+        <v>109207</v>
+      </c>
+      <c r="AR25" s="2">
+        <f>+AR23+AR24</f>
+        <v>119103</v>
+      </c>
+      <c r="AS25" s="2">
+        <f>+AS23+AS24</f>
         <v>113736</v>
       </c>
-      <c r="AR25" s="2">
-        <f t="shared" ref="AR25:BH25" si="76">+AR23+AR24</f>
+      <c r="AT25" s="2">
+        <f t="shared" ref="AT25:BJ25" si="77">+AT23+AT24</f>
         <v>126974.73256400001</v>
       </c>
-      <c r="AS25" s="2">
-        <f t="shared" si="76"/>
+      <c r="AU25" s="2">
+        <f t="shared" si="77"/>
         <v>140848.22544000921</v>
       </c>
-      <c r="AT25" s="2">
-        <f t="shared" si="76"/>
+      <c r="AV25" s="2">
+        <f t="shared" si="77"/>
         <v>152385.72001855122</v>
       </c>
-      <c r="AU25" s="2">
-        <f t="shared" si="76"/>
+      <c r="AW25" s="2">
+        <f t="shared" si="77"/>
         <v>164922.05038239018</v>
       </c>
-      <c r="AV25" s="2">
-        <f t="shared" si="76"/>
+      <c r="AX25" s="2">
+        <f t="shared" si="77"/>
         <v>178548.86293412599</v>
       </c>
-      <c r="AW25" s="2">
-        <f t="shared" si="76"/>
+      <c r="AY25" s="2">
+        <f t="shared" si="77"/>
         <v>187892.52926249884</v>
       </c>
-      <c r="AX25" s="2">
-        <f t="shared" si="76"/>
+      <c r="AZ25" s="2">
+        <f t="shared" si="77"/>
         <v>197557.34401861989</v>
       </c>
-      <c r="AY25" s="2">
-        <f t="shared" si="76"/>
+      <c r="BA25" s="2">
+        <f t="shared" si="77"/>
         <v>207706.01476380441</v>
       </c>
-      <c r="AZ25" s="2">
-        <f t="shared" si="76"/>
+      <c r="BB25" s="2">
+        <f t="shared" si="77"/>
         <v>218362.54555880203</v>
       </c>
-      <c r="BA25" s="2">
-        <f t="shared" si="76"/>
+      <c r="BC25" s="2">
+        <f t="shared" si="77"/>
         <v>229552.13231661249</v>
       </c>
-      <c r="BB25" s="2">
-        <f t="shared" si="76"/>
+      <c r="BD25" s="2">
+        <f t="shared" si="77"/>
         <v>241301.2223751604</v>
       </c>
-      <c r="BC25" s="2">
-        <f t="shared" si="76"/>
+      <c r="BE25" s="2">
+        <f t="shared" si="77"/>
         <v>253425.32782675745</v>
       </c>
-      <c r="BD25" s="2">
-        <f t="shared" si="76"/>
+      <c r="BF25" s="2">
+        <f t="shared" si="77"/>
         <v>266142.49159465986</v>
       </c>
-      <c r="BE25" s="2">
-        <f t="shared" si="76"/>
+      <c r="BG25" s="2">
+        <f t="shared" si="77"/>
         <v>279481.37211204437</v>
       </c>
-      <c r="BF25" s="2">
-        <f t="shared" si="76"/>
+      <c r="BH25" s="2">
+        <f t="shared" si="77"/>
         <v>293472.00676160655</v>
       </c>
-      <c r="BG25" s="2">
-        <f t="shared" si="76"/>
+      <c r="BI25" s="2">
+        <f t="shared" si="77"/>
         <v>308145.8782329376</v>
       </c>
-      <c r="BH25" s="2">
-        <f t="shared" si="76"/>
+      <c r="BJ25" s="2">
+        <f t="shared" si="77"/>
         <v>323535.98408101092</v>
       </c>
     </row>
-    <row r="26" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -4320,7 +4372,7 @@
         <v>3624</v>
       </c>
       <c r="V26" s="10">
-        <f>AP26-U26-T26-S26</f>
+        <f>AR26-U26-T26-S26</f>
         <v>3936</v>
       </c>
       <c r="W26" s="2">
@@ -4333,132 +4385,133 @@
         <v>2852</v>
       </c>
       <c r="Z26" s="10">
-        <f>AQ26-Y26-X26-W26</f>
+        <f>AS26-Y26-X26-W26</f>
         <v>4042</v>
       </c>
-      <c r="AL26" s="10">
+      <c r="AB26" s="10"/>
+      <c r="AN26" s="10">
         <v>13372</v>
       </c>
-      <c r="AM26" s="10">
+      <c r="AO26" s="10">
         <v>10481</v>
       </c>
-      <c r="AN26" s="10">
+      <c r="AP26" s="10">
         <f>SUM(K26:N26)</f>
         <v>9680</v>
       </c>
-      <c r="AO26" s="10">
-        <f t="shared" ref="AO26" si="77">SUM(O26:R26)</f>
+      <c r="AQ26" s="10">
+        <f t="shared" ref="AQ26" si="78">SUM(O26:R26)</f>
         <v>14527</v>
       </c>
-      <c r="AP26" s="10">
+      <c r="AR26" s="10">
         <v>19300</v>
       </c>
-      <c r="AQ26" s="2">
+      <c r="AS26" s="2">
         <v>16741</v>
       </c>
-      <c r="AR26" s="2">
-        <f t="shared" ref="AR26:BH26" si="78">+AR25*0.2</f>
+      <c r="AT26" s="2">
+        <f t="shared" ref="AT26:BJ26" si="79">+AT25*0.2</f>
         <v>25394.946512800001</v>
       </c>
-      <c r="AS26" s="2">
-        <f t="shared" si="78"/>
+      <c r="AU26" s="2">
+        <f t="shared" si="79"/>
         <v>28169.645088001842</v>
       </c>
-      <c r="AT26" s="2">
-        <f t="shared" si="78"/>
+      <c r="AV26" s="2">
+        <f t="shared" si="79"/>
         <v>30477.144003710244</v>
       </c>
-      <c r="AU26" s="2">
-        <f t="shared" si="78"/>
+      <c r="AW26" s="2">
+        <f t="shared" si="79"/>
         <v>32984.410076478038</v>
       </c>
-      <c r="AV26" s="2">
-        <f t="shared" si="78"/>
+      <c r="AX26" s="2">
+        <f t="shared" si="79"/>
         <v>35709.772586825202</v>
       </c>
-      <c r="AW26" s="2">
-        <f t="shared" si="78"/>
+      <c r="AY26" s="2">
+        <f t="shared" si="79"/>
         <v>37578.505852499766</v>
       </c>
-      <c r="AX26" s="2">
-        <f t="shared" si="78"/>
+      <c r="AZ26" s="2">
+        <f t="shared" si="79"/>
         <v>39511.468803723983</v>
       </c>
-      <c r="AY26" s="2">
-        <f t="shared" si="78"/>
+      <c r="BA26" s="2">
+        <f t="shared" si="79"/>
         <v>41541.202952760883</v>
       </c>
-      <c r="AZ26" s="2">
-        <f t="shared" si="78"/>
+      <c r="BB26" s="2">
+        <f t="shared" si="79"/>
         <v>43672.50911176041</v>
       </c>
-      <c r="BA26" s="2">
-        <f t="shared" si="78"/>
+      <c r="BC26" s="2">
+        <f t="shared" si="79"/>
         <v>45910.426463322503</v>
       </c>
-      <c r="BB26" s="2">
-        <f t="shared" si="78"/>
+      <c r="BD26" s="2">
+        <f t="shared" si="79"/>
         <v>48260.244475032086</v>
       </c>
-      <c r="BC26" s="2">
-        <f t="shared" si="78"/>
+      <c r="BE26" s="2">
+        <f t="shared" si="79"/>
         <v>50685.065565351491</v>
       </c>
-      <c r="BD26" s="2">
-        <f t="shared" si="78"/>
+      <c r="BF26" s="2">
+        <f t="shared" si="79"/>
         <v>53228.498318931976</v>
       </c>
-      <c r="BE26" s="2">
-        <f t="shared" si="78"/>
+      <c r="BG26" s="2">
+        <f t="shared" si="79"/>
         <v>55896.274422408875</v>
       </c>
-      <c r="BF26" s="2">
-        <f t="shared" si="78"/>
+      <c r="BH26" s="2">
+        <f t="shared" si="79"/>
         <v>58694.401352321314</v>
       </c>
-      <c r="BG26" s="2">
-        <f t="shared" si="78"/>
+      <c r="BI26" s="2">
+        <f t="shared" si="79"/>
         <v>61629.175646587522</v>
       </c>
-      <c r="BH26" s="2">
-        <f t="shared" si="78"/>
+      <c r="BJ26" s="2">
+        <f t="shared" si="79"/>
         <v>64707.196816202188</v>
       </c>
     </row>
-    <row r="27" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27" si="79">+C25-C26</f>
+        <f t="shared" ref="C27" si="80">+C25-C26</f>
         <v>20065</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:F27" si="80">+D25-D26</f>
+        <f t="shared" ref="D27:F27" si="81">+D25-D26</f>
         <v>13822</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>11519</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>14125</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ref="K27:N27" si="81">+K25-K26</f>
+        <f t="shared" ref="K27:N27" si="82">+K25-K26</f>
         <v>22236</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>11249</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>11253</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>12673</v>
       </c>
       <c r="O27" s="2">
@@ -4474,11 +4527,11 @@
         <v>21744</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27" si="82">+R25-R26</f>
+        <f t="shared" ref="R27" si="83">+R25-R26</f>
         <v>20551</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" ref="S27" si="83">+S25-S26</f>
+        <f t="shared" ref="S27" si="84">+S25-S26</f>
         <v>34630</v>
       </c>
       <c r="T27" s="2">
@@ -4486,140 +4539,140 @@
         <v>25010</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" ref="U27:Z27" si="84">+U25-U26</f>
+        <f t="shared" ref="U27:Z27" si="85">+U25-U26</f>
         <v>19442</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>20721</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>29998</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>24223</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>19881</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>22893</v>
       </c>
-      <c r="AL27" s="2">
-        <f t="shared" ref="AL27:AM27" si="85">+AL25-AL26</f>
+      <c r="AN27" s="2">
+        <f t="shared" ref="AN27:AO27" si="86">+AN25-AN26</f>
         <v>59531</v>
       </c>
-      <c r="AM27" s="2">
-        <f t="shared" si="85"/>
+      <c r="AO27" s="2">
+        <f t="shared" si="86"/>
         <v>55256</v>
-      </c>
-      <c r="AN27" s="2">
-        <f>+AN25-AN26</f>
-        <v>57411</v>
-      </c>
-      <c r="AO27" s="2">
-        <f>+AO25-AO26</f>
-        <v>94680</v>
       </c>
       <c r="AP27" s="2">
         <f>+AP25-AP26</f>
-        <v>99803</v>
+        <v>57411</v>
       </c>
       <c r="AQ27" s="2">
         <f>+AQ25-AQ26</f>
+        <v>94680</v>
+      </c>
+      <c r="AR27" s="2">
+        <f>+AR25-AR26</f>
+        <v>99803</v>
+      </c>
+      <c r="AS27" s="2">
+        <f>+AS25-AS26</f>
         <v>96995</v>
       </c>
-      <c r="AR27" s="2">
-        <f t="shared" ref="AR27:BH27" si="86">+AR25-AR26</f>
+      <c r="AT27" s="2">
+        <f t="shared" ref="AT27:BJ27" si="87">+AT25-AT26</f>
         <v>101579.7860512</v>
       </c>
-      <c r="AS27" s="2">
-        <f t="shared" si="86"/>
+      <c r="AU27" s="2">
+        <f t="shared" si="87"/>
         <v>112678.58035200737</v>
       </c>
-      <c r="AT27" s="2">
-        <f t="shared" si="86"/>
+      <c r="AV27" s="2">
+        <f t="shared" si="87"/>
         <v>121908.57601484098</v>
       </c>
-      <c r="AU27" s="2">
-        <f t="shared" si="86"/>
+      <c r="AW27" s="2">
+        <f t="shared" si="87"/>
         <v>131937.64030591215</v>
       </c>
-      <c r="AV27" s="2">
-        <f t="shared" si="86"/>
+      <c r="AX27" s="2">
+        <f t="shared" si="87"/>
         <v>142839.09034730081</v>
       </c>
-      <c r="AW27" s="2">
-        <f t="shared" si="86"/>
+      <c r="AY27" s="2">
+        <f t="shared" si="87"/>
         <v>150314.02340999906</v>
       </c>
-      <c r="AX27" s="2">
-        <f t="shared" si="86"/>
+      <c r="AZ27" s="2">
+        <f t="shared" si="87"/>
         <v>158045.8752148959</v>
       </c>
-      <c r="AY27" s="2">
-        <f t="shared" si="86"/>
+      <c r="BA27" s="2">
+        <f t="shared" si="87"/>
         <v>166164.81181104353</v>
       </c>
-      <c r="AZ27" s="2">
-        <f t="shared" si="86"/>
+      <c r="BB27" s="2">
+        <f t="shared" si="87"/>
         <v>174690.03644704161</v>
       </c>
-      <c r="BA27" s="2">
-        <f t="shared" si="86"/>
+      <c r="BC27" s="2">
+        <f t="shared" si="87"/>
         <v>183641.70585328998</v>
       </c>
-      <c r="BB27" s="2">
-        <f t="shared" si="86"/>
+      <c r="BD27" s="2">
+        <f t="shared" si="87"/>
         <v>193040.97790012832</v>
       </c>
-      <c r="BC27" s="2">
-        <f t="shared" si="86"/>
+      <c r="BE27" s="2">
+        <f t="shared" si="87"/>
         <v>202740.26226140597</v>
       </c>
-      <c r="BD27" s="2">
-        <f t="shared" si="86"/>
+      <c r="BF27" s="2">
+        <f t="shared" si="87"/>
         <v>212913.9932757279</v>
       </c>
-      <c r="BE27" s="2">
-        <f t="shared" si="86"/>
+      <c r="BG27" s="2">
+        <f t="shared" si="87"/>
         <v>223585.0976896355</v>
       </c>
-      <c r="BF27" s="2">
-        <f t="shared" si="86"/>
+      <c r="BH27" s="2">
+        <f t="shared" si="87"/>
         <v>234777.60540928523</v>
       </c>
-      <c r="BG27" s="2">
-        <f t="shared" si="86"/>
+      <c r="BI27" s="2">
+        <f t="shared" si="87"/>
         <v>246516.70258635009</v>
       </c>
-      <c r="BH27" s="2">
-        <f t="shared" si="86"/>
+      <c r="BJ27" s="2">
+        <f t="shared" si="87"/>
         <v>258828.78726480872</v>
       </c>
     </row>
-    <row r="28" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:62" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" ref="C28" si="87">+C27/C29</f>
+        <f t="shared" ref="C28" si="88">+C27/C29</f>
         <v>0.97255857987156114</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" ref="D28:F28" si="88">+D27/D29</f>
+        <f t="shared" ref="D28:F28" si="89">+D27/D29</f>
         <v>0.68176083107937602</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.58452984598534197</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.70623460408563088</v>
       </c>
       <c r="G28" s="14"/>
@@ -4627,19 +4680,19 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14">
-        <f t="shared" ref="K28:N28" si="89">+K27/K29</f>
+        <f t="shared" ref="K28:N28" si="90">+K27/K29</f>
         <v>1.2479223042091785</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.63846699811252383</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.64601300384622584</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.73438904632051849</v>
       </c>
       <c r="O28" s="14">
@@ -4655,11 +4708,11 @@
         <v>1.2956943963183782</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28" si="90">+R27/R29</f>
+        <f t="shared" ref="R28" si="91">+R27/R29</f>
         <v>1.2354000701047909</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" ref="S28" si="91">+S27/S29</f>
+        <f t="shared" ref="S28" si="92">+S27/S29</f>
         <v>2.0963369432743812</v>
       </c>
       <c r="T28" s="14">
@@ -4667,123 +4720,124 @@
         <v>1.5246917147727936</v>
       </c>
       <c r="U28" s="14">
-        <f t="shared" ref="U28:Z28" si="92">+U27/U29</f>
+        <f t="shared" ref="U28:Z28" si="93">+U27/U29</f>
         <v>1.1955329791418789</v>
       </c>
       <c r="V28" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.3215730910090044</v>
       </c>
       <c r="W28" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.8875305383476451</v>
       </c>
       <c r="X28" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.5343487496226362</v>
       </c>
       <c r="Y28" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.2664982079442137</v>
       </c>
       <c r="Z28" s="14">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.4675533399194707</v>
       </c>
-      <c r="AL28" s="14">
-        <f t="shared" ref="AL28:AM28" si="93">+AL27/AL29</f>
+      <c r="AB28" s="14"/>
+      <c r="AN28" s="14">
+        <f t="shared" ref="AN28:AO28" si="94">+AN27/AN29</f>
         <v>2.9764851126245446</v>
       </c>
-      <c r="AM28" s="14">
-        <f t="shared" si="93"/>
+      <c r="AO28" s="14">
+        <f t="shared" si="94"/>
         <v>2.9714474637107351</v>
-      </c>
-      <c r="AN28" s="14">
-        <f>+AN27/AN29</f>
-        <v>3.2753479151477172</v>
-      </c>
-      <c r="AO28" s="14">
-        <f>+AO27/AO29</f>
-        <v>5.6140203576723327</v>
       </c>
       <c r="AP28" s="14">
         <f>+AP27/AP29</f>
-        <v>6.1546144376377772</v>
+        <v>3.2753479151477172</v>
       </c>
       <c r="AQ28" s="14">
         <f>+AQ27/AQ29</f>
+        <v>5.6140203576723327</v>
+      </c>
+      <c r="AR28" s="14">
+        <f>+AR27/AR29</f>
+        <v>6.1546144376377772</v>
+      </c>
+      <c r="AS28" s="14">
+        <f>+AS27/AS29</f>
         <v>6.1606692635543778</v>
       </c>
-      <c r="AR28" s="14">
-        <f t="shared" ref="AR28:BH28" si="94">+AR27/AR29</f>
+      <c r="AT28" s="14">
+        <f t="shared" ref="AT28:BJ28" si="95">+AT27/AT29</f>
         <v>6.4518734545497969</v>
       </c>
-      <c r="AS28" s="14">
-        <f t="shared" si="94"/>
+      <c r="AU28" s="14">
+        <f t="shared" si="95"/>
         <v>7.1568170177385841</v>
       </c>
-      <c r="AT28" s="14">
-        <f t="shared" si="94"/>
+      <c r="AV28" s="14">
+        <f t="shared" si="95"/>
         <v>7.7430632220043636</v>
       </c>
-      <c r="AU28" s="14">
-        <f t="shared" si="94"/>
+      <c r="AW28" s="14">
+        <f t="shared" si="95"/>
         <v>8.3800625324864804</v>
       </c>
-      <c r="AV28" s="14">
-        <f t="shared" si="94"/>
+      <c r="AX28" s="14">
+        <f t="shared" si="95"/>
         <v>9.072471710260146</v>
       </c>
-      <c r="AW28" s="14">
-        <f t="shared" si="94"/>
+      <c r="AY28" s="14">
+        <f t="shared" si="95"/>
         <v>9.5472445373800134</v>
       </c>
-      <c r="AX28" s="14">
-        <f t="shared" si="94"/>
+      <c r="AZ28" s="14">
+        <f t="shared" si="95"/>
         <v>10.038335642744057</v>
       </c>
-      <c r="AY28" s="14">
-        <f t="shared" si="94"/>
+      <c r="BA28" s="14">
+        <f t="shared" si="95"/>
         <v>10.55401256568476</v>
       </c>
-      <c r="AZ28" s="14">
-        <f t="shared" si="94"/>
+      <c r="BB28" s="14">
+        <f t="shared" si="95"/>
         <v>11.095495006840386</v>
       </c>
-      <c r="BA28" s="14">
-        <f t="shared" si="94"/>
+      <c r="BC28" s="14">
+        <f t="shared" si="95"/>
         <v>11.664063227558715</v>
       </c>
-      <c r="BB28" s="14">
-        <f t="shared" si="94"/>
+      <c r="BD28" s="14">
+        <f t="shared" si="95"/>
         <v>12.261061076919432</v>
       </c>
-      <c r="BC28" s="14">
-        <f t="shared" si="94"/>
+      <c r="BE28" s="14">
+        <f t="shared" si="95"/>
         <v>12.877114306910638</v>
       </c>
-      <c r="BD28" s="14">
-        <f t="shared" si="94"/>
+      <c r="BF28" s="14">
+        <f t="shared" si="95"/>
         <v>13.523302171806797</v>
       </c>
-      <c r="BE28" s="14">
-        <f t="shared" si="94"/>
+      <c r="BG28" s="14">
+        <f t="shared" si="95"/>
         <v>14.20108087144018</v>
       </c>
-      <c r="BF28" s="14">
-        <f t="shared" si="94"/>
+      <c r="BH28" s="14">
+        <f t="shared" si="95"/>
         <v>14.911976673188118</v>
       </c>
-      <c r="BG28" s="14">
-        <f t="shared" si="94"/>
+      <c r="BI28" s="14">
+        <f t="shared" si="95"/>
         <v>15.65758928374146</v>
       </c>
-      <c r="BH28" s="14">
-        <f t="shared" si="94"/>
+      <c r="BJ28" s="14">
+        <f t="shared" si="95"/>
         <v>16.439595383528655</v>
       </c>
     </row>
-    <row r="29" spans="2:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
@@ -4837,7 +4891,7 @@
         <v>16262.203</v>
       </c>
       <c r="V29" s="2">
-        <f>AP29*4-U29-T29-S29</f>
+        <f>AR29*4-U29-T29-S29</f>
         <v>15679.041999999998</v>
       </c>
       <c r="W29" s="2">
@@ -4850,105 +4904,105 @@
         <v>15697.614</v>
       </c>
       <c r="Z29" s="2">
-        <f>AQ29*4-Y29-X29-W29</f>
+        <f>AS29*4-Y29-X29-W29</f>
         <v>15599.432999999995</v>
       </c>
-      <c r="AL29" s="2">
+      <c r="AN29" s="2">
         <f>5000.109*4</f>
         <v>20000.436000000002</v>
       </c>
-      <c r="AM29" s="2">
+      <c r="AO29" s="2">
         <v>18595.651000000002</v>
       </c>
-      <c r="AN29" s="2">
+      <c r="AP29" s="2">
         <f>AVERAGE(K29:N29)</f>
         <v>17528.214249999997</v>
       </c>
-      <c r="AO29" s="2">
+      <c r="AQ29" s="2">
         <f>AVERAGE(O29:R29)</f>
         <v>16864.919249999999</v>
       </c>
-      <c r="AP29" s="2">
+      <c r="AR29" s="2">
         <v>16215.963</v>
       </c>
-      <c r="AQ29" s="2">
+      <c r="AS29" s="2">
         <v>15744.231</v>
       </c>
-      <c r="AR29" s="2">
-        <f t="shared" ref="AR29:BH29" si="95">+AQ29</f>
+      <c r="AT29" s="2">
+        <f t="shared" ref="AT29:BJ29" si="96">+AS29</f>
         <v>15744.231</v>
       </c>
-      <c r="AS29" s="2">
-        <f t="shared" si="95"/>
+      <c r="AU29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="AT29" s="2">
-        <f t="shared" si="95"/>
+      <c r="AV29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="AU29" s="2">
-        <f t="shared" si="95"/>
+      <c r="AW29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="AV29" s="2">
-        <f t="shared" si="95"/>
+      <c r="AX29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="AW29" s="2">
-        <f t="shared" si="95"/>
+      <c r="AY29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="AX29" s="2">
-        <f t="shared" si="95"/>
+      <c r="AZ29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="AY29" s="2">
-        <f t="shared" si="95"/>
+      <c r="BA29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="AZ29" s="2">
-        <f t="shared" si="95"/>
+      <c r="BB29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="BA29" s="2">
-        <f t="shared" si="95"/>
+      <c r="BC29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="BB29" s="2">
-        <f t="shared" si="95"/>
+      <c r="BD29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="BC29" s="2">
-        <f t="shared" si="95"/>
+      <c r="BE29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="BD29" s="2">
-        <f t="shared" si="95"/>
+      <c r="BF29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="BE29" s="2">
-        <f t="shared" si="95"/>
+      <c r="BG29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="BF29" s="2">
-        <f t="shared" si="95"/>
+      <c r="BH29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="BG29" s="2">
-        <f t="shared" si="95"/>
+      <c r="BI29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
-      <c r="BH29" s="2">
-        <f t="shared" si="95"/>
+      <c r="BJ29" s="2">
+        <f t="shared" si="96"/>
         <v>15744.231</v>
       </c>
     </row>
-    <row r="31" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:62" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
@@ -4960,15 +5014,15 @@
         <v>0.21368126422635836</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" ref="P32" si="96">P15/L15-1</f>
+        <f t="shared" ref="P32" si="97">P15/L15-1</f>
         <v>0.53626121105070901</v>
       </c>
       <c r="Q32" s="15">
-        <f t="shared" ref="Q32" si="97">Q15/M15-1</f>
+        <f t="shared" ref="Q32" si="98">Q15/M15-1</f>
         <v>0.36439641450950822</v>
       </c>
       <c r="R32" s="15">
-        <f t="shared" ref="R32" si="98">R15/N15-1</f>
+        <f t="shared" ref="R32" si="99">R15/N15-1</f>
         <v>0.28844786546724777</v>
       </c>
       <c r="S32" s="15">
@@ -4984,131 +5038,132 @@
         <v>1.8726821720657316E-2</v>
       </c>
       <c r="V32" s="15">
-        <f t="shared" ref="V32:Z32" si="99">V15/R15-1</f>
+        <f t="shared" ref="V32:Z32" si="100">V15/R15-1</f>
         <v>8.1405950095969182E-2</v>
       </c>
       <c r="W32" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>-5.4790431239662762E-2</v>
       </c>
       <c r="X32" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>-2.4455683710602583E-2</v>
       </c>
       <c r="Y32" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>-1.4006919080509661E-2</v>
       </c>
       <c r="Z32" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>-7.8872052004526072E-3</v>
       </c>
-      <c r="AI32" s="15">
-        <f t="shared" ref="AI32:AL32" si="100">+AI15/AH15-1</f>
+      <c r="AB32" s="15"/>
+      <c r="AK32" s="15">
+        <f t="shared" ref="AK32:AN32" si="101">+AK15/AJ15-1</f>
         <v>0.27856341803659834</v>
       </c>
-      <c r="AJ32" s="15">
-        <f t="shared" si="100"/>
+      <c r="AL32" s="15">
+        <f t="shared" si="101"/>
         <v>-7.7342061913013738E-2</v>
       </c>
-      <c r="AK32" s="15">
-        <f t="shared" si="100"/>
+      <c r="AM32" s="15">
+        <f t="shared" si="101"/>
         <v>6.304518199398057E-2</v>
       </c>
-      <c r="AL32" s="15">
-        <f t="shared" si="100"/>
+      <c r="AN32" s="15">
+        <f t="shared" si="101"/>
         <v>0.15861957650261305</v>
       </c>
-      <c r="AM32" s="15">
-        <f>+AM15/AL15-1</f>
+      <c r="AO32" s="15">
+        <f>+AO15/AN15-1</f>
         <v>-2.04107758052674E-2</v>
       </c>
-      <c r="AN32" s="15">
-        <f>+AN15/AM15-1</f>
+      <c r="AP32" s="15">
+        <f>+AP15/AO15-1</f>
         <v>5.5120803769784787E-2</v>
       </c>
-      <c r="AO32" s="15">
-        <f t="shared" ref="AO32:BH32" si="101">+AO15/AN15-1</f>
+      <c r="AQ32" s="15">
+        <f t="shared" ref="AQ32:BJ32" si="102">+AQ15/AP15-1</f>
         <v>0.33259384733074704</v>
       </c>
-      <c r="AP32" s="15">
-        <f t="shared" si="101"/>
+      <c r="AR32" s="15">
+        <f t="shared" si="102"/>
         <v>7.7937876041846099E-2</v>
       </c>
-      <c r="AQ32" s="15">
-        <f t="shared" si="101"/>
+      <c r="AS32" s="15">
+        <f t="shared" si="102"/>
         <v>-2.800460530319937E-2</v>
       </c>
-      <c r="AR32" s="15">
-        <f t="shared" si="101"/>
+      <c r="AT32" s="15">
+        <f t="shared" si="102"/>
         <v>6.6906570567593304E-2</v>
       </c>
-      <c r="AS32" s="15">
-        <f t="shared" si="101"/>
+      <c r="AU32" s="15">
+        <f t="shared" si="102"/>
         <v>6.8813685112699474E-2</v>
       </c>
-      <c r="AT32" s="15">
-        <f t="shared" si="101"/>
+      <c r="AV32" s="15">
+        <f t="shared" si="102"/>
         <v>5.7924089182223915E-2</v>
       </c>
-      <c r="AU32" s="15">
-        <f t="shared" si="101"/>
+      <c r="AW32" s="15">
+        <f t="shared" si="102"/>
         <v>5.8563139506884854E-2</v>
       </c>
-      <c r="AV32" s="15">
-        <f t="shared" si="101"/>
+      <c r="AX32" s="15">
+        <f t="shared" si="102"/>
         <v>5.9215392282128798E-2</v>
       </c>
-      <c r="AW32" s="15">
-        <f t="shared" si="101"/>
+      <c r="AY32" s="15">
+        <f t="shared" si="102"/>
         <v>4.541671706077377E-2</v>
       </c>
-      <c r="AX32" s="15">
-        <f t="shared" si="101"/>
+      <c r="AZ32" s="15">
+        <f t="shared" si="102"/>
         <v>4.4671867687218203E-2</v>
       </c>
-      <c r="AY32" s="15">
-        <f t="shared" si="101"/>
+      <c r="BA32" s="15">
+        <f t="shared" si="102"/>
         <v>4.4709951053400809E-2</v>
       </c>
-      <c r="AZ32" s="15">
-        <f t="shared" si="101"/>
+      <c r="BB32" s="15">
+        <f t="shared" si="102"/>
         <v>4.4748289364149096E-2</v>
       </c>
-      <c r="BA32" s="15">
-        <f t="shared" si="101"/>
+      <c r="BC32" s="15">
+        <f t="shared" si="102"/>
         <v>4.4786882728338195E-2</v>
       </c>
-      <c r="BB32" s="15">
-        <f t="shared" si="101"/>
+      <c r="BD32" s="15">
+        <f t="shared" si="102"/>
         <v>4.4825731217930764E-2</v>
       </c>
-      <c r="BC32" s="15">
-        <f t="shared" si="101"/>
+      <c r="BE32" s="15">
+        <f t="shared" si="102"/>
         <v>4.3990878847100179E-2</v>
       </c>
-      <c r="BD32" s="15">
-        <f t="shared" si="101"/>
+      <c r="BF32" s="15">
+        <f t="shared" si="102"/>
         <v>4.4012570086041647E-2</v>
       </c>
-      <c r="BE32" s="15">
-        <f t="shared" si="101"/>
+      <c r="BG32" s="15">
+        <f t="shared" si="102"/>
         <v>4.4034306881106433E-2</v>
       </c>
-      <c r="BF32" s="15">
-        <f t="shared" si="101"/>
+      <c r="BH32" s="15">
+        <f t="shared" si="102"/>
         <v>4.4056088422805173E-2</v>
       </c>
-      <c r="BG32" s="15">
-        <f t="shared" si="101"/>
+      <c r="BI32" s="15">
+        <f t="shared" si="102"/>
         <v>4.4077913894385201E-2</v>
       </c>
-      <c r="BH32" s="15">
-        <f t="shared" si="101"/>
+      <c r="BJ32" s="15">
+        <f t="shared" si="102"/>
         <v>4.4099782471941573E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:62" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
         <v>20</v>
       </c>
@@ -5116,152 +5171,153 @@
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15">
-        <f t="shared" ref="O33:U33" si="102">+O5/K5-1</f>
+        <f t="shared" ref="O33:U33" si="103">+O5/K5-1</f>
         <v>0.1722751398395197</v>
       </c>
       <c r="P33" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.65520336993301576</v>
       </c>
       <c r="Q33" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.49784238019532134</v>
       </c>
       <c r="R33" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0.46982302223566785</v>
       </c>
       <c r="S33" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>9.1940180191167231E-2</v>
       </c>
       <c r="T33" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>5.4904251324627618E-2</v>
       </c>
       <c r="U33" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>2.7672479150871787E-2</v>
       </c>
       <c r="V33" s="15">
-        <f t="shared" ref="V33" si="103">+V5/R5-1</f>
+        <f t="shared" ref="V33" si="104">+V5/R5-1</f>
         <v>9.6686220026757308E-2</v>
       </c>
       <c r="W33" s="15">
-        <f t="shared" ref="W33" si="104">+W5/S5-1</f>
+        <f t="shared" ref="W33" si="105">+W5/S5-1</f>
         <v>-8.1713854917071505E-2</v>
       </c>
       <c r="X33" s="15">
-        <f t="shared" ref="X33" si="105">+X5/T5-1</f>
+        <f t="shared" ref="X33" si="106">+X5/T5-1</f>
         <v>1.510777140597197E-2</v>
       </c>
       <c r="Y33" s="15">
-        <f t="shared" ref="Y33" si="106">+Y5/U5-1</f>
+        <f t="shared" ref="Y33" si="107">+Y5/U5-1</f>
         <v>-2.4492807082257428E-2</v>
       </c>
       <c r="Z33" s="15">
-        <f t="shared" ref="Z33" si="107">+Z5/V5-1</f>
+        <f t="shared" ref="Z33" si="108">+Z5/V5-1</f>
         <v>2.7659175151315996E-2</v>
       </c>
-      <c r="AJ33" s="15"/>
-      <c r="AK33" s="15">
-        <f t="shared" ref="AK33:AP33" si="108">+AK5/AJ5-1</f>
+      <c r="AB33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15">
+        <f t="shared" ref="AM33:AR33" si="109">+AM5/AL5-1</f>
         <v>3.3789319678127372E-2</v>
       </c>
-      <c r="AL33" s="15">
-        <f t="shared" si="108"/>
+      <c r="AN33" s="15">
+        <f t="shared" si="109"/>
         <v>0.16677870633106662</v>
       </c>
-      <c r="AM33" s="15">
-        <f t="shared" si="108"/>
+      <c r="AO33" s="15">
+        <f t="shared" si="109"/>
         <v>-0.13649871427878313</v>
       </c>
-      <c r="AN33" s="15">
-        <f t="shared" si="108"/>
+      <c r="AP33" s="15">
+        <f t="shared" si="109"/>
         <v>-3.2307681502447672E-2</v>
       </c>
-      <c r="AO33" s="15">
-        <f t="shared" si="108"/>
+      <c r="AQ33" s="15">
+        <f t="shared" si="109"/>
         <v>0.39331983364905176</v>
-      </c>
-      <c r="AP33" s="15">
-        <f t="shared" si="108"/>
-        <v>7.0405734139696641E-2</v>
-      </c>
-      <c r="AQ33" s="15">
-        <f t="shared" ref="AQ33:BH33" si="109">+AQ5/AP5-1</f>
-        <v>-2.3874757286278081E-2</v>
       </c>
       <c r="AR33" s="15">
         <f t="shared" si="109"/>
+        <v>7.0405734139696641E-2</v>
+      </c>
+      <c r="AS33" s="15">
+        <f t="shared" ref="AS33:BJ33" si="110">+AS5/AR5-1</f>
+        <v>-2.3874757286278081E-2</v>
+      </c>
+      <c r="AT33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AS33" s="15">
-        <f t="shared" si="109"/>
+      <c r="AU33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AT33" s="15">
-        <f t="shared" si="109"/>
+      <c r="AV33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AU33" s="15">
-        <f t="shared" si="109"/>
+      <c r="AW33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AV33" s="15">
-        <f t="shared" si="109"/>
+      <c r="AX33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AW33" s="15">
-        <f t="shared" si="109"/>
+      <c r="AY33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000225E-2</v>
       </c>
-      <c r="AX33" s="15">
-        <f t="shared" si="109"/>
+      <c r="AZ33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AY33" s="15">
-        <f t="shared" si="109"/>
+      <c r="BA33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AZ33" s="15">
-        <f t="shared" si="109"/>
+      <c r="BB33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="BA33" s="15">
-        <f t="shared" si="109"/>
+      <c r="BC33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="BB33" s="15">
-        <f t="shared" si="109"/>
+      <c r="BD33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="BC33" s="15">
-        <f t="shared" si="109"/>
+      <c r="BE33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="BD33" s="15">
-        <f t="shared" si="109"/>
+      <c r="BF33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="BE33" s="15">
-        <f t="shared" si="109"/>
+      <c r="BG33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="BF33" s="15">
-        <f t="shared" si="109"/>
+      <c r="BH33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="BG33" s="15">
-        <f t="shared" si="109"/>
+      <c r="BI33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000225E-2</v>
       </c>
-      <c r="BH33" s="15">
-        <f t="shared" si="109"/>
+      <c r="BJ33" s="15">
+        <f t="shared" si="110"/>
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:60" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:62" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
         <v>40</v>
       </c>
@@ -5273,83 +5329,78 @@
         <v>0.23955957530475813</v>
       </c>
       <c r="P34" s="15">
-        <f t="shared" ref="P34:U34" si="110">+P14/L14-1</f>
+        <f t="shared" ref="P34:U34" si="111">+P14/L14-1</f>
         <v>0.26618219958046141</v>
       </c>
       <c r="Q34" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.32912739434478566</v>
       </c>
       <c r="R34" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.25623754209911342</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.23824630416851722</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.17277084196201398</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.12112547180601618</v>
       </c>
       <c r="V34" s="15">
-        <f t="shared" ref="V34" si="111">+V14/R14-1</f>
+        <f t="shared" ref="V34" si="112">+V14/R14-1</f>
         <v>4.984406631285232E-2</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" ref="W34" si="112">+W14/S14-1</f>
+        <f t="shared" ref="W34" si="113">+W14/S14-1</f>
         <v>6.4050010248001721E-2</v>
       </c>
       <c r="X34" s="15">
-        <f t="shared" ref="X34" si="113">+X14/T14-1</f>
+        <f t="shared" ref="X34" si="114">+X14/T14-1</f>
         <v>5.7968820947480015E-2</v>
       </c>
       <c r="Y34" s="15">
-        <f t="shared" ref="Y34" si="114">+Y14/U14-1</f>
+        <f t="shared" ref="Y34" si="115">+Y14/U14-1</f>
         <v>8.2075086716996593E-2</v>
       </c>
       <c r="Z34" s="15">
-        <f t="shared" ref="Z34" si="115">+Z14/V14-1</f>
+        <f t="shared" ref="Z34" si="116">+Z14/V14-1</f>
         <v>0.15963101938711688</v>
       </c>
-      <c r="AM34" s="15">
-        <f>+AM14/AL14-1</f>
+      <c r="AB34" s="15"/>
+      <c r="AO34" s="15">
+        <f>+AO14/AN14-1</f>
         <v>0.16461205595250084</v>
       </c>
-      <c r="AN34" s="15">
-        <f t="shared" ref="AN34:AQ34" si="116">+AN14/AM14-1</f>
+      <c r="AP34" s="15">
+        <f t="shared" ref="AP34:AS34" si="117">+AP14/AO14-1</f>
         <v>0.16152167807997242</v>
       </c>
-      <c r="AO34" s="15">
-        <f t="shared" si="116"/>
+      <c r="AQ34" s="15">
+        <f t="shared" si="117"/>
         <v>0.27259708376729663</v>
       </c>
-      <c r="AP34" s="15">
-        <f t="shared" si="116"/>
+      <c r="AR34" s="15">
+        <f t="shared" si="117"/>
         <v>0.14181951041286078</v>
       </c>
-      <c r="AQ34" s="15">
-        <f t="shared" si="116"/>
+      <c r="AS34" s="15">
+        <f t="shared" si="117"/>
         <v>9.0504166186691215E-2</v>
       </c>
-      <c r="AR34" s="15">
+      <c r="AT34" s="15">
         <v>0.08</v>
       </c>
-      <c r="AS34" s="15">
+      <c r="AU34" s="15">
         <v>0.05</v>
       </c>
-      <c r="AT34" s="15">
+      <c r="AV34" s="15">
         <v>0.03</v>
-      </c>
-      <c r="AU34" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="AV34" s="15">
-        <v>0.02</v>
       </c>
       <c r="AW34" s="15">
         <v>0.02</v>
@@ -5387,47 +5438,53 @@
       <c r="BH34" s="15">
         <v>0.02</v>
       </c>
+      <c r="BI34" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="BJ34" s="15">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="35" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6">
-        <f t="shared" ref="E35" si="117">+E19/E15</f>
+        <f t="shared" ref="E35" si="118">+E19/E15</f>
         <v>0.38338496198254013</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" ref="K35" si="118">+K19/K15</f>
+        <f t="shared" ref="K35" si="119">+K19/K15</f>
         <v>0.38354806739345887</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" ref="L35:N35" si="119">+L19/L15</f>
+        <f t="shared" ref="L35:N35" si="120">+L19/L15</f>
         <v>0.38361943305952362</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.37999497361146017</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.38160375900336951</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" ref="O35:Q35" si="120">+O19/O15</f>
+        <f t="shared" ref="O35:Q35" si="121">+O19/O15</f>
         <v>0.39777815665969724</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.42506474370423292</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.43292727853230839</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" ref="R35" si="121">+R19/R15</f>
+        <f t="shared" ref="R35" si="122">+R19/R15</f>
         <v>0.42195297504798462</v>
       </c>
       <c r="S35" s="6">
@@ -5443,119 +5500,120 @@
         <v>0.43256307332537758</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" ref="V35:Z35" si="122">+V19/V15</f>
+        <f t="shared" ref="V35:Z35" si="123">+V19/V15</f>
         <v>0.4225922392563175</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.42962254809908323</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.4429867543388234</v>
       </c>
       <c r="Y35" s="6">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.44516302553883397</v>
       </c>
       <c r="Z35" s="6">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0.45132218929949125</v>
       </c>
-      <c r="AL35" s="6">
-        <f t="shared" ref="AL35:AP35" si="123">+AL19/AL15</f>
+      <c r="AB35" s="6"/>
+      <c r="AN35" s="6">
+        <f t="shared" ref="AN35:AR35" si="124">+AN19/AN15</f>
         <v>0.38343718820007905</v>
       </c>
-      <c r="AM35" s="6">
-        <f t="shared" si="123"/>
+      <c r="AO35" s="6">
+        <f t="shared" si="124"/>
         <v>0.37817768109034722</v>
       </c>
-      <c r="AN35" s="6">
-        <f t="shared" si="123"/>
+      <c r="AP35" s="6">
+        <f t="shared" si="124"/>
         <v>0.38233247727810865</v>
       </c>
-      <c r="AO35" s="6">
-        <f t="shared" si="123"/>
+      <c r="AQ35" s="6">
+        <f t="shared" si="124"/>
         <v>0.41779359625167778</v>
-      </c>
-      <c r="AP35" s="6">
-        <f t="shared" si="123"/>
-        <v>0.43309630561360085</v>
-      </c>
-      <c r="AQ35" s="6">
-        <f t="shared" ref="AQ35:BH35" si="124">+AQ19/AQ15</f>
-        <v>0.44131129577207562</v>
       </c>
       <c r="AR35" s="6">
         <f t="shared" si="124"/>
+        <v>0.43309630561360085</v>
+      </c>
+      <c r="AS35" s="6">
+        <f t="shared" ref="AS35:BJ35" si="125">+AS19/AS15</f>
+        <v>0.44131129577207562</v>
+      </c>
+      <c r="AT35" s="6">
+        <f t="shared" si="125"/>
         <v>0.44865249161322657</v>
       </c>
-      <c r="AS35" s="6">
-        <f t="shared" si="124"/>
+      <c r="AU35" s="6">
+        <f t="shared" si="125"/>
         <v>0.45538647079023931</v>
       </c>
-      <c r="AT35" s="6">
-        <f t="shared" si="124"/>
+      <c r="AV35" s="6">
+        <f t="shared" si="125"/>
         <v>0.45918019538658061</v>
       </c>
-      <c r="AU35" s="6">
-        <f t="shared" si="124"/>
+      <c r="AW35" s="6">
+        <f t="shared" si="125"/>
         <v>0.46306254851841938</v>
       </c>
-      <c r="AV35" s="6">
-        <f t="shared" si="124"/>
+      <c r="AX35" s="6">
+        <f t="shared" si="125"/>
         <v>0.4670309251511186</v>
       </c>
-      <c r="AW35" s="6">
-        <f t="shared" si="124"/>
+      <c r="AY35" s="6">
+        <f t="shared" si="125"/>
         <v>0.46750016675134271</v>
       </c>
-      <c r="AX35" s="6">
-        <f t="shared" si="124"/>
+      <c r="AZ35" s="6">
+        <f t="shared" si="125"/>
         <v>0.46804844906832077</v>
       </c>
-      <c r="AY35" s="6">
-        <f t="shared" si="124"/>
+      <c r="BA35" s="6">
+        <f t="shared" si="125"/>
         <v>0.46859556894939325</v>
       </c>
-      <c r="AZ35" s="6">
-        <f t="shared" si="124"/>
+      <c r="BB35" s="6">
+        <f t="shared" si="125"/>
         <v>0.46914145403029139</v>
       </c>
-      <c r="BA35" s="6">
-        <f t="shared" si="124"/>
+      <c r="BC35" s="6">
+        <f t="shared" si="125"/>
         <v>0.46968603131056308</v>
       </c>
-      <c r="BB35" s="6">
-        <f t="shared" si="124"/>
+      <c r="BD35" s="6">
+        <f t="shared" si="125"/>
         <v>0.47022922716675397</v>
       </c>
-      <c r="BC35" s="6">
-        <f t="shared" si="124"/>
+      <c r="BE35" s="6">
+        <f t="shared" si="125"/>
         <v>0.47086369705921816</v>
       </c>
-      <c r="BD35" s="6">
-        <f t="shared" si="124"/>
+      <c r="BF35" s="6">
+        <f t="shared" si="125"/>
         <v>0.47149950225463799</v>
       </c>
-      <c r="BE35" s="6">
-        <f t="shared" si="124"/>
+      <c r="BG35" s="6">
+        <f t="shared" si="125"/>
         <v>0.47213661907060511</v>
       </c>
-      <c r="BF35" s="6">
-        <f t="shared" si="124"/>
+      <c r="BH35" s="6">
+        <f t="shared" si="125"/>
         <v>0.47277502361200113</v>
       </c>
-      <c r="BG35" s="6">
-        <f t="shared" si="124"/>
+      <c r="BI35" s="6">
+        <f t="shared" si="125"/>
         <v>0.47341469177421891</v>
       </c>
-      <c r="BH35" s="6">
-        <f t="shared" si="124"/>
+      <c r="BJ35" s="6">
+        <f t="shared" si="125"/>
         <v>0.47405559924645424</v>
       </c>
     </row>
-    <row r="36" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
@@ -5569,94 +5627,89 @@
         <v>0.64396382225717652</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" ref="L36:U36" si="125">(L14-L17)/L14</f>
+        <f t="shared" ref="L36:U36" si="126">(L14-L17)/L14</f>
         <v>0.65373089601438417</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.67224080267558528</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.66925561894288266</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.6839667533785927</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.70072776758771671</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.69804414960539862</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.704765552333534</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.72366263578602175</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.72609858231168967</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.71490512140379514</v>
       </c>
       <c r="V36" s="6">
-        <f t="shared" ref="V36:Z36" si="126">(V14-V17)/V14</f>
+        <f t="shared" ref="V36:Z36" si="127">(V14-V17)/V14</f>
         <v>0.70481550969355844</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.70832129442357705</v>
       </c>
       <c r="X36" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.71077730090605629</v>
       </c>
       <c r="Y36" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.70546363079243857</v>
       </c>
       <c r="Z36" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.70855242461012991</v>
       </c>
-      <c r="AL36" s="6">
-        <f t="shared" ref="AL36:AP36" si="127">(AL14-AL17)/AL14</f>
+      <c r="AB36" s="6"/>
+      <c r="AN36" s="6">
+        <f t="shared" ref="AN36:AR36" si="128">(AN14-AN17)/AN14</f>
         <v>0.60772869075173597</v>
       </c>
-      <c r="AM36" s="6">
-        <f t="shared" si="127"/>
+      <c r="AO36" s="6">
+        <f t="shared" si="128"/>
         <v>0.63738091637683347</v>
       </c>
-      <c r="AN36" s="6">
-        <f t="shared" si="127"/>
+      <c r="AP36" s="6">
+        <f t="shared" si="128"/>
         <v>0.66015101919357233</v>
       </c>
-      <c r="AO36" s="6">
-        <f t="shared" si="127"/>
+      <c r="AQ36" s="6">
+        <f t="shared" si="128"/>
         <v>0.69725977347460721</v>
       </c>
-      <c r="AP36" s="6">
-        <f t="shared" si="127"/>
+      <c r="AR36" s="6">
+        <f t="shared" si="128"/>
         <v>0.71745446633132381</v>
       </c>
-      <c r="AQ36" s="6">
-        <f t="shared" ref="AQ36" si="128">(AQ14-AQ17)/AQ14</f>
+      <c r="AS36" s="6">
+        <f t="shared" ref="AS36" si="129">(AS14-AS17)/AS14</f>
         <v>0.70827464788732397</v>
-      </c>
-      <c r="AR36" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="AS36" s="6">
-        <v>0.65</v>
       </c>
       <c r="AT36" s="6">
         <v>0.65</v>
@@ -5703,8 +5756,14 @@
       <c r="BH36" s="6">
         <v>0.65</v>
       </c>
+      <c r="BI36" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="BJ36" s="6">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="37" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
@@ -5718,126 +5777,127 @@
         <v>0.3416894215210356</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" ref="L37:U37" si="129">(L13-L16)/L13</f>
+        <f t="shared" ref="L37:U37" si="130">(L13-L16)/L13</f>
         <v>0.30343600578227509</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.29736293494379851</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.2981515085046561</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.35063441961579467</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.3609647372838215</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.36043347720022517</v>
       </c>
       <c r="R37" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.34253184395310604</v>
       </c>
       <c r="S37" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.38418446983117716</v>
       </c>
       <c r="T37" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.36364692668190091</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.34519769552521506</v>
       </c>
       <c r="V37" s="6">
-        <f t="shared" ref="V37:Z37" si="130">(V13-V16)/V13</f>
+        <f t="shared" ref="V37:Z37" si="131">(V13-V16)/V13</f>
         <v>0.34627526142224979</v>
       </c>
       <c r="W37" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.36957920073038136</v>
       </c>
       <c r="X37" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.36702782399329087</v>
       </c>
       <c r="Y37" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.35402086359434837</v>
       </c>
       <c r="Z37" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.36612884020004766</v>
       </c>
-      <c r="AL37" s="6">
-        <f t="shared" ref="AL37:AP37" si="131">(AL13-AL16)/AL13</f>
+      <c r="AB37" s="6"/>
+      <c r="AN37" s="6">
+        <f t="shared" ref="AN37:AR37" si="132">(AN13-AN16)/AN13</f>
         <v>0.34396294836770025</v>
       </c>
-      <c r="AM37" s="6">
-        <f t="shared" si="131"/>
+      <c r="AO37" s="6">
+        <f t="shared" si="132"/>
         <v>0.32207795851002652</v>
       </c>
-      <c r="AN37" s="6">
-        <f t="shared" si="131"/>
+      <c r="AP37" s="6">
+        <f t="shared" si="132"/>
         <v>0.31466339293399231</v>
       </c>
-      <c r="AO37" s="6">
-        <f t="shared" si="131"/>
+      <c r="AQ37" s="6">
+        <f t="shared" si="132"/>
         <v>0.35349303276483562</v>
       </c>
-      <c r="AP37" s="6">
-        <f t="shared" si="131"/>
+      <c r="AR37" s="6">
+        <f t="shared" si="132"/>
         <v>0.36283479707399452</v>
       </c>
     </row>
-    <row r="38" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6">
-        <f t="shared" ref="E38" si="132">+E23/E15</f>
+        <f t="shared" ref="E38" si="133">+E23/E15</f>
         <v>0.23677837228949591</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" ref="K38" si="133">+K23/K15</f>
+        <f t="shared" ref="K38" si="134">+K23/K15</f>
         <v>0.2784717759940753</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" ref="L38:N38" si="134">+L23/L15</f>
+        <f t="shared" ref="L38:N38" si="135">+L23/L15</f>
         <v>0.22041397287054346</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0.21933484124989527</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0.2283687285542057</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" ref="O38:Q38" si="135">+O23/O15</f>
+        <f t="shared" ref="O38:Q38" si="136">+O23/O15</f>
         <v>0.30091799100853384</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.30700794784782998</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.29626445956234498</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" ref="R38" si="136">+R23/R15</f>
+        <f t="shared" ref="R38" si="137">+R23/R15</f>
         <v>0.28534069097888676</v>
       </c>
       <c r="S38" s="6">
@@ -5852,29 +5912,49 @@
         <f>+U23/U15</f>
         <v>0.27816150146457891</v>
       </c>
-      <c r="V38" s="6"/>
-      <c r="AL38" s="6">
-        <f t="shared" ref="AL38:AP38" si="137">+AL23/AL15</f>
+      <c r="V38" s="6">
+        <f t="shared" ref="V38:Z38" si="138">+V23/V15</f>
+        <v>0.27615202005635303</v>
+      </c>
+      <c r="W38" s="6">
+        <f t="shared" si="138"/>
+        <v>0.30742441572630896</v>
+      </c>
+      <c r="X38" s="6">
+        <f t="shared" si="138"/>
+        <v>0.29906532207926323</v>
+      </c>
+      <c r="Y38" s="6">
+        <f t="shared" si="138"/>
+        <v>0.28115945572576012</v>
+      </c>
+      <c r="Z38" s="6">
+        <f t="shared" si="138"/>
+        <v>0.30084418851679989</v>
+      </c>
+      <c r="AB38" s="6"/>
+      <c r="AN38" s="6">
+        <f t="shared" ref="AN38:AR38" si="139">+AN23/AN15</f>
         <v>0.26694026619477024</v>
       </c>
-      <c r="AM38" s="6">
-        <f t="shared" si="137"/>
+      <c r="AO38" s="6">
+        <f t="shared" si="139"/>
         <v>0.24572017188496928</v>
       </c>
-      <c r="AN38" s="6">
-        <f t="shared" si="137"/>
+      <c r="AP38" s="6">
+        <f t="shared" si="139"/>
         <v>0.24147314354406862</v>
       </c>
-      <c r="AO38" s="6">
-        <f t="shared" si="137"/>
+      <c r="AQ38" s="6">
+        <f t="shared" si="139"/>
         <v>0.29782377527561593</v>
       </c>
-      <c r="AP38" s="6">
-        <f t="shared" si="137"/>
+      <c r="AR38" s="6">
+        <f t="shared" si="139"/>
         <v>0.30288744395528594</v>
       </c>
     </row>
-    <row r="39" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
@@ -5889,65 +5969,89 @@
         <v>0.14206343082027933</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" ref="L39:U39" si="138">L26/L25</f>
+        <f t="shared" ref="L39:U39" si="140">L26/L25</f>
         <v>0.14358583936048724</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.14341173783968944</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.14952016643178309</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.14366121683194855</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.1564028417407447</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.10771882309491568</v>
       </c>
       <c r="R39" s="6">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.11600997935306263</v>
       </c>
       <c r="S39" s="6">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.16030164157028201</v>
       </c>
       <c r="T39" s="6">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.17017817445834302</v>
       </c>
       <c r="U39" s="6">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.15711436746726784</v>
       </c>
-      <c r="V39" s="6"/>
-      <c r="AL39" s="6">
-        <f t="shared" ref="AL39:AP39" si="139">AL26/AL25</f>
+      <c r="V39" s="6">
+        <f t="shared" ref="V39:Z39" si="141">V26/V25</f>
+        <v>0.15963012531938192</v>
+      </c>
+      <c r="W39" s="6">
+        <f t="shared" si="141"/>
+        <v>0.15790360160570419</v>
+      </c>
+      <c r="X39" s="6">
+        <f t="shared" si="141"/>
+        <v>0.14842678853928634</v>
+      </c>
+      <c r="Y39" s="6">
+        <f t="shared" si="141"/>
+        <v>0.12545638499098227</v>
+      </c>
+      <c r="Z39" s="6">
+        <f t="shared" si="141"/>
+        <v>0.15006497122702803</v>
+      </c>
+      <c r="AB39" s="6"/>
+      <c r="AN39" s="6">
+        <f t="shared" ref="AN39:AS39" si="142">AN26/AN25</f>
         <v>0.18342180705869443</v>
       </c>
-      <c r="AM39" s="6">
-        <f t="shared" si="139"/>
+      <c r="AO39" s="6">
+        <f t="shared" si="142"/>
         <v>0.15943836804235059</v>
       </c>
-      <c r="AN39" s="6">
-        <f t="shared" si="139"/>
+      <c r="AP39" s="6">
+        <f t="shared" si="142"/>
         <v>0.14428164731484103</v>
       </c>
-      <c r="AO39" s="6">
-        <f t="shared" si="139"/>
+      <c r="AQ39" s="6">
+        <f t="shared" si="142"/>
         <v>0.13302260844085087</v>
       </c>
-      <c r="AP39" s="6">
-        <f t="shared" si="139"/>
+      <c r="AR39" s="6">
+        <f t="shared" si="142"/>
         <v>0.16204461684424407</v>
+      </c>
+      <c r="AS39" s="6">
+        <f t="shared" si="142"/>
+        <v>0.14719174228036858</v>
       </c>
     </row>
   </sheetData>
@@ -5965,7 +6069,7 @@
   <dimension ref="N2:P14"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5982,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>170.03</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="14:16" x14ac:dyDescent="0.2">
@@ -6002,7 +6106,7 @@
       </c>
       <c r="O4" s="2">
         <f>+O2*O3</f>
-        <v>2732509.9625599999</v>
+        <v>2940947.6159999999</v>
       </c>
     </row>
     <row r="5" spans="14:16" x14ac:dyDescent="0.2">
@@ -6035,7 +6139,7 @@
       </c>
       <c r="O7" s="2">
         <f>+O4-O5+O6</f>
-        <v>2683469.9625599999</v>
+        <v>2891907.6159999999</v>
       </c>
     </row>
     <row r="10" spans="14:16" x14ac:dyDescent="0.2">
@@ -6059,7 +6163,7 @@
         <v>57</v>
       </c>
       <c r="O12" s="2">
-        <f>NPV(O10,Model!AQ27:FP27)+Main!O5-Main!O6</f>
+        <f>NPV(O10,Model!AS27:FR27)+Main!O5-Main!O6</f>
         <v>1494799.5871310632</v>
       </c>
     </row>
@@ -6078,7 +6182,7 @@
       </c>
       <c r="O14" s="6">
         <f>O13/Main!O2-1</f>
-        <v>-0.45295731484520052</v>
+        <v>-0.49172859149251058</v>
       </c>
     </row>
   </sheetData>
@@ -6088,23 +6192,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D54FC72-5FC6-1E48-8D7F-2ECB98C2F88B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9486331-DCF6-4481-8B8C-1043A371AB76}">
   <dimension ref="A1:M6"/>
   <sheetViews>
